--- a/AZN.xlsx
+++ b/AZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ffda80931a57275/Models Backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1535" documentId="8_{BC85837C-CA42-4681-AA00-2D9500534D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12140A0D-9E94-4111-A3A8-880D2DFD1D49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F757036-3BBA-44F9-B2E4-8F9263C9C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="4170" windowWidth="27720" windowHeight="16485" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51390" yWindow="0" windowWidth="22995" windowHeight="20580" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="32" r:id="rId1"/>
@@ -2658,7 +2658,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2958,10 +2958,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3814,7 +3812,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="131" t="s">
         <v>417</v>
       </c>
       <c r="C19" s="7"/>
@@ -3858,7 +3856,7 @@
       <c r="B23" s="126" t="s">
         <v>578</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="127" t="s">
         <v>577</v>
       </c>
     </row>
@@ -3871,7 +3869,7 @@
       <c r="B25" s="126" t="s">
         <v>584</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="127" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3894,10 +3892,10 @@
       <c r="B29" s="126" t="s">
         <v>608</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="127" t="s">
         <v>609</v>
       </c>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="127" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3920,7 +3918,7 @@
       <c r="B33" s="126" t="s">
         <v>596</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="127" t="s">
         <v>597</v>
       </c>
     </row>
@@ -3978,10 +3976,10 @@
       <c r="B44" s="126" t="s">
         <v>599</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="127" t="s">
         <v>598</v>
       </c>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="127" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3989,7 +3987,7 @@
       <c r="B45" s="126" t="s">
         <v>595</v>
       </c>
-      <c r="C45" s="130" t="s">
+      <c r="C45" s="127" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5594,7 +5592,7 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5707,7 +5705,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="130" t="s">
         <v>610</v>
       </c>
       <c r="C5" s="125" t="s">
@@ -5807,7 +5805,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="131"/>
+      <c r="K8" s="129"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="13" t="s">
@@ -5830,10 +5828,10 @@
       </c>
       <c r="H9" s="8"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="131"/>
+      <c r="K9" s="129"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="130" t="s">
         <v>600</v>
       </c>
       <c r="C10" s="125" t="s">
@@ -5849,10 +5847,10 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="131"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>532</v>
       </c>
       <c r="C11" s="7"/>
@@ -5861,10 +5859,10 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="131"/>
+      <c r="K11" s="129"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="130" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7"/>
@@ -5873,10 +5871,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="131"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="130" t="s">
         <v>539</v>
       </c>
       <c r="C13" s="7"/>
@@ -5885,10 +5883,10 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="131"/>
+      <c r="K13" s="129"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7"/>
@@ -5897,7 +5895,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="131"/>
+      <c r="K14" s="129"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="13" t="s">
@@ -5917,7 +5915,7 @@
       </c>
       <c r="H15" s="31"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="131"/>
+      <c r="K15" s="129"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="13" t="s">
@@ -6155,11 +6153,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GG128"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CC3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BW31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ6" sqref="CJ6"/>
+      <selection pane="bottomRight" activeCell="CK70" sqref="CK70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6783,8 +6781,7 @@
         <v>1400</v>
       </c>
       <c r="CK3" s="81">
-        <f>+CG3*1.05</f>
-        <v>1309.3500000000001</v>
+        <v>1398</v>
       </c>
       <c r="CL3" s="81">
         <f t="shared" ref="CL3:CP3" si="1">+CH3*1.05</f>
@@ -6800,7 +6797,7 @@
       </c>
       <c r="CO3" s="81">
         <f t="shared" si="1"/>
-        <v>1374.8175000000001</v>
+        <v>1467.9</v>
       </c>
       <c r="CP3" s="81">
         <f t="shared" si="1"/>
@@ -6955,8 +6952,7 @@
         <v>1103</v>
       </c>
       <c r="CK4" s="81">
-        <f>+CG4*1.3</f>
-        <v>1034.8</v>
+        <v>1101</v>
       </c>
       <c r="CL4" s="81">
         <f t="shared" ref="CL4:CP4" si="2">+CH4*1.3</f>
@@ -6972,7 +6968,7 @@
       </c>
       <c r="CO4" s="81">
         <f t="shared" si="2"/>
-        <v>1345.24</v>
+        <v>1431.3</v>
       </c>
       <c r="CP4" s="81">
         <f t="shared" si="2"/>
@@ -7127,8 +7123,7 @@
         <v>1027</v>
       </c>
       <c r="CK5" s="81">
-        <f>+CG5*0.9</f>
-        <v>718.2</v>
+        <v>901</v>
       </c>
       <c r="CL5" s="81">
         <f t="shared" ref="CL5:CP5" si="3">+CH5*0.9</f>
@@ -7144,7 +7139,7 @@
       </c>
       <c r="CO5" s="81">
         <f t="shared" si="3"/>
-        <v>646.38000000000011</v>
+        <v>810.9</v>
       </c>
       <c r="CP5" s="81">
         <f t="shared" si="3"/>
@@ -7299,28 +7294,27 @@
         <v>695</v>
       </c>
       <c r="CK6" s="81">
-        <f>+CJ6+5</f>
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="CL6" s="81">
         <f t="shared" ref="CL6:CP6" si="4">+CK6+5</f>
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="CM6" s="81">
         <f t="shared" si="4"/>
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="CN6" s="81">
         <f t="shared" si="4"/>
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="CO6" s="81">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="CP6" s="81">
         <f t="shared" si="4"/>
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="CQ6" s="75"/>
       <c r="CR6" s="75"/>
@@ -7570,8 +7564,7 @@
         <v>614</v>
       </c>
       <c r="CK7" s="78">
-        <f>+CG7*0.9</f>
-        <v>608.4</v>
+        <v>630</v>
       </c>
       <c r="CL7" s="78">
         <f t="shared" ref="CL7:CP7" si="5">+CH7*0.9</f>
@@ -7587,7 +7580,7 @@
       </c>
       <c r="CO7" s="78">
         <f t="shared" si="5"/>
-        <v>547.55999999999995</v>
+        <v>567</v>
       </c>
       <c r="CP7" s="78">
         <f t="shared" si="5"/>
@@ -7811,28 +7804,27 @@
         <v>673</v>
       </c>
       <c r="CK8" s="81">
-        <f>+CJ8+15</f>
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="CL8" s="81">
         <f t="shared" ref="CL8:CP8" si="7">+CK8+15</f>
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="CM8" s="81">
         <f t="shared" si="7"/>
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="CN8" s="81">
         <f t="shared" si="7"/>
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="CO8" s="81">
         <f t="shared" si="7"/>
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="CP8" s="81">
         <f t="shared" si="7"/>
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="CQ8" s="75"/>
       <c r="CR8" s="75"/>
@@ -7983,28 +7975,27 @@
         <v>451</v>
       </c>
       <c r="CK9" s="81">
-        <f t="shared" ref="CK9:CM10" si="8">+CJ9-100</f>
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="CL9" s="81">
-        <f t="shared" si="8"/>
-        <v>251</v>
+        <f t="shared" ref="CK9:CM10" si="8">+CK9-100</f>
+        <v>73</v>
       </c>
       <c r="CM9" s="81">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>-27</v>
       </c>
       <c r="CN9" s="81">
         <f>+CM9*0.5</f>
-        <v>75.5</v>
+        <v>-13.5</v>
       </c>
       <c r="CO9" s="81">
         <f>+CN9*0.5</f>
-        <v>37.75</v>
+        <v>-6.75</v>
       </c>
       <c r="CP9" s="81">
         <f t="shared" ref="CP9" si="9">+CO9*0.5</f>
-        <v>18.875</v>
+        <v>-3.375</v>
       </c>
       <c r="CQ9" s="75"/>
       <c r="CR9" s="75"/>
@@ -8155,28 +8146,27 @@
         <v>445</v>
       </c>
       <c r="CK10" s="81">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>537</v>
       </c>
       <c r="CL10" s="81">
         <f t="shared" si="8"/>
-        <v>245</v>
+        <v>437</v>
       </c>
       <c r="CM10" s="81">
         <f t="shared" si="8"/>
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="CN10" s="81">
         <f>+CM10*0.5</f>
-        <v>72.5</v>
+        <v>168.5</v>
       </c>
       <c r="CO10" s="81">
         <f>+CN10*0.5</f>
-        <v>36.25</v>
+        <v>84.25</v>
       </c>
       <c r="CP10" s="81">
         <f t="shared" ref="CP10" si="10">+CO10*0.5</f>
-        <v>18.125</v>
+        <v>42.125</v>
       </c>
       <c r="CQ10" s="75"/>
       <c r="CR10" s="75"/>
@@ -8327,28 +8317,27 @@
         <v>434</v>
       </c>
       <c r="CK11" s="81">
-        <f>+CJ11+5</f>
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="CL11" s="81">
         <f t="shared" ref="CL11:CP11" si="11">+CK11+5</f>
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="CM11" s="81">
         <f t="shared" si="11"/>
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="CN11" s="81">
         <f t="shared" si="11"/>
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="CO11" s="81">
         <f t="shared" si="11"/>
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="CP11" s="81">
         <f t="shared" si="11"/>
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="CQ11" s="75"/>
       <c r="CR11" s="75"/>
@@ -8499,8 +8488,7 @@
         <v>489</v>
       </c>
       <c r="CK12" s="81">
-        <f>+CG12*1.2</f>
-        <v>424.8</v>
+        <v>566</v>
       </c>
       <c r="CL12" s="81">
         <f t="shared" ref="CL12:CP12" si="12">+CH12*1.2</f>
@@ -8516,7 +8504,7 @@
       </c>
       <c r="CO12" s="81">
         <f t="shared" si="12"/>
-        <v>509.76</v>
+        <v>679.19999999999993</v>
       </c>
       <c r="CP12" s="81">
         <f t="shared" si="12"/>
@@ -8771,8 +8759,7 @@
         <v>343</v>
       </c>
       <c r="CK13" s="78">
-        <f>+CG13*0.8</f>
-        <v>207.20000000000002</v>
+        <v>311</v>
       </c>
       <c r="CL13" s="78">
         <f t="shared" ref="CL13:CP13" si="13">+CH13*0.8</f>
@@ -8788,7 +8775,7 @@
       </c>
       <c r="CO13" s="78">
         <f t="shared" si="13"/>
-        <v>165.76000000000002</v>
+        <v>248.8</v>
       </c>
       <c r="CP13" s="78">
         <f t="shared" si="13"/>
@@ -9029,8 +9016,7 @@
         <v>350</v>
       </c>
       <c r="CK14" s="78">
-        <f>+CG14*0.95</f>
-        <v>356.25</v>
+        <v>338</v>
       </c>
       <c r="CL14" s="78">
         <f t="shared" ref="CL14:CP14" si="15">+CH14*0.95</f>
@@ -9046,7 +9032,7 @@
       </c>
       <c r="CO14" s="78">
         <f t="shared" si="15"/>
-        <v>338.4375</v>
+        <v>321.09999999999997</v>
       </c>
       <c r="CP14" s="78">
         <f t="shared" si="15"/>
@@ -9246,8 +9232,7 @@
         <v>354</v>
       </c>
       <c r="CK15" s="78">
-        <f>+CG15*1.1</f>
-        <v>354.20000000000005</v>
+        <v>353</v>
       </c>
       <c r="CL15" s="78">
         <f t="shared" ref="CL15:CP15" si="16">+CH15*1.1</f>
@@ -9263,7 +9248,7 @@
       </c>
       <c r="CO15" s="78">
         <f t="shared" si="16"/>
-        <v>389.62000000000006</v>
+        <v>388.3</v>
       </c>
       <c r="CP15" s="78">
         <f t="shared" si="16"/>
@@ -9518,8 +9503,7 @@
         <v>280</v>
       </c>
       <c r="CK16" s="78">
-        <f>+CG16*0.9</f>
-        <v>268.2</v>
+        <v>277</v>
       </c>
       <c r="CL16" s="78">
         <f t="shared" ref="CL16:CP16" si="17">+CH16*0.9</f>
@@ -9535,7 +9519,7 @@
       </c>
       <c r="CO16" s="78">
         <f t="shared" si="17"/>
-        <v>241.38</v>
+        <v>249.3</v>
       </c>
       <c r="CP16" s="78">
         <f t="shared" si="17"/>
@@ -9860,27 +9844,26 @@
         <v>223</v>
       </c>
       <c r="CK17" s="78">
-        <f t="shared" ref="CK17:CK18" si="18">+CG17*0.9</f>
-        <v>210.6</v>
+        <v>238</v>
       </c>
       <c r="CL17" s="78">
-        <f t="shared" ref="CL17:CL18" si="19">+CH17*0.9</f>
+        <f t="shared" ref="CL17:CL18" si="18">+CH17*0.9</f>
         <v>181.8</v>
       </c>
       <c r="CM17" s="78">
-        <f t="shared" ref="CM17:CM18" si="20">+CI17*0.9</f>
+        <f t="shared" ref="CM17:CM18" si="19">+CI17*0.9</f>
         <v>219.6</v>
       </c>
       <c r="CN17" s="78">
-        <f t="shared" ref="CN17:CN18" si="21">+CJ17*0.9</f>
+        <f t="shared" ref="CN17:CN18" si="20">+CJ17*0.9</f>
         <v>200.70000000000002</v>
       </c>
       <c r="CO17" s="78">
-        <f t="shared" ref="CO17:CO18" si="22">+CK17*0.9</f>
-        <v>189.54</v>
+        <f t="shared" ref="CO17:CO18" si="21">+CK17*0.9</f>
+        <v>214.20000000000002</v>
       </c>
       <c r="CP17" s="78">
-        <f t="shared" ref="CP17:CP18" si="23">+CL17*0.9</f>
+        <f t="shared" ref="CP17:CP18" si="22">+CL17*0.9</f>
         <v>163.62</v>
       </c>
       <c r="CQ17" s="44"/>
@@ -9933,51 +9916,51 @@
         <v>179.20000000000002</v>
       </c>
       <c r="DG17" s="44">
-        <f t="shared" ref="DG17:DL17" si="24">+DF17*0.8</f>
+        <f t="shared" ref="DG17:DL17" si="23">+DF17*0.8</f>
         <v>143.36000000000001</v>
       </c>
       <c r="DH17" s="44">
+        <f t="shared" si="23"/>
+        <v>114.68800000000002</v>
+      </c>
+      <c r="DI17" s="44">
+        <f t="shared" si="23"/>
+        <v>91.750400000000013</v>
+      </c>
+      <c r="DJ17" s="44">
+        <f t="shared" si="23"/>
+        <v>73.400320000000008</v>
+      </c>
+      <c r="DK17" s="44">
+        <f t="shared" si="23"/>
+        <v>58.720256000000006</v>
+      </c>
+      <c r="DL17" s="44">
+        <f t="shared" si="23"/>
+        <v>46.976204800000005</v>
+      </c>
+      <c r="DM17" s="44">
+        <f t="shared" ref="DM17:DR17" si="24">+DL17*0.9</f>
+        <v>42.278584320000007</v>
+      </c>
+      <c r="DN17" s="44">
         <f t="shared" si="24"/>
-        <v>114.68800000000002</v>
-      </c>
-      <c r="DI17" s="44">
+        <v>38.050725888000009</v>
+      </c>
+      <c r="DO17" s="44">
         <f t="shared" si="24"/>
-        <v>91.750400000000013</v>
-      </c>
-      <c r="DJ17" s="44">
+        <v>34.245653299200008</v>
+      </c>
+      <c r="DP17" s="44">
         <f t="shared" si="24"/>
-        <v>73.400320000000008</v>
-      </c>
-      <c r="DK17" s="44">
+        <v>30.821087969280008</v>
+      </c>
+      <c r="DQ17" s="44">
         <f t="shared" si="24"/>
-        <v>58.720256000000006</v>
-      </c>
-      <c r="DL17" s="44">
+        <v>27.738979172352007</v>
+      </c>
+      <c r="DR17" s="44">
         <f t="shared" si="24"/>
-        <v>46.976204800000005</v>
-      </c>
-      <c r="DM17" s="44">
-        <f t="shared" ref="DM17:DR17" si="25">+DL17*0.9</f>
-        <v>42.278584320000007</v>
-      </c>
-      <c r="DN17" s="44">
-        <f t="shared" si="25"/>
-        <v>38.050725888000009</v>
-      </c>
-      <c r="DO17" s="44">
-        <f t="shared" si="25"/>
-        <v>34.245653299200008</v>
-      </c>
-      <c r="DP17" s="44">
-        <f t="shared" si="25"/>
-        <v>30.821087969280008</v>
-      </c>
-      <c r="DQ17" s="44">
-        <f t="shared" si="25"/>
-        <v>27.738979172352007</v>
-      </c>
-      <c r="DR17" s="44">
-        <f t="shared" si="25"/>
         <v>24.965081255116807</v>
       </c>
     </row>
@@ -10202,27 +10185,26 @@
         <v>236</v>
       </c>
       <c r="CK18" s="78">
+        <v>240</v>
+      </c>
+      <c r="CL18" s="78">
         <f t="shared" si="18"/>
-        <v>225</v>
-      </c>
-      <c r="CL18" s="78">
+        <v>208.8</v>
+      </c>
+      <c r="CM18" s="78">
         <f t="shared" si="19"/>
-        <v>208.8</v>
-      </c>
-      <c r="CM18" s="78">
+        <v>216</v>
+      </c>
+      <c r="CN18" s="78">
         <f t="shared" si="20"/>
+        <v>212.4</v>
+      </c>
+      <c r="CO18" s="78">
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
-      <c r="CN18" s="78">
-        <f t="shared" si="21"/>
-        <v>212.4</v>
-      </c>
-      <c r="CO18" s="78">
+      <c r="CP18" s="78">
         <f t="shared" si="22"/>
-        <v>202.5</v>
-      </c>
-      <c r="CP18" s="78">
-        <f t="shared" si="23"/>
         <v>187.92000000000002</v>
       </c>
       <c r="CQ18" s="44"/>
@@ -10299,27 +10281,27 @@
         <v>315.24154593750006</v>
       </c>
       <c r="DM18" s="44">
-        <f t="shared" ref="DM18:DR18" si="26">+DL18*0.9</f>
+        <f t="shared" ref="DM18:DR18" si="25">+DL18*0.9</f>
         <v>283.71739134375008</v>
       </c>
       <c r="DN18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>255.34565220937509</v>
       </c>
       <c r="DO18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>229.81108698843758</v>
       </c>
       <c r="DP18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>206.82997828959384</v>
       </c>
       <c r="DQ18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>186.14698046063447</v>
       </c>
       <c r="DR18" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>167.53228241457103</v>
       </c>
     </row>
@@ -10544,28 +10526,27 @@
         <v>116</v>
       </c>
       <c r="CK19" s="78">
-        <f>+CJ19-1</f>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="CL19" s="78">
-        <f t="shared" ref="CL19:CP19" si="27">+CK19-1</f>
-        <v>114</v>
+        <f t="shared" ref="CL19:CP19" si="26">+CK19-1</f>
+        <v>144</v>
       </c>
       <c r="CM19" s="78">
-        <f t="shared" si="27"/>
-        <v>113</v>
+        <f t="shared" si="26"/>
+        <v>143</v>
       </c>
       <c r="CN19" s="78">
-        <f t="shared" si="27"/>
-        <v>112</v>
+        <f t="shared" si="26"/>
+        <v>142</v>
       </c>
       <c r="CO19" s="78">
-        <f t="shared" si="27"/>
-        <v>111</v>
+        <f t="shared" si="26"/>
+        <v>141</v>
       </c>
       <c r="CP19" s="78">
-        <f t="shared" si="27"/>
-        <v>110</v>
+        <f t="shared" si="26"/>
+        <v>140</v>
       </c>
       <c r="CQ19" s="44"/>
       <c r="CR19" s="44"/>
@@ -10613,19 +10594,19 @@
         <v>227</v>
       </c>
       <c r="DF19" s="44">
-        <f t="shared" ref="DF19:DI19" si="28">+DE19*1.05</f>
+        <f t="shared" ref="DF19:DI19" si="27">+DE19*1.05</f>
         <v>238.35000000000002</v>
       </c>
       <c r="DG19" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>250.26750000000004</v>
       </c>
       <c r="DH19" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>262.78087500000004</v>
       </c>
       <c r="DI19" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>275.91991875000008</v>
       </c>
       <c r="DJ19" s="44">
@@ -10641,27 +10622,27 @@
         <v>289.71591468750012</v>
       </c>
       <c r="DM19" s="44">
-        <f t="shared" ref="DM19:DR19" si="29">+DL19*0.9</f>
+        <f t="shared" ref="DM19:DR19" si="28">+DL19*0.9</f>
         <v>260.74432321875014</v>
       </c>
       <c r="DN19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>234.66989089687513</v>
       </c>
       <c r="DO19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>211.20290180718763</v>
       </c>
       <c r="DP19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>190.08261162646886</v>
       </c>
       <c r="DQ19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>171.07435046382199</v>
       </c>
       <c r="DR19" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>153.96691541743979</v>
       </c>
     </row>
@@ -10785,28 +10766,27 @@
         <v>242</v>
       </c>
       <c r="CK20" s="78">
-        <f>+CJ20+3</f>
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="CL20" s="78">
-        <f t="shared" ref="CL20:CP20" si="30">+CK20+3</f>
-        <v>248</v>
+        <f t="shared" ref="CL20:CP20" si="29">+CK20+3</f>
+        <v>240</v>
       </c>
       <c r="CM20" s="78">
-        <f t="shared" si="30"/>
-        <v>251</v>
+        <f t="shared" si="29"/>
+        <v>243</v>
       </c>
       <c r="CN20" s="78">
-        <f t="shared" si="30"/>
-        <v>254</v>
+        <f t="shared" si="29"/>
+        <v>246</v>
       </c>
       <c r="CO20" s="78">
-        <f t="shared" si="30"/>
-        <v>257</v>
+        <f t="shared" si="29"/>
+        <v>249</v>
       </c>
       <c r="CP20" s="78">
-        <f t="shared" si="30"/>
-        <v>260</v>
+        <f t="shared" si="29"/>
+        <v>252</v>
       </c>
       <c r="CQ20" s="44"/>
       <c r="CR20" s="44"/>
@@ -11063,7 +11043,9 @@
       <c r="CJ21" s="78">
         <v>99</v>
       </c>
-      <c r="CK21" s="78"/>
+      <c r="CK21" s="78">
+        <v>85</v>
+      </c>
       <c r="CL21" s="78"/>
       <c r="CM21" s="78"/>
       <c r="CN21" s="78"/>
@@ -11119,31 +11101,31 @@
         <v>67.2</v>
       </c>
       <c r="DG21" s="44">
-        <f t="shared" ref="DG21:DM21" si="31">+DF21*0.8</f>
+        <f t="shared" ref="DG21:DM21" si="30">+DF21*0.8</f>
         <v>53.760000000000005</v>
       </c>
       <c r="DH21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>43.00800000000001</v>
       </c>
       <c r="DI21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>34.406400000000012</v>
       </c>
       <c r="DJ21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>27.525120000000012</v>
       </c>
       <c r="DK21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>22.020096000000009</v>
       </c>
       <c r="DL21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>17.616076800000009</v>
       </c>
       <c r="DM21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>14.092861440000007</v>
       </c>
       <c r="DN21" s="44">
@@ -11362,7 +11344,9 @@
       <c r="CJ22" s="78">
         <v>86</v>
       </c>
-      <c r="CK22" s="78"/>
+      <c r="CK22" s="78">
+        <v>81</v>
+      </c>
       <c r="CL22" s="78"/>
       <c r="CM22" s="78"/>
       <c r="CN22" s="78"/>
@@ -11402,31 +11386,31 @@
         <v>151</v>
       </c>
       <c r="DF22" s="46">
-        <f t="shared" ref="DF22:DL22" si="32">DE22*0.5</f>
+        <f t="shared" ref="DF22:DL22" si="31">DE22*0.5</f>
         <v>75.5</v>
       </c>
       <c r="DG22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>37.75</v>
       </c>
       <c r="DH22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>18.875</v>
       </c>
       <c r="DI22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>9.4375</v>
       </c>
       <c r="DJ22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4.71875</v>
       </c>
       <c r="DK22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.359375</v>
       </c>
       <c r="DL22" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.1796875</v>
       </c>
       <c r="DM22" s="46"/>
@@ -11552,7 +11536,9 @@
       <c r="CJ23" s="78">
         <v>93</v>
       </c>
-      <c r="CK23" s="78"/>
+      <c r="CK23" s="78">
+        <v>103</v>
+      </c>
       <c r="CL23" s="78"/>
       <c r="CM23" s="78"/>
       <c r="CN23" s="78"/>
@@ -11711,7 +11697,9 @@
       <c r="CJ24" s="78">
         <v>73</v>
       </c>
-      <c r="CK24" s="78"/>
+      <c r="CK24" s="78">
+        <v>66</v>
+      </c>
       <c r="CL24" s="78"/>
       <c r="CM24" s="78"/>
       <c r="CN24" s="78"/>
@@ -11896,7 +11884,9 @@
       <c r="CJ25" s="78">
         <v>71</v>
       </c>
-      <c r="CK25" s="78"/>
+      <c r="CK25" s="78">
+        <v>66</v>
+      </c>
       <c r="CL25" s="78"/>
       <c r="CM25" s="78"/>
       <c r="CN25" s="78"/>
@@ -12101,7 +12091,9 @@
       <c r="CJ26" s="78">
         <v>66</v>
       </c>
-      <c r="CK26" s="78"/>
+      <c r="CK26" s="78">
+        <v>79</v>
+      </c>
       <c r="CL26" s="78"/>
       <c r="CM26" s="78"/>
       <c r="CN26" s="78"/>
@@ -12255,7 +12247,9 @@
       <c r="CJ27" s="78">
         <v>58</v>
       </c>
-      <c r="CK27" s="78"/>
+      <c r="CK27" s="78">
+        <v>52</v>
+      </c>
       <c r="CL27" s="78"/>
       <c r="CM27" s="78"/>
       <c r="CN27" s="78"/>
@@ -12409,7 +12403,9 @@
       <c r="CJ28" s="78">
         <v>50</v>
       </c>
-      <c r="CK28" s="78"/>
+      <c r="CK28" s="78">
+        <v>57</v>
+      </c>
       <c r="CL28" s="78"/>
       <c r="CM28" s="78"/>
       <c r="CN28" s="78"/>
@@ -12563,7 +12559,9 @@
       <c r="CJ29" s="78">
         <v>62</v>
       </c>
-      <c r="CK29" s="78"/>
+      <c r="CK29" s="78">
+        <v>48</v>
+      </c>
       <c r="CL29" s="78"/>
       <c r="CM29" s="78"/>
       <c r="CN29" s="78"/>
@@ -12717,7 +12715,9 @@
       <c r="CJ30" s="78">
         <v>36</v>
       </c>
-      <c r="CK30" s="78"/>
+      <c r="CK30" s="78">
+        <v>37</v>
+      </c>
       <c r="CL30" s="78"/>
       <c r="CM30" s="78"/>
       <c r="CN30" s="78"/>
@@ -12871,7 +12871,9 @@
       <c r="CJ31" s="78">
         <v>37</v>
       </c>
-      <c r="CK31" s="78"/>
+      <c r="CK31" s="78">
+        <v>41</v>
+      </c>
       <c r="CL31" s="78"/>
       <c r="CM31" s="78"/>
       <c r="CN31" s="78"/>
@@ -13126,7 +13128,9 @@
       <c r="CJ32" s="78">
         <v>32</v>
       </c>
-      <c r="CK32" s="78"/>
+      <c r="CK32" s="78">
+        <v>27</v>
+      </c>
       <c r="CL32" s="78"/>
       <c r="CM32" s="78"/>
       <c r="CN32" s="78"/>
@@ -13186,47 +13190,47 @@
         <v>97.597500000000011</v>
       </c>
       <c r="DH32" s="44">
-        <f t="shared" ref="DH32:DR32" si="33">DG32*0.7</f>
+        <f t="shared" ref="DH32:DR32" si="32">DG32*0.7</f>
         <v>68.318250000000006</v>
       </c>
       <c r="DI32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>47.822775</v>
       </c>
       <c r="DJ32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>33.475942499999995</v>
       </c>
       <c r="DK32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>23.433159749999994</v>
       </c>
       <c r="DL32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>16.403211824999996</v>
       </c>
       <c r="DM32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>11.482248277499997</v>
       </c>
       <c r="DN32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>8.0375737942499974</v>
       </c>
       <c r="DO32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.6263016559749977</v>
       </c>
       <c r="DP32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3.9384111591824982</v>
       </c>
       <c r="DQ32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2.7568878114277484</v>
       </c>
       <c r="DR32" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.9298214679994237</v>
       </c>
     </row>
@@ -13450,7 +13454,9 @@
       <c r="CJ33" s="78">
         <v>28</v>
       </c>
-      <c r="CK33" s="78"/>
+      <c r="CK33" s="78">
+        <v>24</v>
+      </c>
       <c r="CL33" s="78"/>
       <c r="CM33" s="78"/>
       <c r="CN33" s="78"/>
@@ -13502,55 +13508,55 @@
         <v>144</v>
       </c>
       <c r="DF33" s="44">
-        <f t="shared" ref="DF33:DL33" si="34">+DE33*0.8</f>
+        <f t="shared" ref="DF33:DL33" si="33">+DE33*0.8</f>
         <v>115.2</v>
       </c>
       <c r="DG33" s="44">
+        <f t="shared" si="33"/>
+        <v>92.160000000000011</v>
+      </c>
+      <c r="DH33" s="44">
+        <f t="shared" si="33"/>
+        <v>73.728000000000009</v>
+      </c>
+      <c r="DI33" s="44">
+        <f t="shared" si="33"/>
+        <v>58.982400000000013</v>
+      </c>
+      <c r="DJ33" s="44">
+        <f t="shared" si="33"/>
+        <v>47.18592000000001</v>
+      </c>
+      <c r="DK33" s="44">
+        <f t="shared" si="33"/>
+        <v>37.748736000000008</v>
+      </c>
+      <c r="DL33" s="44">
+        <f t="shared" si="33"/>
+        <v>30.198988800000009</v>
+      </c>
+      <c r="DM33" s="44">
+        <f t="shared" ref="DM33:DR33" si="34">+DL33*0.9</f>
+        <v>27.17908992000001</v>
+      </c>
+      <c r="DN33" s="44">
         <f t="shared" si="34"/>
-        <v>92.160000000000011</v>
-      </c>
-      <c r="DH33" s="44">
+        <v>24.461180928000008</v>
+      </c>
+      <c r="DO33" s="44">
         <f t="shared" si="34"/>
-        <v>73.728000000000009</v>
-      </c>
-      <c r="DI33" s="44">
+        <v>22.015062835200009</v>
+      </c>
+      <c r="DP33" s="44">
         <f t="shared" si="34"/>
-        <v>58.982400000000013</v>
-      </c>
-      <c r="DJ33" s="44">
+        <v>19.813556551680009</v>
+      </c>
+      <c r="DQ33" s="44">
         <f t="shared" si="34"/>
-        <v>47.18592000000001</v>
-      </c>
-      <c r="DK33" s="44">
+        <v>17.83220089651201</v>
+      </c>
+      <c r="DR33" s="44">
         <f t="shared" si="34"/>
-        <v>37.748736000000008</v>
-      </c>
-      <c r="DL33" s="44">
-        <f t="shared" si="34"/>
-        <v>30.198988800000009</v>
-      </c>
-      <c r="DM33" s="44">
-        <f t="shared" ref="DM33:DR33" si="35">+DL33*0.9</f>
-        <v>27.17908992000001</v>
-      </c>
-      <c r="DN33" s="44">
-        <f t="shared" si="35"/>
-        <v>24.461180928000008</v>
-      </c>
-      <c r="DO33" s="44">
-        <f t="shared" si="35"/>
-        <v>22.015062835200009</v>
-      </c>
-      <c r="DP33" s="44">
-        <f t="shared" si="35"/>
-        <v>19.813556551680009</v>
-      </c>
-      <c r="DQ33" s="44">
-        <f t="shared" si="35"/>
-        <v>17.83220089651201</v>
-      </c>
-      <c r="DR33" s="44">
-        <f t="shared" si="35"/>
         <v>16.048980806860808</v>
       </c>
     </row>
@@ -13774,7 +13780,9 @@
       <c r="CJ34" s="78">
         <v>21</v>
       </c>
-      <c r="CK34" s="78"/>
+      <c r="CK34" s="78">
+        <v>21</v>
+      </c>
       <c r="CL34" s="78"/>
       <c r="CM34" s="78"/>
       <c r="CN34" s="78"/>
@@ -13830,51 +13838,51 @@
         <v>90.4</v>
       </c>
       <c r="DG34" s="44">
-        <f t="shared" ref="DG34:DL34" si="36">+DF34*0.8</f>
+        <f t="shared" ref="DG34:DL34" si="35">+DF34*0.8</f>
         <v>72.320000000000007</v>
       </c>
       <c r="DH34" s="44">
+        <f t="shared" si="35"/>
+        <v>57.856000000000009</v>
+      </c>
+      <c r="DI34" s="44">
+        <f t="shared" si="35"/>
+        <v>46.284800000000011</v>
+      </c>
+      <c r="DJ34" s="44">
+        <f t="shared" si="35"/>
+        <v>37.027840000000012</v>
+      </c>
+      <c r="DK34" s="44">
+        <f t="shared" si="35"/>
+        <v>29.622272000000009</v>
+      </c>
+      <c r="DL34" s="44">
+        <f t="shared" si="35"/>
+        <v>23.697817600000008</v>
+      </c>
+      <c r="DM34" s="44">
+        <f t="shared" ref="DM34:DR34" si="36">+DL34*0.9</f>
+        <v>21.328035840000009</v>
+      </c>
+      <c r="DN34" s="44">
         <f t="shared" si="36"/>
-        <v>57.856000000000009</v>
-      </c>
-      <c r="DI34" s="44">
+        <v>19.195232256000008</v>
+      </c>
+      <c r="DO34" s="44">
         <f t="shared" si="36"/>
-        <v>46.284800000000011</v>
-      </c>
-      <c r="DJ34" s="44">
+        <v>17.275709030400009</v>
+      </c>
+      <c r="DP34" s="44">
         <f t="shared" si="36"/>
-        <v>37.027840000000012</v>
-      </c>
-      <c r="DK34" s="44">
+        <v>15.548138127360009</v>
+      </c>
+      <c r="DQ34" s="44">
         <f t="shared" si="36"/>
-        <v>29.622272000000009</v>
-      </c>
-      <c r="DL34" s="44">
+        <v>13.993324314624008</v>
+      </c>
+      <c r="DR34" s="44">
         <f t="shared" si="36"/>
-        <v>23.697817600000008</v>
-      </c>
-      <c r="DM34" s="44">
-        <f t="shared" ref="DM34:DR34" si="37">+DL34*0.9</f>
-        <v>21.328035840000009</v>
-      </c>
-      <c r="DN34" s="44">
-        <f t="shared" si="37"/>
-        <v>19.195232256000008</v>
-      </c>
-      <c r="DO34" s="44">
-        <f t="shared" si="37"/>
-        <v>17.275709030400009</v>
-      </c>
-      <c r="DP34" s="44">
-        <f t="shared" si="37"/>
-        <v>15.548138127360009</v>
-      </c>
-      <c r="DQ34" s="44">
-        <f t="shared" si="37"/>
-        <v>13.993324314624008</v>
-      </c>
-      <c r="DR34" s="44">
-        <f t="shared" si="37"/>
         <v>12.593991883161607</v>
       </c>
     </row>
@@ -13997,7 +14005,9 @@
       <c r="CJ35" s="78">
         <v>15</v>
       </c>
-      <c r="CK35" s="78"/>
+      <c r="CK35" s="78">
+        <v>14</v>
+      </c>
       <c r="CL35" s="78"/>
       <c r="CM35" s="78"/>
       <c r="CN35" s="78"/>
@@ -14249,7 +14259,9 @@
       <c r="CJ36" s="78">
         <v>12</v>
       </c>
-      <c r="CK36" s="78"/>
+      <c r="CK36" s="78">
+        <v>10</v>
+      </c>
       <c r="CL36" s="78"/>
       <c r="CM36" s="78"/>
       <c r="CN36" s="78"/>
@@ -14301,55 +14313,55 @@
         <v>24</v>
       </c>
       <c r="DF36" s="44">
-        <f t="shared" ref="DF36:DL36" si="38">+DE36*0.9</f>
+        <f t="shared" ref="DF36:DL36" si="37">+DE36*0.9</f>
         <v>21.6</v>
       </c>
       <c r="DG36" s="44">
+        <f t="shared" si="37"/>
+        <v>19.440000000000001</v>
+      </c>
+      <c r="DH36" s="44">
+        <f t="shared" si="37"/>
+        <v>17.496000000000002</v>
+      </c>
+      <c r="DI36" s="44">
+        <f t="shared" si="37"/>
+        <v>15.746400000000003</v>
+      </c>
+      <c r="DJ36" s="44">
+        <f t="shared" si="37"/>
+        <v>14.171760000000003</v>
+      </c>
+      <c r="DK36" s="44">
+        <f t="shared" si="37"/>
+        <v>12.754584000000003</v>
+      </c>
+      <c r="DL36" s="44">
+        <f t="shared" si="37"/>
+        <v>11.479125600000003</v>
+      </c>
+      <c r="DM36" s="44">
+        <f t="shared" ref="DM36:DR36" si="38">+DL36*0.9</f>
+        <v>10.331213040000003</v>
+      </c>
+      <c r="DN36" s="44">
         <f t="shared" si="38"/>
-        <v>19.440000000000001</v>
-      </c>
-      <c r="DH36" s="44">
+        <v>9.2980917360000035</v>
+      </c>
+      <c r="DO36" s="44">
         <f t="shared" si="38"/>
-        <v>17.496000000000002</v>
-      </c>
-      <c r="DI36" s="44">
+        <v>8.3682825624000028</v>
+      </c>
+      <c r="DP36" s="44">
         <f t="shared" si="38"/>
-        <v>15.746400000000003</v>
-      </c>
-      <c r="DJ36" s="44">
+        <v>7.5314543061600023</v>
+      </c>
+      <c r="DQ36" s="44">
         <f t="shared" si="38"/>
-        <v>14.171760000000003</v>
-      </c>
-      <c r="DK36" s="44">
+        <v>6.7783088755440026</v>
+      </c>
+      <c r="DR36" s="44">
         <f t="shared" si="38"/>
-        <v>12.754584000000003</v>
-      </c>
-      <c r="DL36" s="44">
-        <f t="shared" si="38"/>
-        <v>11.479125600000003</v>
-      </c>
-      <c r="DM36" s="44">
-        <f t="shared" ref="DM36:DR36" si="39">+DL36*0.9</f>
-        <v>10.331213040000003</v>
-      </c>
-      <c r="DN36" s="44">
-        <f t="shared" si="39"/>
-        <v>9.2980917360000035</v>
-      </c>
-      <c r="DO36" s="44">
-        <f t="shared" si="39"/>
-        <v>8.3682825624000028</v>
-      </c>
-      <c r="DP36" s="44">
-        <f t="shared" si="39"/>
-        <v>7.5314543061600023</v>
-      </c>
-      <c r="DQ36" s="44">
-        <f t="shared" si="39"/>
-        <v>6.7783088755440026</v>
-      </c>
-      <c r="DR36" s="44">
-        <f t="shared" si="39"/>
         <v>6.1004779879896027</v>
       </c>
     </row>
@@ -14472,7 +14484,9 @@
       <c r="CJ37" s="81">
         <v>18</v>
       </c>
-      <c r="CK37" s="81"/>
+      <c r="CK37" s="81">
+        <v>23</v>
+      </c>
       <c r="CL37" s="81"/>
       <c r="CM37" s="81"/>
       <c r="CN37" s="81"/>
@@ -14626,7 +14640,9 @@
       <c r="CJ38" s="81">
         <v>24</v>
       </c>
-      <c r="CK38" s="81"/>
+      <c r="CK38" s="81">
+        <v>33</v>
+      </c>
       <c r="CL38" s="81"/>
       <c r="CM38" s="81"/>
       <c r="CN38" s="81"/>
@@ -14780,7 +14796,9 @@
       <c r="CJ39" s="81">
         <v>11</v>
       </c>
-      <c r="CK39" s="81"/>
+      <c r="CK39" s="81">
+        <v>11</v>
+      </c>
       <c r="CL39" s="81"/>
       <c r="CM39" s="81"/>
       <c r="CN39" s="81"/>
@@ -14975,7 +14993,9 @@
       <c r="CJ40" s="78">
         <v>1</v>
       </c>
-      <c r="CK40" s="78"/>
+      <c r="CK40" s="78">
+        <v>59</v>
+      </c>
       <c r="CL40" s="78"/>
       <c r="CM40" s="78"/>
       <c r="CN40" s="78"/>
@@ -15013,31 +15033,31 @@
         <v>1.98</v>
       </c>
       <c r="DG40" s="44">
-        <f t="shared" ref="DG40:DM40" si="40">+DF40*0.99</f>
+        <f t="shared" ref="DG40:DM40" si="39">+DF40*0.99</f>
         <v>1.9601999999999999</v>
       </c>
       <c r="DH40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.9405979999999998</v>
       </c>
       <c r="DI40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.9211920199999999</v>
       </c>
       <c r="DJ40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.9019800997999998</v>
       </c>
       <c r="DK40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.8829602988019998</v>
       </c>
       <c r="DL40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.8641306958139798</v>
       </c>
       <c r="DM40" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.8454893888558399</v>
       </c>
     </row>
@@ -15255,7 +15275,9 @@
       <c r="CJ41" s="78">
         <v>75</v>
       </c>
-      <c r="CK41" s="78"/>
+      <c r="CK41" s="78">
+        <v>93</v>
+      </c>
       <c r="CL41" s="78"/>
       <c r="CM41" s="78"/>
       <c r="CN41" s="78"/>
@@ -15275,7 +15297,7 @@
         <v>88</v>
       </c>
       <c r="CX41" s="44">
-        <f t="shared" ref="CX41:CX45" si="41">SUM(S41:V41)</f>
+        <f t="shared" ref="CX41:CX45" si="40">SUM(S41:V41)</f>
         <v>70</v>
       </c>
       <c r="CY41" s="44">
@@ -15283,7 +15305,7 @@
         <v>78</v>
       </c>
       <c r="CZ41" s="44">
-        <f t="shared" ref="CZ41:CZ45" si="42">SUM(AA41:AD41)</f>
+        <f t="shared" ref="CZ41:CZ45" si="41">SUM(AA41:AD41)</f>
         <v>84</v>
       </c>
       <c r="DA41" s="44">
@@ -15307,55 +15329,55 @@
         <v>52</v>
       </c>
       <c r="DF41" s="44">
-        <f t="shared" ref="DF41:DL41" si="43">+DE41*0.9</f>
+        <f t="shared" ref="DF41:DL41" si="42">+DE41*0.9</f>
         <v>46.800000000000004</v>
       </c>
       <c r="DG41" s="44">
+        <f t="shared" si="42"/>
+        <v>42.120000000000005</v>
+      </c>
+      <c r="DH41" s="44">
+        <f t="shared" si="42"/>
+        <v>37.908000000000008</v>
+      </c>
+      <c r="DI41" s="44">
+        <f t="shared" si="42"/>
+        <v>34.117200000000011</v>
+      </c>
+      <c r="DJ41" s="44">
+        <f t="shared" si="42"/>
+        <v>30.705480000000012</v>
+      </c>
+      <c r="DK41" s="44">
+        <f t="shared" si="42"/>
+        <v>27.63493200000001</v>
+      </c>
+      <c r="DL41" s="44">
+        <f t="shared" si="42"/>
+        <v>24.871438800000011</v>
+      </c>
+      <c r="DM41" s="44">
+        <f t="shared" ref="DM41:DR41" si="43">+DL41*0.9</f>
+        <v>22.384294920000009</v>
+      </c>
+      <c r="DN41" s="44">
         <f t="shared" si="43"/>
-        <v>42.120000000000005</v>
-      </c>
-      <c r="DH41" s="44">
+        <v>20.145865428000008</v>
+      </c>
+      <c r="DO41" s="44">
         <f t="shared" si="43"/>
-        <v>37.908000000000008</v>
-      </c>
-      <c r="DI41" s="44">
+        <v>18.131278885200008</v>
+      </c>
+      <c r="DP41" s="44">
         <f t="shared" si="43"/>
-        <v>34.117200000000011</v>
-      </c>
-      <c r="DJ41" s="44">
+        <v>16.318150996680007</v>
+      </c>
+      <c r="DQ41" s="44">
         <f t="shared" si="43"/>
-        <v>30.705480000000012</v>
-      </c>
-      <c r="DK41" s="44">
+        <v>14.686335897012007</v>
+      </c>
+      <c r="DR41" s="44">
         <f t="shared" si="43"/>
-        <v>27.63493200000001</v>
-      </c>
-      <c r="DL41" s="44">
-        <f t="shared" si="43"/>
-        <v>24.871438800000011</v>
-      </c>
-      <c r="DM41" s="44">
-        <f t="shared" ref="DM41:DR41" si="44">+DL41*0.9</f>
-        <v>22.384294920000009</v>
-      </c>
-      <c r="DN41" s="44">
-        <f t="shared" si="44"/>
-        <v>20.145865428000008</v>
-      </c>
-      <c r="DO41" s="44">
-        <f t="shared" si="44"/>
-        <v>18.131278885200008</v>
-      </c>
-      <c r="DP41" s="44">
-        <f t="shared" si="44"/>
-        <v>16.318150996680007</v>
-      </c>
-      <c r="DQ41" s="44">
-        <f t="shared" si="44"/>
-        <v>14.686335897012007</v>
-      </c>
-      <c r="DR41" s="44">
-        <f t="shared" si="44"/>
         <v>13.217702307310807</v>
       </c>
     </row>
@@ -15527,7 +15549,9 @@
       <c r="CJ42" s="78">
         <v>80</v>
       </c>
-      <c r="CK42" s="78"/>
+      <c r="CK42" s="78">
+        <v>104</v>
+      </c>
       <c r="CL42" s="78"/>
       <c r="CM42" s="78"/>
       <c r="CN42" s="78"/>
@@ -15571,51 +15595,51 @@
         <v>376.32</v>
       </c>
       <c r="DG42" s="44">
-        <f t="shared" ref="DG42:DR42" si="45">+DF42*0.98</f>
+        <f t="shared" ref="DG42:DR42" si="44">+DF42*0.98</f>
         <v>368.79359999999997</v>
       </c>
       <c r="DH42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>361.41772799999995</v>
       </c>
       <c r="DI42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>354.18937343999994</v>
       </c>
       <c r="DJ42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>347.10558597119996</v>
       </c>
       <c r="DK42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>340.16347425177594</v>
       </c>
       <c r="DL42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>333.36020476674042</v>
       </c>
       <c r="DM42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>326.69300067140563</v>
       </c>
       <c r="DN42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>320.1591406579775</v>
       </c>
       <c r="DO42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>313.75595784481794</v>
       </c>
       <c r="DP42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>307.48083868792156</v>
       </c>
       <c r="DQ42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>301.33122191416311</v>
       </c>
       <c r="DR42" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>295.30459747587986</v>
       </c>
     </row>
@@ -15833,7 +15857,9 @@
       <c r="CJ43" s="78">
         <v>107</v>
       </c>
-      <c r="CK43" s="78"/>
+      <c r="CK43" s="78">
+        <v>97</v>
+      </c>
       <c r="CL43" s="78"/>
       <c r="CM43" s="78"/>
       <c r="CN43" s="78"/>
@@ -15889,51 +15915,51 @@
         <v>43.2</v>
       </c>
       <c r="DG43" s="44">
-        <f t="shared" ref="DG43:DL43" si="46">+DF43*0.9</f>
+        <f t="shared" ref="DG43:DL43" si="45">+DF43*0.9</f>
         <v>38.880000000000003</v>
       </c>
       <c r="DH43" s="44">
+        <f t="shared" si="45"/>
+        <v>34.992000000000004</v>
+      </c>
+      <c r="DI43" s="44">
+        <f t="shared" si="45"/>
+        <v>31.492800000000006</v>
+      </c>
+      <c r="DJ43" s="44">
+        <f t="shared" si="45"/>
+        <v>28.343520000000005</v>
+      </c>
+      <c r="DK43" s="44">
+        <f t="shared" si="45"/>
+        <v>25.509168000000006</v>
+      </c>
+      <c r="DL43" s="44">
+        <f t="shared" si="45"/>
+        <v>22.958251200000007</v>
+      </c>
+      <c r="DM43" s="44">
+        <f t="shared" ref="DM43:DR43" si="46">+DL43*0.9</f>
+        <v>20.662426080000007</v>
+      </c>
+      <c r="DN43" s="44">
         <f t="shared" si="46"/>
-        <v>34.992000000000004</v>
-      </c>
-      <c r="DI43" s="44">
+        <v>18.596183472000007</v>
+      </c>
+      <c r="DO43" s="44">
         <f t="shared" si="46"/>
-        <v>31.492800000000006</v>
-      </c>
-      <c r="DJ43" s="44">
+        <v>16.736565124800006</v>
+      </c>
+      <c r="DP43" s="44">
         <f t="shared" si="46"/>
-        <v>28.343520000000005</v>
-      </c>
-      <c r="DK43" s="44">
+        <v>15.062908612320005</v>
+      </c>
+      <c r="DQ43" s="44">
         <f t="shared" si="46"/>
-        <v>25.509168000000006</v>
-      </c>
-      <c r="DL43" s="44">
+        <v>13.556617751088005</v>
+      </c>
+      <c r="DR43" s="44">
         <f t="shared" si="46"/>
-        <v>22.958251200000007</v>
-      </c>
-      <c r="DM43" s="44">
-        <f t="shared" ref="DM43:DR43" si="47">+DL43*0.9</f>
-        <v>20.662426080000007</v>
-      </c>
-      <c r="DN43" s="44">
-        <f t="shared" si="47"/>
-        <v>18.596183472000007</v>
-      </c>
-      <c r="DO43" s="44">
-        <f t="shared" si="47"/>
-        <v>16.736565124800006</v>
-      </c>
-      <c r="DP43" s="44">
-        <f t="shared" si="47"/>
-        <v>15.062908612320005</v>
-      </c>
-      <c r="DQ43" s="44">
-        <f t="shared" si="47"/>
-        <v>13.556617751088005</v>
-      </c>
-      <c r="DR43" s="44">
-        <f t="shared" si="47"/>
         <v>12.200955975979205</v>
       </c>
     </row>
@@ -16050,7 +16076,9 @@
       <c r="CJ44" s="78">
         <v>141</v>
       </c>
-      <c r="CK44" s="78"/>
+      <c r="CK44" s="78">
+        <v>392</v>
+      </c>
       <c r="CL44" s="78"/>
       <c r="CM44" s="78"/>
       <c r="CN44" s="78"/>
@@ -16252,7 +16280,7 @@
         <v>235</v>
       </c>
       <c r="AR45" s="44">
-        <f t="shared" ref="AR45" si="48">AQ45-5</f>
+        <f t="shared" ref="AR45" si="47">AQ45-5</f>
         <v>230</v>
       </c>
       <c r="AS45" s="44">
@@ -16339,7 +16367,9 @@
       <c r="CJ45" s="78">
         <v>0</v>
       </c>
-      <c r="CK45" s="78"/>
+      <c r="CK45" s="78">
+        <v>0</v>
+      </c>
       <c r="CL45" s="78"/>
       <c r="CM45" s="78"/>
       <c r="CN45" s="78"/>
@@ -16359,15 +16389,15 @@
         <v>1947</v>
       </c>
       <c r="CX45" s="44">
+        <f t="shared" si="40"/>
+        <v>1652</v>
+      </c>
+      <c r="CY45" s="44">
+        <f t="shared" ref="CY45:CY54" si="48">SUM(W45:Z45)</f>
+        <v>1371</v>
+      </c>
+      <c r="CZ45" s="44">
         <f t="shared" si="41"/>
-        <v>1652</v>
-      </c>
-      <c r="CY45" s="44">
-        <f t="shared" ref="CY45:CY54" si="49">SUM(W45:Z45)</f>
-        <v>1371</v>
-      </c>
-      <c r="CZ45" s="44">
-        <f t="shared" si="42"/>
         <v>1143</v>
       </c>
       <c r="DA45" s="44">
@@ -16379,15 +16409,15 @@
         <v>946</v>
       </c>
       <c r="DC45" s="44">
-        <f t="shared" ref="DC45:DC59" si="50">SUM(AM45:AP45)</f>
+        <f t="shared" ref="DC45:DC59" si="49">SUM(AM45:AP45)</f>
         <v>986</v>
       </c>
       <c r="DD45" s="44">
-        <f t="shared" ref="DD45:DD60" si="51">SUM(AQ45:AT45)</f>
+        <f t="shared" ref="DD45:DD60" si="50">SUM(AQ45:AT45)</f>
         <v>937</v>
       </c>
       <c r="DE45" s="44">
-        <f t="shared" ref="DE45:DE52" si="52">SUM(AU45:AX45)</f>
+        <f t="shared" ref="DE45:DE52" si="51">SUM(AU45:AX45)</f>
         <v>170</v>
       </c>
       <c r="DF45" s="44">
@@ -16395,51 +16425,51 @@
         <v>136</v>
       </c>
       <c r="DG45" s="44">
-        <f t="shared" ref="DG45:DL45" si="53">DF45*0.8</f>
+        <f t="shared" ref="DG45:DL45" si="52">DF45*0.8</f>
         <v>108.80000000000001</v>
       </c>
       <c r="DH45" s="44">
+        <f t="shared" si="52"/>
+        <v>87.04000000000002</v>
+      </c>
+      <c r="DI45" s="44">
+        <f t="shared" si="52"/>
+        <v>69.632000000000019</v>
+      </c>
+      <c r="DJ45" s="44">
+        <f t="shared" si="52"/>
+        <v>55.705600000000018</v>
+      </c>
+      <c r="DK45" s="44">
+        <f t="shared" si="52"/>
+        <v>44.564480000000017</v>
+      </c>
+      <c r="DL45" s="44">
+        <f t="shared" si="52"/>
+        <v>35.651584000000014</v>
+      </c>
+      <c r="DM45" s="44">
+        <f t="shared" ref="DM45:DR45" si="53">+DL45*0.9</f>
+        <v>32.086425600000013</v>
+      </c>
+      <c r="DN45" s="44">
         <f t="shared" si="53"/>
-        <v>87.04000000000002</v>
-      </c>
-      <c r="DI45" s="44">
+        <v>28.877783040000011</v>
+      </c>
+      <c r="DO45" s="44">
         <f t="shared" si="53"/>
-        <v>69.632000000000019</v>
-      </c>
-      <c r="DJ45" s="44">
+        <v>25.99000473600001</v>
+      </c>
+      <c r="DP45" s="44">
         <f t="shared" si="53"/>
-        <v>55.705600000000018</v>
-      </c>
-      <c r="DK45" s="44">
+        <v>23.39100426240001</v>
+      </c>
+      <c r="DQ45" s="44">
         <f t="shared" si="53"/>
-        <v>44.564480000000017</v>
-      </c>
-      <c r="DL45" s="44">
+        <v>21.051903836160008</v>
+      </c>
+      <c r="DR45" s="44">
         <f t="shared" si="53"/>
-        <v>35.651584000000014</v>
-      </c>
-      <c r="DM45" s="44">
-        <f t="shared" ref="DM45:DR45" si="54">+DL45*0.9</f>
-        <v>32.086425600000013</v>
-      </c>
-      <c r="DN45" s="44">
-        <f t="shared" si="54"/>
-        <v>28.877783040000011</v>
-      </c>
-      <c r="DO45" s="44">
-        <f t="shared" si="54"/>
-        <v>25.99000473600001</v>
-      </c>
-      <c r="DP45" s="44">
-        <f t="shared" si="54"/>
-        <v>23.39100426240001</v>
-      </c>
-      <c r="DQ45" s="44">
-        <f t="shared" si="54"/>
-        <v>21.051903836160008</v>
-      </c>
-      <c r="DR45" s="44">
-        <f t="shared" si="54"/>
         <v>18.946713452544007</v>
       </c>
     </row>
@@ -16570,7 +16600,9 @@
       <c r="CJ46" s="78">
         <v>0</v>
       </c>
-      <c r="CK46" s="78"/>
+      <c r="CK46" s="78">
+        <v>0</v>
+      </c>
       <c r="CL46" s="78"/>
       <c r="CM46" s="78"/>
       <c r="CN46" s="78"/>
@@ -16622,27 +16654,27 @@
         <v>885.48768000000018</v>
       </c>
       <c r="DM46" s="44">
-        <f t="shared" ref="DM46:DR46" si="55">+DL46*1.05</f>
+        <f t="shared" ref="DM46:DR46" si="54">+DL46*1.05</f>
         <v>929.76206400000024</v>
       </c>
       <c r="DN46" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>976.25016720000031</v>
       </c>
       <c r="DO46" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1025.0626755600003</v>
       </c>
       <c r="DP46" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1076.3158093380005</v>
       </c>
       <c r="DQ46" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1130.1315998049006</v>
       </c>
       <c r="DR46" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1186.6381797951456</v>
       </c>
     </row>
@@ -16867,7 +16899,9 @@
       <c r="CJ47" s="78">
         <v>0</v>
       </c>
-      <c r="CK47" s="78"/>
+      <c r="CK47" s="78">
+        <v>0</v>
+      </c>
       <c r="CL47" s="78"/>
       <c r="CM47" s="78"/>
       <c r="CN47" s="78"/>
@@ -16923,51 +16957,51 @@
         <v>253.60000000000002</v>
       </c>
       <c r="DG47" s="44">
-        <f t="shared" ref="DG47:DL47" si="56">+DF47*0.8</f>
+        <f t="shared" ref="DG47:DL47" si="55">+DF47*0.8</f>
         <v>202.88000000000002</v>
       </c>
       <c r="DH47" s="44">
+        <f t="shared" si="55"/>
+        <v>162.30400000000003</v>
+      </c>
+      <c r="DI47" s="44">
+        <f t="shared" si="55"/>
+        <v>129.84320000000002</v>
+      </c>
+      <c r="DJ47" s="44">
+        <f t="shared" si="55"/>
+        <v>103.87456000000003</v>
+      </c>
+      <c r="DK47" s="44">
+        <f t="shared" si="55"/>
+        <v>83.09964800000003</v>
+      </c>
+      <c r="DL47" s="44">
+        <f t="shared" si="55"/>
+        <v>66.479718400000024</v>
+      </c>
+      <c r="DM47" s="44">
+        <f t="shared" ref="DM47:DR47" si="56">+DL47*0.9</f>
+        <v>59.83174656000002</v>
+      </c>
+      <c r="DN47" s="44">
         <f t="shared" si="56"/>
-        <v>162.30400000000003</v>
-      </c>
-      <c r="DI47" s="44">
+        <v>53.848571904000018</v>
+      </c>
+      <c r="DO47" s="44">
         <f t="shared" si="56"/>
-        <v>129.84320000000002</v>
-      </c>
-      <c r="DJ47" s="44">
+        <v>48.463714713600019</v>
+      </c>
+      <c r="DP47" s="44">
         <f t="shared" si="56"/>
-        <v>103.87456000000003</v>
-      </c>
-      <c r="DK47" s="44">
+        <v>43.617343242240018</v>
+      </c>
+      <c r="DQ47" s="44">
         <f t="shared" si="56"/>
-        <v>83.09964800000003</v>
-      </c>
-      <c r="DL47" s="44">
+        <v>39.255608918016016</v>
+      </c>
+      <c r="DR47" s="44">
         <f t="shared" si="56"/>
-        <v>66.479718400000024</v>
-      </c>
-      <c r="DM47" s="44">
-        <f t="shared" ref="DM47:DR47" si="57">+DL47*0.9</f>
-        <v>59.83174656000002</v>
-      </c>
-      <c r="DN47" s="44">
-        <f t="shared" si="57"/>
-        <v>53.848571904000018</v>
-      </c>
-      <c r="DO47" s="44">
-        <f t="shared" si="57"/>
-        <v>48.463714713600019</v>
-      </c>
-      <c r="DP47" s="44">
-        <f t="shared" si="57"/>
-        <v>43.617343242240018</v>
-      </c>
-      <c r="DQ47" s="44">
-        <f t="shared" si="57"/>
-        <v>39.255608918016016</v>
-      </c>
-      <c r="DR47" s="44">
-        <f t="shared" si="57"/>
         <v>35.330048026214413</v>
       </c>
     </row>
@@ -17199,7 +17233,9 @@
       <c r="CJ48" s="78">
         <v>0</v>
       </c>
-      <c r="CK48" s="78"/>
+      <c r="CK48" s="78">
+        <v>0</v>
+      </c>
       <c r="CL48" s="78"/>
       <c r="CM48" s="78"/>
       <c r="CN48" s="78"/>
@@ -17279,27 +17315,27 @@
         <v>91.768320000000017</v>
       </c>
       <c r="DM48" s="44">
-        <f t="shared" ref="DM48:DR48" si="58">DL48*0.9</f>
+        <f t="shared" ref="DM48:DR48" si="57">DL48*0.9</f>
         <v>82.591488000000012</v>
       </c>
       <c r="DN48" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>74.332339200000007</v>
       </c>
       <c r="DO48" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>66.899105280000015</v>
       </c>
       <c r="DP48" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>60.209194752000016</v>
       </c>
       <c r="DQ48" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>54.188275276800013</v>
       </c>
       <c r="DR48" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>48.769447749120012</v>
       </c>
     </row>
@@ -17434,7 +17470,7 @@
         <v>101</v>
       </c>
       <c r="AR49" s="44">
-        <f t="shared" ref="AR49:AR54" si="59">AQ49</f>
+        <f t="shared" ref="AR49:AR54" si="58">AQ49</f>
         <v>101</v>
       </c>
       <c r="AS49" s="44">
@@ -17507,35 +17543,35 @@
         <v>356</v>
       </c>
       <c r="CX49" s="44">
-        <f t="shared" ref="CX49:CX58" si="60">SUM(S49:V49)</f>
+        <f t="shared" ref="CX49:CX58" si="59">SUM(S49:V49)</f>
         <v>352</v>
       </c>
       <c r="CY49" s="44">
+        <f t="shared" si="48"/>
+        <v>398</v>
+      </c>
+      <c r="CZ49" s="44">
+        <f t="shared" ref="CZ49:CZ58" si="60">SUM(AA49:AD49)</f>
+        <v>434</v>
+      </c>
+      <c r="DA49" s="44">
+        <f t="shared" ref="DA49:DA54" si="61">CZ49</f>
+        <v>434</v>
+      </c>
+      <c r="DB49" s="44">
+        <f t="shared" ref="DB49:DB54" si="62">SUM(AI49:AL49)</f>
+        <v>434</v>
+      </c>
+      <c r="DC49" s="44">
         <f t="shared" si="49"/>
-        <v>398</v>
-      </c>
-      <c r="CZ49" s="44">
-        <f t="shared" ref="CZ49:CZ58" si="61">SUM(AA49:AD49)</f>
-        <v>434</v>
-      </c>
-      <c r="DA49" s="44">
-        <f t="shared" ref="DA49:DA54" si="62">CZ49</f>
-        <v>434</v>
-      </c>
-      <c r="DB49" s="44">
-        <f t="shared" ref="DB49:DB54" si="63">SUM(AI49:AL49)</f>
-        <v>434</v>
-      </c>
-      <c r="DC49" s="44">
+        <v>428</v>
+      </c>
+      <c r="DD49" s="44">
         <f t="shared" si="50"/>
-        <v>428</v>
-      </c>
-      <c r="DD49" s="44">
+        <v>411</v>
+      </c>
+      <c r="DE49" s="44">
         <f t="shared" si="51"/>
-        <v>411</v>
-      </c>
-      <c r="DE49" s="44">
-        <f t="shared" si="52"/>
         <v>54</v>
       </c>
       <c r="DF49" s="44">
@@ -17796,55 +17832,55 @@
         <v>100</v>
       </c>
       <c r="DF50" s="44">
-        <f t="shared" ref="DF50:DL50" si="64">DE50*0.9</f>
+        <f t="shared" ref="DF50:DL50" si="63">DE50*0.9</f>
         <v>90</v>
       </c>
       <c r="DG50" s="44">
+        <f t="shared" si="63"/>
+        <v>81</v>
+      </c>
+      <c r="DH50" s="44">
+        <f t="shared" si="63"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="DI50" s="44">
+        <f t="shared" si="63"/>
+        <v>65.610000000000014</v>
+      </c>
+      <c r="DJ50" s="44">
+        <f t="shared" si="63"/>
+        <v>59.049000000000014</v>
+      </c>
+      <c r="DK50" s="44">
+        <f t="shared" si="63"/>
+        <v>53.144100000000016</v>
+      </c>
+      <c r="DL50" s="44">
+        <f t="shared" si="63"/>
+        <v>47.829690000000014</v>
+      </c>
+      <c r="DM50" s="44">
+        <f t="shared" ref="DM50:DR50" si="64">+DL50*0.9</f>
+        <v>43.046721000000012</v>
+      </c>
+      <c r="DN50" s="44">
         <f t="shared" si="64"/>
-        <v>81</v>
-      </c>
-      <c r="DH50" s="44">
+        <v>38.742048900000015</v>
+      </c>
+      <c r="DO50" s="44">
         <f t="shared" si="64"/>
-        <v>72.900000000000006</v>
-      </c>
-      <c r="DI50" s="44">
+        <v>34.867844010000013</v>
+      </c>
+      <c r="DP50" s="44">
         <f t="shared" si="64"/>
-        <v>65.610000000000014</v>
-      </c>
-      <c r="DJ50" s="44">
+        <v>31.381059609000012</v>
+      </c>
+      <c r="DQ50" s="44">
         <f t="shared" si="64"/>
-        <v>59.049000000000014</v>
-      </c>
-      <c r="DK50" s="44">
+        <v>28.242953648100013</v>
+      </c>
+      <c r="DR50" s="44">
         <f t="shared" si="64"/>
-        <v>53.144100000000016</v>
-      </c>
-      <c r="DL50" s="44">
-        <f t="shared" si="64"/>
-        <v>47.829690000000014</v>
-      </c>
-      <c r="DM50" s="44">
-        <f t="shared" ref="DM50:DR50" si="65">+DL50*0.9</f>
-        <v>43.046721000000012</v>
-      </c>
-      <c r="DN50" s="44">
-        <f t="shared" si="65"/>
-        <v>38.742048900000015</v>
-      </c>
-      <c r="DO50" s="44">
-        <f t="shared" si="65"/>
-        <v>34.867844010000013</v>
-      </c>
-      <c r="DP50" s="44">
-        <f t="shared" si="65"/>
-        <v>31.381059609000012</v>
-      </c>
-      <c r="DQ50" s="44">
-        <f t="shared" si="65"/>
-        <v>28.242953648100013</v>
-      </c>
-      <c r="DR50" s="44">
-        <f t="shared" si="65"/>
         <v>25.418658283290011</v>
       </c>
     </row>
@@ -18064,55 +18100,55 @@
         <v>6</v>
       </c>
       <c r="DF51" s="44">
-        <f t="shared" ref="DF51:DM51" si="66">+DE51*0.8</f>
+        <f t="shared" ref="DF51:DM51" si="65">+DE51*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="DG51" s="44">
+        <f t="shared" si="65"/>
+        <v>3.8400000000000007</v>
+      </c>
+      <c r="DH51" s="44">
+        <f t="shared" si="65"/>
+        <v>3.072000000000001</v>
+      </c>
+      <c r="DI51" s="44">
+        <f t="shared" si="65"/>
+        <v>2.4576000000000011</v>
+      </c>
+      <c r="DJ51" s="44">
+        <f t="shared" si="65"/>
+        <v>1.9660800000000009</v>
+      </c>
+      <c r="DK51" s="44">
+        <f t="shared" si="65"/>
+        <v>1.5728640000000009</v>
+      </c>
+      <c r="DL51" s="44">
+        <f t="shared" si="65"/>
+        <v>1.2582912000000008</v>
+      </c>
+      <c r="DM51" s="44">
+        <f t="shared" si="65"/>
+        <v>1.0066329600000008</v>
+      </c>
+      <c r="DN51" s="44">
+        <f t="shared" ref="DN51:DR51" si="66">+DM51*0.8</f>
+        <v>0.80530636800000066</v>
+      </c>
+      <c r="DO51" s="44">
         <f t="shared" si="66"/>
-        <v>3.8400000000000007</v>
-      </c>
-      <c r="DH51" s="44">
+        <v>0.64424509440000055</v>
+      </c>
+      <c r="DP51" s="44">
         <f t="shared" si="66"/>
-        <v>3.072000000000001</v>
-      </c>
-      <c r="DI51" s="44">
+        <v>0.51539607552000044</v>
+      </c>
+      <c r="DQ51" s="44">
         <f t="shared" si="66"/>
-        <v>2.4576000000000011</v>
-      </c>
-      <c r="DJ51" s="44">
+        <v>0.41231686041600035</v>
+      </c>
+      <c r="DR51" s="44">
         <f t="shared" si="66"/>
-        <v>1.9660800000000009</v>
-      </c>
-      <c r="DK51" s="44">
-        <f t="shared" si="66"/>
-        <v>1.5728640000000009</v>
-      </c>
-      <c r="DL51" s="44">
-        <f t="shared" si="66"/>
-        <v>1.2582912000000008</v>
-      </c>
-      <c r="DM51" s="44">
-        <f t="shared" si="66"/>
-        <v>1.0066329600000008</v>
-      </c>
-      <c r="DN51" s="44">
-        <f t="shared" ref="DN51:DR51" si="67">+DM51*0.8</f>
-        <v>0.80530636800000066</v>
-      </c>
-      <c r="DO51" s="44">
-        <f t="shared" si="67"/>
-        <v>0.64424509440000055</v>
-      </c>
-      <c r="DP51" s="44">
-        <f t="shared" si="67"/>
-        <v>0.51539607552000044</v>
-      </c>
-      <c r="DQ51" s="44">
-        <f t="shared" si="67"/>
-        <v>0.41231686041600035</v>
-      </c>
-      <c r="DR51" s="44">
-        <f t="shared" si="67"/>
         <v>0.32985348833280032</v>
       </c>
     </row>
@@ -18247,7 +18283,7 @@
         <v>55</v>
       </c>
       <c r="AR52" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>55</v>
       </c>
       <c r="AS52" s="44">
@@ -18320,35 +18356,35 @@
         <v>361</v>
       </c>
       <c r="CX52" s="44">
+        <f t="shared" si="59"/>
+        <v>387</v>
+      </c>
+      <c r="CY52" s="44">
+        <f t="shared" si="48"/>
+        <v>360</v>
+      </c>
+      <c r="CZ52" s="44">
         <f t="shared" si="60"/>
-        <v>387</v>
-      </c>
-      <c r="CY52" s="44">
-        <f t="shared" si="49"/>
-        <v>360</v>
-      </c>
-      <c r="CZ52" s="44">
+        <v>354</v>
+      </c>
+      <c r="DA52" s="44">
         <f t="shared" si="61"/>
         <v>354</v>
       </c>
-      <c r="DA52" s="44">
+      <c r="DB52" s="44">
         <f t="shared" si="62"/>
-        <v>354</v>
-      </c>
-      <c r="DB52" s="44">
-        <f t="shared" si="63"/>
         <v>264</v>
       </c>
       <c r="DC52" s="44">
+        <f t="shared" si="49"/>
+        <v>227</v>
+      </c>
+      <c r="DD52" s="44">
         <f t="shared" si="50"/>
-        <v>227</v>
-      </c>
-      <c r="DD52" s="44">
+        <v>212</v>
+      </c>
+      <c r="DE52" s="44">
         <f t="shared" si="51"/>
-        <v>212</v>
-      </c>
-      <c r="DE52" s="44">
-        <f t="shared" si="52"/>
         <v>44</v>
       </c>
       <c r="DF52" s="44">
@@ -18356,51 +18392,51 @@
         <v>39.6</v>
       </c>
       <c r="DG52" s="44">
-        <f t="shared" ref="DG52:DR52" si="68">+DF52*0.9</f>
+        <f t="shared" ref="DG52:DR52" si="67">+DF52*0.9</f>
         <v>35.64</v>
       </c>
       <c r="DH52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>32.076000000000001</v>
       </c>
       <c r="DI52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>28.868400000000001</v>
       </c>
       <c r="DJ52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>25.981560000000002</v>
       </c>
       <c r="DK52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>23.383404000000002</v>
       </c>
       <c r="DL52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>21.045063600000002</v>
       </c>
       <c r="DM52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>18.940557240000004</v>
       </c>
       <c r="DN52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>17.046501516000003</v>
       </c>
       <c r="DO52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>15.341851364400004</v>
       </c>
       <c r="DP52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>13.807666227960004</v>
       </c>
       <c r="DQ52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>12.426899605164003</v>
       </c>
       <c r="DR52" s="44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>11.184209644647604</v>
       </c>
     </row>
@@ -18535,7 +18571,7 @@
         <v>33</v>
       </c>
       <c r="AR53" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>33</v>
       </c>
       <c r="AS53" s="44">
@@ -18606,31 +18642,31 @@
         <v>440</v>
       </c>
       <c r="CX53" s="44">
+        <f t="shared" si="59"/>
+        <v>332</v>
+      </c>
+      <c r="CY53" s="44">
+        <f t="shared" si="48"/>
+        <v>307</v>
+      </c>
+      <c r="CZ53" s="44">
         <f t="shared" si="60"/>
-        <v>332</v>
-      </c>
-      <c r="CY53" s="44">
-        <f t="shared" si="49"/>
-        <v>307</v>
-      </c>
-      <c r="CZ53" s="44">
+        <v>295</v>
+      </c>
+      <c r="DA53" s="44">
         <f t="shared" si="61"/>
         <v>295</v>
       </c>
-      <c r="DA53" s="44">
+      <c r="DB53" s="44">
         <f t="shared" si="62"/>
-        <v>295</v>
-      </c>
-      <c r="DB53" s="44">
-        <f t="shared" si="63"/>
         <v>184</v>
       </c>
       <c r="DC53" s="44">
+        <f t="shared" si="49"/>
+        <v>157</v>
+      </c>
+      <c r="DD53" s="44">
         <f t="shared" si="50"/>
-        <v>157</v>
-      </c>
-      <c r="DD53" s="44">
-        <f t="shared" si="51"/>
         <v>138</v>
       </c>
       <c r="DE53" s="44"/>
@@ -18774,7 +18810,7 @@
         <v>68</v>
       </c>
       <c r="AR54" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>68</v>
       </c>
       <c r="AS54" s="44">
@@ -18851,35 +18887,35 @@
         <v>455</v>
       </c>
       <c r="CX54" s="44">
+        <f t="shared" si="59"/>
+        <v>360.25</v>
+      </c>
+      <c r="CY54" s="44">
+        <f t="shared" si="48"/>
+        <v>275</v>
+      </c>
+      <c r="CZ54" s="44">
         <f t="shared" si="60"/>
-        <v>360.25</v>
-      </c>
-      <c r="CY54" s="44">
-        <f t="shared" si="49"/>
-        <v>275</v>
-      </c>
-      <c r="CZ54" s="44">
+        <v>271</v>
+      </c>
+      <c r="DA54" s="44">
         <f t="shared" si="61"/>
         <v>271</v>
       </c>
-      <c r="DA54" s="44">
+      <c r="DB54" s="44">
         <f t="shared" si="62"/>
-        <v>271</v>
-      </c>
-      <c r="DB54" s="44">
-        <f t="shared" si="63"/>
         <v>241</v>
       </c>
       <c r="DC54" s="44">
+        <f t="shared" si="49"/>
+        <v>255</v>
+      </c>
+      <c r="DD54" s="44">
         <f t="shared" si="50"/>
-        <v>255</v>
-      </c>
-      <c r="DD54" s="44">
-        <f t="shared" si="51"/>
         <v>262</v>
       </c>
       <c r="DE54" s="44">
-        <f t="shared" ref="DE54:DE58" si="69">SUM(AU54:AX54)</f>
+        <f t="shared" ref="DE54:DE58" si="68">SUM(AU54:AX54)</f>
         <v>73</v>
       </c>
       <c r="DF54" s="44">
@@ -18887,51 +18923,51 @@
         <v>58.400000000000006</v>
       </c>
       <c r="DG54" s="44">
-        <f t="shared" ref="DG54:DL54" si="70">+DF54*0.8</f>
+        <f t="shared" ref="DG54:DL54" si="69">+DF54*0.8</f>
         <v>46.720000000000006</v>
       </c>
       <c r="DH54" s="44">
+        <f t="shared" si="69"/>
+        <v>37.376000000000005</v>
+      </c>
+      <c r="DI54" s="44">
+        <f t="shared" si="69"/>
+        <v>29.900800000000004</v>
+      </c>
+      <c r="DJ54" s="44">
+        <f t="shared" si="69"/>
+        <v>23.920640000000006</v>
+      </c>
+      <c r="DK54" s="44">
+        <f t="shared" si="69"/>
+        <v>19.136512000000007</v>
+      </c>
+      <c r="DL54" s="44">
+        <f t="shared" si="69"/>
+        <v>15.309209600000006</v>
+      </c>
+      <c r="DM54" s="44">
+        <f t="shared" ref="DM54:DR54" si="70">+DL54*0.8</f>
+        <v>12.247367680000005</v>
+      </c>
+      <c r="DN54" s="44">
         <f t="shared" si="70"/>
-        <v>37.376000000000005</v>
-      </c>
-      <c r="DI54" s="44">
+        <v>9.7978941440000042</v>
+      </c>
+      <c r="DO54" s="44">
         <f t="shared" si="70"/>
-        <v>29.900800000000004</v>
-      </c>
-      <c r="DJ54" s="44">
+        <v>7.8383153152000036</v>
+      </c>
+      <c r="DP54" s="44">
         <f t="shared" si="70"/>
-        <v>23.920640000000006</v>
-      </c>
-      <c r="DK54" s="44">
+        <v>6.2706522521600032</v>
+      </c>
+      <c r="DQ54" s="44">
         <f t="shared" si="70"/>
-        <v>19.136512000000007</v>
-      </c>
-      <c r="DL54" s="44">
+        <v>5.0165218017280031</v>
+      </c>
+      <c r="DR54" s="44">
         <f t="shared" si="70"/>
-        <v>15.309209600000006</v>
-      </c>
-      <c r="DM54" s="44">
-        <f t="shared" ref="DM54:DR54" si="71">+DL54*0.8</f>
-        <v>12.247367680000005</v>
-      </c>
-      <c r="DN54" s="44">
-        <f t="shared" si="71"/>
-        <v>9.7978941440000042</v>
-      </c>
-      <c r="DO54" s="44">
-        <f t="shared" si="71"/>
-        <v>7.8383153152000036</v>
-      </c>
-      <c r="DP54" s="44">
-        <f t="shared" si="71"/>
-        <v>6.2706522521600032</v>
-      </c>
-      <c r="DQ54" s="44">
-        <f t="shared" si="71"/>
-        <v>5.0165218017280031</v>
-      </c>
-      <c r="DR54" s="44">
-        <f t="shared" si="71"/>
         <v>4.0132174413824027</v>
       </c>
     </row>
@@ -19060,7 +19096,7 @@
         <v>63</v>
       </c>
       <c r="AR55" s="44">
-        <f t="shared" ref="AR55:AR58" si="72">AQ55</f>
+        <f t="shared" ref="AR55:AR58" si="71">AQ55</f>
         <v>63</v>
       </c>
       <c r="AS55" s="44">
@@ -19137,7 +19173,7 @@
         <v>368</v>
       </c>
       <c r="CX55" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>352</v>
       </c>
       <c r="CY55" s="44">
@@ -19145,27 +19181,27 @@
         <v>320</v>
       </c>
       <c r="CZ55" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>224</v>
       </c>
       <c r="DA55" s="44">
-        <f t="shared" ref="DA55:DA58" si="73">CZ55</f>
+        <f t="shared" ref="DA55:DA58" si="72">CZ55</f>
         <v>224</v>
       </c>
       <c r="DB55" s="44">
-        <f t="shared" ref="DB55:DB59" si="74">SUM(AI55:AL55)</f>
+        <f t="shared" ref="DB55:DB59" si="73">SUM(AI55:AL55)</f>
         <v>296</v>
       </c>
       <c r="DC55" s="44">
+        <f t="shared" si="49"/>
+        <v>139</v>
+      </c>
+      <c r="DD55" s="44">
         <f t="shared" si="50"/>
-        <v>139</v>
-      </c>
-      <c r="DD55" s="44">
-        <f t="shared" si="51"/>
         <v>262</v>
       </c>
       <c r="DE55" s="44">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>57</v>
       </c>
       <c r="DF55" s="44">
@@ -19173,51 +19209,51 @@
         <v>45.6</v>
       </c>
       <c r="DG55" s="44">
-        <f t="shared" ref="DG55:DL55" si="75">+DF55*0.8</f>
+        <f t="shared" ref="DG55:DL55" si="74">+DF55*0.8</f>
         <v>36.480000000000004</v>
       </c>
       <c r="DH55" s="44">
+        <f t="shared" si="74"/>
+        <v>29.184000000000005</v>
+      </c>
+      <c r="DI55" s="44">
+        <f t="shared" si="74"/>
+        <v>23.347200000000004</v>
+      </c>
+      <c r="DJ55" s="44">
+        <f t="shared" si="74"/>
+        <v>18.677760000000003</v>
+      </c>
+      <c r="DK55" s="44">
+        <f t="shared" si="74"/>
+        <v>14.942208000000003</v>
+      </c>
+      <c r="DL55" s="44">
+        <f t="shared" si="74"/>
+        <v>11.953766400000003</v>
+      </c>
+      <c r="DM55" s="44">
+        <f t="shared" ref="DM55:DR55" si="75">+DL55*0.8</f>
+        <v>9.5630131200000026</v>
+      </c>
+      <c r="DN55" s="44">
         <f t="shared" si="75"/>
-        <v>29.184000000000005</v>
-      </c>
-      <c r="DI55" s="44">
+        <v>7.6504104960000028</v>
+      </c>
+      <c r="DO55" s="44">
         <f t="shared" si="75"/>
-        <v>23.347200000000004</v>
-      </c>
-      <c r="DJ55" s="44">
+        <v>6.1203283968000024</v>
+      </c>
+      <c r="DP55" s="44">
         <f t="shared" si="75"/>
-        <v>18.677760000000003</v>
-      </c>
-      <c r="DK55" s="44">
+        <v>4.8962627174400026</v>
+      </c>
+      <c r="DQ55" s="44">
         <f t="shared" si="75"/>
-        <v>14.942208000000003</v>
-      </c>
-      <c r="DL55" s="44">
+        <v>3.9170101739520025</v>
+      </c>
+      <c r="DR55" s="44">
         <f t="shared" si="75"/>
-        <v>11.953766400000003</v>
-      </c>
-      <c r="DM55" s="44">
-        <f t="shared" ref="DM55:DR55" si="76">+DL55*0.8</f>
-        <v>9.5630131200000026</v>
-      </c>
-      <c r="DN55" s="44">
-        <f t="shared" si="76"/>
-        <v>7.6504104960000028</v>
-      </c>
-      <c r="DO55" s="44">
-        <f t="shared" si="76"/>
-        <v>6.1203283968000024</v>
-      </c>
-      <c r="DP55" s="44">
-        <f t="shared" si="76"/>
-        <v>4.8962627174400026</v>
-      </c>
-      <c r="DQ55" s="44">
-        <f t="shared" si="76"/>
-        <v>3.9170101739520025</v>
-      </c>
-      <c r="DR55" s="44">
-        <f t="shared" si="76"/>
         <v>3.133608139161602</v>
       </c>
     </row>
@@ -19330,7 +19366,7 @@
         <v>70</v>
       </c>
       <c r="AR56" s="44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>70</v>
       </c>
       <c r="AS56" s="44">
@@ -19401,7 +19437,7 @@
         <v>500</v>
       </c>
       <c r="CX56" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>369</v>
       </c>
       <c r="CY56" s="44">
@@ -19409,27 +19445,27 @@
         <v>304</v>
       </c>
       <c r="CZ56" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>189</v>
       </c>
       <c r="DA56" s="44">
+        <f t="shared" si="72"/>
+        <v>189</v>
+      </c>
+      <c r="DB56" s="44">
         <f t="shared" si="73"/>
-        <v>189</v>
-      </c>
-      <c r="DB56" s="44">
-        <f t="shared" si="74"/>
         <v>290</v>
       </c>
       <c r="DC56" s="44">
+        <f t="shared" si="49"/>
+        <v>322</v>
+      </c>
+      <c r="DD56" s="44">
         <f t="shared" si="50"/>
-        <v>322</v>
-      </c>
-      <c r="DD56" s="44">
-        <f t="shared" si="51"/>
         <v>278</v>
       </c>
       <c r="DE56" s="44">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>66</v>
       </c>
       <c r="DF56" s="44">
@@ -19441,47 +19477,47 @@
         <v>59.4</v>
       </c>
       <c r="DH56" s="44">
-        <f t="shared" ref="DH56:DR56" si="77">+DG56*0.9</f>
+        <f t="shared" ref="DH56:DR56" si="76">+DG56*0.9</f>
         <v>53.46</v>
       </c>
       <c r="DI56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>48.114000000000004</v>
       </c>
       <c r="DJ56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>43.302600000000005</v>
       </c>
       <c r="DK56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>38.972340000000003</v>
       </c>
       <c r="DL56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>35.075106000000005</v>
       </c>
       <c r="DM56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>31.567595400000005</v>
       </c>
       <c r="DN56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>28.410835860000006</v>
       </c>
       <c r="DO56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>25.569752274000006</v>
       </c>
       <c r="DP56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>23.012777046600007</v>
       </c>
       <c r="DQ56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>20.711499341940009</v>
       </c>
       <c r="DR56" s="44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>18.640349407746008</v>
       </c>
     </row>
@@ -19596,7 +19632,7 @@
         <v>149</v>
       </c>
       <c r="AR57" s="44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>149</v>
       </c>
       <c r="AS57" s="44">
@@ -19671,7 +19707,7 @@
         <v>542</v>
       </c>
       <c r="CX57" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>511</v>
       </c>
       <c r="CY57" s="44">
@@ -19679,27 +19715,27 @@
         <v>529</v>
       </c>
       <c r="CZ57" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>398</v>
       </c>
       <c r="DA57" s="44">
+        <f t="shared" si="72"/>
+        <v>398</v>
+      </c>
+      <c r="DB57" s="44">
         <f t="shared" si="73"/>
-        <v>398</v>
-      </c>
-      <c r="DB57" s="44">
-        <f t="shared" si="74"/>
         <v>599</v>
       </c>
       <c r="DC57" s="44">
+        <f t="shared" si="49"/>
+        <v>605</v>
+      </c>
+      <c r="DD57" s="44">
         <f t="shared" si="50"/>
-        <v>605</v>
-      </c>
-      <c r="DD57" s="44">
-        <f t="shared" si="51"/>
         <v>595</v>
       </c>
       <c r="DE57" s="44">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>132</v>
       </c>
       <c r="DF57" s="44">
@@ -19707,51 +19743,51 @@
         <v>132</v>
       </c>
       <c r="DG57" s="44">
-        <f t="shared" ref="DG57:DR57" si="78">DF57</f>
+        <f t="shared" ref="DG57:DR57" si="77">DF57</f>
         <v>132</v>
       </c>
       <c r="DH57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DI57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DJ57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DK57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DL57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DM57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DN57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DO57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DP57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DQ57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
       <c r="DR57" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>132</v>
       </c>
     </row>
@@ -19886,7 +19922,7 @@
         <v>33</v>
       </c>
       <c r="AR58" s="44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>33</v>
       </c>
       <c r="AS58" s="44">
@@ -19959,7 +19995,7 @@
         <v>293</v>
       </c>
       <c r="CX58" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>334</v>
       </c>
       <c r="CY58" s="44">
@@ -19967,27 +20003,27 @@
         <v>271</v>
       </c>
       <c r="CZ58" s="44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>271</v>
       </c>
       <c r="DA58" s="44">
+        <f t="shared" si="72"/>
+        <v>271</v>
+      </c>
+      <c r="DB58" s="44">
         <f t="shared" si="73"/>
-        <v>271</v>
-      </c>
-      <c r="DB58" s="44">
-        <f t="shared" si="74"/>
         <v>143</v>
       </c>
       <c r="DC58" s="44">
+        <f t="shared" si="49"/>
+        <v>108</v>
+      </c>
+      <c r="DD58" s="44">
         <f t="shared" si="50"/>
-        <v>108</v>
-      </c>
-      <c r="DD58" s="44">
-        <f t="shared" si="51"/>
         <v>131</v>
       </c>
       <c r="DE58" s="44">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>16</v>
       </c>
       <c r="DF58" s="44">
@@ -19995,51 +20031,51 @@
         <v>16</v>
       </c>
       <c r="DG58" s="44">
-        <f t="shared" ref="DG58:DR58" si="79">DF58</f>
+        <f t="shared" ref="DG58:DR58" si="78">DF58</f>
         <v>16</v>
       </c>
       <c r="DH58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DI58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DJ58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DK58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DL58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DM58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DN58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DO58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DP58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DQ58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
       <c r="DR58" s="44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>16</v>
       </c>
     </row>
@@ -20176,15 +20212,15 @@
       <c r="CZ59" s="44"/>
       <c r="DA59" s="44"/>
       <c r="DB59" s="44">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>389</v>
       </c>
       <c r="DC59" s="44">
+        <f t="shared" si="49"/>
+        <v>39</v>
+      </c>
+      <c r="DD59" s="44">
         <f t="shared" si="50"/>
-        <v>39</v>
-      </c>
-      <c r="DD59" s="44">
-        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="DE59" s="44"/>
@@ -20323,7 +20359,7 @@
       <c r="DB60" s="44"/>
       <c r="DC60" s="44"/>
       <c r="DD60" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>32</v>
       </c>
       <c r="DE60" s="44">
@@ -20343,35 +20379,35 @@
         <v>43.199999999999996</v>
       </c>
       <c r="DI60" s="44">
-        <f t="shared" ref="DI60:DP60" si="80">+DH60*1.2</f>
+        <f t="shared" ref="DI60:DP60" si="79">+DH60*1.2</f>
         <v>51.839999999999996</v>
       </c>
       <c r="DJ60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>62.207999999999991</v>
       </c>
       <c r="DK60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>74.649599999999992</v>
       </c>
       <c r="DL60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>89.579519999999988</v>
       </c>
       <c r="DM60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>107.49542399999999</v>
       </c>
       <c r="DN60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>128.99450879999998</v>
       </c>
       <c r="DO60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>154.79341055999996</v>
       </c>
       <c r="DP60" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>185.75209267199995</v>
       </c>
       <c r="DQ60" s="44">
@@ -21179,31 +21215,31 @@
       </c>
       <c r="DE64" s="44"/>
       <c r="DF64" s="43">
-        <f t="shared" ref="DF64:DL64" si="81">DE64*0.5</f>
+        <f t="shared" ref="DF64:DL64" si="80">DE64*0.5</f>
         <v>0</v>
       </c>
       <c r="DG64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DH64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DI64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DJ64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DK64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DL64" s="43">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="DM64" s="44"/>
@@ -22017,31 +22053,31 @@
         <v>0</v>
       </c>
       <c r="DG69" s="44">
-        <f t="shared" ref="DG69:DM69" si="82">DF69</f>
+        <f t="shared" ref="DG69:DM69" si="81">DF69</f>
         <v>0</v>
       </c>
       <c r="DH69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DI69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DJ69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DK69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DL69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DM69" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DN69" s="44">
@@ -22128,296 +22164,296 @@
         <v>5789</v>
       </c>
       <c r="V70" s="74">
-        <f t="shared" ref="V70:BA70" si="83">SUM(V13:V69)</f>
+        <f t="shared" ref="V70:BA70" si="82">SUM(V13:V69)</f>
         <v>6022</v>
       </c>
       <c r="W70" s="74">
+        <f t="shared" si="82"/>
+        <v>5903</v>
+      </c>
+      <c r="X70" s="74">
+        <f t="shared" si="82"/>
+        <v>6317</v>
+      </c>
+      <c r="Y70" s="74">
+        <f t="shared" si="82"/>
+        <v>6240</v>
+      </c>
+      <c r="Z70" s="74">
+        <f t="shared" si="82"/>
+        <v>6902</v>
+      </c>
+      <c r="AA70" s="74">
+        <f t="shared" si="82"/>
+        <v>6612</v>
+      </c>
+      <c r="AB70" s="74">
+        <f t="shared" si="82"/>
+        <v>6859</v>
+      </c>
+      <c r="AC70" s="74">
+        <f t="shared" si="82"/>
+        <v>6779</v>
+      </c>
+      <c r="AD70" s="74">
+        <f t="shared" si="82"/>
+        <v>8251</v>
+      </c>
+      <c r="AE70" s="74">
+        <f t="shared" si="82"/>
+        <v>7744</v>
+      </c>
+      <c r="AF70" s="74">
+        <f t="shared" si="82"/>
+        <v>7438</v>
+      </c>
+      <c r="AG70" s="74">
+        <f t="shared" si="82"/>
+        <v>7274</v>
+      </c>
+      <c r="AH70" s="74">
+        <f t="shared" si="82"/>
+        <v>7679</v>
+      </c>
+      <c r="AI70" s="74">
+        <f t="shared" si="82"/>
+        <v>7186</v>
+      </c>
+      <c r="AJ70" s="74">
+        <f t="shared" si="82"/>
+        <v>7407</v>
+      </c>
+      <c r="AK70" s="74">
+        <f t="shared" si="82"/>
+        <v>7638</v>
+      </c>
+      <c r="AL70" s="74">
+        <f t="shared" si="82"/>
+        <v>8279</v>
+      </c>
+      <c r="AM70" s="74">
+        <f t="shared" si="82"/>
+        <v>7875</v>
+      </c>
+      <c r="AN70" s="74">
+        <f t="shared" si="82"/>
+        <v>7514</v>
+      </c>
+      <c r="AO70" s="74">
+        <f t="shared" si="82"/>
+        <v>7258</v>
+      </c>
+      <c r="AP70" s="74">
+        <f t="shared" si="82"/>
+        <v>7876</v>
+      </c>
+      <c r="AQ70" s="94">
+        <f t="shared" si="82"/>
+        <v>7540</v>
+      </c>
+      <c r="AR70" s="74">
+        <f t="shared" si="82"/>
+        <v>7082.16</v>
+      </c>
+      <c r="AS70" s="74">
+        <f t="shared" si="82"/>
+        <v>7458</v>
+      </c>
+      <c r="AT70" s="74">
+        <f t="shared" si="82"/>
+        <v>7817</v>
+      </c>
+      <c r="AU70" s="74">
+        <f t="shared" si="82"/>
+        <v>6626</v>
+      </c>
+      <c r="AV70" s="74">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="74">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AX70" s="74">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AY70" s="74">
+        <f t="shared" si="82"/>
+        <v>4825</v>
+      </c>
+      <c r="AZ70" s="74">
+        <f t="shared" si="82"/>
+        <v>4461</v>
+      </c>
+      <c r="BA70" s="74">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BB70" s="74">
+        <f t="shared" ref="BB70:BV70" si="83">SUM(BB13:BB69)</f>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="74">
         <f t="shared" si="83"/>
-        <v>5903</v>
-      </c>
-      <c r="X70" s="74">
+        <v>5488</v>
+      </c>
+      <c r="BD70" s="74">
         <f t="shared" si="83"/>
-        <v>6317</v>
-      </c>
-      <c r="Y70" s="74">
-        <f t="shared" si="83"/>
-        <v>6240</v>
-      </c>
-      <c r="Z70" s="74">
-        <f t="shared" si="83"/>
-        <v>6902</v>
-      </c>
-      <c r="AA70" s="74">
-        <f t="shared" si="83"/>
-        <v>6612</v>
-      </c>
-      <c r="AB70" s="74">
-        <f t="shared" si="83"/>
-        <v>6859</v>
-      </c>
-      <c r="AC70" s="74">
-        <f t="shared" si="83"/>
-        <v>6779</v>
-      </c>
-      <c r="AD70" s="74">
-        <f t="shared" si="83"/>
-        <v>8251</v>
-      </c>
-      <c r="AE70" s="74">
-        <f t="shared" si="83"/>
-        <v>7744</v>
-      </c>
-      <c r="AF70" s="74">
-        <f t="shared" si="83"/>
-        <v>7438</v>
-      </c>
-      <c r="AG70" s="74">
-        <f t="shared" si="83"/>
-        <v>7274</v>
-      </c>
-      <c r="AH70" s="74">
-        <f t="shared" si="83"/>
-        <v>7679</v>
-      </c>
-      <c r="AI70" s="74">
-        <f t="shared" si="83"/>
-        <v>7186</v>
-      </c>
-      <c r="AJ70" s="74">
-        <f t="shared" si="83"/>
-        <v>7407</v>
-      </c>
-      <c r="AK70" s="74">
-        <f t="shared" si="83"/>
-        <v>7638</v>
-      </c>
-      <c r="AL70" s="74">
-        <f t="shared" si="83"/>
-        <v>8279</v>
-      </c>
-      <c r="AM70" s="74">
-        <f t="shared" si="83"/>
-        <v>7875</v>
-      </c>
-      <c r="AN70" s="74">
-        <f t="shared" si="83"/>
-        <v>7514</v>
-      </c>
-      <c r="AO70" s="74">
-        <f t="shared" si="83"/>
-        <v>7258</v>
-      </c>
-      <c r="AP70" s="74">
-        <f t="shared" si="83"/>
-        <v>7876</v>
-      </c>
-      <c r="AQ70" s="94">
-        <f t="shared" si="83"/>
-        <v>7540</v>
-      </c>
-      <c r="AR70" s="74">
-        <f t="shared" si="83"/>
-        <v>7082.16</v>
-      </c>
-      <c r="AS70" s="74">
-        <f t="shared" si="83"/>
-        <v>7458</v>
-      </c>
-      <c r="AT70" s="74">
-        <f t="shared" si="83"/>
-        <v>7817</v>
-      </c>
-      <c r="AU70" s="74">
-        <f t="shared" si="83"/>
-        <v>6626</v>
-      </c>
-      <c r="AV70" s="74">
+        <v>5526</v>
+      </c>
+      <c r="BE70" s="74">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="AW70" s="74">
+      <c r="BF70" s="74">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="AX70" s="74">
+      <c r="BG70" s="74">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="AY70" s="74">
-        <f t="shared" si="83"/>
-        <v>4825</v>
-      </c>
-      <c r="AZ70" s="74">
-        <f t="shared" si="83"/>
-        <v>4461</v>
-      </c>
-      <c r="BA70" s="74">
+      <c r="BH70" s="74">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="BB70" s="74">
-        <f t="shared" ref="BB70:BV70" si="84">SUM(BB13:BB69)</f>
+      <c r="BI70" s="74">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="BC70" s="74">
+      <c r="BJ70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BK70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BL70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BM70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BN70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BO70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BP70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BR70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BS70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BT70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BU70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BV70" s="74">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BW70" s="95">
+        <f t="shared" ref="BW70:CP70" si="84">SUM(BW3:BW69)</f>
+        <v>5465</v>
+      </c>
+      <c r="BX70" s="95">
         <f t="shared" si="84"/>
-        <v>5488</v>
-      </c>
-      <c r="BD70" s="74">
+        <v>5718</v>
+      </c>
+      <c r="BY70" s="95">
         <f t="shared" si="84"/>
-        <v>5526</v>
-      </c>
-      <c r="BE70" s="74">
+        <v>6128</v>
+      </c>
+      <c r="BZ70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BF70" s="74">
+        <v>6667</v>
+      </c>
+      <c r="CA70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BG70" s="74">
+        <v>6354</v>
+      </c>
+      <c r="CB70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BH70" s="74">
+        <v>6275</v>
+      </c>
+      <c r="CC70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BI70" s="74">
+        <v>6578</v>
+      </c>
+      <c r="CD70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BJ70" s="74">
+        <v>7410</v>
+      </c>
+      <c r="CE70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BK70" s="74">
+        <v>7320</v>
+      </c>
+      <c r="CF70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BL70" s="74">
+        <v>8220</v>
+      </c>
+      <c r="CG70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BM70" s="74">
+        <v>9866</v>
+      </c>
+      <c r="CH70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BN70" s="74">
+        <v>12011</v>
+      </c>
+      <c r="CI70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BO70" s="74">
+        <v>11390</v>
+      </c>
+      <c r="CJ70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BP70" s="74">
+        <v>10771</v>
+      </c>
+      <c r="CK70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BQ70" s="74">
+        <v>10982</v>
+      </c>
+      <c r="CL70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BR70" s="74">
+        <v>8979.7999999999975</v>
+      </c>
+      <c r="CM70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BS70" s="74">
+        <v>8912.6500000000015</v>
+      </c>
+      <c r="CN70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BT70" s="74">
+        <v>9161.0000000000018</v>
+      </c>
+      <c r="CO70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BU70" s="74">
+        <v>9075.5000000000018</v>
+      </c>
+      <c r="CP70" s="95">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BV70" s="74">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="BW70" s="95">
-        <f t="shared" ref="BW70:CP70" si="85">SUM(BW3:BW69)</f>
-        <v>5465</v>
-      </c>
-      <c r="BX70" s="95">
-        <f t="shared" si="85"/>
-        <v>5718</v>
-      </c>
-      <c r="BY70" s="95">
-        <f t="shared" si="85"/>
-        <v>6128</v>
-      </c>
-      <c r="BZ70" s="95">
-        <f t="shared" si="85"/>
-        <v>6667</v>
-      </c>
-      <c r="CA70" s="95">
-        <f t="shared" si="85"/>
-        <v>6354</v>
-      </c>
-      <c r="CB70" s="95">
-        <f t="shared" si="85"/>
-        <v>6275</v>
-      </c>
-      <c r="CC70" s="95">
-        <f t="shared" si="85"/>
-        <v>6578</v>
-      </c>
-      <c r="CD70" s="95">
-        <f t="shared" si="85"/>
-        <v>7410</v>
-      </c>
-      <c r="CE70" s="95">
-        <f t="shared" si="85"/>
-        <v>7320</v>
-      </c>
-      <c r="CF70" s="95">
-        <f t="shared" si="85"/>
-        <v>8220</v>
-      </c>
-      <c r="CG70" s="95">
-        <f t="shared" si="85"/>
-        <v>9866</v>
-      </c>
-      <c r="CH70" s="95">
-        <f t="shared" si="85"/>
-        <v>12011</v>
-      </c>
-      <c r="CI70" s="95">
-        <f t="shared" si="85"/>
-        <v>11390</v>
-      </c>
-      <c r="CJ70" s="95">
-        <f t="shared" si="85"/>
-        <v>10771</v>
-      </c>
-      <c r="CK70" s="95">
-        <f t="shared" si="85"/>
-        <v>8600</v>
-      </c>
-      <c r="CL70" s="95">
-        <f t="shared" si="85"/>
-        <v>8856.7999999999993</v>
-      </c>
-      <c r="CM70" s="95">
-        <f t="shared" si="85"/>
-        <v>8789.6500000000015</v>
-      </c>
-      <c r="CN70" s="95">
-        <f t="shared" si="85"/>
-        <v>9045.0000000000018</v>
-      </c>
-      <c r="CO70" s="95">
-        <f t="shared" si="85"/>
-        <v>8319.994999999999</v>
-      </c>
-      <c r="CP70" s="95">
-        <f t="shared" si="85"/>
-        <v>8750.0650000000005</v>
+        <v>8860.8150000000005</v>
       </c>
       <c r="CQ70" s="74"/>
       <c r="CR70" s="74"/>
@@ -22433,87 +22469,87 @@
         <v>21426</v>
       </c>
       <c r="CX70" s="96">
-        <f t="shared" ref="CX70:DR70" si="86">SUM(CX13:CX69)</f>
+        <f t="shared" ref="CX70:DR70" si="85">SUM(CX13:CX69)</f>
         <v>22944.25</v>
       </c>
       <c r="CY70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>25362</v>
       </c>
       <c r="CZ70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>28311</v>
       </c>
       <c r="DA70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>29874</v>
       </c>
       <c r="DB70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>30510</v>
       </c>
       <c r="DC70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>30518</v>
       </c>
       <c r="DD70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>29897.159999999996</v>
       </c>
       <c r="DE70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>7026</v>
       </c>
       <c r="DF70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6264.9</v>
       </c>
       <c r="DG70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6121.1438000000007</v>
       </c>
       <c r="DH70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>5506.4488259999998</v>
       </c>
       <c r="DI70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>5074.6351404600009</v>
       </c>
       <c r="DJ70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4365.5005070085008</v>
       </c>
       <c r="DK70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3892.4491569880784</v>
       </c>
       <c r="DL70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3736.9021128875552</v>
       </c>
       <c r="DM70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3900.5810200377623</v>
       </c>
       <c r="DN70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3869.9185174782288</v>
       </c>
       <c r="DO70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3583.8583301657941</v>
       </c>
       <c r="DP70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3377.539008964085</v>
       </c>
       <c r="DQ70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3107.5481422477337</v>
       </c>
       <c r="DR70" s="96">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>3003.1563596963506</v>
       </c>
     </row>
@@ -22665,25 +22701,25 @@
         <v>1451</v>
       </c>
       <c r="AV71" s="38">
-        <f t="shared" ref="AV71:BB71" si="87">+AV70-AV72</f>
+        <f t="shared" ref="AV71:BB71" si="86">+AV70-AV72</f>
         <v>0</v>
       </c>
       <c r="AW71" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AX71" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AY71" s="38"/>
       <c r="AZ71" s="38"/>
       <c r="BA71" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="BB71" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="BC71" s="38"/>
@@ -22783,7 +22819,7 @@
         <v>6143.487000000001</v>
       </c>
       <c r="DA71" s="38">
-        <f t="shared" ref="DA71:DH71" si="88">DA70-DA72</f>
+        <f t="shared" ref="DA71:DH71" si="87">DA70-DA72</f>
         <v>6452.7839999999997</v>
       </c>
       <c r="DB71" s="38">
@@ -22799,59 +22835,59 @@
         <v>6005.9672</v>
       </c>
       <c r="DE71" s="38">
+        <f t="shared" si="87"/>
+        <v>1597.1107765908646</v>
+      </c>
+      <c r="DF71" s="38">
+        <f t="shared" si="87"/>
+        <v>1455.4263081787794</v>
+      </c>
+      <c r="DG71" s="38">
+        <f t="shared" si="87"/>
+        <v>1452.6353958767941</v>
+      </c>
+      <c r="DH71" s="38">
+        <f t="shared" si="87"/>
+        <v>1334.2916883750149</v>
+      </c>
+      <c r="DI71" s="38">
+        <f t="shared" ref="DI71:DR71" si="88">DI70-DI72</f>
+        <v>1255.0302021111302</v>
+      </c>
+      <c r="DJ71" s="38">
         <f t="shared" si="88"/>
-        <v>1597.1107765908646</v>
-      </c>
-      <c r="DF71" s="38">
+        <v>1101.4785182197838</v>
+      </c>
+      <c r="DK71" s="38">
         <f t="shared" si="88"/>
-        <v>1455.4263081787794</v>
-      </c>
-      <c r="DG71" s="38">
+        <v>1001.5831097733608</v>
+      </c>
+      <c r="DL71" s="38">
         <f t="shared" si="88"/>
-        <v>1452.6353958767941</v>
-      </c>
-      <c r="DH71" s="38">
+        <v>980.24313039255094</v>
+      </c>
+      <c r="DM71" s="38">
         <f t="shared" si="88"/>
-        <v>1334.2916883750149</v>
-      </c>
-      <c r="DI71" s="38">
-        <f t="shared" ref="DI71:DR71" si="89">DI70-DI72</f>
-        <v>1255.0302021111302</v>
-      </c>
-      <c r="DJ71" s="38">
-        <f t="shared" si="89"/>
-        <v>1101.4785182197838</v>
-      </c>
-      <c r="DK71" s="38">
-        <f t="shared" si="89"/>
-        <v>1001.5831097733608</v>
-      </c>
-      <c r="DL71" s="38">
-        <f t="shared" si="89"/>
-        <v>980.24313039255094</v>
-      </c>
-      <c r="DM71" s="38">
-        <f t="shared" si="89"/>
         <v>1042.6813652063065</v>
       </c>
       <c r="DN71" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1053.834430182766</v>
       </c>
       <c r="DO71" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>993.8554216154248</v>
       </c>
       <c r="DP71" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>953.52780370147457</v>
       </c>
       <c r="DQ71" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>892.84324247149607</v>
       </c>
       <c r="DR71" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>877.86576484033003</v>
       </c>
     </row>
@@ -22905,35 +22941,35 @@
         <v>4898</v>
       </c>
       <c r="W72" s="46">
-        <f t="shared" ref="W72:AD72" si="90">W70-W71</f>
+        <f t="shared" ref="W72:AD72" si="89">W70-W71</f>
         <v>4598</v>
       </c>
       <c r="X72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4868</v>
       </c>
       <c r="Y72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4848</v>
       </c>
       <c r="Z72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5263</v>
       </c>
       <c r="AA72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5065</v>
       </c>
       <c r="AB72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5130</v>
       </c>
       <c r="AC72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5276</v>
       </c>
       <c r="AD72" s="46">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>6363</v>
       </c>
       <c r="AE72" s="46">
@@ -23047,15 +23083,15 @@
       <c r="BX72" s="83"/>
       <c r="BY72" s="83"/>
       <c r="BZ72" s="83">
-        <f t="shared" ref="BZ72:CD72" si="91">BZ70-BZ71</f>
+        <f t="shared" ref="BZ72:CD72" si="90">BZ70-BZ71</f>
         <v>5197</v>
       </c>
       <c r="CA72" s="83">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>4847</v>
       </c>
       <c r="CB72" s="83">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>5187</v>
       </c>
       <c r="CC72" s="83">
@@ -23063,7 +23099,7 @@
         <v>5109</v>
       </c>
       <c r="CD72" s="83">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>5802</v>
       </c>
       <c r="CE72" s="83">
@@ -23119,7 +23155,7 @@
         <v>22167.512999999999</v>
       </c>
       <c r="DA72" s="46">
-        <f t="shared" ref="DA72:DH72" si="92">DA70*DA86</f>
+        <f t="shared" ref="DA72:DH72" si="91">DA70*DA86</f>
         <v>23421.216</v>
       </c>
       <c r="DB72" s="46">
@@ -23139,55 +23175,55 @@
         <v>5428.8892234091354</v>
       </c>
       <c r="DF72" s="46">
+        <f t="shared" si="91"/>
+        <v>4809.4736918212202</v>
+      </c>
+      <c r="DG72" s="46">
+        <f t="shared" si="91"/>
+        <v>4668.5084041232067</v>
+      </c>
+      <c r="DH72" s="46">
+        <f t="shared" si="91"/>
+        <v>4172.1571376249849</v>
+      </c>
+      <c r="DI72" s="46">
+        <f t="shared" ref="DI72:DR72" si="92">DI70*DI86</f>
+        <v>3819.6049383488707</v>
+      </c>
+      <c r="DJ72" s="46">
         <f t="shared" si="92"/>
-        <v>4809.4736918212202</v>
-      </c>
-      <c r="DG72" s="46">
+        <v>3264.021988788717</v>
+      </c>
+      <c r="DK72" s="46">
         <f t="shared" si="92"/>
-        <v>4668.5084041232067</v>
-      </c>
-      <c r="DH72" s="46">
+        <v>2890.8660472147176</v>
+      </c>
+      <c r="DL72" s="46">
         <f t="shared" si="92"/>
-        <v>4172.1571376249849</v>
-      </c>
-      <c r="DI72" s="46">
-        <f t="shared" ref="DI72:DR72" si="93">DI70*DI86</f>
-        <v>3819.6049383488707</v>
-      </c>
-      <c r="DJ72" s="46">
-        <f t="shared" si="93"/>
-        <v>3264.021988788717</v>
-      </c>
-      <c r="DK72" s="46">
-        <f t="shared" si="93"/>
-        <v>2890.8660472147176</v>
-      </c>
-      <c r="DL72" s="46">
-        <f t="shared" si="93"/>
         <v>2756.6589824950042</v>
       </c>
       <c r="DM72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2857.8996548314558</v>
       </c>
       <c r="DN72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2816.0840872954627</v>
       </c>
       <c r="DO72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2590.0029085503693</v>
       </c>
       <c r="DP72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2424.0112052626105</v>
       </c>
       <c r="DQ72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2214.7048997762377</v>
       </c>
       <c r="DR72" s="46">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2125.2905948560206</v>
       </c>
     </row>
@@ -23683,55 +23719,55 @@
         <v>2178.06</v>
       </c>
       <c r="DF74" s="46">
-        <f t="shared" ref="DF74:DL74" si="94">+DF70*DF88</f>
+        <f t="shared" ref="DF74:DL74" si="93">+DF70*DF88</f>
         <v>1942.1189999999999</v>
       </c>
       <c r="DG74" s="46">
+        <f t="shared" si="93"/>
+        <v>1897.5545780000002</v>
+      </c>
+      <c r="DH74" s="46">
+        <f t="shared" si="93"/>
+        <v>1762.0636243199999</v>
+      </c>
+      <c r="DI74" s="46">
+        <f t="shared" si="93"/>
+        <v>1623.8832449472004</v>
+      </c>
+      <c r="DJ74" s="46">
+        <f t="shared" si="93"/>
+        <v>1440.6151673128054</v>
+      </c>
+      <c r="DK74" s="46">
+        <f t="shared" si="93"/>
+        <v>1323.4327133759468</v>
+      </c>
+      <c r="DL74" s="46">
+        <f t="shared" si="93"/>
+        <v>1307.9157395106442</v>
+      </c>
+      <c r="DM74" s="46">
+        <f t="shared" ref="DM74:DR74" si="94">+DM70*DM88</f>
+        <v>1404.2091672135944</v>
+      </c>
+      <c r="DN74" s="46">
         <f t="shared" si="94"/>
-        <v>1897.5545780000002</v>
-      </c>
-      <c r="DH74" s="46">
+        <v>1393.1706662921622</v>
+      </c>
+      <c r="DO74" s="46">
         <f t="shared" si="94"/>
-        <v>1762.0636243199999</v>
-      </c>
-      <c r="DI74" s="46">
+        <v>1290.1889988596859</v>
+      </c>
+      <c r="DP74" s="46">
         <f t="shared" si="94"/>
-        <v>1623.8832449472004</v>
-      </c>
-      <c r="DJ74" s="46">
+        <v>1215.9140432270706</v>
+      </c>
+      <c r="DQ74" s="46">
         <f t="shared" si="94"/>
-        <v>1440.6151673128054</v>
-      </c>
-      <c r="DK74" s="46">
+        <v>1118.7173312091841</v>
+      </c>
+      <c r="DR74" s="46">
         <f t="shared" si="94"/>
-        <v>1323.4327133759468</v>
-      </c>
-      <c r="DL74" s="46">
-        <f t="shared" si="94"/>
-        <v>1307.9157395106442</v>
-      </c>
-      <c r="DM74" s="46">
-        <f t="shared" ref="DM74:DR74" si="95">+DM70*DM88</f>
-        <v>1404.2091672135944</v>
-      </c>
-      <c r="DN74" s="46">
-        <f t="shared" si="95"/>
-        <v>1393.1706662921622</v>
-      </c>
-      <c r="DO74" s="46">
-        <f t="shared" si="95"/>
-        <v>1290.1889988596859</v>
-      </c>
-      <c r="DP74" s="46">
-        <f t="shared" si="95"/>
-        <v>1215.9140432270706</v>
-      </c>
-      <c r="DQ74" s="46">
-        <f t="shared" si="95"/>
-        <v>1118.7173312091841</v>
-      </c>
-      <c r="DR74" s="46">
-        <f t="shared" si="95"/>
         <v>1081.1362894906861</v>
       </c>
     </row>
@@ -24025,99 +24061,99 @@
         <v>1636</v>
       </c>
       <c r="W76" s="46">
-        <f t="shared" ref="W76:AD76" si="96">W72-W73-W74+W75</f>
+        <f t="shared" ref="W76:AD76" si="95">W72-W73-W74+W75</f>
         <v>1699</v>
       </c>
       <c r="X76" s="46">
+        <f t="shared" si="95"/>
+        <v>1823</v>
+      </c>
+      <c r="Y76" s="46">
+        <f t="shared" si="95"/>
+        <v>1830</v>
+      </c>
+      <c r="Z76" s="46">
+        <f t="shared" si="95"/>
+        <v>1751</v>
+      </c>
+      <c r="AA76" s="46">
+        <f t="shared" si="95"/>
+        <v>1816</v>
+      </c>
+      <c r="AB76" s="46">
+        <f t="shared" si="95"/>
+        <v>1559</v>
+      </c>
+      <c r="AC76" s="46">
+        <f t="shared" si="95"/>
+        <v>1651</v>
+      </c>
+      <c r="AD76" s="46">
+        <f t="shared" si="95"/>
+        <v>2010</v>
+      </c>
+      <c r="AE76" s="46">
+        <f t="shared" ref="AE76:AL76" si="96">AE72-AE73-AE74+AE75</f>
+        <v>2324</v>
+      </c>
+      <c r="AF76" s="46">
         <f t="shared" si="96"/>
-        <v>1823</v>
-      </c>
-      <c r="Y76" s="46">
+        <v>1955</v>
+      </c>
+      <c r="AG76" s="46">
         <f t="shared" si="96"/>
-        <v>1830</v>
-      </c>
-      <c r="Z76" s="46">
+        <v>2021</v>
+      </c>
+      <c r="AH76" s="46">
         <f t="shared" si="96"/>
-        <v>1751</v>
-      </c>
-      <c r="AA76" s="46">
+        <v>1378</v>
+      </c>
+      <c r="AI76" s="46">
         <f t="shared" si="96"/>
-        <v>1816</v>
-      </c>
-      <c r="AB76" s="46">
+        <v>2648</v>
+      </c>
+      <c r="AJ76" s="46">
         <f t="shared" si="96"/>
-        <v>1559</v>
-      </c>
-      <c r="AC76" s="46">
+        <v>2300</v>
+      </c>
+      <c r="AK76" s="46">
         <f t="shared" si="96"/>
-        <v>1651</v>
-      </c>
-      <c r="AD76" s="46">
+        <v>2642</v>
+      </c>
+      <c r="AL76" s="46">
         <f t="shared" si="96"/>
-        <v>2010</v>
-      </c>
-      <c r="AE76" s="46">
-        <f t="shared" ref="AE76:AL76" si="97">AE72-AE73-AE74+AE75</f>
-        <v>2324</v>
-      </c>
-      <c r="AF76" s="46">
+        <v>1659</v>
+      </c>
+      <c r="AM76" s="46">
+        <f t="shared" ref="AM76:AT76" si="97">AM72-AM73-AM74+AM75</f>
+        <v>2942</v>
+      </c>
+      <c r="AN76" s="46">
         <f t="shared" si="97"/>
-        <v>1955</v>
-      </c>
-      <c r="AG76" s="46">
+        <v>2370</v>
+      </c>
+      <c r="AO76" s="46">
         <f t="shared" si="97"/>
-        <v>2021</v>
-      </c>
-      <c r="AH76" s="46">
+        <v>1766</v>
+      </c>
+      <c r="AP76" s="46">
         <f t="shared" si="97"/>
-        <v>1378</v>
-      </c>
-      <c r="AI76" s="46">
+        <v>1757</v>
+      </c>
+      <c r="AQ76" s="46">
         <f t="shared" si="97"/>
-        <v>2648</v>
-      </c>
-      <c r="AJ76" s="46">
+        <v>2649</v>
+      </c>
+      <c r="AR76" s="46">
         <f t="shared" si="97"/>
-        <v>2300</v>
-      </c>
-      <c r="AK76" s="46">
+        <v>2406.1927999999998</v>
+      </c>
+      <c r="AS76" s="46">
         <f t="shared" si="97"/>
-        <v>2642</v>
-      </c>
-      <c r="AL76" s="46">
+        <v>1832</v>
+      </c>
+      <c r="AT76" s="46">
         <f t="shared" si="97"/>
-        <v>1659</v>
-      </c>
-      <c r="AM76" s="46">
-        <f t="shared" ref="AM76:AT76" si="98">AM72-AM73-AM74+AM75</f>
-        <v>2942</v>
-      </c>
-      <c r="AN76" s="46">
-        <f t="shared" si="98"/>
-        <v>2370</v>
-      </c>
-      <c r="AO76" s="46">
-        <f t="shared" si="98"/>
-        <v>1766</v>
-      </c>
-      <c r="AP76" s="46">
-        <f t="shared" si="98"/>
-        <v>1757</v>
-      </c>
-      <c r="AQ76" s="46">
-        <f t="shared" si="98"/>
-        <v>2649</v>
-      </c>
-      <c r="AR76" s="46">
-        <f t="shared" si="98"/>
-        <v>2406.1927999999998</v>
-      </c>
-      <c r="AS76" s="46">
-        <f t="shared" si="98"/>
-        <v>1832</v>
-      </c>
-      <c r="AT76" s="46">
-        <f t="shared" si="98"/>
         <v>1328</v>
       </c>
       <c r="AU76" s="46">
@@ -24167,47 +24203,47 @@
       <c r="BX76" s="83"/>
       <c r="BY76" s="83"/>
       <c r="BZ76" s="83">
-        <f t="shared" ref="BZ76:CJ76" si="99">BZ72-BZ73-BZ74+BZ75</f>
+        <f t="shared" ref="BZ76:CJ76" si="98">BZ72-BZ73-BZ74+BZ75</f>
         <v>580</v>
       </c>
       <c r="CA76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1220</v>
       </c>
       <c r="CB76" s="83">
-        <f t="shared" ref="CB76" si="100">CB72-CB73-CB74+CB75</f>
+        <f t="shared" ref="CB76" si="99">CB72-CB73-CB74+CB75</f>
         <v>1284</v>
       </c>
       <c r="CC76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1171</v>
       </c>
       <c r="CD76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1899</v>
       </c>
       <c r="CE76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2722</v>
       </c>
       <c r="CF76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1805</v>
       </c>
       <c r="CG76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2281</v>
       </c>
       <c r="CH76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3172</v>
       </c>
       <c r="CI76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3961</v>
       </c>
       <c r="CJ76" s="83">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3365</v>
       </c>
       <c r="CK76" s="83"/>
@@ -24239,7 +24275,7 @@
         <v>9602.5529999999981</v>
       </c>
       <c r="DA76" s="46">
-        <f t="shared" ref="DA76:DO76" si="101">DA72-DA73-DA74+DA75</f>
+        <f t="shared" ref="DA76:DO76" si="100">DA72-DA73-DA74+DA75</f>
         <v>10764.386399999999</v>
       </c>
       <c r="DB76" s="46">
@@ -24251,39 +24287,39 @@
         <v>8835</v>
       </c>
       <c r="DD76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>8215.1928000000007</v>
       </c>
       <c r="DE76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3250.8292234091355</v>
       </c>
       <c r="DF76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2867.3546918212205</v>
       </c>
       <c r="DG76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2770.9538261232065</v>
       </c>
       <c r="DH76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2410.0935133049852</v>
       </c>
       <c r="DI76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2195.7216934016706</v>
       </c>
       <c r="DJ76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1823.4068214759116</v>
       </c>
       <c r="DK76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1567.4333338387707</v>
       </c>
       <c r="DL76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1448.74324298436</v>
       </c>
       <c r="DM76" s="46">
@@ -24291,11 +24327,11 @@
         <v>1453.6904876178614</v>
       </c>
       <c r="DN76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1422.9134210033005</v>
       </c>
       <c r="DO76" s="46">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1299.8139096906834</v>
       </c>
       <c r="DP76" s="46">
@@ -24577,59 +24613,59 @@
         <v>-434</v>
       </c>
       <c r="DE77" s="46">
-        <f t="shared" ref="DE77:DR77" si="102">DD92*$DV$90</f>
+        <f t="shared" ref="DE77:DR77" si="101">DD92*$DV$90</f>
         <v>0</v>
       </c>
       <c r="DF77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>-50</v>
       </c>
       <c r="DG77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>55.650800943295785</v>
       </c>
       <c r="DH77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>161.64847445828963</v>
       </c>
       <c r="DI77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>258.0887989994124</v>
       </c>
       <c r="DJ77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>350.10669246445303</v>
       </c>
       <c r="DK77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>431.61344923721663</v>
       </c>
       <c r="DL77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>506.5777036025662</v>
       </c>
       <c r="DM77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>579.90223909957592</v>
       </c>
       <c r="DN77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>656.16196635147992</v>
       </c>
       <c r="DO77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>734.12729337728422</v>
       </c>
       <c r="DP77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>810.400088492333</v>
       </c>
       <c r="DQ77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>886.09373538712816</v>
       </c>
       <c r="DR77" s="46">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>960.42178428541001</v>
       </c>
     </row>
@@ -24683,115 +24719,115 @@
         <v>1689</v>
       </c>
       <c r="W78" s="46">
-        <f t="shared" ref="W78:AB78" si="103">W76+W77</f>
+        <f t="shared" ref="W78:AB78" si="102">W76+W77</f>
         <v>1767</v>
       </c>
       <c r="X78" s="46">
+        <f t="shared" si="102"/>
+        <v>1901</v>
+      </c>
+      <c r="Y78" s="46">
+        <f t="shared" si="102"/>
+        <v>1911</v>
+      </c>
+      <c r="Z78" s="46">
+        <f t="shared" si="102"/>
+        <v>1851</v>
+      </c>
+      <c r="AA78" s="46">
+        <f t="shared" si="102"/>
+        <v>1913</v>
+      </c>
+      <c r="AB78" s="46">
+        <f t="shared" si="102"/>
+        <v>1577</v>
+      </c>
+      <c r="AC78" s="46">
+        <f t="shared" ref="AC78:AH78" si="103">AC76+AC77</f>
+        <v>1517</v>
+      </c>
+      <c r="AD78" s="46">
         <f t="shared" si="103"/>
-        <v>1901</v>
-      </c>
-      <c r="Y78" s="46">
+        <v>1918</v>
+      </c>
+      <c r="AE78" s="46">
         <f t="shared" si="103"/>
-        <v>1911</v>
-      </c>
-      <c r="Z78" s="46">
+        <v>2210</v>
+      </c>
+      <c r="AF78" s="46">
         <f t="shared" si="103"/>
-        <v>1851</v>
-      </c>
-      <c r="AA78" s="46">
+        <v>1761</v>
+      </c>
+      <c r="AG78" s="46">
         <f t="shared" si="103"/>
-        <v>1913</v>
-      </c>
-      <c r="AB78" s="46">
+        <v>1942</v>
+      </c>
+      <c r="AH78" s="46">
         <f t="shared" si="103"/>
-        <v>1577</v>
-      </c>
-      <c r="AC78" s="46">
-        <f t="shared" ref="AC78:AH78" si="104">AC76+AC77</f>
-        <v>1517</v>
-      </c>
-      <c r="AD78" s="46">
+        <v>1302</v>
+      </c>
+      <c r="AI78" s="46">
+        <f t="shared" ref="AI78:AQ78" si="104">AI76+AI77</f>
+        <v>2488</v>
+      </c>
+      <c r="AJ78" s="46">
         <f t="shared" si="104"/>
-        <v>1918</v>
-      </c>
-      <c r="AE78" s="46">
+        <v>2057</v>
+      </c>
+      <c r="AK78" s="46">
         <f t="shared" si="104"/>
-        <v>2210</v>
-      </c>
-      <c r="AF78" s="46">
+        <v>2470</v>
+      </c>
+      <c r="AL78" s="46">
         <f t="shared" si="104"/>
-        <v>1761</v>
-      </c>
-      <c r="AG78" s="46">
+        <v>1498</v>
+      </c>
+      <c r="AM78" s="46">
         <f t="shared" si="104"/>
-        <v>1942</v>
-      </c>
-      <c r="AH78" s="46">
+        <v>2818</v>
+      </c>
+      <c r="AN78" s="46">
         <f t="shared" si="104"/>
-        <v>1302</v>
-      </c>
-      <c r="AI78" s="46">
-        <f t="shared" ref="AI78:AQ78" si="105">AI76+AI77</f>
-        <v>2488</v>
-      </c>
-      <c r="AJ78" s="46">
+        <v>2253</v>
+      </c>
+      <c r="AO78" s="46">
+        <f t="shared" si="104"/>
+        <v>1618</v>
+      </c>
+      <c r="AP78" s="46">
+        <f t="shared" si="104"/>
+        <v>1629</v>
+      </c>
+      <c r="AQ78" s="46">
+        <f t="shared" si="104"/>
+        <v>2536</v>
+      </c>
+      <c r="AR78" s="46">
+        <f t="shared" ref="AR78:AX78" si="105">AR76+AR77</f>
+        <v>2293.1927999999998</v>
+      </c>
+      <c r="AS78" s="46">
         <f t="shared" si="105"/>
-        <v>2057</v>
-      </c>
-      <c r="AK78" s="46">
+        <v>1739</v>
+      </c>
+      <c r="AT78" s="46">
         <f t="shared" si="105"/>
-        <v>2470</v>
-      </c>
-      <c r="AL78" s="46">
+        <v>1213</v>
+      </c>
+      <c r="AU78" s="46">
         <f t="shared" si="105"/>
-        <v>1498</v>
-      </c>
-      <c r="AM78" s="46">
+        <v>1330</v>
+      </c>
+      <c r="AV78" s="46">
         <f t="shared" si="105"/>
-        <v>2818</v>
-      </c>
-      <c r="AN78" s="46">
+        <v>-2408</v>
+      </c>
+      <c r="AW78" s="46">
         <f t="shared" si="105"/>
-        <v>2253</v>
-      </c>
-      <c r="AO78" s="46">
+        <v>-2544</v>
+      </c>
+      <c r="AX78" s="46">
         <f t="shared" si="105"/>
-        <v>1618</v>
-      </c>
-      <c r="AP78" s="46">
-        <f t="shared" si="105"/>
-        <v>1629</v>
-      </c>
-      <c r="AQ78" s="46">
-        <f t="shared" si="105"/>
-        <v>2536</v>
-      </c>
-      <c r="AR78" s="46">
-        <f t="shared" ref="AR78:AX78" si="106">AR76+AR77</f>
-        <v>2293.1927999999998</v>
-      </c>
-      <c r="AS78" s="46">
-        <f t="shared" si="106"/>
-        <v>1739</v>
-      </c>
-      <c r="AT78" s="46">
-        <f t="shared" si="106"/>
-        <v>1213</v>
-      </c>
-      <c r="AU78" s="46">
-        <f t="shared" si="106"/>
-        <v>1330</v>
-      </c>
-      <c r="AV78" s="46">
-        <f t="shared" si="106"/>
-        <v>-2408</v>
-      </c>
-      <c r="AW78" s="46">
-        <f t="shared" si="106"/>
-        <v>-2544</v>
-      </c>
-      <c r="AX78" s="46">
-        <f t="shared" si="106"/>
         <v>-3041</v>
       </c>
       <c r="AY78" s="46"/>
@@ -24825,47 +24861,47 @@
       <c r="BX78" s="83"/>
       <c r="BY78" s="83"/>
       <c r="BZ78" s="83">
-        <f t="shared" ref="BZ78:CB78" si="107">BZ76-BZ77</f>
+        <f t="shared" ref="BZ78:CB78" si="106">BZ76-BZ77</f>
         <v>243</v>
       </c>
       <c r="CA78" s="83">
+        <f t="shared" si="106"/>
+        <v>935</v>
+      </c>
+      <c r="CB78" s="83">
+        <f t="shared" si="106"/>
+        <v>961</v>
+      </c>
+      <c r="CC78" s="83">
+        <f t="shared" ref="CC78:CJ78" si="107">CC76-CC77</f>
+        <v>853</v>
+      </c>
+      <c r="CD78" s="83">
         <f t="shared" si="107"/>
-        <v>935</v>
-      </c>
-      <c r="CB78" s="83">
+        <v>1688</v>
+      </c>
+      <c r="CE78" s="83">
         <f t="shared" si="107"/>
-        <v>961</v>
-      </c>
-      <c r="CC78" s="83">
-        <f t="shared" ref="CC78:CJ78" si="108">CC76-CC77</f>
-        <v>853</v>
-      </c>
-      <c r="CD78" s="83">
-        <f t="shared" si="108"/>
-        <v>1688</v>
-      </c>
-      <c r="CE78" s="83">
-        <f t="shared" si="108"/>
         <v>2531</v>
       </c>
       <c r="CF78" s="83">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>1539</v>
       </c>
       <c r="CG78" s="83">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>2055</v>
       </c>
       <c r="CH78" s="83">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>3085</v>
       </c>
       <c r="CI78" s="83">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>3709</v>
       </c>
       <c r="CJ78" s="83">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>3143</v>
       </c>
       <c r="CK78" s="83"/>
@@ -24893,11 +24929,11 @@
         <v>7430</v>
       </c>
       <c r="CZ78" s="46">
-        <f t="shared" ref="CZ78:DQ78" si="109">CZ76+CZ77</f>
+        <f t="shared" ref="CZ78:DQ78" si="108">CZ76+CZ77</f>
         <v>9602.5529999999981</v>
       </c>
       <c r="DA78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>10764.386399999999</v>
       </c>
       <c r="DB78" s="46">
@@ -24909,59 +24945,59 @@
         <v>8318</v>
       </c>
       <c r="DD78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>7781.1928000000007</v>
       </c>
       <c r="DE78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>3250.8292234091355</v>
       </c>
       <c r="DF78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2817.3546918212205</v>
       </c>
       <c r="DG78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2826.6046270665024</v>
       </c>
       <c r="DH78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2571.7419877632747</v>
       </c>
       <c r="DI78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2453.8104924010831</v>
       </c>
       <c r="DJ78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2173.5135139403646</v>
       </c>
       <c r="DK78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1999.0467830759874</v>
       </c>
       <c r="DL78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1955.3209465869263</v>
       </c>
       <c r="DM78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2033.5927267174375</v>
       </c>
       <c r="DN78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2079.0753873547806</v>
       </c>
       <c r="DO78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2033.9412030679678</v>
       </c>
       <c r="DP78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>2018.4972505278729</v>
       </c>
       <c r="DQ78" s="46">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1982.0813039541817</v>
       </c>
       <c r="DR78" s="46">
@@ -25197,7 +25233,7 @@
         <v>2400.6382499999995</v>
       </c>
       <c r="DA79" s="46">
-        <f t="shared" ref="DA79:DQ79" si="110">DA78*0.25</f>
+        <f t="shared" ref="DA79:DQ79" si="109">DA78*0.25</f>
         <v>2691.0965999999999</v>
       </c>
       <c r="DB79" s="44">
@@ -25213,55 +25249,55 @@
         <v>2074.6385599999999</v>
       </c>
       <c r="DE79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>812.70730585228387</v>
       </c>
       <c r="DF79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>704.33867295530513</v>
       </c>
       <c r="DG79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>706.6511567666256</v>
       </c>
       <c r="DH79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>642.93549694081867</v>
       </c>
       <c r="DI79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>613.45262310027078</v>
       </c>
       <c r="DJ79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>543.37837848509116</v>
       </c>
       <c r="DK79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>499.76169576899684</v>
       </c>
       <c r="DL79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>488.83023664673158</v>
       </c>
       <c r="DM79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>508.39818167935937</v>
       </c>
       <c r="DN79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>519.76884683869514</v>
       </c>
       <c r="DO79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>508.48530076699194</v>
       </c>
       <c r="DP79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>504.62431263196822</v>
       </c>
       <c r="DQ79" s="46">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>495.52032598854544</v>
       </c>
       <c r="DR79" s="46">
@@ -25552,47 +25588,47 @@
         <v>1224</v>
       </c>
       <c r="W81" s="46">
-        <f t="shared" ref="W81:AE81" si="111">W78-W79-W80</f>
+        <f t="shared" ref="W81:AE81" si="110">W78-W79-W80</f>
         <v>1148</v>
       </c>
       <c r="X81" s="46">
+        <f t="shared" si="110"/>
+        <v>1291</v>
+      </c>
+      <c r="Y81" s="46">
+        <f t="shared" si="110"/>
+        <v>1311</v>
+      </c>
+      <c r="Z81" s="46">
+        <f t="shared" si="110"/>
+        <v>1180</v>
+      </c>
+      <c r="AA81" s="46">
+        <f t="shared" si="110"/>
+        <v>1206</v>
+      </c>
+      <c r="AB81" s="46">
+        <f t="shared" si="110"/>
+        <v>1023</v>
+      </c>
+      <c r="AC81" s="46">
+        <f t="shared" si="110"/>
+        <v>972</v>
+      </c>
+      <c r="AD81" s="46">
+        <f t="shared" si="110"/>
+        <v>1347</v>
+      </c>
+      <c r="AE81" s="46">
+        <f t="shared" si="110"/>
+        <v>1570</v>
+      </c>
+      <c r="AF81" s="46">
+        <f t="shared" ref="AF81:AL81" si="111">AF78-AF79-AF80</f>
+        <v>1102</v>
+      </c>
+      <c r="AG81" s="46">
         <f t="shared" si="111"/>
-        <v>1291</v>
-      </c>
-      <c r="Y81" s="46">
-        <f t="shared" si="111"/>
-        <v>1311</v>
-      </c>
-      <c r="Z81" s="46">
-        <f t="shared" si="111"/>
-        <v>1180</v>
-      </c>
-      <c r="AA81" s="46">
-        <f t="shared" si="111"/>
-        <v>1206</v>
-      </c>
-      <c r="AB81" s="46">
-        <f t="shared" si="111"/>
-        <v>1023</v>
-      </c>
-      <c r="AC81" s="46">
-        <f t="shared" si="111"/>
-        <v>972</v>
-      </c>
-      <c r="AD81" s="46">
-        <f t="shared" si="111"/>
-        <v>1347</v>
-      </c>
-      <c r="AE81" s="46">
-        <f t="shared" si="111"/>
-        <v>1570</v>
-      </c>
-      <c r="AF81" s="46">
-        <f t="shared" ref="AF81:AL81" si="112">AF78-AF79-AF80</f>
-        <v>1102</v>
-      </c>
-      <c r="AG81" s="46">
-        <f t="shared" si="112"/>
         <v>1229</v>
       </c>
       <c r="AH81" s="46">
@@ -25600,43 +25636,43 @@
         <v>734</v>
       </c>
       <c r="AI81" s="46">
+        <f t="shared" si="111"/>
+        <v>1627</v>
+      </c>
+      <c r="AJ81" s="46">
+        <f t="shared" si="111"/>
+        <v>1156</v>
+      </c>
+      <c r="AK81" s="46">
+        <f t="shared" si="111"/>
+        <v>1553</v>
+      </c>
+      <c r="AL81" s="46">
+        <f t="shared" si="111"/>
+        <v>887</v>
+      </c>
+      <c r="AM81" s="46">
+        <f t="shared" ref="AM81:AT81" si="112">AM78-AM79-AM80</f>
+        <v>2076</v>
+      </c>
+      <c r="AN81" s="46">
         <f t="shared" si="112"/>
-        <v>1627</v>
-      </c>
-      <c r="AJ81" s="46">
+        <v>1452</v>
+      </c>
+      <c r="AO81" s="46">
         <f t="shared" si="112"/>
-        <v>1156</v>
-      </c>
-      <c r="AK81" s="46">
+        <v>914</v>
+      </c>
+      <c r="AP81" s="46">
         <f t="shared" si="112"/>
-        <v>1553</v>
-      </c>
-      <c r="AL81" s="46">
+        <v>967</v>
+      </c>
+      <c r="AQ81" s="46">
         <f t="shared" si="112"/>
-        <v>887</v>
-      </c>
-      <c r="AM81" s="46">
-        <f t="shared" ref="AM81:AT81" si="113">AM78-AM79-AM80</f>
-        <v>2076</v>
-      </c>
-      <c r="AN81" s="46">
-        <f t="shared" si="113"/>
-        <v>1452</v>
-      </c>
-      <c r="AO81" s="46">
-        <f t="shared" si="113"/>
-        <v>914</v>
-      </c>
-      <c r="AP81" s="46">
-        <f t="shared" si="113"/>
-        <v>967</v>
-      </c>
-      <c r="AQ81" s="46">
-        <f t="shared" si="113"/>
         <v>2155</v>
       </c>
       <c r="AR81" s="46">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1834.5542399999999</v>
       </c>
       <c r="AS81" s="46">
@@ -25644,7 +25680,7 @@
         <v>697</v>
       </c>
       <c r="AT81" s="46">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>164</v>
       </c>
       <c r="AU81" s="46">
@@ -25694,47 +25730,47 @@
       <c r="BX81" s="83"/>
       <c r="BY81" s="83"/>
       <c r="BZ81" s="83">
-        <f t="shared" ref="BZ81:CJ81" si="114">BZ78-BZ79-BZ80</f>
+        <f t="shared" ref="BZ81:CJ81" si="113">BZ78-BZ79-BZ80</f>
         <v>280</v>
       </c>
       <c r="CA81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>750</v>
       </c>
       <c r="CB81" s="83">
-        <f t="shared" ref="CB81" si="115">CB78-CB79-CB80</f>
+        <f t="shared" ref="CB81" si="114">CB78-CB79-CB80</f>
         <v>759</v>
       </c>
       <c r="CC81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>651</v>
       </c>
       <c r="CD81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1391</v>
       </c>
       <c r="CE81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>2341</v>
       </c>
       <c r="CF81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1175</v>
       </c>
       <c r="CG81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1612</v>
       </c>
       <c r="CH81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>2588</v>
       </c>
       <c r="CI81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>2937</v>
       </c>
       <c r="CJ81" s="83">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>2662</v>
       </c>
       <c r="CK81" s="83"/>
@@ -25752,15 +25788,15 @@
       <c r="CW81" s="47"/>
       <c r="CX81" s="47"/>
       <c r="CY81" s="46">
-        <f t="shared" ref="CY81:DD81" si="116">CY78-CY79</f>
+        <f t="shared" ref="CY81:DD81" si="115">CY78-CY79</f>
         <v>4950</v>
       </c>
       <c r="CZ81" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>7201.9147499999981</v>
       </c>
       <c r="DA81" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>8073.2897999999996</v>
       </c>
       <c r="DB81" s="46">
@@ -25772,31 +25808,31 @@
         <v>5422</v>
       </c>
       <c r="DD81" s="46">
+        <f t="shared" si="115"/>
+        <v>5706.5542400000013</v>
+      </c>
+      <c r="DE81" s="46">
+        <f t="shared" ref="DE81:DJ81" si="116">DE78-DE79</f>
+        <v>2438.1219175568517</v>
+      </c>
+      <c r="DF81" s="46">
         <f t="shared" si="116"/>
-        <v>5706.5542400000013</v>
-      </c>
-      <c r="DE81" s="46">
-        <f t="shared" ref="DE81:DJ81" si="117">DE78-DE79</f>
-        <v>2438.1219175568517</v>
-      </c>
-      <c r="DF81" s="46">
-        <f t="shared" si="117"/>
         <v>2113.0160188659156</v>
       </c>
       <c r="DG81" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>2119.9534702998767</v>
       </c>
       <c r="DH81" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>1928.806490822456</v>
       </c>
       <c r="DI81" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>1840.3578693008124</v>
       </c>
       <c r="DJ81" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>1630.1351354552735</v>
       </c>
       <c r="DK81" s="46">
@@ -25804,27 +25840,27 @@
         <v>1499.2850873069906</v>
       </c>
       <c r="DL81" s="46">
-        <f t="shared" ref="DL81:DQ81" si="118">DL78-DL79</f>
+        <f t="shared" ref="DL81:DQ81" si="117">DL78-DL79</f>
         <v>1466.4907099401948</v>
       </c>
       <c r="DM81" s="46">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1525.1945450380781</v>
       </c>
       <c r="DN81" s="46">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1559.3065405160855</v>
       </c>
       <c r="DO81" s="46">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1525.4559023009758</v>
       </c>
       <c r="DP81" s="46">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1513.8729378959047</v>
       </c>
       <c r="DQ81" s="46">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1486.5609779656363</v>
       </c>
       <c r="DR81" s="46">
@@ -25832,271 +25868,271 @@
         <v>1503.4320672380584</v>
       </c>
       <c r="DS81" s="33">
-        <f t="shared" ref="DS81:EX81" si="119">DR81*(1+$DV$86)</f>
+        <f t="shared" ref="DS81:EX81" si="118">DR81*(1+$DV$86)</f>
         <v>1428.2604638761554</v>
       </c>
       <c r="DT81" s="33">
+        <f t="shared" si="118"/>
+        <v>1356.8474406823475</v>
+      </c>
+      <c r="DU81" s="33">
+        <f t="shared" si="118"/>
+        <v>1289.00506864823</v>
+      </c>
+      <c r="DV81" s="33">
+        <f t="shared" si="118"/>
+        <v>1224.5548152158185</v>
+      </c>
+      <c r="DW81" s="33">
+        <f t="shared" si="118"/>
+        <v>1163.3270744550275</v>
+      </c>
+      <c r="DX81" s="33">
+        <f t="shared" si="118"/>
+        <v>1105.1607207322761</v>
+      </c>
+      <c r="DY81" s="33">
+        <f t="shared" si="118"/>
+        <v>1049.9026846956622</v>
+      </c>
+      <c r="DZ81" s="33">
+        <f t="shared" si="118"/>
+        <v>997.40755046087907</v>
+      </c>
+      <c r="EA81" s="33">
+        <f t="shared" si="118"/>
+        <v>947.53717293783507</v>
+      </c>
+      <c r="EB81" s="33">
+        <f t="shared" si="118"/>
+        <v>900.16031429094323</v>
+      </c>
+      <c r="EC81" s="33">
+        <f t="shared" si="118"/>
+        <v>855.15229857639599</v>
+      </c>
+      <c r="ED81" s="33">
+        <f t="shared" si="118"/>
+        <v>812.39468364757613</v>
+      </c>
+      <c r="EE81" s="33">
+        <f t="shared" si="118"/>
+        <v>771.77494946519732</v>
+      </c>
+      <c r="EF81" s="33">
+        <f t="shared" si="118"/>
+        <v>733.18620199193742</v>
+      </c>
+      <c r="EG81" s="33">
+        <f t="shared" si="118"/>
+        <v>696.52689189234047</v>
+      </c>
+      <c r="EH81" s="33">
+        <f t="shared" si="118"/>
+        <v>661.70054729772346</v>
+      </c>
+      <c r="EI81" s="33">
+        <f t="shared" si="118"/>
+        <v>628.61551993283729</v>
+      </c>
+      <c r="EJ81" s="33">
+        <f t="shared" si="118"/>
+        <v>597.18474393619545</v>
+      </c>
+      <c r="EK81" s="33">
+        <f t="shared" si="118"/>
+        <v>567.32550673938567</v>
+      </c>
+      <c r="EL81" s="33">
+        <f t="shared" si="118"/>
+        <v>538.95923140241632</v>
+      </c>
+      <c r="EM81" s="33">
+        <f t="shared" si="118"/>
+        <v>512.01126983229551</v>
+      </c>
+      <c r="EN81" s="33">
+        <f t="shared" si="118"/>
+        <v>486.41070634068069</v>
+      </c>
+      <c r="EO81" s="33">
+        <f t="shared" si="118"/>
+        <v>462.09017102364663</v>
+      </c>
+      <c r="EP81" s="33">
+        <f t="shared" si="118"/>
+        <v>438.9856624724643</v>
+      </c>
+      <c r="EQ81" s="33">
+        <f t="shared" si="118"/>
+        <v>417.03637934884108</v>
+      </c>
+      <c r="ER81" s="33">
+        <f t="shared" si="118"/>
+        <v>396.18456038139902</v>
+      </c>
+      <c r="ES81" s="33">
+        <f t="shared" si="118"/>
+        <v>376.37533236232906</v>
+      </c>
+      <c r="ET81" s="33">
+        <f t="shared" si="118"/>
+        <v>357.55656574421261</v>
+      </c>
+      <c r="EU81" s="33">
+        <f t="shared" si="118"/>
+        <v>339.67873745700194</v>
+      </c>
+      <c r="EV81" s="33">
+        <f t="shared" si="118"/>
+        <v>322.69480058415184</v>
+      </c>
+      <c r="EW81" s="33">
+        <f t="shared" si="118"/>
+        <v>306.56006055494424</v>
+      </c>
+      <c r="EX81" s="33">
+        <f t="shared" si="118"/>
+        <v>291.23205752719701</v>
+      </c>
+      <c r="EY81" s="33">
+        <f t="shared" ref="EY81:GG81" si="119">EX81*(1+$DV$86)</f>
+        <v>276.67045465083714</v>
+      </c>
+      <c r="EZ81" s="33">
         <f t="shared" si="119"/>
-        <v>1356.8474406823475</v>
-      </c>
-      <c r="DU81" s="33">
+        <v>262.83693191829525</v>
+      </c>
+      <c r="FA81" s="33">
         <f t="shared" si="119"/>
-        <v>1289.00506864823</v>
-      </c>
-      <c r="DV81" s="33">
+        <v>249.69508532238046</v>
+      </c>
+      <c r="FB81" s="33">
         <f t="shared" si="119"/>
-        <v>1224.5548152158185</v>
-      </c>
-      <c r="DW81" s="33">
+        <v>237.21033105626142</v>
+      </c>
+      <c r="FC81" s="33">
         <f t="shared" si="119"/>
-        <v>1163.3270744550275</v>
-      </c>
-      <c r="DX81" s="33">
+        <v>225.34981450344833</v>
+      </c>
+      <c r="FD81" s="33">
         <f t="shared" si="119"/>
-        <v>1105.1607207322761</v>
-      </c>
-      <c r="DY81" s="33">
+        <v>214.08232377827591</v>
+      </c>
+      <c r="FE81" s="33">
         <f t="shared" si="119"/>
-        <v>1049.9026846956622</v>
-      </c>
-      <c r="DZ81" s="33">
+        <v>203.37820758936209</v>
+      </c>
+      <c r="FF81" s="33">
         <f t="shared" si="119"/>
-        <v>997.40755046087907</v>
-      </c>
-      <c r="EA81" s="33">
+        <v>193.20929720989398</v>
+      </c>
+      <c r="FG81" s="33">
         <f t="shared" si="119"/>
-        <v>947.53717293783507</v>
-      </c>
-      <c r="EB81" s="33">
+        <v>183.54883234939928</v>
+      </c>
+      <c r="FH81" s="33">
         <f t="shared" si="119"/>
-        <v>900.16031429094323</v>
-      </c>
-      <c r="EC81" s="33">
+        <v>174.3713907319293</v>
+      </c>
+      <c r="FI81" s="33">
         <f t="shared" si="119"/>
-        <v>855.15229857639599</v>
-      </c>
-      <c r="ED81" s="33">
+        <v>165.65282119533282</v>
+      </c>
+      <c r="FJ81" s="33">
         <f t="shared" si="119"/>
-        <v>812.39468364757613</v>
-      </c>
-      <c r="EE81" s="33">
+        <v>157.37018013556616</v>
+      </c>
+      <c r="FK81" s="33">
         <f t="shared" si="119"/>
-        <v>771.77494946519732</v>
-      </c>
-      <c r="EF81" s="33">
+        <v>149.50167112878785</v>
+      </c>
+      <c r="FL81" s="33">
         <f t="shared" si="119"/>
-        <v>733.18620199193742</v>
-      </c>
-      <c r="EG81" s="33">
+        <v>142.02658757234846</v>
+      </c>
+      <c r="FM81" s="33">
         <f t="shared" si="119"/>
-        <v>696.52689189234047</v>
-      </c>
-      <c r="EH81" s="33">
+        <v>134.92525819373103</v>
+      </c>
+      <c r="FN81" s="33">
         <f t="shared" si="119"/>
-        <v>661.70054729772346</v>
-      </c>
-      <c r="EI81" s="33">
+        <v>128.17899528404448</v>
+      </c>
+      <c r="FO81" s="33">
         <f t="shared" si="119"/>
-        <v>628.61551993283729</v>
-      </c>
-      <c r="EJ81" s="33">
+        <v>121.77004551984224</v>
+      </c>
+      <c r="FP81" s="33">
         <f t="shared" si="119"/>
-        <v>597.18474393619545</v>
-      </c>
-      <c r="EK81" s="33">
+        <v>115.68154324385013</v>
+      </c>
+      <c r="FQ81" s="33">
         <f t="shared" si="119"/>
-        <v>567.32550673938567</v>
-      </c>
-      <c r="EL81" s="33">
+        <v>109.89746608165761</v>
+      </c>
+      <c r="FR81" s="33">
         <f t="shared" si="119"/>
-        <v>538.95923140241632</v>
-      </c>
-      <c r="EM81" s="33">
+        <v>104.40259277757472</v>
+      </c>
+      <c r="FS81" s="33">
         <f t="shared" si="119"/>
-        <v>512.01126983229551</v>
-      </c>
-      <c r="EN81" s="33">
+        <v>99.182463138695979</v>
+      </c>
+      <c r="FT81" s="33">
         <f t="shared" si="119"/>
-        <v>486.41070634068069</v>
-      </c>
-      <c r="EO81" s="33">
+        <v>94.223339981761171</v>
+      </c>
+      <c r="FU81" s="33">
         <f t="shared" si="119"/>
-        <v>462.09017102364663</v>
-      </c>
-      <c r="EP81" s="33">
+        <v>89.512172982673107</v>
+      </c>
+      <c r="FV81" s="33">
         <f t="shared" si="119"/>
-        <v>438.9856624724643</v>
-      </c>
-      <c r="EQ81" s="33">
+        <v>85.036564333539445</v>
+      </c>
+      <c r="FW81" s="33">
         <f t="shared" si="119"/>
-        <v>417.03637934884108</v>
-      </c>
-      <c r="ER81" s="33">
+        <v>80.784736116862476</v>
+      </c>
+      <c r="FX81" s="33">
         <f t="shared" si="119"/>
-        <v>396.18456038139902</v>
-      </c>
-      <c r="ES81" s="33">
+        <v>76.745499311019344</v>
+      </c>
+      <c r="FY81" s="33">
         <f t="shared" si="119"/>
-        <v>376.37533236232906</v>
-      </c>
-      <c r="ET81" s="33">
+        <v>72.908224345468369</v>
+      </c>
+      <c r="FZ81" s="33">
         <f t="shared" si="119"/>
-        <v>357.55656574421261</v>
-      </c>
-      <c r="EU81" s="33">
+        <v>69.262813128194949</v>
+      </c>
+      <c r="GA81" s="33">
         <f t="shared" si="119"/>
-        <v>339.67873745700194</v>
-      </c>
-      <c r="EV81" s="33">
+        <v>65.7996724717852</v>
+      </c>
+      <c r="GB81" s="33">
         <f t="shared" si="119"/>
-        <v>322.69480058415184</v>
-      </c>
-      <c r="EW81" s="33">
+        <v>62.509688848195935</v>
+      </c>
+      <c r="GC81" s="33">
         <f t="shared" si="119"/>
-        <v>306.56006055494424</v>
-      </c>
-      <c r="EX81" s="33">
+        <v>59.384204405786136</v>
+      </c>
+      <c r="GD81" s="33">
         <f t="shared" si="119"/>
-        <v>291.23205752719701</v>
-      </c>
-      <c r="EY81" s="33">
-        <f t="shared" ref="EY81:GG81" si="120">EX81*(1+$DV$86)</f>
-        <v>276.67045465083714</v>
-      </c>
-      <c r="EZ81" s="33">
-        <f t="shared" si="120"/>
-        <v>262.83693191829525</v>
-      </c>
-      <c r="FA81" s="33">
-        <f t="shared" si="120"/>
-        <v>249.69508532238046</v>
-      </c>
-      <c r="FB81" s="33">
-        <f t="shared" si="120"/>
-        <v>237.21033105626142</v>
-      </c>
-      <c r="FC81" s="33">
-        <f t="shared" si="120"/>
-        <v>225.34981450344833</v>
-      </c>
-      <c r="FD81" s="33">
-        <f t="shared" si="120"/>
-        <v>214.08232377827591</v>
-      </c>
-      <c r="FE81" s="33">
-        <f t="shared" si="120"/>
-        <v>203.37820758936209</v>
-      </c>
-      <c r="FF81" s="33">
-        <f t="shared" si="120"/>
-        <v>193.20929720989398</v>
-      </c>
-      <c r="FG81" s="33">
-        <f t="shared" si="120"/>
-        <v>183.54883234939928</v>
-      </c>
-      <c r="FH81" s="33">
-        <f t="shared" si="120"/>
-        <v>174.3713907319293</v>
-      </c>
-      <c r="FI81" s="33">
-        <f t="shared" si="120"/>
-        <v>165.65282119533282</v>
-      </c>
-      <c r="FJ81" s="33">
-        <f t="shared" si="120"/>
-        <v>157.37018013556616</v>
-      </c>
-      <c r="FK81" s="33">
-        <f t="shared" si="120"/>
-        <v>149.50167112878785</v>
-      </c>
-      <c r="FL81" s="33">
-        <f t="shared" si="120"/>
-        <v>142.02658757234846</v>
-      </c>
-      <c r="FM81" s="33">
-        <f t="shared" si="120"/>
-        <v>134.92525819373103</v>
-      </c>
-      <c r="FN81" s="33">
-        <f t="shared" si="120"/>
-        <v>128.17899528404448</v>
-      </c>
-      <c r="FO81" s="33">
-        <f t="shared" si="120"/>
-        <v>121.77004551984224</v>
-      </c>
-      <c r="FP81" s="33">
-        <f t="shared" si="120"/>
-        <v>115.68154324385013</v>
-      </c>
-      <c r="FQ81" s="33">
-        <f t="shared" si="120"/>
-        <v>109.89746608165761</v>
-      </c>
-      <c r="FR81" s="33">
-        <f t="shared" si="120"/>
-        <v>104.40259277757472</v>
-      </c>
-      <c r="FS81" s="33">
-        <f t="shared" si="120"/>
-        <v>99.182463138695979</v>
-      </c>
-      <c r="FT81" s="33">
-        <f t="shared" si="120"/>
-        <v>94.223339981761171</v>
-      </c>
-      <c r="FU81" s="33">
-        <f t="shared" si="120"/>
-        <v>89.512172982673107</v>
-      </c>
-      <c r="FV81" s="33">
-        <f t="shared" si="120"/>
-        <v>85.036564333539445</v>
-      </c>
-      <c r="FW81" s="33">
-        <f t="shared" si="120"/>
-        <v>80.784736116862476</v>
-      </c>
-      <c r="FX81" s="33">
-        <f t="shared" si="120"/>
-        <v>76.745499311019344</v>
-      </c>
-      <c r="FY81" s="33">
-        <f t="shared" si="120"/>
-        <v>72.908224345468369</v>
-      </c>
-      <c r="FZ81" s="33">
-        <f t="shared" si="120"/>
-        <v>69.262813128194949</v>
-      </c>
-      <c r="GA81" s="33">
-        <f t="shared" si="120"/>
-        <v>65.7996724717852</v>
-      </c>
-      <c r="GB81" s="33">
-        <f t="shared" si="120"/>
-        <v>62.509688848195935</v>
-      </c>
-      <c r="GC81" s="33">
-        <f t="shared" si="120"/>
-        <v>59.384204405786136</v>
-      </c>
-      <c r="GD81" s="33">
-        <f t="shared" si="120"/>
         <v>56.414994185496823</v>
       </c>
       <c r="GE81" s="33">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>53.594244476221981</v>
       </c>
       <c r="GF81" s="33">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>50.914532252410879</v>
       </c>
       <c r="GG81" s="33">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>48.368805639790331</v>
       </c>
     </row>
@@ -26149,47 +26185,47 @@
         <v>0.76739811912225708</v>
       </c>
       <c r="W82" s="49">
-        <f t="shared" ref="W82:AE82" si="121">W81/W83</f>
+        <f t="shared" ref="W82:AE82" si="120">W81/W83</f>
         <v>0.72566371681415931</v>
       </c>
       <c r="X82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.81708860759493673</v>
+      </c>
+      <c r="Y82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.83556405353728491</v>
+      </c>
+      <c r="Z82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.7637540453074434</v>
+      </c>
+      <c r="AA82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.78772044415414766</v>
+      </c>
+      <c r="AB82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.67928286852589637</v>
+      </c>
+      <c r="AC82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.65278710543989249</v>
+      </c>
+      <c r="AD82" s="49">
+        <f t="shared" si="120"/>
+        <v>0.90463398253861649</v>
+      </c>
+      <c r="AE82" s="49">
+        <f t="shared" si="120"/>
+        <v>1.0775566231983529</v>
+      </c>
+      <c r="AF82" s="49">
+        <f t="shared" ref="AF82:AM82" si="121">AF81/AF83</f>
+        <v>0.75634866163349346</v>
+      </c>
+      <c r="AG82" s="49">
         <f t="shared" si="121"/>
-        <v>0.81708860759493673</v>
-      </c>
-      <c r="Y82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.83556405353728491</v>
-      </c>
-      <c r="Z82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.7637540453074434</v>
-      </c>
-      <c r="AA82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.78772044415414766</v>
-      </c>
-      <c r="AB82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.67928286852589637</v>
-      </c>
-      <c r="AC82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.65278710543989249</v>
-      </c>
-      <c r="AD82" s="49">
-        <f t="shared" si="121"/>
-        <v>0.90463398253861649</v>
-      </c>
-      <c r="AE82" s="49">
-        <f t="shared" si="121"/>
-        <v>1.0775566231983529</v>
-      </c>
-      <c r="AF82" s="49">
-        <f t="shared" ref="AF82:AM82" si="122">AF81/AF83</f>
-        <v>0.75634866163349346</v>
-      </c>
-      <c r="AG82" s="49">
-        <f t="shared" si="122"/>
         <v>0.84467353951890034</v>
       </c>
       <c r="AH82" s="49">
@@ -26197,67 +26233,67 @@
         <v>0.50725639253628196</v>
       </c>
       <c r="AI82" s="49">
+        <f t="shared" si="121"/>
+        <v>1.1236187845303867</v>
+      </c>
+      <c r="AJ82" s="49">
+        <f t="shared" si="121"/>
+        <v>0.7983425414364641</v>
+      </c>
+      <c r="AK82" s="49">
+        <f t="shared" si="121"/>
+        <v>1.0688231245698554</v>
+      </c>
+      <c r="AL82" s="49">
+        <f t="shared" si="121"/>
+        <v>0.60962199312714782</v>
+      </c>
+      <c r="AM82" s="49">
+        <f t="shared" si="121"/>
+        <v>1.4238683127572016</v>
+      </c>
+      <c r="AN82" s="49">
+        <f t="shared" ref="AN82:AX82" si="122">AN81/AN83</f>
+        <v>1.0013793103448276</v>
+      </c>
+      <c r="AO82" s="49">
         <f t="shared" si="122"/>
-        <v>1.1236187845303867</v>
-      </c>
-      <c r="AJ82" s="49">
+        <v>0.63208852005532501</v>
+      </c>
+      <c r="AP82" s="49">
         <f t="shared" si="122"/>
-        <v>0.7983425414364641</v>
-      </c>
-      <c r="AK82" s="49">
+        <v>0.67812061711079941</v>
+      </c>
+      <c r="AQ82" s="49">
         <f t="shared" si="122"/>
-        <v>1.0688231245698554</v>
-      </c>
-      <c r="AL82" s="49">
+        <v>1.5349002849002849</v>
+      </c>
+      <c r="AR82" s="49">
         <f t="shared" si="122"/>
-        <v>0.60962199312714782</v>
-      </c>
-      <c r="AM82" s="49">
+        <v>1.306662564102564</v>
+      </c>
+      <c r="AS82" s="49">
         <f t="shared" si="122"/>
-        <v>1.4238683127572016</v>
-      </c>
-      <c r="AN82" s="49">
-        <f t="shared" ref="AN82:AX82" si="123">AN81/AN83</f>
-        <v>1.0013793103448276</v>
-      </c>
-      <c r="AO82" s="49">
-        <f t="shared" si="123"/>
-        <v>0.63208852005532501</v>
-      </c>
-      <c r="AP82" s="49">
-        <f t="shared" si="123"/>
-        <v>0.67812061711079941</v>
-      </c>
-      <c r="AQ82" s="49">
-        <f t="shared" si="123"/>
-        <v>1.5349002849002849</v>
-      </c>
-      <c r="AR82" s="49">
-        <f t="shared" si="123"/>
-        <v>1.306662564102564</v>
-      </c>
-      <c r="AS82" s="49">
-        <f t="shared" si="123"/>
         <v>0.51287711552612214</v>
       </c>
       <c r="AT82" s="49">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>0.12452543659832954</v>
       </c>
       <c r="AU82" s="49">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>0.80622568093385216</v>
       </c>
       <c r="AV82" s="49">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-1.4991439688715955</v>
       </c>
       <c r="AW82" s="49">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-1.5838132295719844</v>
       </c>
       <c r="AX82" s="49">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-1.8932295719844359</v>
       </c>
       <c r="AY82" s="49"/>
@@ -26291,35 +26327,35 @@
       <c r="BX82" s="84"/>
       <c r="BY82" s="84"/>
       <c r="BZ82" s="84">
-        <f t="shared" ref="BZ82:CD82" si="124">BZ81/BZ83</f>
+        <f t="shared" ref="BZ82:CD82" si="123">BZ81/BZ83</f>
         <v>0.21341463414634146</v>
       </c>
       <c r="CA82" s="84">
+        <f t="shared" si="123"/>
+        <v>0.57121096725057119</v>
+      </c>
+      <c r="CB82" s="84">
+        <f t="shared" si="123"/>
+        <v>0.57806549885757808</v>
+      </c>
+      <c r="CC82" s="84">
+        <f t="shared" si="123"/>
+        <v>0.49581111957349583</v>
+      </c>
+      <c r="CD82" s="84">
+        <f t="shared" si="123"/>
+        <v>1.0545868081880212</v>
+      </c>
+      <c r="CE82" s="84">
+        <f t="shared" ref="CE82:CI82" si="124">CE81/CE83</f>
+        <v>1.7748294162244125</v>
+      </c>
+      <c r="CF82" s="84">
         <f t="shared" si="124"/>
-        <v>0.57121096725057119</v>
-      </c>
-      <c r="CB82" s="84">
+        <v>0.89150227617602429</v>
+      </c>
+      <c r="CG82" s="84">
         <f t="shared" si="124"/>
-        <v>0.57806549885757808</v>
-      </c>
-      <c r="CC82" s="84">
-        <f t="shared" si="124"/>
-        <v>0.49581111957349583</v>
-      </c>
-      <c r="CD82" s="84">
-        <f t="shared" si="124"/>
-        <v>1.0545868081880212</v>
-      </c>
-      <c r="CE82" s="84">
-        <f t="shared" ref="CE82:CI82" si="125">CE81/CE83</f>
-        <v>1.7748294162244125</v>
-      </c>
-      <c r="CF82" s="84">
-        <f t="shared" si="125"/>
-        <v>0.89150227617602429</v>
-      </c>
-      <c r="CG82" s="84">
-        <f t="shared" si="125"/>
         <v>1.0775401069518717</v>
       </c>
       <c r="CH82" s="84">
@@ -26327,7 +26363,7 @@
         <v>1.6729153199741436</v>
       </c>
       <c r="CI82" s="84">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>1.8814862267777066</v>
       </c>
       <c r="CJ82" s="84">
@@ -26366,43 +26402,43 @@
         <v>3.7522491349480971</v>
       </c>
       <c r="DD82" s="49">
-        <f t="shared" ref="DD82:DM82" si="126">DD81/DD83</f>
+        <f t="shared" ref="DD82:DM82" si="125">DD81/DD83</f>
         <v>4.1623298614150261</v>
       </c>
       <c r="DE82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.8973711420675889</v>
       </c>
       <c r="DF82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.6443704426972106</v>
       </c>
       <c r="DG82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.6497692375874526</v>
       </c>
       <c r="DH82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.5010167243754522</v>
       </c>
       <c r="DI82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.432185112296352</v>
       </c>
       <c r="DJ82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.2685876540507965</v>
       </c>
       <c r="DK82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.1667588228069965</v>
       </c>
       <c r="DL82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.141237906568245</v>
       </c>
       <c r="DM82" s="49">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.1869218249323565</v>
       </c>
       <c r="DN82" s="49">
@@ -26645,43 +26681,43 @@
         <v>1285</v>
       </c>
       <c r="DI83" s="38">
-        <f t="shared" ref="DI83:DR83" si="127">+DH83</f>
+        <f t="shared" ref="DI83:DR83" si="126">+DH83</f>
         <v>1285</v>
       </c>
       <c r="DJ83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DK83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DL83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DM83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DN83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DO83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DP83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DQ83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
       <c r="DR83" s="38">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1285</v>
       </c>
     </row>
@@ -26971,135 +27007,135 @@
         <v>0.75574548907882244</v>
       </c>
       <c r="R86" s="52">
-        <f t="shared" ref="R86:AD86" si="128">R72/R70</f>
+        <f t="shared" ref="R86:AD86" si="127">R72/R70</f>
         <v>0.74167959993102262</v>
       </c>
       <c r="S86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.75448371931046487</v>
+      </c>
+      <c r="T86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.78588609401117049</v>
+      </c>
+      <c r="U86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.78493694938676806</v>
+      </c>
+      <c r="V86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.81335104616406506</v>
+      </c>
+      <c r="W86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.77892596984584106</v>
+      </c>
+      <c r="X86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.77061896469843283</v>
+      </c>
+      <c r="Y86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.77692307692307694</v>
+      </c>
+      <c r="Z86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.76253259924659522</v>
+      </c>
+      <c r="AA86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.76603145795523286</v>
+      </c>
+      <c r="AB86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.74792243767313016</v>
+      </c>
+      <c r="AC86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.77828588287358014</v>
+      </c>
+      <c r="AD86" s="52">
+        <f t="shared" si="127"/>
+        <v>0.77117925099987883</v>
+      </c>
+      <c r="AE86" s="52">
+        <f t="shared" ref="AE86:AN86" si="128">AE72/AE70</f>
+        <v>0.7975206611570248</v>
+      </c>
+      <c r="AF86" s="52">
         <f t="shared" si="128"/>
-        <v>0.75448371931046487</v>
-      </c>
-      <c r="T86" s="52">
+        <v>0.79429954288787308</v>
+      </c>
+      <c r="AG86" s="52">
         <f t="shared" si="128"/>
-        <v>0.78588609401117049</v>
-      </c>
-      <c r="U86" s="52">
+        <v>0.77893868572999725</v>
+      </c>
+      <c r="AH86" s="52">
         <f t="shared" si="128"/>
-        <v>0.78493694938676806</v>
-      </c>
-      <c r="V86" s="52">
+        <v>0.7157181924729783</v>
+      </c>
+      <c r="AI86" s="52">
         <f t="shared" si="128"/>
-        <v>0.81335104616406506</v>
-      </c>
-      <c r="W86" s="52">
+        <v>0.79863623712774845</v>
+      </c>
+      <c r="AJ86" s="52">
         <f t="shared" si="128"/>
-        <v>0.77892596984584106</v>
-      </c>
-      <c r="X86" s="52">
+        <v>0.79289860942351831</v>
+      </c>
+      <c r="AK86" s="52">
         <f t="shared" si="128"/>
-        <v>0.77061896469843283</v>
-      </c>
-      <c r="Y86" s="52">
+        <v>0.82508510081173081</v>
+      </c>
+      <c r="AL86" s="52">
         <f t="shared" si="128"/>
-        <v>0.77692307692307694</v>
-      </c>
-      <c r="Z86" s="52">
+        <v>0.78789708902041311</v>
+      </c>
+      <c r="AM86" s="52">
         <f t="shared" si="128"/>
-        <v>0.76253259924659522</v>
-      </c>
-      <c r="AA86" s="52">
+        <v>0.78006349206349201</v>
+      </c>
+      <c r="AN86" s="52">
         <f t="shared" si="128"/>
-        <v>0.76603145795523286</v>
-      </c>
-      <c r="AB86" s="52">
-        <f t="shared" si="128"/>
-        <v>0.74792243767313016</v>
-      </c>
-      <c r="AC86" s="52">
-        <f t="shared" si="128"/>
-        <v>0.77828588287358014</v>
-      </c>
-      <c r="AD86" s="52">
-        <f t="shared" si="128"/>
-        <v>0.77117925099987883</v>
-      </c>
-      <c r="AE86" s="52">
-        <f t="shared" ref="AE86:AN86" si="129">AE72/AE70</f>
-        <v>0.7975206611570248</v>
-      </c>
-      <c r="AF86" s="52">
+        <v>0.7950492414160234</v>
+      </c>
+      <c r="AO86" s="52">
+        <f t="shared" ref="AO86:AX86" si="129">AO72/AO70</f>
+        <v>0.7787269220170846</v>
+      </c>
+      <c r="AP86" s="52">
         <f t="shared" si="129"/>
-        <v>0.79429954288787308</v>
-      </c>
-      <c r="AG86" s="52">
+        <v>0.776663280853225</v>
+      </c>
+      <c r="AQ86" s="52">
         <f t="shared" si="129"/>
-        <v>0.77893868572999725</v>
-      </c>
-      <c r="AH86" s="52">
+        <v>0.81180371352785141</v>
+      </c>
+      <c r="AR86" s="52">
         <f t="shared" si="129"/>
-        <v>0.7157181924729783</v>
-      </c>
-      <c r="AI86" s="52">
+        <v>0.83</v>
+      </c>
+      <c r="AS86" s="52">
         <f t="shared" si="129"/>
-        <v>0.79863623712774845</v>
-      </c>
-      <c r="AJ86" s="52">
+        <v>0.77393403057119869</v>
+      </c>
+      <c r="AT86" s="52">
         <f t="shared" si="129"/>
-        <v>0.79289860942351831</v>
-      </c>
-      <c r="AK86" s="52">
+        <v>0.78290904439043107</v>
+      </c>
+      <c r="AU86" s="52">
         <f t="shared" si="129"/>
-        <v>0.82508510081173081</v>
-      </c>
-      <c r="AL86" s="52">
+        <v>0.78101418653788113</v>
+      </c>
+      <c r="AV86" s="52" t="e">
         <f t="shared" si="129"/>
-        <v>0.78789708902041311</v>
-      </c>
-      <c r="AM86" s="52">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW86" s="52" t="e">
         <f t="shared" si="129"/>
-        <v>0.78006349206349201</v>
-      </c>
-      <c r="AN86" s="52">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX86" s="52" t="e">
         <f t="shared" si="129"/>
-        <v>0.7950492414160234</v>
-      </c>
-      <c r="AO86" s="52">
-        <f t="shared" ref="AO86:AX86" si="130">AO72/AO70</f>
-        <v>0.7787269220170846</v>
-      </c>
-      <c r="AP86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.776663280853225</v>
-      </c>
-      <c r="AQ86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.81180371352785141</v>
-      </c>
-      <c r="AR86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.83</v>
-      </c>
-      <c r="AS86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.77393403057119869</v>
-      </c>
-      <c r="AT86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.78290904439043107</v>
-      </c>
-      <c r="AU86" s="52">
-        <f t="shared" si="130"/>
-        <v>0.78101418653788113</v>
-      </c>
-      <c r="AV86" s="52" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW86" s="52" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX86" s="52" t="e">
-        <f t="shared" si="130"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY86" s="52"/>
@@ -27133,27 +27169,27 @@
       <c r="BX86" s="79"/>
       <c r="BY86" s="79"/>
       <c r="BZ86" s="79">
-        <f t="shared" ref="BZ86:CA86" si="131">+BZ72/BZ70</f>
+        <f t="shared" ref="BZ86:CA86" si="130">+BZ72/BZ70</f>
         <v>0.77951102444877751</v>
       </c>
       <c r="CA86" s="79">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>0.76282656594271325</v>
       </c>
       <c r="CB86" s="79">
-        <f t="shared" ref="CB86" si="132">+CB72/CB70</f>
+        <f t="shared" ref="CB86" si="131">+CB72/CB70</f>
         <v>0.82661354581673308</v>
       </c>
       <c r="CC86" s="79">
-        <f t="shared" ref="CC86:CE86" si="133">+CC72/CC70</f>
+        <f t="shared" ref="CC86:CE86" si="132">+CC72/CC70</f>
         <v>0.77667984189723316</v>
       </c>
       <c r="CD86" s="79">
-        <f t="shared" ref="CD86" si="134">+CD72/CD70</f>
+        <f t="shared" ref="CD86" si="133">+CD72/CD70</f>
         <v>0.78299595141700407</v>
       </c>
       <c r="CE86" s="79">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>0.76215846994535519</v>
       </c>
       <c r="CF86" s="79">
@@ -27161,19 +27197,19 @@
         <v>0.72360097323600969</v>
       </c>
       <c r="CG86" s="79">
-        <f t="shared" ref="CG86:CJ86" si="135">+CG72/CG70</f>
+        <f t="shared" ref="CG86:CJ86" si="134">+CG72/CG70</f>
         <v>0.73606324751672414</v>
       </c>
       <c r="CH86" s="79">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.74398468070934975</v>
       </c>
       <c r="CI86" s="79">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.78972783143107994</v>
       </c>
       <c r="CJ86" s="79">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.81895831399127283</v>
       </c>
       <c r="CK86" s="79"/>
@@ -27218,59 +27254,59 @@
         <v>0.77768562815387643</v>
       </c>
       <c r="DE86" s="52">
-        <f t="shared" ref="DE86:DL86" si="136">+DD86-0.5%</f>
+        <f t="shared" ref="DE86:DL86" si="135">+DD86-0.5%</f>
         <v>0.77268562815387642</v>
       </c>
       <c r="DF86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.76768562815387642</v>
+      </c>
+      <c r="DG86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.76268562815387642</v>
+      </c>
+      <c r="DH86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.75768562815387641</v>
+      </c>
+      <c r="DI86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.75268562815387641</v>
+      </c>
+      <c r="DJ86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.7476856281538764</v>
+      </c>
+      <c r="DK86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.7426856281538764</v>
+      </c>
+      <c r="DL86" s="52">
+        <f t="shared" si="135"/>
+        <v>0.73768562815387639</v>
+      </c>
+      <c r="DM86" s="52">
+        <f t="shared" ref="DM86:DR86" si="136">+DL86-0.5%</f>
+        <v>0.73268562815387639</v>
+      </c>
+      <c r="DN86" s="52">
         <f t="shared" si="136"/>
-        <v>0.76768562815387642</v>
-      </c>
-      <c r="DG86" s="52">
+        <v>0.72768562815387638</v>
+      </c>
+      <c r="DO86" s="52">
         <f t="shared" si="136"/>
-        <v>0.76268562815387642</v>
-      </c>
-      <c r="DH86" s="52">
+        <v>0.72268562815387638</v>
+      </c>
+      <c r="DP86" s="52">
         <f t="shared" si="136"/>
-        <v>0.75768562815387641</v>
-      </c>
-      <c r="DI86" s="52">
+        <v>0.71768562815387638</v>
+      </c>
+      <c r="DQ86" s="52">
         <f t="shared" si="136"/>
-        <v>0.75268562815387641</v>
-      </c>
-      <c r="DJ86" s="52">
+        <v>0.71268562815387637</v>
+      </c>
+      <c r="DR86" s="52">
         <f t="shared" si="136"/>
-        <v>0.7476856281538764</v>
-      </c>
-      <c r="DK86" s="52">
-        <f t="shared" si="136"/>
-        <v>0.7426856281538764</v>
-      </c>
-      <c r="DL86" s="52">
-        <f t="shared" si="136"/>
-        <v>0.73768562815387639</v>
-      </c>
-      <c r="DM86" s="52">
-        <f t="shared" ref="DM86:DR86" si="137">+DL86-0.5%</f>
-        <v>0.73268562815387639</v>
-      </c>
-      <c r="DN86" s="52">
-        <f t="shared" si="137"/>
-        <v>0.72768562815387638</v>
-      </c>
-      <c r="DO86" s="52">
-        <f t="shared" si="137"/>
-        <v>0.72268562815387638</v>
-      </c>
-      <c r="DP86" s="52">
-        <f t="shared" si="137"/>
-        <v>0.71768562815387638</v>
-      </c>
-      <c r="DQ86" s="52">
-        <f t="shared" si="137"/>
-        <v>0.71268562815387637</v>
-      </c>
-      <c r="DR86" s="52">
-        <f t="shared" si="137"/>
         <v>0.70768562815387637</v>
       </c>
       <c r="DU86" s="49" t="s">
@@ -27321,95 +27357,95 @@
       <c r="U87" s="52"/>
       <c r="V87" s="52"/>
       <c r="W87" s="52">
-        <f t="shared" ref="W87:AD87" si="138">W73/W70</f>
+        <f t="shared" ref="W87:AD87" si="137">W73/W70</f>
         <v>0.14585803828561747</v>
       </c>
       <c r="X87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.15117935728985277</v>
+      </c>
+      <c r="Y87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="Z87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.16285134743552593</v>
+      </c>
+      <c r="AA87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.17695099818511797</v>
+      </c>
+      <c r="AB87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.1785974631870535</v>
+      </c>
+      <c r="AC87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.19693170084083197</v>
+      </c>
+      <c r="AD87" s="52">
+        <f t="shared" si="137"/>
+        <v>0.17355472063992244</v>
+      </c>
+      <c r="AE87" s="52">
+        <f t="shared" ref="AE87:AM87" si="138">AE73/AE70</f>
+        <v>0.15960743801652894</v>
+      </c>
+      <c r="AF87" s="52">
         <f t="shared" si="138"/>
-        <v>0.15117935728985277</v>
-      </c>
-      <c r="Y87" s="52">
+        <v>0.174374831944071</v>
+      </c>
+      <c r="AG87" s="52">
         <f t="shared" si="138"/>
-        <v>0.15416666666666667</v>
-      </c>
-      <c r="Z87" s="52">
+        <v>0.17748144074786912</v>
+      </c>
+      <c r="AH87" s="52">
         <f t="shared" si="138"/>
-        <v>0.16285134743552593</v>
-      </c>
-      <c r="AA87" s="52">
+        <v>0.17645526761297045</v>
+      </c>
+      <c r="AI87" s="52">
         <f t="shared" si="138"/>
-        <v>0.17695099818511797</v>
-      </c>
-      <c r="AB87" s="52">
+        <v>0.13637628722516004</v>
+      </c>
+      <c r="AJ87" s="52">
         <f t="shared" si="138"/>
-        <v>0.1785974631870535</v>
-      </c>
-      <c r="AC87" s="52">
+        <v>0.14297286350749291</v>
+      </c>
+      <c r="AK87" s="52">
         <f t="shared" si="138"/>
-        <v>0.19693170084083197</v>
-      </c>
-      <c r="AD87" s="52">
+        <v>0.13825608798114689</v>
+      </c>
+      <c r="AL87" s="52">
         <f t="shared" si="138"/>
-        <v>0.17355472063992244</v>
-      </c>
-      <c r="AE87" s="52">
-        <f t="shared" ref="AE87:AM87" si="139">AE73/AE70</f>
-        <v>0.15960743801652894</v>
-      </c>
-      <c r="AF87" s="52">
+        <v>0.15871482063051093</v>
+      </c>
+      <c r="AM87" s="52">
+        <f t="shared" si="138"/>
+        <v>0.12584126984126984</v>
+      </c>
+      <c r="AN87" s="52">
+        <f t="shared" ref="AN87:AS87" si="139">AN73/AN70</f>
+        <v>0.17567207878626565</v>
+      </c>
+      <c r="AO87" s="52">
         <f t="shared" si="139"/>
-        <v>0.174374831944071</v>
-      </c>
-      <c r="AG87" s="52">
+        <v>0.14838798567098374</v>
+      </c>
+      <c r="AP87" s="52">
         <f t="shared" si="139"/>
-        <v>0.17748144074786912</v>
-      </c>
-      <c r="AH87" s="52">
+        <v>0.24504824784154394</v>
+      </c>
+      <c r="AQ87" s="52">
         <f t="shared" si="139"/>
-        <v>0.17645526761297045</v>
-      </c>
-      <c r="AI87" s="52">
+        <v>0.15411140583554378</v>
+      </c>
+      <c r="AR87" s="52">
         <f t="shared" si="139"/>
-        <v>0.13637628722516004</v>
-      </c>
-      <c r="AJ87" s="52">
+        <v>0.16407423723835665</v>
+      </c>
+      <c r="AS87" s="52">
         <f t="shared" si="139"/>
-        <v>0.14297286350749291</v>
-      </c>
-      <c r="AK87" s="52">
-        <f t="shared" si="139"/>
-        <v>0.13825608798114689</v>
-      </c>
-      <c r="AL87" s="52">
-        <f t="shared" si="139"/>
-        <v>0.15871482063051093</v>
-      </c>
-      <c r="AM87" s="52">
-        <f t="shared" si="139"/>
-        <v>0.12584126984126984</v>
-      </c>
-      <c r="AN87" s="52">
-        <f t="shared" ref="AN87:AS87" si="140">AN73/AN70</f>
-        <v>0.17567207878626565</v>
-      </c>
-      <c r="AO87" s="52">
-        <f t="shared" si="140"/>
-        <v>0.14838798567098374</v>
-      </c>
-      <c r="AP87" s="52">
-        <f t="shared" si="140"/>
-        <v>0.24504824784154394</v>
-      </c>
-      <c r="AQ87" s="52">
-        <f t="shared" si="140"/>
-        <v>0.15411140583554378</v>
-      </c>
-      <c r="AR87" s="52">
-        <f t="shared" si="140"/>
-        <v>0.16407423723835665</v>
-      </c>
-      <c r="AS87" s="52">
-        <f t="shared" si="140"/>
         <v>0.17377312952534191</v>
       </c>
       <c r="AT87" s="52">
@@ -27463,27 +27499,27 @@
       <c r="BX87" s="79"/>
       <c r="BY87" s="79"/>
       <c r="BZ87" s="79">
-        <f t="shared" ref="BZ87:CA87" si="141">+BZ73/BZ70</f>
+        <f t="shared" ref="BZ87:CA87" si="140">+BZ73/BZ70</f>
         <v>0.31363431828408578</v>
       </c>
       <c r="CA87" s="79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0.2184450739691533</v>
       </c>
       <c r="CB87" s="79">
-        <f t="shared" ref="CB87" si="142">+CB73/CB70</f>
+        <f t="shared" ref="CB87" si="141">+CB73/CB70</f>
         <v>0.22135458167330677</v>
       </c>
       <c r="CC87" s="79">
-        <f t="shared" ref="CC87:CE87" si="143">+CC73/CC70</f>
+        <f t="shared" ref="CC87:CE87" si="142">+CC73/CC70</f>
         <v>0.22727272727272727</v>
       </c>
       <c r="CD87" s="79">
-        <f t="shared" ref="CD87" si="144">+CD73/CD70</f>
+        <f t="shared" ref="CD87" si="143">+CD73/CD70</f>
         <v>0.23036437246963562</v>
       </c>
       <c r="CE87" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>0.22377049180327868</v>
       </c>
       <c r="CF87" s="79">
@@ -27491,19 +27527,19 @@
         <v>0.21909975669099757</v>
       </c>
       <c r="CG87" s="79">
-        <f t="shared" ref="CG87:CJ87" si="145">+CG73/CG70</f>
+        <f t="shared" ref="CG87:CJ87" si="144">+CG73/CG70</f>
         <v>0.21812284613825259</v>
       </c>
       <c r="CH87" s="79">
-        <f t="shared" si="145"/>
+        <f t="shared" si="144"/>
         <v>0.19948380651069852</v>
       </c>
       <c r="CI87" s="79">
-        <f t="shared" si="145"/>
+        <f t="shared" si="144"/>
         <v>0.19192273924495171</v>
       </c>
       <c r="CJ87" s="79">
-        <f t="shared" si="145"/>
+        <f t="shared" si="144"/>
         <v>0.22569863522421316</v>
       </c>
       <c r="CK87" s="79"/>
@@ -27534,43 +27570,43 @@
         <v>0.1742578150599646</v>
       </c>
       <c r="DD87" s="52">
-        <f t="shared" ref="DD87:DM87" si="146">DD73/DD70</f>
+        <f t="shared" ref="DD87:DM87" si="145">DD73/DD70</f>
         <v>0.18352913788466868</v>
       </c>
       <c r="DE87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DF87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DG87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DH87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DI87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DJ87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DK87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DL87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DM87" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DN87" s="52">
@@ -27641,95 +27677,95 @@
       <c r="U88" s="52"/>
       <c r="V88" s="52"/>
       <c r="W88" s="52">
-        <f t="shared" ref="W88:AD88" si="147">W74/W70</f>
+        <f t="shared" ref="W88:AD88" si="146">W74/W70</f>
         <v>0.3582923936981196</v>
       </c>
       <c r="X88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.36251385151179355</v>
+      </c>
+      <c r="Y88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.34935897435897434</v>
+      </c>
+      <c r="Z88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.36380759200231816</v>
+      </c>
+      <c r="AA88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.3352994555353902</v>
+      </c>
+      <c r="AB88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.37979297273655049</v>
+      </c>
+      <c r="AC88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.36686826965629149</v>
+      </c>
+      <c r="AD88" s="52">
+        <f t="shared" si="146"/>
+        <v>0.37025815052720884</v>
+      </c>
+      <c r="AE88" s="52">
+        <f t="shared" ref="AE88:AM88" si="147">AE74/AE70</f>
+        <v>0.35343491735537191</v>
+      </c>
+      <c r="AF88" s="52">
         <f t="shared" si="147"/>
-        <v>0.36251385151179355</v>
-      </c>
-      <c r="Y88" s="52">
+        <v>0.38101640225867167</v>
+      </c>
+      <c r="AG88" s="52">
         <f t="shared" si="147"/>
-        <v>0.34935897435897434</v>
-      </c>
-      <c r="Z88" s="52">
+        <v>0.34176519109155895</v>
+      </c>
+      <c r="AH88" s="52">
         <f t="shared" si="147"/>
-        <v>0.36380759200231816</v>
-      </c>
-      <c r="AA88" s="52">
+        <v>0.37192342752962626</v>
+      </c>
+      <c r="AI88" s="52">
         <f t="shared" si="147"/>
-        <v>0.3352994555353902</v>
-      </c>
-      <c r="AB88" s="52">
+        <v>0.33064291678263291</v>
+      </c>
+      <c r="AJ88" s="52">
         <f t="shared" si="147"/>
-        <v>0.37979297273655049</v>
-      </c>
-      <c r="AC88" s="52">
+        <v>0.38180099905494802</v>
+      </c>
+      <c r="AK88" s="52">
         <f t="shared" si="147"/>
-        <v>0.36686826965629149</v>
-      </c>
-      <c r="AD88" s="52">
+        <v>0.34865147944488084</v>
+      </c>
+      <c r="AL88" s="52">
         <f t="shared" si="147"/>
-        <v>0.37025815052720884</v>
-      </c>
-      <c r="AE88" s="52">
-        <f t="shared" ref="AE88:AM88" si="148">AE74/AE70</f>
-        <v>0.35343491735537191</v>
-      </c>
-      <c r="AF88" s="52">
+        <v>0.41852880782703222</v>
+      </c>
+      <c r="AM88" s="52">
+        <f t="shared" si="147"/>
+        <v>0.31263492063492065</v>
+      </c>
+      <c r="AN88" s="52">
+        <f t="shared" ref="AN88:AS88" si="148">AN74/AN70</f>
+        <v>0.32605802501996273</v>
+      </c>
+      <c r="AO88" s="52">
         <f t="shared" si="148"/>
-        <v>0.38101640225867167</v>
-      </c>
-      <c r="AG88" s="52">
+        <v>0.41485257646734636</v>
+      </c>
+      <c r="AP88" s="52">
         <f t="shared" si="148"/>
-        <v>0.34176519109155895</v>
-      </c>
-      <c r="AH88" s="52">
+        <v>0.32021330624682581</v>
+      </c>
+      <c r="AQ88" s="52">
         <f t="shared" si="148"/>
-        <v>0.37192342752962626</v>
-      </c>
-      <c r="AI88" s="52">
+        <v>0.33262599469496024</v>
+      </c>
+      <c r="AR88" s="52">
         <f t="shared" si="148"/>
-        <v>0.33064291678263291</v>
-      </c>
-      <c r="AJ88" s="52">
+        <v>0.35412924870378532</v>
+      </c>
+      <c r="AS88" s="52">
         <f t="shared" si="148"/>
-        <v>0.38180099905494802</v>
-      </c>
-      <c r="AK88" s="52">
-        <f t="shared" si="148"/>
-        <v>0.34865147944488084</v>
-      </c>
-      <c r="AL88" s="52">
-        <f t="shared" si="148"/>
-        <v>0.41852880782703222</v>
-      </c>
-      <c r="AM88" s="52">
-        <f t="shared" si="148"/>
-        <v>0.31263492063492065</v>
-      </c>
-      <c r="AN88" s="52">
-        <f t="shared" ref="AN88:AS88" si="149">AN74/AN70</f>
-        <v>0.32605802501996273</v>
-      </c>
-      <c r="AO88" s="52">
-        <f t="shared" si="149"/>
-        <v>0.41485257646734636</v>
-      </c>
-      <c r="AP88" s="52">
-        <f t="shared" si="149"/>
-        <v>0.32021330624682581</v>
-      </c>
-      <c r="AQ88" s="52">
-        <f t="shared" si="149"/>
-        <v>0.33262599469496024</v>
-      </c>
-      <c r="AR88" s="52">
-        <f t="shared" si="149"/>
-        <v>0.35412924870378532</v>
-      </c>
-      <c r="AS88" s="52">
-        <f t="shared" si="149"/>
         <v>0.35451863770447839</v>
       </c>
       <c r="AT88" s="52">
@@ -27783,27 +27819,27 @@
       <c r="BX88" s="79"/>
       <c r="BY88" s="79"/>
       <c r="BZ88" s="79">
-        <f t="shared" ref="BZ88:CA88" si="150">+BZ74/BZ70</f>
+        <f t="shared" ref="BZ88:CA88" si="149">+BZ74/BZ70</f>
         <v>0.45387730613469329</v>
       </c>
       <c r="CA88" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.42791942083726786</v>
       </c>
       <c r="CB88" s="79">
-        <f t="shared" ref="CB88" si="151">+CB74/CB70</f>
+        <f t="shared" ref="CB88" si="150">+CB74/CB70</f>
         <v>0.41992031872509961</v>
       </c>
       <c r="CC88" s="79">
-        <f t="shared" ref="CC88:CE88" si="152">+CC74/CC70</f>
+        <f t="shared" ref="CC88:CE88" si="151">+CC74/CC70</f>
         <v>0.41501976284584979</v>
       </c>
       <c r="CD88" s="79">
-        <f t="shared" ref="CD88" si="153">+CD74/CD70</f>
+        <f t="shared" ref="CD88" si="152">+CD74/CD70</f>
         <v>0.38299595141700404</v>
       </c>
       <c r="CE88" s="79">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>0.32773224043715848</v>
       </c>
       <c r="CF88" s="79">
@@ -27811,19 +27847,19 @@
         <v>0.30060827250608274</v>
       </c>
       <c r="CG88" s="79">
-        <f t="shared" ref="CG88:CJ88" si="154">+CG74/CG70</f>
+        <f t="shared" ref="CG88:CJ88" si="153">+CG74/CG70</f>
         <v>0.29049260085140888</v>
       </c>
       <c r="CH88" s="79">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.28040962451086504</v>
       </c>
       <c r="CI88" s="79">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.25864793678665499</v>
       </c>
       <c r="CJ88" s="79">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.29124500974839845</v>
       </c>
       <c r="CK88" s="79"/>
@@ -27954,111 +27990,111 @@
         <v>0.21917571995171581</v>
       </c>
       <c r="S89" s="52">
-        <f t="shared" ref="S89:AD89" si="155">S76/S70</f>
+        <f t="shared" ref="S89:AD89" si="154">S76/S70</f>
         <v>0.2530036566254571</v>
       </c>
       <c r="T89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.28019894818378244</v>
+      </c>
+      <c r="U89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.29279668336500259</v>
+      </c>
+      <c r="V89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.27167054134838925</v>
+      </c>
+      <c r="W89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.28781975266813487</v>
+      </c>
+      <c r="X89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.28858635428209595</v>
+      </c>
+      <c r="Y89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.29326923076923078</v>
+      </c>
+      <c r="Z89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.2536945812807882</v>
+      </c>
+      <c r="AA89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.27465214761040535</v>
+      </c>
+      <c r="AB89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.22729260825193176</v>
+      </c>
+      <c r="AC89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.2435462457589615</v>
+      </c>
+      <c r="AD89" s="52">
+        <f t="shared" si="154"/>
+        <v>0.24360683553508666</v>
+      </c>
+      <c r="AE89" s="52">
+        <f t="shared" ref="AE89:AM89" si="155">AE76/AE70</f>
+        <v>0.30010330578512395</v>
+      </c>
+      <c r="AF89" s="52">
         <f t="shared" si="155"/>
-        <v>0.28019894818378244</v>
-      </c>
-      <c r="U89" s="52">
+        <v>0.26283947297660659</v>
+      </c>
+      <c r="AG89" s="52">
         <f t="shared" si="155"/>
-        <v>0.29279668336500259</v>
-      </c>
-      <c r="V89" s="52">
+        <v>0.27783887819631564</v>
+      </c>
+      <c r="AH89" s="52">
         <f t="shared" si="155"/>
-        <v>0.27167054134838925</v>
-      </c>
-      <c r="W89" s="52">
+        <v>0.17945044927724965</v>
+      </c>
+      <c r="AI89" s="52">
         <f t="shared" si="155"/>
-        <v>0.28781975266813487</v>
-      </c>
-      <c r="X89" s="52">
+        <v>0.36849429446145282</v>
+      </c>
+      <c r="AJ89" s="52">
         <f t="shared" si="155"/>
-        <v>0.28858635428209595</v>
-      </c>
-      <c r="Y89" s="52">
+        <v>0.31051707843931414</v>
+      </c>
+      <c r="AK89" s="52">
         <f t="shared" si="155"/>
-        <v>0.29326923076923078</v>
-      </c>
-      <c r="Z89" s="52">
+        <v>0.34590206860434669</v>
+      </c>
+      <c r="AL89" s="52">
         <f t="shared" si="155"/>
-        <v>0.2536945812807882</v>
-      </c>
-      <c r="AA89" s="52">
+        <v>0.20038652011112454</v>
+      </c>
+      <c r="AM89" s="52">
         <f t="shared" si="155"/>
-        <v>0.27465214761040535</v>
-      </c>
-      <c r="AB89" s="52">
-        <f t="shared" si="155"/>
-        <v>0.22729260825193176</v>
-      </c>
-      <c r="AC89" s="52">
-        <f t="shared" si="155"/>
-        <v>0.2435462457589615</v>
-      </c>
-      <c r="AD89" s="52">
-        <f t="shared" si="155"/>
-        <v>0.24360683553508666</v>
-      </c>
-      <c r="AE89" s="52">
-        <f t="shared" ref="AE89:AM89" si="156">AE76/AE70</f>
-        <v>0.30010330578512395</v>
-      </c>
-      <c r="AF89" s="52">
+        <v>0.37358730158730158</v>
+      </c>
+      <c r="AN89" s="52">
+        <f t="shared" ref="AN89:AS89" si="156">AN76/AN70</f>
+        <v>0.31541123236624968</v>
+      </c>
+      <c r="AO89" s="52">
         <f t="shared" si="156"/>
-        <v>0.26283947297660659</v>
-      </c>
-      <c r="AG89" s="52">
+        <v>0.24331771837971894</v>
+      </c>
+      <c r="AP89" s="52">
         <f t="shared" si="156"/>
-        <v>0.27783887819631564</v>
-      </c>
-      <c r="AH89" s="52">
+        <v>0.22308278313864907</v>
+      </c>
+      <c r="AQ89" s="52">
         <f t="shared" si="156"/>
-        <v>0.17945044927724965</v>
-      </c>
-      <c r="AI89" s="52">
+        <v>0.3513262599469496</v>
+      </c>
+      <c r="AR89" s="52">
         <f t="shared" si="156"/>
-        <v>0.36849429446145282</v>
-      </c>
-      <c r="AJ89" s="52">
+        <v>0.33975408632394632</v>
+      </c>
+      <c r="AS89" s="52">
         <f t="shared" si="156"/>
-        <v>0.31051707843931414</v>
-      </c>
-      <c r="AK89" s="52">
-        <f t="shared" si="156"/>
-        <v>0.34590206860434669</v>
-      </c>
-      <c r="AL89" s="52">
-        <f t="shared" si="156"/>
-        <v>0.20038652011112454</v>
-      </c>
-      <c r="AM89" s="52">
-        <f t="shared" si="156"/>
-        <v>0.37358730158730158</v>
-      </c>
-      <c r="AN89" s="52">
-        <f t="shared" ref="AN89:AS89" si="157">AN76/AN70</f>
-        <v>0.31541123236624968</v>
-      </c>
-      <c r="AO89" s="52">
-        <f t="shared" si="157"/>
-        <v>0.24331771837971894</v>
-      </c>
-      <c r="AP89" s="52">
-        <f t="shared" si="157"/>
-        <v>0.22308278313864907</v>
-      </c>
-      <c r="AQ89" s="52">
-        <f t="shared" si="157"/>
-        <v>0.3513262599469496</v>
-      </c>
-      <c r="AR89" s="52">
-        <f t="shared" si="157"/>
-        <v>0.33975408632394632</v>
-      </c>
-      <c r="AS89" s="52">
-        <f t="shared" si="157"/>
         <v>0.2456422633413784</v>
       </c>
       <c r="AT89" s="52">
@@ -28112,27 +28148,27 @@
       <c r="BX89" s="79"/>
       <c r="BY89" s="79"/>
       <c r="BZ89" s="79">
-        <f t="shared" ref="BZ89:CA89" si="158">+BZ76/BZ70</f>
+        <f t="shared" ref="BZ89:CA89" si="157">+BZ76/BZ70</f>
         <v>8.6995650217489132E-2</v>
       </c>
       <c r="CA89" s="79">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.19200503619767076</v>
       </c>
       <c r="CB89" s="79">
-        <f t="shared" ref="CB89" si="159">+CB76/CB70</f>
+        <f t="shared" ref="CB89" si="158">+CB76/CB70</f>
         <v>0.20462151394422312</v>
       </c>
       <c r="CC89" s="79">
-        <f t="shared" ref="CC89:CE89" si="160">+CC76/CC70</f>
+        <f t="shared" ref="CC89:CE89" si="159">+CC76/CC70</f>
         <v>0.17801763453937366</v>
       </c>
       <c r="CD89" s="79">
-        <f t="shared" ref="CD89" si="161">+CD76/CD70</f>
+        <f t="shared" ref="CD89" si="160">+CD76/CD70</f>
         <v>0.25627530364372469</v>
       </c>
       <c r="CE89" s="79">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>0.37185792349726776</v>
       </c>
       <c r="CF89" s="79">
@@ -28140,19 +28176,19 @@
         <v>0.21958637469586376</v>
       </c>
       <c r="CG89" s="79">
-        <f t="shared" ref="CG89:CJ89" si="162">+CG76/CG70</f>
+        <f t="shared" ref="CG89:CJ89" si="161">+CG76/CG70</f>
         <v>0.23119805392256235</v>
       </c>
       <c r="CH89" s="79">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.26409124968778619</v>
       </c>
       <c r="CI89" s="79">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.34776119402985073</v>
       </c>
       <c r="CJ89" s="79">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.31241296072788044</v>
       </c>
       <c r="CK89" s="79"/>
@@ -28183,43 +28219,43 @@
         <v>0.28950127793433383</v>
       </c>
       <c r="DD89" s="52">
-        <f t="shared" ref="DD89:DM89" si="163">DD76/DD70</f>
+        <f t="shared" ref="DD89:DM89" si="162">DD76/DD70</f>
         <v>0.27478171170773419</v>
       </c>
       <c r="DE89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.46268562815387637</v>
       </c>
       <c r="DF89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.45768562815387648</v>
       </c>
       <c r="DG89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.45268562815387642</v>
       </c>
       <c r="DH89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.4376856281538764</v>
       </c>
       <c r="DI89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.43268562815387646</v>
       </c>
       <c r="DJ89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.41768562815387639</v>
       </c>
       <c r="DK89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.40268562815387632</v>
       </c>
       <c r="DL89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.38768562815387647</v>
       </c>
       <c r="DM89" s="52">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.3726856281538764</v>
       </c>
       <c r="DN89" s="52">
@@ -28291,95 +28327,95 @@
       <c r="U90" s="52"/>
       <c r="V90" s="52"/>
       <c r="W90" s="52">
-        <f t="shared" ref="W90:AD90" si="164">W79/W78</f>
+        <f t="shared" ref="W90:AD90" si="163">W79/W78</f>
         <v>0.35087719298245612</v>
       </c>
       <c r="X90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.31930562861651762</v>
+      </c>
+      <c r="Y90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.31135531135531136</v>
+      </c>
+      <c r="Z90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.35548352242031334</v>
+      </c>
+      <c r="AA90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.36748562467328805</v>
+      </c>
+      <c r="AB90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.35129993658845909</v>
+      </c>
+      <c r="AC90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.35398813447593935</v>
+      </c>
+      <c r="AD90" s="52">
+        <f t="shared" si="163"/>
+        <v>0.29301355578727839</v>
+      </c>
+      <c r="AE90" s="52">
+        <f t="shared" ref="AE90:AM90" si="164">AE79/AE78</f>
+        <v>0.28868778280542984</v>
+      </c>
+      <c r="AF90" s="52">
         <f t="shared" si="164"/>
-        <v>0.31930562861651762</v>
-      </c>
-      <c r="Y90" s="52">
+        <v>0.36967632027257241</v>
+      </c>
+      <c r="AG90" s="52">
         <f t="shared" si="164"/>
-        <v>0.31135531135531136</v>
-      </c>
-      <c r="Z90" s="52">
+        <v>0.3630278063851699</v>
+      </c>
+      <c r="AH90" s="52">
         <f t="shared" si="164"/>
-        <v>0.35548352242031334</v>
-      </c>
-      <c r="AA90" s="52">
+        <v>0.42780337941628266</v>
+      </c>
+      <c r="AI90" s="52">
         <f t="shared" si="164"/>
-        <v>0.36748562467328805</v>
-      </c>
-      <c r="AB90" s="52">
+        <v>0.34525723472668812</v>
+      </c>
+      <c r="AJ90" s="52">
         <f t="shared" si="164"/>
-        <v>0.35129993658845909</v>
-      </c>
-      <c r="AC90" s="52">
+        <v>0.43315508021390375</v>
+      </c>
+      <c r="AK90" s="52">
         <f t="shared" si="164"/>
-        <v>0.35398813447593935</v>
-      </c>
-      <c r="AD90" s="52">
+        <v>0.36882591093117406</v>
+      </c>
+      <c r="AL90" s="52">
         <f t="shared" si="164"/>
-        <v>0.29301355578727839</v>
-      </c>
-      <c r="AE90" s="52">
-        <f t="shared" ref="AE90:AM90" si="165">AE79/AE78</f>
-        <v>0.28868778280542984</v>
-      </c>
-      <c r="AF90" s="52">
+        <v>0.40186915887850466</v>
+      </c>
+      <c r="AM90" s="52">
+        <f t="shared" si="164"/>
+        <v>0.26259758694109298</v>
+      </c>
+      <c r="AN90" s="52">
+        <f t="shared" ref="AN90:AS90" si="165">AN79/AN78</f>
+        <v>0.35552596537949399</v>
+      </c>
+      <c r="AO90" s="52">
         <f t="shared" si="165"/>
-        <v>0.36967632027257241</v>
-      </c>
-      <c r="AG90" s="52">
+        <v>0.43510506798516685</v>
+      </c>
+      <c r="AP90" s="52">
         <f t="shared" si="165"/>
-        <v>0.3630278063851699</v>
-      </c>
-      <c r="AH90" s="52">
+        <v>0.39963167587476978</v>
+      </c>
+      <c r="AQ90" s="52">
         <f t="shared" si="165"/>
-        <v>0.42780337941628266</v>
-      </c>
-      <c r="AI90" s="52">
+        <v>0.1470820189274448</v>
+      </c>
+      <c r="AR90" s="52">
         <f t="shared" si="165"/>
-        <v>0.34525723472668812</v>
-      </c>
-      <c r="AJ90" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AS90" s="52">
         <f t="shared" si="165"/>
-        <v>0.43315508021390375</v>
-      </c>
-      <c r="AK90" s="52">
-        <f t="shared" si="165"/>
-        <v>0.36882591093117406</v>
-      </c>
-      <c r="AL90" s="52">
-        <f t="shared" si="165"/>
-        <v>0.40186915887850466</v>
-      </c>
-      <c r="AM90" s="52">
-        <f t="shared" si="165"/>
-        <v>0.26259758694109298</v>
-      </c>
-      <c r="AN90" s="52">
-        <f t="shared" ref="AN90:AS90" si="166">AN79/AN78</f>
-        <v>0.35552596537949399</v>
-      </c>
-      <c r="AO90" s="52">
-        <f t="shared" si="166"/>
-        <v>0.43510506798516685</v>
-      </c>
-      <c r="AP90" s="52">
-        <f t="shared" si="166"/>
-        <v>0.39963167587476978</v>
-      </c>
-      <c r="AQ90" s="52">
-        <f t="shared" si="166"/>
-        <v>0.1470820189274448</v>
-      </c>
-      <c r="AR90" s="52">
-        <f t="shared" si="166"/>
-        <v>0.2</v>
-      </c>
-      <c r="AS90" s="52">
-        <f t="shared" si="166"/>
         <v>0.39332949971247844</v>
       </c>
       <c r="AT90" s="52">
@@ -28433,27 +28469,27 @@
       <c r="BX90" s="79"/>
       <c r="BY90" s="79"/>
       <c r="BZ90" s="79">
-        <f t="shared" ref="BZ90:CA90" si="167">+BZ79/BZ78</f>
+        <f t="shared" ref="BZ90:CA90" si="166">+BZ79/BZ78</f>
         <v>-0.15226337448559671</v>
       </c>
       <c r="CA90" s="79">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.19786096256684493</v>
       </c>
       <c r="CB90" s="79">
-        <f t="shared" ref="CB90" si="168">+CB79/CB78</f>
+        <f t="shared" ref="CB90" si="167">+CB79/CB78</f>
         <v>0.21019771071800208</v>
       </c>
       <c r="CC90" s="79">
-        <f t="shared" ref="CC90:CE90" si="169">+CC79/CC78</f>
+        <f t="shared" ref="CC90:CE90" si="168">+CC79/CC78</f>
         <v>0.23681125439624853</v>
       </c>
       <c r="CD90" s="79">
-        <f t="shared" ref="CD90" si="170">+CD79/CD78</f>
+        <f t="shared" ref="CD90" si="169">+CD79/CD78</f>
         <v>0.1759478672985782</v>
       </c>
       <c r="CE90" s="79">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>7.5069142631371003E-2</v>
       </c>
       <c r="CF90" s="79">
@@ -28461,19 +28497,19 @@
         <v>0.23651721897335931</v>
       </c>
       <c r="CG90" s="79">
-        <f t="shared" ref="CG90:CJ90" si="171">+CG79/CG78</f>
+        <f t="shared" ref="CG90:CJ90" si="170">+CG79/CG78</f>
         <v>0.21557177615571776</v>
       </c>
       <c r="CH90" s="79">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.16110210696920582</v>
       </c>
       <c r="CI90" s="79">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.20814235643030465</v>
       </c>
       <c r="CJ90" s="79">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.15303849825007954</v>
       </c>
       <c r="CK90" s="79"/>
@@ -28504,43 +28540,43 @@
         <v>0.34816061553257993</v>
       </c>
       <c r="DD90" s="52">
-        <f t="shared" ref="DD90:DM90" si="172">DD79/DD78</f>
+        <f t="shared" ref="DD90:DM90" si="171">DD79/DD78</f>
         <v>0.26662217648687481</v>
       </c>
       <c r="DE90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DF90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DG90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DH90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DI90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DJ90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DK90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DL90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DM90" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="DN90" s="52">
@@ -28704,35 +28740,35 @@
         <v>-1000</v>
       </c>
       <c r="DF92" s="38">
-        <f t="shared" ref="DF92:DM92" si="173">DE92+DF81</f>
+        <f t="shared" ref="DF92:DM92" si="172">DE92+DF81</f>
         <v>1113.0160188659156</v>
       </c>
       <c r="DG92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>3232.9694891657923</v>
       </c>
       <c r="DH92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>5161.7759799882479</v>
       </c>
       <c r="DI92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>7002.13384928906</v>
       </c>
       <c r="DJ92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>8632.2689847443326</v>
       </c>
       <c r="DK92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>10131.554072051324</v>
       </c>
       <c r="DL92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>11598.044781991519</v>
       </c>
       <c r="DM92" s="38">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>13123.239327029598</v>
       </c>
       <c r="DN92" s="38">
@@ -28918,59 +28954,59 @@
       <c r="W95" s="51"/>
       <c r="X95" s="51"/>
       <c r="Y95" s="36">
-        <f t="shared" ref="Y95:AL95" si="174">Y70/U70-1</f>
+        <f t="shared" ref="Y95:AL95" si="173">Y70/U70-1</f>
         <v>7.7906374157885594E-2</v>
       </c>
       <c r="Z95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.14613085353703092</v>
       </c>
       <c r="AA95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.12010841944773842</v>
       </c>
       <c r="AB95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>8.5800221624188655E-2</v>
       </c>
       <c r="AC95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>8.6378205128205154E-2</v>
       </c>
       <c r="AD95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.19545059403071563</v>
       </c>
       <c r="AE95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>0.1712038717483364</v>
       </c>
       <c r="AF95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>8.4414637702288964E-2</v>
       </c>
       <c r="AG95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>7.30196194128927E-2</v>
       </c>
       <c r="AH95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>-6.9324930311477351E-2</v>
       </c>
       <c r="AI95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>-7.2055785123966931E-2</v>
       </c>
       <c r="AJ95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>-4.1677870395268046E-3</v>
       </c>
       <c r="AK95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>5.0041242782512985E-2</v>
       </c>
       <c r="AL95" s="36">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>7.8135173850761852E-2</v>
       </c>
       <c r="AM95" s="36">
@@ -29030,35 +29066,35 @@
         <v>0.16267154620311075</v>
       </c>
       <c r="CB95" s="86">
-        <f t="shared" ref="CB95" si="175">+CB70/BX70-1</f>
+        <f t="shared" ref="CB95" si="174">+CB70/BX70-1</f>
         <v>9.7411682406435718E-2</v>
       </c>
       <c r="CC95" s="86">
-        <f t="shared" ref="CC95:CI95" si="176">+CC70/BY70-1</f>
+        <f t="shared" ref="CC95:CI95" si="175">+CC70/BY70-1</f>
         <v>7.3433420365535351E-2</v>
       </c>
       <c r="CD95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.11144442777861108</v>
       </c>
       <c r="CE95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.15203021718602461</v>
       </c>
       <c r="CF95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.30996015936254984</v>
       </c>
       <c r="CG95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.49984797810884762</v>
       </c>
       <c r="CH95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.62091767881241555</v>
       </c>
       <c r="CI95" s="86">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.55601092896174853</v>
       </c>
       <c r="CJ95" s="86">
@@ -29066,28 +29102,28 @@
         <v>0.31034063260340639</v>
       </c>
       <c r="CK95" s="86">
-        <f t="shared" ref="CK95:CP95" si="177">+CK70/CG70-1</f>
-        <v>-0.12831948104601665</v>
+        <f t="shared" ref="CK95:CP95" si="176">+CK70/CG70-1</f>
+        <v>0.11311575106426108</v>
       </c>
       <c r="CL95" s="86">
-        <f t="shared" si="177"/>
-        <v>-0.26260927483140462</v>
+        <f t="shared" si="176"/>
+        <v>-0.2523686620597787</v>
       </c>
       <c r="CM95" s="86">
-        <f t="shared" si="177"/>
-        <v>-0.22830114135206303</v>
+        <f t="shared" si="176"/>
+        <v>-0.21750219490781375</v>
       </c>
       <c r="CN95" s="86">
-        <f t="shared" si="177"/>
-        <v>-0.16024510259028857</v>
+        <f t="shared" si="176"/>
+        <v>-0.14947544332002582</v>
       </c>
       <c r="CO95" s="86">
-        <f t="shared" si="177"/>
-        <v>-3.255872093023271E-2</v>
+        <f t="shared" si="176"/>
+        <v>-0.17360225824075748</v>
       </c>
       <c r="CP95" s="86">
-        <f t="shared" si="177"/>
-        <v>-1.2051192304218139E-2</v>
+        <f t="shared" si="176"/>
+        <v>-1.3250295106794874E-2</v>
       </c>
       <c r="CQ95" s="36"/>
       <c r="CR95" s="36"/>
@@ -29110,39 +29146,39 @@
         <v>-2.0343403892784662E-2</v>
       </c>
       <c r="DE95" s="36">
-        <f t="shared" ref="DE95:DM95" si="178">+DE70/DD70-1</f>
+        <f t="shared" ref="DE95:DM95" si="177">+DE70/DD70-1</f>
         <v>-0.76499440080596282</v>
       </c>
       <c r="DF95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-0.10832621690862521</v>
       </c>
       <c r="DG95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-2.2946288049290331E-2</v>
       </c>
       <c r="DH95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-0.10042158689361302</v>
       </c>
       <c r="DI95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-7.8419631088023301E-2</v>
       </c>
       <c r="DJ95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-0.13974100872742135</v>
       </c>
       <c r="DK95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-0.10836130914679132</v>
       </c>
       <c r="DL95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>-3.9961226936328975E-2</v>
       </c>
       <c r="DM95" s="36">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>4.3800694319961808E-2</v>
       </c>
       <c r="DN95" s="36">
@@ -29377,59 +29413,59 @@
       <c r="CA97" s="119"/>
       <c r="CB97" s="119"/>
       <c r="CC97" s="119">
-        <f t="shared" ref="CC97:CP97" si="179">+CC3/BY3-1</f>
+        <f t="shared" ref="CC97:CP97" si="178">+CC3/BY3-1</f>
         <v>0.29629629629629628</v>
       </c>
       <c r="CD97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.30882352941176472</v>
       </c>
       <c r="CE97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.1700610997963341</v>
       </c>
       <c r="CF97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.26305609284332698</v>
       </c>
       <c r="CG97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>7.9653679653679754E-2</v>
       </c>
       <c r="CH97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.13569576490924806</v>
       </c>
       <c r="CI97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.13489991296779813</v>
       </c>
       <c r="CJ97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>7.1975497702909674E-2</v>
       </c>
       <c r="CK97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
+        <v>0.1210906174819566</v>
+      </c>
+      <c r="CL97" s="119">
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CL97" s="119">
-        <f t="shared" si="179"/>
+      <c r="CM97" s="119">
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CM97" s="119">
-        <f t="shared" si="179"/>
+      <c r="CN97" s="119">
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CN97" s="119">
-        <f t="shared" si="179"/>
+      <c r="CO97" s="119">
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CO97" s="119">
-        <f t="shared" si="179"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="CP97" s="119">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CQ97" s="118"/>
@@ -29540,31 +29576,31 @@
       <c r="CA98" s="119"/>
       <c r="CB98" s="119"/>
       <c r="CC98" s="119">
-        <f t="shared" ref="CC98:CP98" si="180">+CC4/BY4-1</f>
+        <f t="shared" ref="CC98:CP98" si="179">+CC4/BY4-1</f>
         <v>0.31909547738693478</v>
       </c>
       <c r="CD98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.39856801909307871</v>
       </c>
       <c r="CE98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.54074074074074074</v>
       </c>
       <c r="CF98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.65237020316027095</v>
       </c>
       <c r="CG98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.51619047619047609</v>
       </c>
       <c r="CH98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.44709897610921501</v>
       </c>
       <c r="CI98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.60256410256410264</v>
       </c>
       <c r="CJ98" s="119">
@@ -29572,27 +29608,27 @@
         <v>0.50683060109289624</v>
       </c>
       <c r="CK98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
+        <v>0.38316582914572872</v>
+      </c>
+      <c r="CL98" s="119">
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="CL98" s="119">
-        <f t="shared" si="180"/>
+      <c r="CM98" s="119">
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="CM98" s="119">
-        <f t="shared" si="180"/>
+      <c r="CN98" s="119">
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="CN98" s="119">
-        <f t="shared" si="180"/>
+      <c r="CO98" s="119">
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="CO98" s="119">
-        <f t="shared" si="180"/>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="CP98" s="119">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CQ98" s="118"/>
@@ -29638,123 +29674,123 @@
       <c r="O99" s="112"/>
       <c r="P99" s="112"/>
       <c r="Q99" s="112">
-        <f t="shared" ref="Q99:AT99" si="181">Q13/M13-1</f>
+        <f t="shared" ref="Q99:AT99" si="180">Q13/M13-1</f>
         <v>-4.9000000000000044E-2</v>
       </c>
       <c r="R99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.32296650717703357</v>
       </c>
       <c r="S99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.12834224598930488</v>
       </c>
       <c r="T99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.35129068462401802</v>
       </c>
       <c r="U99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.18506834910620396</v>
       </c>
       <c r="V99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.12748643761301981</v>
       </c>
       <c r="W99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.12701421800947865</v>
       </c>
       <c r="X99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>6.5614617940199293E-2</v>
       </c>
       <c r="Y99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.13575865128660158</v>
       </c>
       <c r="Z99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.14675220529270239</v>
       </c>
       <c r="AA99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.1000841042893188</v>
       </c>
       <c r="AB99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>2.2603273577552541E-2</v>
       </c>
       <c r="AC99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>1.0156250000000089E-2</v>
       </c>
       <c r="AD99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-8.8811188811188768E-2</v>
       </c>
       <c r="AE99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-5.3516819571865493E-2</v>
       </c>
       <c r="AF99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>8.3841463414633388E-3</v>
       </c>
       <c r="AG99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>1.7014694508894035E-2</v>
       </c>
       <c r="AH99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>1.6116653875671627E-2</v>
       </c>
       <c r="AI99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-3.7156704361874016E-2</v>
       </c>
       <c r="AJ99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-5.8201058201058253E-2</v>
       </c>
       <c r="AK99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-5.4752851711026618E-2</v>
       </c>
       <c r="AL99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-3.4743202416918417E-2</v>
       </c>
       <c r="AM99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>3.9429530201342322E-2</v>
       </c>
       <c r="AN99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>8.82825040128421E-3</v>
       </c>
       <c r="AO99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-8.045052292839916E-4</v>
       </c>
       <c r="AP99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-3.6776212832550836E-2</v>
       </c>
       <c r="AQ99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-6.2953995157384979E-2</v>
       </c>
       <c r="AR99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-3.9777247414478967E-2</v>
       </c>
       <c r="AS99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.12318840579710144</v>
       </c>
       <c r="AT99" s="112">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.1332250203086921</v>
       </c>
       <c r="AU99" s="112"/>
@@ -29848,123 +29884,123 @@
       <c r="O100" s="112"/>
       <c r="P100" s="112"/>
       <c r="Q100" s="112">
-        <f t="shared" ref="Q100:AT100" si="182">Q48/M48-1</f>
+        <f t="shared" ref="Q100:AT100" si="181">Q48/M48-1</f>
         <v>0.53333333333333344</v>
       </c>
       <c r="R100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.31308411214953269</v>
       </c>
       <c r="S100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.4129464285714286</v>
       </c>
       <c r="T100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.36680327868852469</v>
       </c>
       <c r="U100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.33459357277882806</v>
       </c>
       <c r="V100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.34341637010676163</v>
       </c>
       <c r="W100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.27488151658767768</v>
       </c>
       <c r="X100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.27286356821589197</v>
       </c>
       <c r="Y100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.20113314447592079</v>
       </c>
       <c r="Z100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.20794701986754971</v>
       </c>
       <c r="AA100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.14374225526641893</v>
       </c>
       <c r="AB100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.13427561837455837</v>
       </c>
       <c r="AC100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.24410377358490565</v>
       </c>
       <c r="AD100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.19078947368421062</v>
       </c>
       <c r="AE100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.13759479956663045</v>
       </c>
       <c r="AF100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.1547248182762202</v>
       </c>
       <c r="AG100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>7.1090047393364886E-2</v>
       </c>
       <c r="AH100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>6.8139963167587414E-2</v>
       </c>
       <c r="AI100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="AJ100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.12320143884892087</v>
       </c>
       <c r="AK100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>8.9380530973451222E-2</v>
       </c>
       <c r="AL100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>8.7068965517241415E-2</v>
       </c>
       <c r="AM100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.1617777777777778</v>
       </c>
       <c r="AN100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>8.2465972778222651E-2</v>
       </c>
       <c r="AO100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>5.84890333062551E-2</v>
       </c>
       <c r="AP100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>6.2648691514670896E-2</v>
       </c>
       <c r="AQ100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>2.9074215761285327E-2</v>
       </c>
       <c r="AR100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>7.444359171143522E-2</v>
       </c>
       <c r="AT100" s="112">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>0.15373134328358207</v>
       </c>
       <c r="AU100" s="112"/>
@@ -30058,107 +30094,107 @@
       <c r="O101" s="112"/>
       <c r="P101" s="112"/>
       <c r="Q101" s="112">
-        <f t="shared" ref="Q101:AP101" si="183">Q16/M16-1</f>
+        <f t="shared" ref="Q101:AP101" si="182">Q16/M16-1</f>
         <v>2.4210526315789473</v>
       </c>
       <c r="R101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>6.6097560975609753</v>
       </c>
       <c r="S101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>1.1162790697674421</v>
       </c>
       <c r="T101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.5314009661835748</v>
       </c>
       <c r="U101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.25</v>
       </c>
       <c r="V101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.13141025641025639</v>
       </c>
       <c r="W101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.41758241758241765</v>
       </c>
       <c r="X101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.51419558359621442</v>
       </c>
       <c r="Y101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.64923076923076928</v>
       </c>
       <c r="Z101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.77053824362606238</v>
       </c>
       <c r="AA101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.62273901808785537</v>
       </c>
       <c r="AB101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.41250000000000009</v>
       </c>
       <c r="AC101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.28917910447761197</v>
       </c>
       <c r="AD101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.27839999999999998</v>
       </c>
       <c r="AE101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.22929936305732479</v>
       </c>
       <c r="AF101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.35103244837758107</v>
       </c>
       <c r="AG101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.33429811866859627</v>
       </c>
       <c r="AH101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.23529411764705888</v>
       </c>
       <c r="AI101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.25518134715025909</v>
       </c>
       <c r="AJ101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.23253275109170302</v>
       </c>
       <c r="AK101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.24403470715835152</v>
       </c>
       <c r="AL101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.2735562310030395</v>
       </c>
       <c r="AM101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.34158926728586181</v>
       </c>
       <c r="AN101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.2666076173604961</v>
       </c>
       <c r="AO101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.19790758500435923</v>
       </c>
       <c r="AP101" s="112">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>0.26252983293556076</v>
       </c>
       <c r="AQ101" s="112"/>
@@ -30256,107 +30292,107 @@
       <c r="O102" s="112"/>
       <c r="P102" s="112"/>
       <c r="Q102" s="112">
-        <f t="shared" ref="Q102:AP102" si="184">Q7/M7-1</f>
+        <f t="shared" ref="Q102:AP102" si="183">Q7/M7-1</f>
         <v>0.4453125</v>
       </c>
       <c r="R102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.27325581395348841</v>
       </c>
       <c r="S102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.31382978723404253</v>
       </c>
       <c r="T102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.24390243902439024</v>
       </c>
       <c r="U102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.29729729729729737</v>
       </c>
       <c r="V102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.20547945205479445</v>
       </c>
       <c r="W102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.12145748987854255</v>
       </c>
       <c r="X102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.20784313725490189</v>
       </c>
       <c r="Y102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Z102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.2234848484848484</v>
       </c>
       <c r="AA102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.27797833935018046</v>
       </c>
       <c r="AB102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.3441558441558441</v>
       </c>
       <c r="AC102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.34420289855072461</v>
       </c>
       <c r="AD102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.34984520123839014</v>
       </c>
       <c r="AE102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.33050847457627119</v>
       </c>
       <c r="AF102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.25120772946859904</v>
       </c>
       <c r="AG102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.3504043126684635</v>
       </c>
       <c r="AH102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.17889908256880727</v>
       </c>
       <c r="AI102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>9.3418259023354544E-2</v>
       </c>
       <c r="AJ102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>6.370656370656369E-2</v>
       </c>
       <c r="AK102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.12175648702594821</v>
       </c>
       <c r="AL102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.29571984435797671</v>
       </c>
       <c r="AM102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.36116504854368925</v>
       </c>
       <c r="AN102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.20508166969147013</v>
       </c>
       <c r="AO102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.13879003558718872</v>
       </c>
       <c r="AP102" s="112">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>0.11261261261261257</v>
       </c>
       <c r="AQ102" s="112"/>
@@ -33353,34 +33389,34 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="127" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="127" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="127" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="127" t="s">
         <v>593</v>
       </c>
     </row>
@@ -33410,42 +33446,42 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="127" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="127" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="127" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="127" t="s">
         <v>590</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="127" t="s">
         <v>583</v>
       </c>
     </row>
@@ -33467,9 +33503,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="127" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="127" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="127"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -33478,38 +33513,38 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="127" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="127" t="s">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="127" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="128" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="127" t="s">
+      <c r="C7" t="s">
         <v>248</v>
       </c>
     </row>
@@ -33535,23 +33570,23 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="127" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="127" t="s">
         <v>603</v>
       </c>
     </row>
@@ -33700,18 +33735,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="127" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="127"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
@@ -33722,10 +33757,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="127" t="s">
         <v>607</v>
       </c>
     </row>
@@ -33733,7 +33768,7 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="127" t="s">
         <v>606</v>
       </c>
     </row>
@@ -33753,6 +33788,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -33866,32 +33916,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -33906,9 +33934,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/AZN.xlsx
+++ b/AZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C75908-619E-452B-AA6F-3D7CEA21D27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7589261-C2A2-4721-964F-F85FED7D32A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="795" windowWidth="35460" windowHeight="19260" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35955" yWindow="600" windowWidth="28590" windowHeight="18735" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="32" r:id="rId1"/>
@@ -2519,7 +2519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3101,7 +3101,9 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C5E4CC0F-8869-478F-A451-EFC2320E85DB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5934,8 +5936,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6503,7 +6505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GG128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7224,15 +7226,15 @@
         <v>4328</v>
       </c>
       <c r="DN3" s="75">
-        <f t="shared" ref="DN3:DN8" si="3">SUM(CE3:CH3)</f>
+        <f t="shared" ref="DN3:DN7" si="3">SUM(CE3:CH3)</f>
         <v>5016</v>
       </c>
       <c r="DO3" s="75">
-        <f t="shared" ref="DO3:DO8" si="4">SUM(CI3:CL3)</f>
+        <f t="shared" ref="DO3:DO7" si="4">SUM(CI3:CL3)</f>
         <v>5481.7</v>
       </c>
       <c r="DP3" s="75">
-        <f t="shared" ref="DP3:DP8" si="5">SUM(CM3:CP3)</f>
+        <f t="shared" ref="DP3:DP7" si="5">SUM(CM3:CP3)</f>
         <v>5755.7850000000008</v>
       </c>
       <c r="DQ3" s="75">
@@ -7240,7 +7242,7 @@
         <v>5813.3428500000009</v>
       </c>
       <c r="DR3" s="75">
-        <f t="shared" ref="DR3:DX3" si="6">+DQ3*1.01</f>
+        <f t="shared" ref="DR3:DU3" si="6">+DQ3*1.01</f>
         <v>5871.4762785000012</v>
       </c>
       <c r="DS3" s="75">
@@ -7643,7 +7645,7 @@
         <v>968.4</v>
       </c>
       <c r="CM5" s="81">
-        <f t="shared" ref="CL5:CP5" si="12">+CI5*0.9</f>
+        <f t="shared" ref="CM5:CP5" si="12">+CI5*0.9</f>
         <v>891</v>
       </c>
       <c r="CN5" s="81">
@@ -10562,7 +10564,7 @@
         <v>856.25099999999998</v>
       </c>
       <c r="DR16" s="44">
-        <f t="shared" ref="DR16:EB20" si="34">+DQ16*0.9</f>
+        <f t="shared" ref="DR16:EB19" si="34">+DQ16*0.9</f>
         <v>770.6259</v>
       </c>
       <c r="DS16" s="44">
@@ -10900,7 +10902,7 @@
         <v>179.20000000000002</v>
       </c>
       <c r="DG17" s="44">
-        <f t="shared" ref="DG17:DL17" si="40">+DF17*0.8</f>
+        <f t="shared" ref="DG17:DJ17" si="40">+DF17*0.8</f>
         <v>143.36000000000001</v>
       </c>
       <c r="DH17" s="44">
@@ -12272,7 +12274,7 @@
         <v>67.2</v>
       </c>
       <c r="DG21" s="44">
-        <f t="shared" ref="DG21:DM21" si="46">+DF21*0.8</f>
+        <f t="shared" ref="DG21:DJ21" si="46">+DF21*0.8</f>
         <v>53.760000000000005</v>
       </c>
       <c r="DH21" s="44">
@@ -12563,7 +12565,7 @@
         <v>151</v>
       </c>
       <c r="DF22" s="46">
-        <f t="shared" ref="DF22:DL22" si="48">DE22*0.5</f>
+        <f t="shared" ref="DF22:DJ22" si="48">DE22*0.5</f>
         <v>75.5</v>
       </c>
       <c r="DG22" s="46">
@@ -14643,7 +14645,7 @@
         <v>97.597500000000011</v>
       </c>
       <c r="DH32" s="44">
-        <f t="shared" ref="DH32:DR32" si="59">DG32*0.7</f>
+        <f t="shared" ref="DH32:DJ32" si="59">DG32*0.7</f>
         <v>68.318250000000006</v>
       </c>
       <c r="DI32" s="44">
@@ -14967,7 +14969,7 @@
         <v>144</v>
       </c>
       <c r="DF33" s="44">
-        <f t="shared" ref="DF33:DL33" si="61">+DE33*0.8</f>
+        <f t="shared" ref="DF33:DJ33" si="61">+DE33*0.8</f>
         <v>115.2</v>
       </c>
       <c r="DG33" s="44">
@@ -15303,7 +15305,7 @@
         <v>90.4</v>
       </c>
       <c r="DG34" s="44">
-        <f t="shared" ref="DG34:DL34" si="63">+DF34*0.8</f>
+        <f t="shared" ref="DG34:DJ34" si="63">+DF34*0.8</f>
         <v>72.320000000000007</v>
       </c>
       <c r="DH34" s="44">
@@ -15814,7 +15816,7 @@
         <v>24</v>
       </c>
       <c r="DF36" s="44">
-        <f t="shared" ref="DF36:DL36" si="66">+DE36*0.9</f>
+        <f t="shared" ref="DF36:DJ36" si="66">+DE36*0.9</f>
         <v>21.6</v>
       </c>
       <c r="DG36" s="44">
@@ -16630,7 +16632,7 @@
         <v>1.98</v>
       </c>
       <c r="DG40" s="44">
-        <f t="shared" ref="DG40:DM40" si="74">+DF40*0.99</f>
+        <f t="shared" ref="DG40:DJ40" si="74">+DF40*0.99</f>
         <v>1.9601999999999999</v>
       </c>
       <c r="DH40" s="44">
@@ -16950,7 +16952,7 @@
         <v>52</v>
       </c>
       <c r="DF41" s="44">
-        <f t="shared" ref="DF41:DL41" si="78">+DE41*0.9</f>
+        <f t="shared" ref="DF41:DJ41" si="78">+DE41*0.9</f>
         <v>46.800000000000004</v>
       </c>
       <c r="DG41" s="44">
@@ -17222,7 +17224,7 @@
         <v>376.32</v>
       </c>
       <c r="DG42" s="44">
-        <f t="shared" ref="DG42:DR42" si="83">+DF42*0.98</f>
+        <f t="shared" ref="DG42:DJ42" si="83">+DF42*0.98</f>
         <v>368.79359999999997</v>
       </c>
       <c r="DH42" s="44">
@@ -17548,7 +17550,7 @@
         <v>43.2</v>
       </c>
       <c r="DG43" s="44">
-        <f t="shared" ref="DG43:DL43" si="88">+DF43*0.9</f>
+        <f t="shared" ref="DG43:DJ43" si="88">+DF43*0.9</f>
         <v>38.880000000000003</v>
       </c>
       <c r="DH43" s="44">
@@ -18055,7 +18057,7 @@
         <v>136</v>
       </c>
       <c r="DG45" s="44">
-        <f t="shared" ref="DG45:DL45" si="95">DF45*0.8</f>
+        <f t="shared" ref="DG45:DJ45" si="95">DF45*0.8</f>
         <v>108.80000000000001</v>
       </c>
       <c r="DH45" s="44">
@@ -18569,7 +18571,7 @@
         <v>253.60000000000002</v>
       </c>
       <c r="DG47" s="44">
-        <f t="shared" ref="DG47:DL47" si="96">+DF47*0.8</f>
+        <f t="shared" ref="DG47:DJ47" si="96">+DF47*0.8</f>
         <v>202.88000000000002</v>
       </c>
       <c r="DH47" s="44">
@@ -19441,7 +19443,7 @@
         <v>100</v>
       </c>
       <c r="DF50" s="44">
-        <f t="shared" ref="DF50:DL50" si="102">DE50*0.9</f>
+        <f t="shared" ref="DF50:DJ50" si="102">DE50*0.9</f>
         <v>90</v>
       </c>
       <c r="DG50" s="44">
@@ -19700,7 +19702,7 @@
         <v>6</v>
       </c>
       <c r="DF51" s="44">
-        <f t="shared" ref="DF51:DM51" si="103">+DE51*0.8</f>
+        <f t="shared" ref="DF51:DJ51" si="103">+DE51*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="DG51" s="44">
@@ -19983,7 +19985,7 @@
         <v>39.6</v>
       </c>
       <c r="DG52" s="44">
-        <f t="shared" ref="DG52:DR52" si="104">+DF52*0.9</f>
+        <f t="shared" ref="DG52:DJ52" si="104">+DF52*0.9</f>
         <v>35.64</v>
       </c>
       <c r="DH52" s="44">
@@ -20523,7 +20525,7 @@
         <v>58.400000000000006</v>
       </c>
       <c r="DG54" s="44">
-        <f t="shared" ref="DG54:DL54" si="106">+DF54*0.8</f>
+        <f t="shared" ref="DG54:DJ54" si="106">+DF54*0.8</f>
         <v>46.720000000000006</v>
       </c>
       <c r="DH54" s="44">
@@ -20800,7 +20802,7 @@
         <v>45.6</v>
       </c>
       <c r="DG55" s="44">
-        <f t="shared" ref="DG55:DL55" si="110">+DF55*0.8</f>
+        <f t="shared" ref="DG55:DJ55" si="110">+DF55*0.8</f>
         <v>36.480000000000004</v>
       </c>
       <c r="DH55" s="44">
@@ -21059,7 +21061,7 @@
         <v>59.4</v>
       </c>
       <c r="DH56" s="44">
-        <f t="shared" ref="DH56:DR56" si="111">+DG56*0.9</f>
+        <f t="shared" ref="DH56:DJ56" si="111">+DG56*0.9</f>
         <v>53.46</v>
       </c>
       <c r="DI56" s="44">
@@ -21316,7 +21318,7 @@
         <v>132</v>
       </c>
       <c r="DG57" s="44">
-        <f t="shared" ref="DG57:DR57" si="112">DF57</f>
+        <f t="shared" ref="DG57:DJ57" si="112">DF57</f>
         <v>132</v>
       </c>
       <c r="DH57" s="44">
@@ -21595,7 +21597,7 @@
         <v>16</v>
       </c>
       <c r="DG58" s="44">
-        <f t="shared" ref="DG58:DR58" si="113">DF58</f>
+        <f t="shared" ref="DG58:DJ58" si="113">DF58</f>
         <v>16</v>
       </c>
       <c r="DH58" s="44">
@@ -21952,7 +21954,7 @@
         <v>43.199999999999996</v>
       </c>
       <c r="DI60" s="44">
-        <f t="shared" ref="DI60:DP60" si="114">+DH60*1.2</f>
+        <f t="shared" ref="DI60:DJ60" si="114">+DH60*1.2</f>
         <v>51.839999999999996</v>
       </c>
       <c r="DJ60" s="44">
@@ -22833,7 +22835,7 @@
       </c>
       <c r="DE64" s="44"/>
       <c r="DF64" s="43">
-        <f t="shared" ref="DF64:DL64" si="115">DE64*0.5</f>
+        <f t="shared" ref="DF64:DJ64" si="115">DE64*0.5</f>
         <v>0</v>
       </c>
       <c r="DG64" s="43">
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="DG69" s="44">
-        <f t="shared" ref="DG69:DM69" si="118">DF69</f>
+        <f t="shared" ref="DG69:DJ69" si="118">DF69</f>
         <v>0</v>
       </c>
       <c r="DH69" s="44">
@@ -24093,7 +24095,7 @@
         <v>21426</v>
       </c>
       <c r="CX70" s="96">
-        <f t="shared" ref="CX70:DR70" si="122">SUM(CX13:CX69)</f>
+        <f t="shared" ref="CX70:DK70" si="122">SUM(CX13:CX69)</f>
         <v>22944.25</v>
       </c>
       <c r="CY70" s="96">
@@ -24161,7 +24163,7 @@
         <v>37417</v>
       </c>
       <c r="DO70" s="96">
-        <f t="shared" ref="DO70:DR70" si="123">SUM(DO3:DO69)</f>
+        <f t="shared" ref="DO70:DQ70" si="123">SUM(DO3:DO69)</f>
         <v>43961.3</v>
       </c>
       <c r="DP70" s="96">
@@ -26437,59 +26439,59 @@
         <v>-434</v>
       </c>
       <c r="DE77" s="46">
-        <f>DD92*$EE$90</f>
+        <f t="shared" ref="DE77:DR77" si="153">DD92*$EE$90</f>
         <v>0</v>
       </c>
       <c r="DF77" s="46">
-        <f>DE92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>-50</v>
       </c>
       <c r="DG77" s="46">
-        <f>DF92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>55.650800943295785</v>
       </c>
       <c r="DH77" s="46">
-        <f>DG92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>161.64847445828963</v>
       </c>
       <c r="DI77" s="46">
-        <f>DH92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>258.0887989994124</v>
       </c>
       <c r="DJ77" s="46">
-        <f>DI92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>350.10669246445303</v>
       </c>
       <c r="DK77" s="46">
-        <f>DJ92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>431.61344923721663</v>
       </c>
       <c r="DL77" s="46">
-        <f>DK92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>447.79895358361227</v>
       </c>
       <c r="DM77" s="46">
-        <f>DL92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>869.22016434299792</v>
       </c>
       <c r="DN77" s="46">
-        <f>DM92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>1340.9964205058604</v>
       </c>
       <c r="DO77" s="46">
-        <f>DN92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>2008.6642862748304</v>
       </c>
       <c r="DP77" s="46">
-        <f>DO92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>2809.3506470101365</v>
       </c>
       <c r="DQ77" s="46">
-        <f>DP92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>3616.3972020093061</v>
       </c>
       <c r="DR77" s="46">
-        <f>DQ92*$EE$90</f>
+        <f t="shared" si="153"/>
         <v>4260.2098753596556</v>
       </c>
     </row>
@@ -26543,115 +26545,115 @@
         <v>1689</v>
       </c>
       <c r="W78" s="46">
-        <f t="shared" ref="W78:AB78" si="153">W76+W77</f>
+        <f t="shared" ref="W78:AB78" si="154">W76+W77</f>
         <v>1767</v>
       </c>
       <c r="X78" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1901</v>
       </c>
       <c r="Y78" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1911</v>
       </c>
       <c r="Z78" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1851</v>
       </c>
       <c r="AA78" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1913</v>
       </c>
       <c r="AB78" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1577</v>
       </c>
       <c r="AC78" s="46">
-        <f t="shared" ref="AC78:AH78" si="154">AC76+AC77</f>
+        <f t="shared" ref="AC78:AH78" si="155">AC76+AC77</f>
         <v>1517</v>
       </c>
       <c r="AD78" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1918</v>
       </c>
       <c r="AE78" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2210</v>
       </c>
       <c r="AF78" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1761</v>
       </c>
       <c r="AG78" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1942</v>
       </c>
       <c r="AH78" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1302</v>
       </c>
       <c r="AI78" s="46">
-        <f t="shared" ref="AI78:AQ78" si="155">AI76+AI77</f>
+        <f t="shared" ref="AI78:AQ78" si="156">AI76+AI77</f>
         <v>2488</v>
       </c>
       <c r="AJ78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2057</v>
       </c>
       <c r="AK78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2470</v>
       </c>
       <c r="AL78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1498</v>
       </c>
       <c r="AM78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2818</v>
       </c>
       <c r="AN78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2253</v>
       </c>
       <c r="AO78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1618</v>
       </c>
       <c r="AP78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1629</v>
       </c>
       <c r="AQ78" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2536</v>
       </c>
       <c r="AR78" s="46">
-        <f t="shared" ref="AR78:AX78" si="156">AR76+AR77</f>
+        <f t="shared" ref="AR78:AX78" si="157">AR76+AR77</f>
         <v>2293.1927999999998</v>
       </c>
       <c r="AS78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1739</v>
       </c>
       <c r="AT78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1213</v>
       </c>
       <c r="AU78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1330</v>
       </c>
       <c r="AV78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-2408</v>
       </c>
       <c r="AW78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-2544</v>
       </c>
       <c r="AX78" s="46">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-3041</v>
       </c>
       <c r="AY78" s="46"/>
@@ -26685,47 +26687,47 @@
       <c r="BX78" s="83"/>
       <c r="BY78" s="83"/>
       <c r="BZ78" s="83">
-        <f t="shared" ref="BZ78:CB78" si="157">BZ76-BZ77</f>
+        <f t="shared" ref="BZ78:CB78" si="158">BZ76-BZ77</f>
         <v>243</v>
       </c>
       <c r="CA78" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>935</v>
       </c>
       <c r="CB78" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>961</v>
       </c>
       <c r="CC78" s="83">
-        <f t="shared" ref="CC78:CJ78" si="158">CC76-CC77</f>
+        <f t="shared" ref="CC78:CJ78" si="159">CC76-CC77</f>
         <v>853</v>
       </c>
       <c r="CD78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>1688</v>
       </c>
       <c r="CE78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>2531</v>
       </c>
       <c r="CF78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>1539</v>
       </c>
       <c r="CG78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>2055</v>
       </c>
       <c r="CH78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>3085</v>
       </c>
       <c r="CI78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>3709</v>
       </c>
       <c r="CJ78" s="83">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>3143</v>
       </c>
       <c r="CK78" s="83"/>
@@ -26753,11 +26755,11 @@
         <v>7430</v>
       </c>
       <c r="CZ78" s="46">
-        <f t="shared" ref="CZ78:DQ78" si="159">CZ76+CZ77</f>
+        <f t="shared" ref="CZ78:DQ78" si="160">CZ76+CZ77</f>
         <v>9602.5529999999981</v>
       </c>
       <c r="DA78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>10764.386399999999</v>
       </c>
       <c r="DB78" s="46">
@@ -26769,59 +26771,59 @@
         <v>8318</v>
       </c>
       <c r="DD78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>7781.1928000000007</v>
       </c>
       <c r="DE78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>3250.8292234091355</v>
       </c>
       <c r="DF78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2817.3546918212205</v>
       </c>
       <c r="DG78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2826.6046270665024</v>
       </c>
       <c r="DH78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2571.7419877632747</v>
       </c>
       <c r="DI78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2453.8104924010831</v>
       </c>
       <c r="DJ78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2173.5135139403646</v>
       </c>
       <c r="DK78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>431.61344923721663</v>
       </c>
       <c r="DL78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>11237.898953583615</v>
       </c>
       <c r="DM78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>12580.700164343001</v>
       </c>
       <c r="DN78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>17804.476420505864</v>
       </c>
       <c r="DO78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>21351.636286274832</v>
       </c>
       <c r="DP78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>21521.241466644518</v>
       </c>
       <c r="DQ78" s="46">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>17168.337956009313</v>
       </c>
       <c r="DR78" s="46">
@@ -26829,43 +26831,43 @@
         <v>16889.537576899656</v>
       </c>
       <c r="DS78" s="46">
-        <f t="shared" ref="DS78:EB78" si="160">DS76+DS77</f>
+        <f t="shared" ref="DS78:EB78" si="161">DS76+DS77</f>
         <v>10113.923802415404</v>
       </c>
       <c r="DT78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>9538.301325260556</v>
       </c>
       <c r="DU78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>9369.3909070668324</v>
       </c>
       <c r="DV78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8970.3222642903675</v>
       </c>
       <c r="DW78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8614.1799759241985</v>
       </c>
       <c r="DX78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8286.8693870756579</v>
       </c>
       <c r="DY78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6957.2998233646922</v>
       </c>
       <c r="DZ78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5872.8721849934809</v>
       </c>
       <c r="EA78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5534.4001195907877</v>
       </c>
       <c r="EB78" s="46">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5356.5943028181928</v>
       </c>
     </row>
@@ -27097,7 +27099,7 @@
         <v>2400.6382499999995</v>
       </c>
       <c r="DA79" s="46">
-        <f t="shared" ref="DA79:DQ79" si="161">DA78*0.25</f>
+        <f t="shared" ref="DA79:DQ79" si="162">DA78*0.25</f>
         <v>2691.0965999999999</v>
       </c>
       <c r="DB79" s="44">
@@ -27113,55 +27115,55 @@
         <v>2074.6385599999999</v>
       </c>
       <c r="DE79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>812.70730585228387</v>
       </c>
       <c r="DF79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>704.33867295530513</v>
       </c>
       <c r="DG79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>706.6511567666256</v>
       </c>
       <c r="DH79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>642.93549694081867</v>
       </c>
       <c r="DI79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>613.45262310027078</v>
       </c>
       <c r="DJ79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>543.37837848509116</v>
       </c>
       <c r="DK79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>107.90336230930416</v>
       </c>
       <c r="DL79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>2809.4747383959038</v>
       </c>
       <c r="DM79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>3145.1750410857503</v>
       </c>
       <c r="DN79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>4451.1191051264659</v>
       </c>
       <c r="DO79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>5337.909071568708</v>
       </c>
       <c r="DP79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>5380.3103666611296</v>
       </c>
       <c r="DQ79" s="46">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>4292.0844890023282</v>
       </c>
       <c r="DR79" s="46">
@@ -27452,47 +27454,47 @@
         <v>1224</v>
       </c>
       <c r="W81" s="46">
-        <f t="shared" ref="W81:AE81" si="162">W78-W79-W80</f>
+        <f t="shared" ref="W81:AE81" si="163">W78-W79-W80</f>
         <v>1148</v>
       </c>
       <c r="X81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1291</v>
       </c>
       <c r="Y81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1311</v>
       </c>
       <c r="Z81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1180</v>
       </c>
       <c r="AA81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1206</v>
       </c>
       <c r="AB81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1023</v>
       </c>
       <c r="AC81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>972</v>
       </c>
       <c r="AD81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1347</v>
       </c>
       <c r="AE81" s="46">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>1570</v>
       </c>
       <c r="AF81" s="46">
-        <f t="shared" ref="AF81:AL81" si="163">AF78-AF79-AF80</f>
+        <f t="shared" ref="AF81:AL81" si="164">AF78-AF79-AF80</f>
         <v>1102</v>
       </c>
       <c r="AG81" s="46">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1229</v>
       </c>
       <c r="AH81" s="46">
@@ -27500,43 +27502,43 @@
         <v>734</v>
       </c>
       <c r="AI81" s="46">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1627</v>
       </c>
       <c r="AJ81" s="46">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1156</v>
       </c>
       <c r="AK81" s="46">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1553</v>
       </c>
       <c r="AL81" s="46">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>887</v>
       </c>
       <c r="AM81" s="46">
-        <f t="shared" ref="AM81:AT81" si="164">AM78-AM79-AM80</f>
+        <f t="shared" ref="AM81:AT81" si="165">AM78-AM79-AM80</f>
         <v>2076</v>
       </c>
       <c r="AN81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>1452</v>
       </c>
       <c r="AO81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>914</v>
       </c>
       <c r="AP81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>967</v>
       </c>
       <c r="AQ81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2155</v>
       </c>
       <c r="AR81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>1834.5542399999999</v>
       </c>
       <c r="AS81" s="46">
@@ -27544,7 +27546,7 @@
         <v>697</v>
       </c>
       <c r="AT81" s="46">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>164</v>
       </c>
       <c r="AU81" s="46">
@@ -27594,47 +27596,47 @@
       <c r="BX81" s="83"/>
       <c r="BY81" s="83"/>
       <c r="BZ81" s="83">
-        <f t="shared" ref="BZ81:CJ81" si="165">BZ78-BZ79-BZ80</f>
+        <f t="shared" ref="BZ81:CJ81" si="166">BZ78-BZ79-BZ80</f>
         <v>280</v>
       </c>
       <c r="CA81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>750</v>
       </c>
       <c r="CB81" s="83">
-        <f t="shared" ref="CB81" si="166">CB78-CB79-CB80</f>
+        <f t="shared" ref="CB81" si="167">CB78-CB79-CB80</f>
         <v>759</v>
       </c>
       <c r="CC81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>651</v>
       </c>
       <c r="CD81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1391</v>
       </c>
       <c r="CE81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2341</v>
       </c>
       <c r="CF81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1175</v>
       </c>
       <c r="CG81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1612</v>
       </c>
       <c r="CH81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2588</v>
       </c>
       <c r="CI81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2937</v>
       </c>
       <c r="CJ81" s="83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2662</v>
       </c>
       <c r="CK81" s="83"/>
@@ -27652,15 +27654,15 @@
       <c r="CW81" s="47"/>
       <c r="CX81" s="47"/>
       <c r="CY81" s="46">
-        <f t="shared" ref="CY81:DD81" si="167">CY78-CY79</f>
+        <f t="shared" ref="CY81:DD81" si="168">CY78-CY79</f>
         <v>4950</v>
       </c>
       <c r="CZ81" s="46">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7201.9147499999981</v>
       </c>
       <c r="DA81" s="46">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>8073.2897999999996</v>
       </c>
       <c r="DB81" s="46">
@@ -27672,31 +27674,31 @@
         <v>5422</v>
       </c>
       <c r="DD81" s="46">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5706.5542400000013</v>
       </c>
       <c r="DE81" s="46">
-        <f t="shared" ref="DE81:DJ81" si="168">DE78-DE79</f>
+        <f t="shared" ref="DE81:DJ81" si="169">DE78-DE79</f>
         <v>2438.1219175568517</v>
       </c>
       <c r="DF81" s="46">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>2113.0160188659156</v>
       </c>
       <c r="DG81" s="46">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>2119.9534702998767</v>
       </c>
       <c r="DH81" s="46">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1928.806490822456</v>
       </c>
       <c r="DI81" s="46">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1840.3578693008124</v>
       </c>
       <c r="DJ81" s="46">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1630.1351354552735</v>
       </c>
       <c r="DK81" s="46">
@@ -27704,27 +27706,27 @@
         <v>323.71008692791247</v>
       </c>
       <c r="DL81" s="46">
-        <f t="shared" ref="DL81:DQ81" si="169">DL78-DL79</f>
+        <f t="shared" ref="DL81:DQ81" si="170">DL78-DL79</f>
         <v>8428.4242151877115</v>
       </c>
       <c r="DM81" s="46">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>9435.5251232572518</v>
       </c>
       <c r="DN81" s="46">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13353.357315379399</v>
       </c>
       <c r="DO81" s="46">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>16013.727214706123</v>
       </c>
       <c r="DP81" s="46">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>16140.931099983389</v>
       </c>
       <c r="DQ81" s="46">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>12876.253467006984</v>
       </c>
       <c r="DR81" s="46">
@@ -27732,271 +27734,271 @@
         <v>12667.153182674741</v>
       </c>
       <c r="DS81" s="46">
-        <f t="shared" ref="DS81:EB81" si="170">DS78-DS79</f>
+        <f t="shared" ref="DS81:EB81" si="171">DS78-DS79</f>
         <v>10113.923802415404</v>
       </c>
       <c r="DT81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>9538.301325260556</v>
       </c>
       <c r="DU81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>9369.3909070668324</v>
       </c>
       <c r="DV81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8970.3222642903675</v>
       </c>
       <c r="DW81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8614.1799759241985</v>
       </c>
       <c r="DX81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8286.8693870756579</v>
       </c>
       <c r="DY81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>6957.2998233646922</v>
       </c>
       <c r="DZ81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5872.8721849934809</v>
       </c>
       <c r="EA81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5534.4001195907877</v>
       </c>
       <c r="EB81" s="46">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5356.5943028181928</v>
       </c>
       <c r="EC81" s="33">
-        <f>EB81*(1+$EE$86)</f>
+        <f t="shared" ref="EC81:FH81" si="172">EB81*(1+$EE$86)</f>
         <v>5088.7645876772831</v>
       </c>
       <c r="ED81" s="33">
-        <f>EC81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>4834.3263582934187</v>
       </c>
       <c r="EE81" s="33">
-        <f>ED81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>4592.6100403787477</v>
       </c>
       <c r="EF81" s="33">
-        <f>EE81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>4362.9795383598102</v>
       </c>
       <c r="EG81" s="33">
-        <f>EF81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>4144.8305614418196</v>
       </c>
       <c r="EH81" s="33">
-        <f>EG81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3937.5890333697284</v>
       </c>
       <c r="EI81" s="33">
-        <f>EH81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3740.7095817012419</v>
       </c>
       <c r="EJ81" s="33">
-        <f>EI81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3553.6741026161794</v>
       </c>
       <c r="EK81" s="33">
-        <f>EJ81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3375.9903974853705</v>
       </c>
       <c r="EL81" s="33">
-        <f>EK81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3207.1908776111018</v>
       </c>
       <c r="EM81" s="33">
-        <f>EL81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>3046.8313337305467</v>
       </c>
       <c r="EN81" s="33">
-        <f>EM81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2894.4897670440191</v>
       </c>
       <c r="EO81" s="33">
-        <f>EN81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2749.7652786918179</v>
       </c>
       <c r="EP81" s="33">
-        <f>EO81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2612.2770147572269</v>
       </c>
       <c r="EQ81" s="33">
-        <f>EP81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2481.6631640193655</v>
       </c>
       <c r="ER81" s="33">
-        <f>EQ81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2357.5800058183972</v>
       </c>
       <c r="ES81" s="33">
-        <f>ER81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2239.7010055274773</v>
       </c>
       <c r="ET81" s="33">
-        <f>ES81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2127.7159552511034</v>
       </c>
       <c r="EU81" s="33">
-        <f>ET81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>2021.3301574885481</v>
       </c>
       <c r="EV81" s="33">
-        <f>EU81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1920.2636496141206</v>
       </c>
       <c r="EW81" s="33">
-        <f>EV81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1824.2504671334145</v>
       </c>
       <c r="EX81" s="33">
-        <f>EW81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1733.0379437767438</v>
       </c>
       <c r="EY81" s="33">
-        <f>EX81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1646.3860465879065</v>
       </c>
       <c r="EZ81" s="33">
-        <f>EY81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1564.0667442585111</v>
       </c>
       <c r="FA81" s="33">
-        <f>EZ81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1485.8634070455855</v>
       </c>
       <c r="FB81" s="33">
-        <f>FA81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1411.5702366933062</v>
       </c>
       <c r="FC81" s="33">
-        <f>FB81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1340.991724858641</v>
       </c>
       <c r="FD81" s="33">
-        <f>FC81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1273.9421386157089</v>
       </c>
       <c r="FE81" s="33">
-        <f>FD81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1210.2450316849233</v>
       </c>
       <c r="FF81" s="33">
-        <f>FE81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1149.732780100677</v>
       </c>
       <c r="FG81" s="33">
-        <f>FF81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1092.2461410956432</v>
       </c>
       <c r="FH81" s="33">
-        <f>FG81*(1+$EE$86)</f>
+        <f t="shared" si="172"/>
         <v>1037.6338340408611</v>
       </c>
       <c r="FI81" s="33">
-        <f>FH81*(1+$EE$86)</f>
+        <f t="shared" ref="FI81:GG81" si="173">FH81*(1+$EE$86)</f>
         <v>985.75214233881798</v>
       </c>
       <c r="FJ81" s="33">
-        <f>FI81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>936.46453522187699</v>
       </c>
       <c r="FK81" s="33">
-        <f>FJ81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>889.64130846078308</v>
       </c>
       <c r="FL81" s="33">
-        <f>FK81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>845.15924303774386</v>
       </c>
       <c r="FM81" s="33">
-        <f>FL81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>802.90128088585664</v>
       </c>
       <c r="FN81" s="33">
-        <f>FM81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>762.75621684156374</v>
       </c>
       <c r="FO81" s="33">
-        <f>FN81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>724.6184059994855</v>
       </c>
       <c r="FP81" s="33">
-        <f>FO81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>688.38748569951122</v>
       </c>
       <c r="FQ81" s="33">
-        <f>FP81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>653.96811141453566</v>
       </c>
       <c r="FR81" s="33">
-        <f>FQ81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>621.26970584380888</v>
       </c>
       <c r="FS81" s="33">
-        <f>FR81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>590.20622055161846</v>
       </c>
       <c r="FT81" s="33">
-        <f>FS81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>560.69590952403746</v>
       </c>
       <c r="FU81" s="33">
-        <f>FT81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>532.66111404783555</v>
       </c>
       <c r="FV81" s="33">
-        <f>FU81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>506.02805834544375</v>
       </c>
       <c r="FW81" s="33">
-        <f>FV81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>480.72665542817157</v>
       </c>
       <c r="FX81" s="33">
-        <f>FW81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>456.69032265676299</v>
       </c>
       <c r="FY81" s="33">
-        <f>FX81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>433.8558065239248</v>
       </c>
       <c r="FZ81" s="33">
-        <f>FY81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>412.16301619772855</v>
       </c>
       <c r="GA81" s="33">
-        <f>FZ81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>391.55486538784209</v>
       </c>
       <c r="GB81" s="33">
-        <f>GA81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>371.97712211844998</v>
       </c>
       <c r="GC81" s="33">
-        <f>GB81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>353.37826601252749</v>
       </c>
       <c r="GD81" s="33">
-        <f>GC81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>335.70935271190109</v>
       </c>
       <c r="GE81" s="33">
-        <f>GD81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>318.92388507630602</v>
       </c>
       <c r="GF81" s="33">
-        <f>GE81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>302.97769082249073</v>
       </c>
       <c r="GG81" s="33">
-        <f>GF81*(1+$EE$86)</f>
+        <f t="shared" si="173"/>
         <v>287.82880628136616</v>
       </c>
     </row>
@@ -28049,47 +28051,47 @@
         <v>0.76739811912225708</v>
       </c>
       <c r="W82" s="49">
-        <f t="shared" ref="W82:AE82" si="171">W81/W83</f>
+        <f t="shared" ref="W82:AE82" si="174">W81/W83</f>
         <v>0.72566371681415931</v>
       </c>
       <c r="X82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.81708860759493673</v>
       </c>
       <c r="Y82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.83556405353728491</v>
       </c>
       <c r="Z82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.7637540453074434</v>
       </c>
       <c r="AA82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.78772044415414766</v>
       </c>
       <c r="AB82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.67928286852589637</v>
       </c>
       <c r="AC82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.65278710543989249</v>
       </c>
       <c r="AD82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>0.90463398253861649</v>
       </c>
       <c r="AE82" s="49">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.0775566231983529</v>
       </c>
       <c r="AF82" s="49">
-        <f t="shared" ref="AF82:AM82" si="172">AF81/AF83</f>
+        <f t="shared" ref="AF82:AM82" si="175">AF81/AF83</f>
         <v>0.75634866163349346</v>
       </c>
       <c r="AG82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.84467353951890034</v>
       </c>
       <c r="AH82" s="49">
@@ -28097,67 +28099,67 @@
         <v>0.50725639253628196</v>
       </c>
       <c r="AI82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.1236187845303867</v>
       </c>
       <c r="AJ82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.7983425414364641</v>
       </c>
       <c r="AK82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.0688231245698554</v>
       </c>
       <c r="AL82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>0.60962199312714782</v>
       </c>
       <c r="AM82" s="49">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.4238683127572016</v>
       </c>
       <c r="AN82" s="49">
-        <f t="shared" ref="AN82:AX82" si="173">AN81/AN83</f>
+        <f t="shared" ref="AN82:AX82" si="176">AN81/AN83</f>
         <v>1.0013793103448276</v>
       </c>
       <c r="AO82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.63208852005532501</v>
       </c>
       <c r="AP82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.67812061711079941</v>
       </c>
       <c r="AQ82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>1.5349002849002849</v>
       </c>
       <c r="AR82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>1.306662564102564</v>
       </c>
       <c r="AS82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.51287711552612214</v>
       </c>
       <c r="AT82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.12452543659832954</v>
       </c>
       <c r="AU82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.80622568093385216</v>
       </c>
       <c r="AV82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>-1.4991439688715955</v>
       </c>
       <c r="AW82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>-1.5838132295719844</v>
       </c>
       <c r="AX82" s="49">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>-1.8932295719844359</v>
       </c>
       <c r="AY82" s="49"/>
@@ -28191,35 +28193,35 @@
       <c r="BX82" s="84"/>
       <c r="BY82" s="84"/>
       <c r="BZ82" s="84">
-        <f t="shared" ref="BZ82:CD82" si="174">BZ81/BZ83</f>
+        <f t="shared" ref="BZ82:CD82" si="177">BZ81/BZ83</f>
         <v>0.21341463414634146</v>
       </c>
       <c r="CA82" s="84">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.57121096725057119</v>
       </c>
       <c r="CB82" s="84">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.57806549885757808</v>
       </c>
       <c r="CC82" s="84">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>0.49581111957349583</v>
       </c>
       <c r="CD82" s="84">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1.0545868081880212</v>
       </c>
       <c r="CE82" s="84">
-        <f t="shared" ref="CE82:CI82" si="175">CE81/CE83</f>
+        <f t="shared" ref="CE82:CI82" si="178">CE81/CE83</f>
         <v>1.7748294162244125</v>
       </c>
       <c r="CF82" s="84">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.89150227617602429</v>
       </c>
       <c r="CG82" s="84">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>1.0775401069518717</v>
       </c>
       <c r="CH82" s="84">
@@ -28227,7 +28229,7 @@
         <v>1.6729153199741436</v>
       </c>
       <c r="CI82" s="84">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>1.8814862267777066</v>
       </c>
       <c r="CJ82" s="84">
@@ -28269,43 +28271,43 @@
         <v>3.7522491349480971</v>
       </c>
       <c r="DD82" s="49">
-        <f t="shared" ref="DD82:DM82" si="176">DD81/DD83</f>
+        <f t="shared" ref="DD82:DM82" si="179">DD81/DD83</f>
         <v>4.1623298614150261</v>
       </c>
       <c r="DE82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.8973711420675889</v>
       </c>
       <c r="DF82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.6443704426972106</v>
       </c>
       <c r="DG82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.6497692375874526</v>
       </c>
       <c r="DH82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.5010167243754522</v>
       </c>
       <c r="DI82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.432185112296352</v>
       </c>
       <c r="DJ82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>1.2685876540507965</v>
       </c>
       <c r="DK82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>0.25191446453534044</v>
       </c>
       <c r="DL82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>6.559084992363978</v>
       </c>
       <c r="DM82" s="49">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>7.342821107593192</v>
       </c>
       <c r="DN82" s="49">
@@ -28548,43 +28550,43 @@
         <v>1285</v>
       </c>
       <c r="DI83" s="38">
-        <f t="shared" ref="DI83:DR83" si="177">+DH83</f>
+        <f t="shared" ref="DI83:DR83" si="180">+DH83</f>
         <v>1285</v>
       </c>
       <c r="DJ83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DK83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DL83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DM83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DN83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DO83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DP83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DQ83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
       <c r="DR83" s="38">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>1285</v>
       </c>
     </row>
@@ -28874,135 +28876,135 @@
         <v>0.75574548907882244</v>
       </c>
       <c r="R86" s="52">
-        <f t="shared" ref="R86:AD86" si="178">R72/R70</f>
+        <f t="shared" ref="R86:AD86" si="181">R72/R70</f>
         <v>0.74167959993102262</v>
       </c>
       <c r="S86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.75448371931046487</v>
       </c>
       <c r="T86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.78588609401117049</v>
       </c>
       <c r="U86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.78493694938676806</v>
       </c>
       <c r="V86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.81335104616406506</v>
       </c>
       <c r="W86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.77892596984584106</v>
       </c>
       <c r="X86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.77061896469843283</v>
       </c>
       <c r="Y86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.77692307692307694</v>
       </c>
       <c r="Z86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.76253259924659522</v>
       </c>
       <c r="AA86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.76603145795523286</v>
       </c>
       <c r="AB86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.74792243767313016</v>
       </c>
       <c r="AC86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.77828588287358014</v>
       </c>
       <c r="AD86" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>0.77117925099987883</v>
       </c>
       <c r="AE86" s="52">
-        <f t="shared" ref="AE86:AN86" si="179">AE72/AE70</f>
+        <f t="shared" ref="AE86:AN86" si="182">AE72/AE70</f>
         <v>0.7975206611570248</v>
       </c>
       <c r="AF86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.79429954288787308</v>
       </c>
       <c r="AG86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.77893868572999725</v>
       </c>
       <c r="AH86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.7157181924729783</v>
       </c>
       <c r="AI86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.79863623712774845</v>
       </c>
       <c r="AJ86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.79289860942351831</v>
       </c>
       <c r="AK86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.82508510081173081</v>
       </c>
       <c r="AL86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.78789708902041311</v>
       </c>
       <c r="AM86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.78006349206349201</v>
       </c>
       <c r="AN86" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>0.7950492414160234</v>
       </c>
       <c r="AO86" s="52">
-        <f t="shared" ref="AO86:AX86" si="180">AO72/AO70</f>
+        <f t="shared" ref="AO86:AX86" si="183">AO72/AO70</f>
         <v>0.7787269220170846</v>
       </c>
       <c r="AP86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.776663280853225</v>
       </c>
       <c r="AQ86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.81180371352785141</v>
       </c>
       <c r="AR86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.83</v>
       </c>
       <c r="AS86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.77393403057119869</v>
       </c>
       <c r="AT86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.78290904439043107</v>
       </c>
       <c r="AU86" s="52">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.78101418653788113</v>
       </c>
       <c r="AV86" s="52" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW86" s="52" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX86" s="52" t="e">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY86" s="52"/>
@@ -29036,27 +29038,27 @@
       <c r="BX86" s="79"/>
       <c r="BY86" s="79"/>
       <c r="BZ86" s="79">
-        <f t="shared" ref="BZ86:CA86" si="181">+BZ72/BZ70</f>
+        <f t="shared" ref="BZ86:CA86" si="184">+BZ72/BZ70</f>
         <v>0.77951102444877751</v>
       </c>
       <c r="CA86" s="79">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>0.76282656594271325</v>
       </c>
       <c r="CB86" s="79">
-        <f t="shared" ref="CB86" si="182">+CB72/CB70</f>
+        <f t="shared" ref="CB86" si="185">+CB72/CB70</f>
         <v>0.82661354581673308</v>
       </c>
       <c r="CC86" s="79">
-        <f t="shared" ref="CC86:CE86" si="183">+CC72/CC70</f>
+        <f t="shared" ref="CC86:CE86" si="186">+CC72/CC70</f>
         <v>0.77667984189723316</v>
       </c>
       <c r="CD86" s="79">
-        <f t="shared" ref="CD86" si="184">+CD72/CD70</f>
+        <f t="shared" ref="CD86" si="187">+CD72/CD70</f>
         <v>0.78299595141700407</v>
       </c>
       <c r="CE86" s="79">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0.76215846994535519</v>
       </c>
       <c r="CF86" s="79">
@@ -29064,43 +29066,43 @@
         <v>0.72360097323600969</v>
       </c>
       <c r="CG86" s="79">
-        <f t="shared" ref="CG86:CP86" si="185">+CG72/CG70</f>
+        <f t="shared" ref="CG86:CP86" si="188">+CG72/CG70</f>
         <v>0.73606324751672414</v>
       </c>
       <c r="CH86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.74398468070934975</v>
       </c>
       <c r="CI86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.78972783143107994</v>
       </c>
       <c r="CJ86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0.81895831399127283</v>
       </c>
       <c r="CK86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CL86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CM86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CN86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CO86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CP86" s="79">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="CQ86" s="52"/>
@@ -29139,31 +29141,31 @@
         <v>0.77768562815387643</v>
       </c>
       <c r="DE86" s="52">
-        <f t="shared" ref="DE86:DL86" si="186">+DD86-0.5%</f>
+        <f t="shared" ref="DE86:DK86" si="189">+DD86-0.5%</f>
         <v>0.77268562815387642</v>
       </c>
       <c r="DF86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.76768562815387642</v>
       </c>
       <c r="DG86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.76268562815387642</v>
       </c>
       <c r="DH86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.75768562815387641</v>
       </c>
       <c r="DI86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.75268562815387641</v>
       </c>
       <c r="DJ86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.7476856281538764</v>
       </c>
       <c r="DK86" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.7426856281538764</v>
       </c>
       <c r="DL86" s="52">
@@ -29265,95 +29267,95 @@
       <c r="U87" s="52"/>
       <c r="V87" s="52"/>
       <c r="W87" s="52">
-        <f t="shared" ref="W87:AD87" si="187">W73/W70</f>
+        <f t="shared" ref="W87:AD87" si="190">W73/W70</f>
         <v>0.14585803828561747</v>
       </c>
       <c r="X87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.15117935728985277</v>
       </c>
       <c r="Y87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.15416666666666667</v>
       </c>
       <c r="Z87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.16285134743552593</v>
       </c>
       <c r="AA87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.17695099818511797</v>
       </c>
       <c r="AB87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.1785974631870535</v>
       </c>
       <c r="AC87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.19693170084083197</v>
       </c>
       <c r="AD87" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.17355472063992244</v>
       </c>
       <c r="AE87" s="52">
-        <f t="shared" ref="AE87:AM87" si="188">AE73/AE70</f>
+        <f t="shared" ref="AE87:AM87" si="191">AE73/AE70</f>
         <v>0.15960743801652894</v>
       </c>
       <c r="AF87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.174374831944071</v>
       </c>
       <c r="AG87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.17748144074786912</v>
       </c>
       <c r="AH87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.17645526761297045</v>
       </c>
       <c r="AI87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.13637628722516004</v>
       </c>
       <c r="AJ87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.14297286350749291</v>
       </c>
       <c r="AK87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.13825608798114689</v>
       </c>
       <c r="AL87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.15871482063051093</v>
       </c>
       <c r="AM87" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.12584126984126984</v>
       </c>
       <c r="AN87" s="52">
-        <f t="shared" ref="AN87:AS87" si="189">AN73/AN70</f>
+        <f t="shared" ref="AN87:AS87" si="192">AN73/AN70</f>
         <v>0.17567207878626565</v>
       </c>
       <c r="AO87" s="52">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.14838798567098374</v>
       </c>
       <c r="AP87" s="52">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.24504824784154394</v>
       </c>
       <c r="AQ87" s="52">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.15411140583554378</v>
       </c>
       <c r="AR87" s="52">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.16407423723835665</v>
       </c>
       <c r="AS87" s="52">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.17377312952534191</v>
       </c>
       <c r="AT87" s="52">
@@ -29407,27 +29409,27 @@
       <c r="BX87" s="79"/>
       <c r="BY87" s="79"/>
       <c r="BZ87" s="79">
-        <f t="shared" ref="BZ87:CA87" si="190">+BZ73/BZ70</f>
+        <f t="shared" ref="BZ87:CA87" si="193">+BZ73/BZ70</f>
         <v>0.31363431828408578</v>
       </c>
       <c r="CA87" s="79">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>0.2184450739691533</v>
       </c>
       <c r="CB87" s="79">
-        <f t="shared" ref="CB87" si="191">+CB73/CB70</f>
+        <f t="shared" ref="CB87" si="194">+CB73/CB70</f>
         <v>0.22135458167330677</v>
       </c>
       <c r="CC87" s="79">
-        <f t="shared" ref="CC87:CE87" si="192">+CC73/CC70</f>
+        <f t="shared" ref="CC87:CE87" si="195">+CC73/CC70</f>
         <v>0.22727272727272727</v>
       </c>
       <c r="CD87" s="79">
-        <f t="shared" ref="CD87" si="193">+CD73/CD70</f>
+        <f t="shared" ref="CD87" si="196">+CD73/CD70</f>
         <v>0.23036437246963562</v>
       </c>
       <c r="CE87" s="79">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.22377049180327868</v>
       </c>
       <c r="CF87" s="79">
@@ -29435,43 +29437,43 @@
         <v>0.21909975669099757</v>
       </c>
       <c r="CG87" s="79">
-        <f t="shared" ref="CG87:CJ87" si="194">+CG73/CG70</f>
+        <f t="shared" ref="CG87:CJ87" si="197">+CG73/CG70</f>
         <v>0.21812284613825259</v>
       </c>
       <c r="CH87" s="79">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0.19948380651069852</v>
       </c>
       <c r="CI87" s="79">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0.19192273924495171</v>
       </c>
       <c r="CJ87" s="79">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0.22569863522421316</v>
       </c>
       <c r="CK87" s="79">
-        <f t="shared" ref="CK87:CP87" si="195">+CK73/CK70</f>
+        <f t="shared" ref="CK87:CP87" si="198">+CK73/CK70</f>
         <v>0</v>
       </c>
       <c r="CL87" s="79">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="CM87" s="79">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="CN87" s="79">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="CO87" s="79">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="CP87" s="79">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="CQ87" s="52"/>
@@ -29496,43 +29498,43 @@
         <v>0.1742578150599646</v>
       </c>
       <c r="DD87" s="52">
-        <f t="shared" ref="DD87:DM87" si="196">DD73/DD70</f>
+        <f t="shared" ref="DD87:DM87" si="199">DD73/DD70</f>
         <v>0.18352913788466868</v>
       </c>
       <c r="DE87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DF87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DG87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DH87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DI87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DJ87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DK87" s="52" t="e">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DL87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DM87" s="52">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="DN87" s="52">
@@ -29556,43 +29558,43 @@
         <v>0</v>
       </c>
       <c r="DS87" s="52">
-        <f t="shared" ref="DS87:EB87" si="197">DS73/DS70</f>
+        <f t="shared" ref="DS87:EB87" si="200">DS73/DS70</f>
         <v>0</v>
       </c>
       <c r="DT87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DU87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DV87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DW87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DX87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DY87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DZ87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="EA87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="EB87" s="52">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="ED87" s="45" t="s">
@@ -29643,95 +29645,95 @@
       <c r="U88" s="52"/>
       <c r="V88" s="52"/>
       <c r="W88" s="52">
-        <f t="shared" ref="W88:AD88" si="198">W74/W70</f>
+        <f t="shared" ref="W88:AD88" si="201">W74/W70</f>
         <v>0.3582923936981196</v>
       </c>
       <c r="X88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.36251385151179355</v>
       </c>
       <c r="Y88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.34935897435897434</v>
       </c>
       <c r="Z88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.36380759200231816</v>
       </c>
       <c r="AA88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.3352994555353902</v>
       </c>
       <c r="AB88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.37979297273655049</v>
       </c>
       <c r="AC88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.36686826965629149</v>
       </c>
       <c r="AD88" s="52">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0.37025815052720884</v>
       </c>
       <c r="AE88" s="52">
-        <f t="shared" ref="AE88:AM88" si="199">AE74/AE70</f>
+        <f t="shared" ref="AE88:AM88" si="202">AE74/AE70</f>
         <v>0.35343491735537191</v>
       </c>
       <c r="AF88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.38101640225867167</v>
       </c>
       <c r="AG88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.34176519109155895</v>
       </c>
       <c r="AH88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.37192342752962626</v>
       </c>
       <c r="AI88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.33064291678263291</v>
       </c>
       <c r="AJ88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.38180099905494802</v>
       </c>
       <c r="AK88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.34865147944488084</v>
       </c>
       <c r="AL88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.41852880782703222</v>
       </c>
       <c r="AM88" s="52">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.31263492063492065</v>
       </c>
       <c r="AN88" s="52">
-        <f t="shared" ref="AN88:AS88" si="200">AN74/AN70</f>
+        <f t="shared" ref="AN88:AS88" si="203">AN74/AN70</f>
         <v>0.32605802501996273</v>
       </c>
       <c r="AO88" s="52">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.41485257646734636</v>
       </c>
       <c r="AP88" s="52">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.32021330624682581</v>
       </c>
       <c r="AQ88" s="52">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.33262599469496024</v>
       </c>
       <c r="AR88" s="52">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.35412924870378532</v>
       </c>
       <c r="AS88" s="52">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.35451863770447839</v>
       </c>
       <c r="AT88" s="52">
@@ -29785,27 +29787,27 @@
       <c r="BX88" s="79"/>
       <c r="BY88" s="79"/>
       <c r="BZ88" s="79">
-        <f t="shared" ref="BZ88:CA88" si="201">+BZ74/BZ70</f>
+        <f t="shared" ref="BZ88:CA88" si="204">+BZ74/BZ70</f>
         <v>0.45387730613469329</v>
       </c>
       <c r="CA88" s="79">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0.42791942083726786</v>
       </c>
       <c r="CB88" s="79">
-        <f t="shared" ref="CB88" si="202">+CB74/CB70</f>
+        <f t="shared" ref="CB88" si="205">+CB74/CB70</f>
         <v>0.41992031872509961</v>
       </c>
       <c r="CC88" s="79">
-        <f t="shared" ref="CC88:CE88" si="203">+CC74/CC70</f>
+        <f t="shared" ref="CC88:CE88" si="206">+CC74/CC70</f>
         <v>0.41501976284584979</v>
       </c>
       <c r="CD88" s="79">
-        <f t="shared" ref="CD88" si="204">+CD74/CD70</f>
+        <f t="shared" ref="CD88" si="207">+CD74/CD70</f>
         <v>0.38299595141700404</v>
       </c>
       <c r="CE88" s="79">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0.32773224043715848</v>
       </c>
       <c r="CF88" s="79">
@@ -29813,43 +29815,43 @@
         <v>0.30060827250608274</v>
       </c>
       <c r="CG88" s="79">
-        <f t="shared" ref="CG88:CJ88" si="205">+CG74/CG70</f>
+        <f t="shared" ref="CG88:CJ88" si="208">+CG74/CG70</f>
         <v>0.29049260085140888</v>
       </c>
       <c r="CH88" s="79">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.28040962451086504</v>
       </c>
       <c r="CI88" s="79">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.25864793678665499</v>
       </c>
       <c r="CJ88" s="79">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0.29124500974839845</v>
       </c>
       <c r="CK88" s="79">
-        <f t="shared" ref="CK88:CP88" si="206">+CK74/CK70</f>
+        <f t="shared" ref="CK88:CP88" si="209">+CK74/CK70</f>
         <v>0</v>
       </c>
       <c r="CL88" s="79">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="CM88" s="79">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="CN88" s="79">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="CO88" s="79">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="CP88" s="79">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="CQ88" s="52"/>
@@ -30004,111 +30006,111 @@
         <v>0.21917571995171581</v>
       </c>
       <c r="S89" s="52">
-        <f t="shared" ref="S89:AD89" si="207">S76/S70</f>
+        <f t="shared" ref="S89:AD89" si="210">S76/S70</f>
         <v>0.2530036566254571</v>
       </c>
       <c r="T89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.28019894818378244</v>
       </c>
       <c r="U89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.29279668336500259</v>
       </c>
       <c r="V89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.27167054134838925</v>
       </c>
       <c r="W89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.28781975266813487</v>
       </c>
       <c r="X89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.28858635428209595</v>
       </c>
       <c r="Y89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.29326923076923078</v>
       </c>
       <c r="Z89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.2536945812807882</v>
       </c>
       <c r="AA89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.27465214761040535</v>
       </c>
       <c r="AB89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.22729260825193176</v>
       </c>
       <c r="AC89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.2435462457589615</v>
       </c>
       <c r="AD89" s="52">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0.24360683553508666</v>
       </c>
       <c r="AE89" s="52">
-        <f t="shared" ref="AE89:AM89" si="208">AE76/AE70</f>
+        <f t="shared" ref="AE89:AM89" si="211">AE76/AE70</f>
         <v>0.30010330578512395</v>
       </c>
       <c r="AF89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.26283947297660659</v>
       </c>
       <c r="AG89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.27783887819631564</v>
       </c>
       <c r="AH89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.17945044927724965</v>
       </c>
       <c r="AI89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.36849429446145282</v>
       </c>
       <c r="AJ89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.31051707843931414</v>
       </c>
       <c r="AK89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.34590206860434669</v>
       </c>
       <c r="AL89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.20038652011112454</v>
       </c>
       <c r="AM89" s="52">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.37358730158730158</v>
       </c>
       <c r="AN89" s="52">
-        <f t="shared" ref="AN89:AS89" si="209">AN76/AN70</f>
+        <f t="shared" ref="AN89:AS89" si="212">AN76/AN70</f>
         <v>0.31541123236624968</v>
       </c>
       <c r="AO89" s="52">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.24331771837971894</v>
       </c>
       <c r="AP89" s="52">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.22308278313864907</v>
       </c>
       <c r="AQ89" s="52">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.3513262599469496</v>
       </c>
       <c r="AR89" s="52">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.33975408632394632</v>
       </c>
       <c r="AS89" s="52">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.2456422633413784</v>
       </c>
       <c r="AT89" s="52">
@@ -30162,27 +30164,27 @@
       <c r="BX89" s="79"/>
       <c r="BY89" s="79"/>
       <c r="BZ89" s="79">
-        <f t="shared" ref="BZ89:CA89" si="210">+BZ76/BZ70</f>
+        <f t="shared" ref="BZ89:CA89" si="213">+BZ76/BZ70</f>
         <v>8.6995650217489132E-2</v>
       </c>
       <c r="CA89" s="79">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.19200503619767076</v>
       </c>
       <c r="CB89" s="79">
-        <f t="shared" ref="CB89" si="211">+CB76/CB70</f>
+        <f t="shared" ref="CB89" si="214">+CB76/CB70</f>
         <v>0.20462151394422312</v>
       </c>
       <c r="CC89" s="79">
-        <f t="shared" ref="CC89:CE89" si="212">+CC76/CC70</f>
+        <f t="shared" ref="CC89:CE89" si="215">+CC76/CC70</f>
         <v>0.17801763453937366</v>
       </c>
       <c r="CD89" s="79">
-        <f t="shared" ref="CD89" si="213">+CD76/CD70</f>
+        <f t="shared" ref="CD89" si="216">+CD76/CD70</f>
         <v>0.25627530364372469</v>
       </c>
       <c r="CE89" s="79">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0.37185792349726776</v>
       </c>
       <c r="CF89" s="79">
@@ -30190,43 +30192,43 @@
         <v>0.21958637469586376</v>
       </c>
       <c r="CG89" s="79">
-        <f t="shared" ref="CG89:CJ89" si="214">+CG76/CG70</f>
+        <f t="shared" ref="CG89:CJ89" si="217">+CG76/CG70</f>
         <v>0.23119805392256235</v>
       </c>
       <c r="CH89" s="79">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0.26409124968778619</v>
       </c>
       <c r="CI89" s="79">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0.34776119402985073</v>
       </c>
       <c r="CJ89" s="79">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0.31241296072788044</v>
       </c>
       <c r="CK89" s="79">
-        <f t="shared" ref="CK89:CP89" si="215">+CK76/CK70</f>
+        <f t="shared" ref="CK89:CP89" si="218">+CK76/CK70</f>
         <v>0</v>
       </c>
       <c r="CL89" s="79">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="CM89" s="79">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="CN89" s="79">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="CO89" s="79">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="CP89" s="79">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="CQ89" s="52"/>
@@ -30251,43 +30253,43 @@
         <v>0.28950127793433383</v>
       </c>
       <c r="DD89" s="52">
-        <f t="shared" ref="DD89:DM89" si="216">DD76/DD70</f>
+        <f t="shared" ref="DD89:DM89" si="219">DD76/DD70</f>
         <v>0.27478171170773419</v>
       </c>
       <c r="DE89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.46268562815387637</v>
       </c>
       <c r="DF89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.45768562815387648</v>
       </c>
       <c r="DG89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.45268562815387642</v>
       </c>
       <c r="DH89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.4376856281538764</v>
       </c>
       <c r="DI89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.43268562815387646</v>
       </c>
       <c r="DJ89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.41768562815387639</v>
       </c>
       <c r="DK89" s="52" t="e">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DL89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.45000000000000007</v>
       </c>
       <c r="DM89" s="52">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.44000000000000011</v>
       </c>
       <c r="DN89" s="52">
@@ -30311,43 +30313,43 @@
         <v>0.44</v>
       </c>
       <c r="DS89" s="52">
-        <f t="shared" ref="DS89:EB89" si="217">DS76/DS70</f>
+        <f t="shared" ref="DS89:EB89" si="220">DS76/DS70</f>
         <v>0.44000000000000011</v>
       </c>
       <c r="DT89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000017</v>
       </c>
       <c r="DU89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="DV89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44</v>
       </c>
       <c r="DW89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44</v>
       </c>
       <c r="DX89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000011</v>
       </c>
       <c r="DY89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="DZ89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="EA89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000011</v>
       </c>
       <c r="EB89" s="52">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="ED89" s="43" t="s">
@@ -30399,95 +30401,95 @@
       <c r="U90" s="52"/>
       <c r="V90" s="52"/>
       <c r="W90" s="52">
-        <f t="shared" ref="W90:AD90" si="218">W79/W78</f>
+        <f t="shared" ref="W90:AD90" si="221">W79/W78</f>
         <v>0.35087719298245612</v>
       </c>
       <c r="X90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.31930562861651762</v>
       </c>
       <c r="Y90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.31135531135531136</v>
       </c>
       <c r="Z90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.35548352242031334</v>
       </c>
       <c r="AA90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.36748562467328805</v>
       </c>
       <c r="AB90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.35129993658845909</v>
       </c>
       <c r="AC90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.35398813447593935</v>
       </c>
       <c r="AD90" s="52">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0.29301355578727839</v>
       </c>
       <c r="AE90" s="52">
-        <f t="shared" ref="AE90:AM90" si="219">AE79/AE78</f>
+        <f t="shared" ref="AE90:AM90" si="222">AE79/AE78</f>
         <v>0.28868778280542984</v>
       </c>
       <c r="AF90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.36967632027257241</v>
       </c>
       <c r="AG90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.3630278063851699</v>
       </c>
       <c r="AH90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.42780337941628266</v>
       </c>
       <c r="AI90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.34525723472668812</v>
       </c>
       <c r="AJ90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.43315508021390375</v>
       </c>
       <c r="AK90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.36882591093117406</v>
       </c>
       <c r="AL90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.40186915887850466</v>
       </c>
       <c r="AM90" s="52">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0.26259758694109298</v>
       </c>
       <c r="AN90" s="52">
-        <f t="shared" ref="AN90:AS90" si="220">AN79/AN78</f>
+        <f t="shared" ref="AN90:AS90" si="223">AN79/AN78</f>
         <v>0.35552596537949399</v>
       </c>
       <c r="AO90" s="52">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0.43510506798516685</v>
       </c>
       <c r="AP90" s="52">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0.39963167587476978</v>
       </c>
       <c r="AQ90" s="52">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0.1470820189274448</v>
       </c>
       <c r="AR90" s="52">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0.2</v>
       </c>
       <c r="AS90" s="52">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0.39332949971247844</v>
       </c>
       <c r="AT90" s="52">
@@ -30541,27 +30543,27 @@
       <c r="BX90" s="79"/>
       <c r="BY90" s="79"/>
       <c r="BZ90" s="79">
-        <f t="shared" ref="BZ90:CA90" si="221">+BZ79/BZ78</f>
+        <f t="shared" ref="BZ90:CA90" si="224">+BZ79/BZ78</f>
         <v>-0.15226337448559671</v>
       </c>
       <c r="CA90" s="79">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>0.19786096256684493</v>
       </c>
       <c r="CB90" s="79">
-        <f t="shared" ref="CB90" si="222">+CB79/CB78</f>
+        <f t="shared" ref="CB90" si="225">+CB79/CB78</f>
         <v>0.21019771071800208</v>
       </c>
       <c r="CC90" s="79">
-        <f t="shared" ref="CC90:CE90" si="223">+CC79/CC78</f>
+        <f t="shared" ref="CC90:CE90" si="226">+CC79/CC78</f>
         <v>0.23681125439624853</v>
       </c>
       <c r="CD90" s="79">
-        <f t="shared" ref="CD90" si="224">+CD79/CD78</f>
+        <f t="shared" ref="CD90" si="227">+CD79/CD78</f>
         <v>0.1759478672985782</v>
       </c>
       <c r="CE90" s="79">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>7.5069142631371003E-2</v>
       </c>
       <c r="CF90" s="79">
@@ -30569,43 +30571,43 @@
         <v>0.23651721897335931</v>
       </c>
       <c r="CG90" s="79">
-        <f t="shared" ref="CG90:CJ90" si="225">+CG79/CG78</f>
+        <f t="shared" ref="CG90:CJ90" si="228">+CG79/CG78</f>
         <v>0.21557177615571776</v>
       </c>
       <c r="CH90" s="79">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0.16110210696920582</v>
       </c>
       <c r="CI90" s="79">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0.20814235643030465</v>
       </c>
       <c r="CJ90" s="79">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0.15303849825007954</v>
       </c>
       <c r="CK90" s="79" t="e">
-        <f t="shared" ref="CK90:CP90" si="226">+CK79/CK78</f>
+        <f t="shared" ref="CK90:CP90" si="229">+CK79/CK78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CL90" s="79" t="e">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM90" s="79" t="e">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN90" s="79" t="e">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CO90" s="79" t="e">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CP90" s="79" t="e">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CQ90" s="52"/>
@@ -30630,43 +30632,43 @@
         <v>0.34816061553257993</v>
       </c>
       <c r="DD90" s="52">
-        <f t="shared" ref="DD90:DM90" si="227">DD79/DD78</f>
+        <f t="shared" ref="DD90:DM90" si="230">DD79/DD78</f>
         <v>0.26662217648687481</v>
       </c>
       <c r="DE90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DF90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DG90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DH90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DI90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DJ90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DK90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DL90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DM90" s="52">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>0.25</v>
       </c>
       <c r="DN90" s="52">
@@ -30690,43 +30692,43 @@
         <v>0.25</v>
       </c>
       <c r="DS90" s="52">
-        <f t="shared" ref="DS90:EB90" si="228">DS79/DS78</f>
+        <f t="shared" ref="DS90:EB90" si="231">DS79/DS78</f>
         <v>0</v>
       </c>
       <c r="DT90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DU90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DV90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DW90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DX90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DY90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="DZ90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="EA90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="EB90" s="52">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="ED90" s="43" t="s">
@@ -30870,35 +30872,35 @@
         <v>-1000</v>
       </c>
       <c r="DF92" s="38">
-        <f t="shared" ref="DF92:DM92" si="229">DE92+DF81</f>
+        <f t="shared" ref="DF92:DM92" si="232">DE92+DF81</f>
         <v>1113.0160188659156</v>
       </c>
       <c r="DG92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>3232.9694891657923</v>
       </c>
       <c r="DH92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>5161.7759799882479</v>
       </c>
       <c r="DI92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>7002.13384928906</v>
       </c>
       <c r="DJ92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>8632.2689847443326</v>
       </c>
       <c r="DK92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>8955.9790716722455</v>
       </c>
       <c r="DL92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>17384.403286859957</v>
       </c>
       <c r="DM92" s="38">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>26819.928410117209</v>
       </c>
       <c r="DN92" s="38">
@@ -31084,59 +31086,59 @@
       <c r="W95" s="51"/>
       <c r="X95" s="51"/>
       <c r="Y95" s="36">
-        <f t="shared" ref="Y95:AL95" si="230">Y70/U70-1</f>
+        <f t="shared" ref="Y95:AL95" si="233">Y70/U70-1</f>
         <v>7.7906374157885594E-2</v>
       </c>
       <c r="Z95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>0.14613085353703092</v>
       </c>
       <c r="AA95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>0.12010841944773842</v>
       </c>
       <c r="AB95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>8.5800221624188655E-2</v>
       </c>
       <c r="AC95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>8.6378205128205154E-2</v>
       </c>
       <c r="AD95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>0.19545059403071563</v>
       </c>
       <c r="AE95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>0.1712038717483364</v>
       </c>
       <c r="AF95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>8.4414637702288964E-2</v>
       </c>
       <c r="AG95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>7.30196194128927E-2</v>
       </c>
       <c r="AH95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>-6.9324930311477351E-2</v>
       </c>
       <c r="AI95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>-7.2055785123966931E-2</v>
       </c>
       <c r="AJ95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>-4.1677870395268046E-3</v>
       </c>
       <c r="AK95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>5.0041242782512985E-2</v>
       </c>
       <c r="AL95" s="36">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>7.8135173850761852E-2</v>
       </c>
       <c r="AM95" s="36">
@@ -31196,35 +31198,35 @@
         <v>0.16267154620311075</v>
       </c>
       <c r="CB95" s="86">
-        <f t="shared" ref="CB95" si="231">+CB70/BX70-1</f>
+        <f t="shared" ref="CB95" si="234">+CB70/BX70-1</f>
         <v>9.7411682406435718E-2</v>
       </c>
       <c r="CC95" s="86">
-        <f t="shared" ref="CC95:CI95" si="232">+CC70/BY70-1</f>
+        <f t="shared" ref="CC95:CI95" si="235">+CC70/BY70-1</f>
         <v>7.3433420365535351E-2</v>
       </c>
       <c r="CD95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.11144442777861108</v>
       </c>
       <c r="CE95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.15203021718602461</v>
       </c>
       <c r="CF95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.30996015936254984</v>
       </c>
       <c r="CG95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.49984797810884762</v>
       </c>
       <c r="CH95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.62091767881241555</v>
       </c>
       <c r="CI95" s="86">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>0.55601092896174853</v>
       </c>
       <c r="CJ95" s="86">
@@ -31232,27 +31234,27 @@
         <v>0.31034063260340639</v>
       </c>
       <c r="CK95" s="86">
-        <f t="shared" ref="CK95:CP95" si="233">+CK70/CG70-1</f>
+        <f t="shared" ref="CK95:CP95" si="236">+CK70/CG70-1</f>
         <v>0.11311575106426108</v>
       </c>
       <c r="CL95" s="86">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-9.9300641079011154E-2</v>
       </c>
       <c r="CM95" s="86">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-7.4518437225636336E-2</v>
       </c>
       <c r="CN95" s="86">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-1.2964522792684008E-2</v>
       </c>
       <c r="CO95" s="86">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-2.9475511917228081E-2</v>
       </c>
       <c r="CP95" s="86">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>-1.1292852208468207E-2</v>
       </c>
       <c r="CQ95" s="36"/>
@@ -31276,39 +31278,39 @@
         <v>-2.0343403892784662E-2</v>
       </c>
       <c r="DE95" s="36">
-        <f t="shared" ref="DE95:DM95" si="234">+DE70/DD70-1</f>
+        <f t="shared" ref="DE95:DM95" si="237">+DE70/DD70-1</f>
         <v>-0.76499440080596282</v>
       </c>
       <c r="DF95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-0.10832621690862521</v>
       </c>
       <c r="DG95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-2.2946288049290331E-2</v>
       </c>
       <c r="DH95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-0.10042158689361302</v>
       </c>
       <c r="DI95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-7.8419631088023301E-2</v>
       </c>
       <c r="DJ95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-0.13974100872742135</v>
       </c>
       <c r="DK95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>-1</v>
       </c>
       <c r="DL95" s="36" t="e">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DM95" s="36">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>0.11005922095253973</v>
       </c>
       <c r="DN95" s="36">
@@ -31545,59 +31547,59 @@
       <c r="CA97" s="119"/>
       <c r="CB97" s="119"/>
       <c r="CC97" s="119">
-        <f t="shared" ref="CC97:CP97" si="235">+CC3/BY3-1</f>
+        <f t="shared" ref="CC97:CP97" si="238">+CC3/BY3-1</f>
         <v>0.29629629629629628</v>
       </c>
       <c r="CD97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.30882352941176472</v>
       </c>
       <c r="CE97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.1700610997963341</v>
       </c>
       <c r="CF97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.26305609284332698</v>
       </c>
       <c r="CG97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>7.9653679653679754E-2</v>
       </c>
       <c r="CH97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.13569576490924806</v>
       </c>
       <c r="CI97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.13489991296779813</v>
       </c>
       <c r="CJ97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>7.1975497702909674E-2</v>
       </c>
       <c r="CK97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>0.1210906174819566</v>
       </c>
       <c r="CL97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CM97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CN97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CO97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CP97" s="119">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CQ97" s="118"/>
@@ -31708,31 +31710,31 @@
       <c r="CA98" s="119"/>
       <c r="CB98" s="119"/>
       <c r="CC98" s="119">
-        <f t="shared" ref="CC98:CP98" si="236">+CC4/BY4-1</f>
+        <f t="shared" ref="CC98:CP98" si="239">+CC4/BY4-1</f>
         <v>0.31909547738693478</v>
       </c>
       <c r="CD98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.39856801909307871</v>
       </c>
       <c r="CE98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.54074074074074074</v>
       </c>
       <c r="CF98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.65237020316027095</v>
       </c>
       <c r="CG98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.51619047619047609</v>
       </c>
       <c r="CH98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.44709897610921501</v>
       </c>
       <c r="CI98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.60256410256410264</v>
       </c>
       <c r="CJ98" s="119">
@@ -31740,27 +31742,27 @@
         <v>0.50683060109289624</v>
       </c>
       <c r="CK98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.38316582914572872</v>
       </c>
       <c r="CL98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CM98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CN98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CO98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CP98" s="119">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CQ98" s="118"/>
@@ -31806,123 +31808,123 @@
       <c r="O99" s="112"/>
       <c r="P99" s="112"/>
       <c r="Q99" s="112">
-        <f t="shared" ref="Q99:AT99" si="237">Q13/M13-1</f>
+        <f t="shared" ref="Q99:AT99" si="240">Q13/M13-1</f>
         <v>-4.9000000000000044E-2</v>
       </c>
       <c r="R99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.32296650717703357</v>
       </c>
       <c r="S99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.12834224598930488</v>
       </c>
       <c r="T99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.35129068462401802</v>
       </c>
       <c r="U99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.18506834910620396</v>
       </c>
       <c r="V99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.12748643761301981</v>
       </c>
       <c r="W99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.12701421800947865</v>
       </c>
       <c r="X99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>6.5614617940199293E-2</v>
       </c>
       <c r="Y99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.13575865128660158</v>
       </c>
       <c r="Z99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.14675220529270239</v>
       </c>
       <c r="AA99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>0.1000841042893188</v>
       </c>
       <c r="AB99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>2.2603273577552541E-2</v>
       </c>
       <c r="AC99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>1.0156250000000089E-2</v>
       </c>
       <c r="AD99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-8.8811188811188768E-2</v>
       </c>
       <c r="AE99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-5.3516819571865493E-2</v>
       </c>
       <c r="AF99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>8.3841463414633388E-3</v>
       </c>
       <c r="AG99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>1.7014694508894035E-2</v>
       </c>
       <c r="AH99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>1.6116653875671627E-2</v>
       </c>
       <c r="AI99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-3.7156704361874016E-2</v>
       </c>
       <c r="AJ99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-5.8201058201058253E-2</v>
       </c>
       <c r="AK99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-5.4752851711026618E-2</v>
       </c>
       <c r="AL99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-3.4743202416918417E-2</v>
       </c>
       <c r="AM99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>3.9429530201342322E-2</v>
       </c>
       <c r="AN99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>8.82825040128421E-3</v>
       </c>
       <c r="AO99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-8.045052292839916E-4</v>
       </c>
       <c r="AP99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-3.6776212832550836E-2</v>
       </c>
       <c r="AQ99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-6.2953995157384979E-2</v>
       </c>
       <c r="AR99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-3.9777247414478967E-2</v>
       </c>
       <c r="AS99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-0.12318840579710144</v>
       </c>
       <c r="AT99" s="112">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>-0.1332250203086921</v>
       </c>
       <c r="AU99" s="112"/>
@@ -32016,123 +32018,123 @@
       <c r="O100" s="112"/>
       <c r="P100" s="112"/>
       <c r="Q100" s="112">
-        <f t="shared" ref="Q100:AT100" si="238">Q48/M48-1</f>
+        <f t="shared" ref="Q100:AT100" si="241">Q48/M48-1</f>
         <v>0.53333333333333344</v>
       </c>
       <c r="R100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.31308411214953269</v>
       </c>
       <c r="S100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.4129464285714286</v>
       </c>
       <c r="T100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.36680327868852469</v>
       </c>
       <c r="U100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.33459357277882806</v>
       </c>
       <c r="V100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.34341637010676163</v>
       </c>
       <c r="W100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.27488151658767768</v>
       </c>
       <c r="X100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.27286356821589197</v>
       </c>
       <c r="Y100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.20113314447592079</v>
       </c>
       <c r="Z100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.20794701986754971</v>
       </c>
       <c r="AA100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.14374225526641893</v>
       </c>
       <c r="AB100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.13427561837455837</v>
       </c>
       <c r="AC100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.24410377358490565</v>
       </c>
       <c r="AD100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.19078947368421062</v>
       </c>
       <c r="AE100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.13759479956663045</v>
       </c>
       <c r="AF100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.1547248182762202</v>
       </c>
       <c r="AG100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>7.1090047393364886E-2</v>
       </c>
       <c r="AH100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>6.8139963167587414E-2</v>
       </c>
       <c r="AI100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="AJ100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.12320143884892087</v>
       </c>
       <c r="AK100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>8.9380530973451222E-2</v>
       </c>
       <c r="AL100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>8.7068965517241415E-2</v>
       </c>
       <c r="AM100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.1617777777777778</v>
       </c>
       <c r="AN100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>8.2465972778222651E-2</v>
       </c>
       <c r="AO100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>5.84890333062551E-2</v>
       </c>
       <c r="AP100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>6.2648691514670896E-2</v>
       </c>
       <c r="AQ100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>2.9074215761285327E-2</v>
       </c>
       <c r="AR100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>7.444359171143522E-2</v>
       </c>
       <c r="AT100" s="112">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>0.15373134328358207</v>
       </c>
       <c r="AU100" s="112"/>
@@ -32226,107 +32228,107 @@
       <c r="O101" s="112"/>
       <c r="P101" s="112"/>
       <c r="Q101" s="112">
-        <f t="shared" ref="Q101:AP101" si="239">Q16/M16-1</f>
+        <f t="shared" ref="Q101:AP101" si="242">Q16/M16-1</f>
         <v>2.4210526315789473</v>
       </c>
       <c r="R101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>6.6097560975609753</v>
       </c>
       <c r="S101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>1.1162790697674421</v>
       </c>
       <c r="T101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.5314009661835748</v>
       </c>
       <c r="U101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="V101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.13141025641025639</v>
       </c>
       <c r="W101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.41758241758241765</v>
       </c>
       <c r="X101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.51419558359621442</v>
       </c>
       <c r="Y101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.64923076923076928</v>
       </c>
       <c r="Z101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.77053824362606238</v>
       </c>
       <c r="AA101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.62273901808785537</v>
       </c>
       <c r="AB101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.41250000000000009</v>
       </c>
       <c r="AC101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.28917910447761197</v>
       </c>
       <c r="AD101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.27839999999999998</v>
       </c>
       <c r="AE101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.22929936305732479</v>
       </c>
       <c r="AF101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.35103244837758107</v>
       </c>
       <c r="AG101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.33429811866859627</v>
       </c>
       <c r="AH101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.23529411764705888</v>
       </c>
       <c r="AI101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.25518134715025909</v>
       </c>
       <c r="AJ101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.23253275109170302</v>
       </c>
       <c r="AK101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.24403470715835152</v>
       </c>
       <c r="AL101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.2735562310030395</v>
       </c>
       <c r="AM101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.34158926728586181</v>
       </c>
       <c r="AN101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.2666076173604961</v>
       </c>
       <c r="AO101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.19790758500435923</v>
       </c>
       <c r="AP101" s="112">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>0.26252983293556076</v>
       </c>
       <c r="AQ101" s="112"/>
@@ -32424,107 +32426,107 @@
       <c r="O102" s="112"/>
       <c r="P102" s="112"/>
       <c r="Q102" s="112">
-        <f t="shared" ref="Q102:AP102" si="240">Q7/M7-1</f>
+        <f t="shared" ref="Q102:AP102" si="243">Q7/M7-1</f>
         <v>0.4453125</v>
       </c>
       <c r="R102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.27325581395348841</v>
       </c>
       <c r="S102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.31382978723404253</v>
       </c>
       <c r="T102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.24390243902439024</v>
       </c>
       <c r="U102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.29729729729729737</v>
       </c>
       <c r="V102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.20547945205479445</v>
       </c>
       <c r="W102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.12145748987854255</v>
       </c>
       <c r="X102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.20784313725490189</v>
       </c>
       <c r="Y102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Z102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.2234848484848484</v>
       </c>
       <c r="AA102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.27797833935018046</v>
       </c>
       <c r="AB102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.3441558441558441</v>
       </c>
       <c r="AC102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.34420289855072461</v>
       </c>
       <c r="AD102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.34984520123839014</v>
       </c>
       <c r="AE102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.33050847457627119</v>
       </c>
       <c r="AF102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.25120772946859904</v>
       </c>
       <c r="AG102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.3504043126684635</v>
       </c>
       <c r="AH102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.17889908256880727</v>
       </c>
       <c r="AI102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>9.3418259023354544E-2</v>
       </c>
       <c r="AJ102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>6.370656370656369E-2</v>
       </c>
       <c r="AK102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.12175648702594821</v>
       </c>
       <c r="AL102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.29571984435797671</v>
       </c>
       <c r="AM102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.36116504854368925</v>
       </c>
       <c r="AN102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.20508166969147013</v>
       </c>
       <c r="AO102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.13879003558718872</v>
       </c>
       <c r="AP102" s="112">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>0.11261261261261257</v>
       </c>
       <c r="AQ102" s="112"/>
@@ -36076,6 +36078,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -36189,32 +36206,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -36229,9 +36224,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/AZN.xlsx
+++ b/AZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D1DF8-2852-419B-B27D-EC3CA9DD9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC020AA8-1B54-A742-AF6D-A0015560EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22155" yWindow="3555" windowWidth="21390" windowHeight="16590" tabRatio="524" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" tabRatio="524" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="32" r:id="rId1"/>
@@ -5264,11 +5264,11 @@
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -6292,10 +6292,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6436,7 +6436,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -6523,10 +6523,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6593,10 +6593,10 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6652,7 +6652,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -6835,10 +6835,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6990,10 +6990,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7168,10 +7168,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7271,10 +7271,10 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7442,10 +7442,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7709,24 +7709,26 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7787,8 +7789,8 @@
         <v>180</v>
       </c>
       <c r="K3" s="24">
-        <f>1560*2</f>
-        <v>3120</v>
+        <f>1560</f>
+        <v>1560</v>
       </c>
       <c r="L3" s="133" t="s">
         <v>607</v>
@@ -7821,7 +7823,7 @@
       </c>
       <c r="K4" s="24">
         <f>K2*K3</f>
-        <v>199680</v>
+        <v>99840</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7909,7 +7911,7 @@
       </c>
       <c r="K7" s="24">
         <f>K4-K5+K6</f>
-        <v>226004</v>
+        <v>126164</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8714,11 +8716,11 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8885,7 +8887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -8955,11 +8957,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9060,14 +9062,14 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9235,12 +9237,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="7"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625" style="7"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9405,11 +9407,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9553,10 +9555,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9628,10 +9630,10 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9713,11 +9715,11 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9885,11 +9887,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10055,31 +10057,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GR180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CL93" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CR120" sqref="CR120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="100" customWidth="1"/>
-    <col min="3" max="66" width="6.7109375" style="41" customWidth="1"/>
-    <col min="67" max="67" width="6.7109375" style="79" customWidth="1"/>
-    <col min="68" max="74" width="6.7109375" style="41" customWidth="1"/>
-    <col min="75" max="86" width="6.7109375" style="79" customWidth="1"/>
-    <col min="87" max="90" width="6.85546875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="100" customWidth="1"/>
+    <col min="3" max="66" width="6.6640625" style="41" customWidth="1"/>
+    <col min="67" max="67" width="6.6640625" style="79" customWidth="1"/>
+    <col min="68" max="74" width="6.6640625" style="41" customWidth="1"/>
+    <col min="75" max="86" width="6.6640625" style="79" customWidth="1"/>
+    <col min="87" max="90" width="6.83203125" style="79" customWidth="1"/>
     <col min="91" max="94" width="8" style="79" customWidth="1"/>
-    <col min="95" max="102" width="7.85546875" style="79" customWidth="1"/>
-    <col min="103" max="104" width="6.7109375" style="79" customWidth="1"/>
-    <col min="105" max="119" width="6.7109375" style="41" customWidth="1"/>
-    <col min="120" max="126" width="6.42578125" style="41" customWidth="1"/>
-    <col min="127" max="128" width="7.5703125" style="41" customWidth="1"/>
-    <col min="129" max="134" width="7.5703125" style="14" customWidth="1"/>
-    <col min="135" max="143" width="7.28515625" style="14" customWidth="1"/>
-    <col min="144" max="16384" width="9.140625" style="14"/>
+    <col min="95" max="102" width="7.83203125" style="79" customWidth="1"/>
+    <col min="103" max="104" width="6.6640625" style="79" customWidth="1"/>
+    <col min="105" max="119" width="6.6640625" style="41" customWidth="1"/>
+    <col min="120" max="126" width="6.5" style="41" customWidth="1"/>
+    <col min="127" max="128" width="7.5" style="41" customWidth="1"/>
+    <col min="129" max="134" width="7.5" style="14" customWidth="1"/>
+    <col min="135" max="143" width="7.33203125" style="14" customWidth="1"/>
+    <col min="144" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:143" s="11" customFormat="1">
@@ -10214,7 +10216,7 @@
       <c r="DW1" s="39"/>
       <c r="DX1" s="39"/>
     </row>
-    <row r="2" spans="1:143" s="11" customFormat="1">
+    <row r="2" spans="1:143" s="11" customFormat="1" ht="14">
       <c r="A2" s="31"/>
       <c r="B2" s="96"/>
       <c r="C2" s="91" t="s">
@@ -10821,7 +10823,7 @@
         <v>1674</v>
       </c>
       <c r="CT3" s="75">
-        <f t="shared" ref="CS3:CX3" si="2">+CP3*1.05</f>
+        <f t="shared" ref="CT3:CX3" si="2">+CP3*1.05</f>
         <v>1489.95</v>
       </c>
       <c r="CU3" s="75">
@@ -11705,7 +11707,7 @@
         <v>1203</v>
       </c>
       <c r="CT6" s="75">
-        <f t="shared" ref="CS6:CX6" si="16">+CP6*1.1</f>
+        <f t="shared" ref="CT6:CX6" si="16">+CP6*1.1</f>
         <v>1248.5</v>
       </c>
       <c r="CU6" s="75">
@@ -12710,7 +12712,7 @@
         <v>510</v>
       </c>
       <c r="CT9" s="75">
-        <f t="shared" ref="CS9:CX9" si="22">+CS9+50</f>
+        <f t="shared" ref="CT9:CX9" si="22">+CS9+50</f>
         <v>560</v>
       </c>
       <c r="CU9" s="75">
@@ -13597,7 +13599,7 @@
         <v>327</v>
       </c>
       <c r="CT12" s="72">
-        <f t="shared" ref="CS12:CX14" si="31">+CP12*1.01</f>
+        <f t="shared" ref="CT12:CX14" si="31">+CP12*1.01</f>
         <v>332.29</v>
       </c>
       <c r="CU12" s="72">
@@ -14711,7 +14713,7 @@
         <v>278</v>
       </c>
       <c r="CT15" s="72">
-        <f t="shared" ref="CS15:CX16" si="36">+CP15*1.1</f>
+        <f t="shared" ref="CT15:CX16" si="36">+CP15*1.1</f>
         <v>279.40000000000003</v>
       </c>
       <c r="CU15" s="72">
@@ -15723,7 +15725,7 @@
         <v>216</v>
       </c>
       <c r="CT18" s="72">
-        <f t="shared" ref="CS18:CX18" si="39">+CP18</f>
+        <f t="shared" ref="CT18:CX18" si="39">+CP18</f>
         <v>209</v>
       </c>
       <c r="CU18" s="72">
@@ -16155,7 +16157,7 @@
         <v>151</v>
       </c>
       <c r="CT19" s="72">
-        <f t="shared" ref="CS19:CX19" si="41">+CS19-5</f>
+        <f t="shared" ref="CT19:CX19" si="41">+CS19-5</f>
         <v>146</v>
       </c>
       <c r="CU19" s="72">
@@ -16467,7 +16469,7 @@
         <v>72</v>
       </c>
       <c r="CT20" s="72">
-        <f t="shared" ref="CS20:CX20" si="42">+CS20+2</f>
+        <f t="shared" ref="CT20:CX20" si="42">+CS20+2</f>
         <v>74</v>
       </c>
       <c r="CU20" s="72">
@@ -16737,7 +16739,7 @@
         <v>191</v>
       </c>
       <c r="CT21" s="72">
-        <f t="shared" ref="CS21:CX21" si="44">+CS21+30</f>
+        <f t="shared" ref="CT21:CX21" si="44">+CS21+30</f>
         <v>221</v>
       </c>
       <c r="CU21" s="72">
@@ -17396,7 +17398,7 @@
         <v>138</v>
       </c>
       <c r="CT23" s="72">
-        <f t="shared" ref="CS23:CX24" si="46">+CS23</f>
+        <f t="shared" ref="CT23:CX24" si="46">+CS23</f>
         <v>138</v>
       </c>
       <c r="CU23" s="72">
@@ -18145,7 +18147,7 @@
         <v>143</v>
       </c>
       <c r="CT25" s="72">
-        <f t="shared" ref="CS25:CX25" si="47">+CS25+10</f>
+        <f t="shared" ref="CT25:CX25" si="47">+CS25+10</f>
         <v>153</v>
       </c>
       <c r="CU25" s="72">
@@ -18425,7 +18427,7 @@
         <v>95</v>
       </c>
       <c r="CT26" s="72">
-        <f t="shared" ref="CS26:CX26" si="50">+CS26+1</f>
+        <f t="shared" ref="CT26:CX26" si="50">+CS26+1</f>
         <v>96</v>
       </c>
       <c r="CU26" s="72">
@@ -18705,7 +18707,7 @@
         <v>119</v>
       </c>
       <c r="CT27" s="72">
-        <f t="shared" ref="CS27:CX27" si="61">+CS27+5</f>
+        <f t="shared" ref="CT27:CX27" si="61">+CS27+5</f>
         <v>124</v>
       </c>
       <c r="CU27" s="72">
@@ -18975,7 +18977,7 @@
         <v>124</v>
       </c>
       <c r="CT28" s="75">
-        <f t="shared" ref="CS28:CX28" si="63">+CP28*1.7</f>
+        <f t="shared" ref="CT28:CX28" si="63">+CP28*1.7</f>
         <v>151.29999999999998</v>
       </c>
       <c r="CU28" s="75">
@@ -19975,7 +19977,7 @@
         <v>54</v>
       </c>
       <c r="CT31" s="72">
-        <f t="shared" ref="CS31:CX31" si="68">+CS31+1</f>
+        <f t="shared" ref="CT31:CX31" si="68">+CS31+1</f>
         <v>55</v>
       </c>
       <c r="CU31" s="72">
@@ -41102,7 +41104,7 @@
       </c>
       <c r="EP106" s="50">
         <f>EP105/Main!K3</f>
-        <v>20.972169026794887</v>
+        <v>41.944338053589775</v>
       </c>
     </row>
     <row r="107" spans="1:200">
@@ -42178,7 +42180,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CW111" s="113">
-        <f t="shared" ref="CW111:DF112" si="261">+CW3/CS3-1</f>
+        <f t="shared" ref="CW111:CX112" si="261">+CW3/CS3-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CX111" s="113">
@@ -50591,11 +50593,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50798,7 +50800,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -50863,7 +50865,7 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -50999,7 +51001,7 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -51049,7 +51051,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -51241,7 +51243,7 @@
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -51335,11 +51337,11 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -51541,7 +51543,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -51602,15 +51604,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -51724,6 +51717,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -51731,14 +51733,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA31EBE-4993-4E59-ACFD-7F137917727B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51754,6 +51748,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA31EBE-4993-4E59-ACFD-7F137917727B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
   <ds:schemaRefs>

--- a/AZN.xlsx
+++ b/AZN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D1EA9B-9B2E-420A-9884-DC82CDDD0FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C72D1-CF80-4A79-B277-EE438252CDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23325" yWindow="3990" windowWidth="22485" windowHeight="14175" tabRatio="524" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="5000" windowWidth="28830" windowHeight="13750" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="32" r:id="rId1"/>
@@ -64,9 +64,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={5B24BAA4-CD56-4C72-A064-A5ED6A0B4351}</author>
     <author>tc={D62DBF2F-287A-4010-A155-AA24966F2AA4}</author>
     <author>Martin Shkreli</author>
     <author>tc={BD1794CD-A4A5-4162-9B72-64E6057D9510}</author>
+    <author>tc={03216D20-8E6B-4C8A-BF66-4FFAC541102E}</author>
     <author>tc={997BBBCE-CAE7-4E4D-B44B-1C86D7F5246C}</author>
     <author>tc={6DCB1BC1-8D2E-4EF8-B674-A4FBAAB84212}</author>
     <author>tc={259D8D03-FC68-4E9B-93F5-A87012CBE182}</author>
@@ -82,6 +84,7 @@
     <author>tc={07C2355C-2F91-4FEC-B7AF-2C093C23087B}</author>
     <author>tc={42C52143-ABD2-4472-8E88-4E9D4130E218}</author>
     <author>tc={1F159F62-A8AF-4547-8349-2CF314B5051A}</author>
+    <author>tc={9A2F74CD-D2C4-4CAF-8C2E-C016ACF87B1E}</author>
     <author>tc={047CC09F-8B58-4663-92EB-4563859FCE43}</author>
     <author>tc={8323C141-3819-4911-BF8C-26B7E5B6D8CB}</author>
     <author>tc={932DB68E-5116-47DB-9126-3DF300A7FFC0}</author>
@@ -92,7 +95,15 @@
     <author>tc={4512D24D-9ACD-4DEA-91C8-FC67B27621E0}</author>
   </authors>
   <commentList>
-    <comment ref="CQ4" authorId="0" shapeId="0" xr:uid="{D62DBF2F-287A-4010-A155-AA24966F2AA4}">
+    <comment ref="CU3" authorId="0" shapeId="0" xr:uid="{5B24BAA4-CD56-4C72-A064-A5ED6A0B4351}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Growth in Stage III unresectable NSCLC</t>
+      </text>
+    </comment>
+    <comment ref="CQ4" authorId="1" shapeId="0" xr:uid="{D62DBF2F-287A-4010-A155-AA24966F2AA4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +112,7 @@
 Authorized generic!?!?!</t>
       </text>
     </comment>
-    <comment ref="CK5" authorId="1" shapeId="0" xr:uid="{A05F94D5-553A-4B95-8F2E-43CA8AB3B680}">
+    <comment ref="CK5" authorId="2" shapeId="0" xr:uid="{A05F94D5-553A-4B95-8F2E-43CA8AB3B680}">
       <text>
         <r>
           <rPr>
@@ -125,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ5" authorId="2" shapeId="0" xr:uid="{BD1794CD-A4A5-4162-9B72-64E6057D9510}">
+    <comment ref="CQ5" authorId="3" shapeId="0" xr:uid="{BD1794CD-A4A5-4162-9B72-64E6057D9510}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +144,15 @@
     Some biosimilar erosion in EU</t>
       </text>
     </comment>
-    <comment ref="CT8" authorId="3" shapeId="0" xr:uid="{997BBBCE-CAE7-4E4D-B44B-1C86D7F5246C}">
+    <comment ref="CU6" authorId="4" shapeId="0" xr:uid="{03216D20-8E6B-4C8A-BF66-4FFAC541102E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Early NSCLC (AEGEAN), limited-stage SCLC (ADRIATIC)</t>
+      </text>
+    </comment>
+    <comment ref="CT8" authorId="5" shapeId="0" xr:uid="{997BBBCE-CAE7-4E4D-B44B-1C86D7F5246C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +160,7 @@
     $600m sales milestone</t>
       </text>
     </comment>
-    <comment ref="EC8" authorId="4" shapeId="0" xr:uid="{6DCB1BC1-8D2E-4EF8-B674-A4FBAAB84212}">
+    <comment ref="EC8" authorId="6" shapeId="0" xr:uid="{6DCB1BC1-8D2E-4EF8-B674-A4FBAAB84212}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +168,7 @@
     Most patents expire 2024</t>
       </text>
     </comment>
-    <comment ref="CN9" authorId="5" shapeId="0" xr:uid="{259D8D03-FC68-4E9B-93F5-A87012CBE182}">
+    <comment ref="CN9" authorId="7" shapeId="0" xr:uid="{259D8D03-FC68-4E9B-93F5-A87012CBE182}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +176,7 @@
     180m COVID-19 mabs in alliance?</t>
       </text>
     </comment>
-    <comment ref="CR9" authorId="6" shapeId="0" xr:uid="{62D1F299-BA77-4B11-916A-3E9C8453E5BB}">
+    <comment ref="CR9" authorId="8" shapeId="0" xr:uid="{62D1F299-BA77-4B11-916A-3E9C8453E5BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +184,7 @@
     344m alliance</t>
       </text>
     </comment>
-    <comment ref="CK10" authorId="7" shapeId="0" xr:uid="{9F14EA27-52F6-4D58-A621-BE9B3020F31F}">
+    <comment ref="CK10" authorId="9" shapeId="0" xr:uid="{9F14EA27-52F6-4D58-A621-BE9B3020F31F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +192,7 @@
     7/21/21 acquisition close</t>
       </text>
     </comment>
-    <comment ref="AJ14" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="AJ14" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT14" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="DT14" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM18" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="AM18" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DR18" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="DR18" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ19" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="AJ19" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM19" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="AM19" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN21" authorId="11" shapeId="0" xr:uid="{0E601E2F-7ECF-4CDD-A344-E00EF29B2A68}">
+    <comment ref="CN21" authorId="13" shapeId="0" xr:uid="{0E601E2F-7ECF-4CDD-A344-E00EF29B2A68}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -307,7 +326,7 @@
     62m alliance revenue?</t>
       </text>
     </comment>
-    <comment ref="CQ21" authorId="12" shapeId="0" xr:uid="{EE1FF094-4FA8-478F-B53F-2BD79A909715}">
+    <comment ref="CQ21" authorId="14" shapeId="0" xr:uid="{EE1FF094-4FA8-478F-B53F-2BD79A909715}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -315,7 +334,7 @@
     Amgen recorded 94m</t>
       </text>
     </comment>
-    <comment ref="CR21" authorId="13" shapeId="0" xr:uid="{8AACDF9E-579A-45C7-B0D3-BE8111D3CD6A}">
+    <comment ref="CR21" authorId="15" shapeId="0" xr:uid="{8AACDF9E-579A-45C7-B0D3-BE8111D3CD6A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -323,7 +342,7 @@
     104m in alliance</t>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="B24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR33" authorId="14" shapeId="0" xr:uid="{29EDF96C-E7AA-48B8-8C08-0DD18E859291}">
+    <comment ref="CR33" authorId="16" shapeId="0" xr:uid="{29EDF96C-E7AA-48B8-8C08-0DD18E859291}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -355,7 +374,7 @@
     7m alliance</t>
       </text>
     </comment>
-    <comment ref="AP43" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="AP43" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ43" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="AQ43" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR56" authorId="15" shapeId="0" xr:uid="{07C2355C-2F91-4FEC-B7AF-2C093C23087B}">
+    <comment ref="CR56" authorId="17" shapeId="0" xr:uid="{07C2355C-2F91-4FEC-B7AF-2C093C23087B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -411,7 +430,7 @@
     4m Farxiga sales milestones</t>
       </text>
     </comment>
-    <comment ref="CR59" authorId="16" shapeId="0" xr:uid="{42C52143-ABD2-4472-8E88-4E9D4130E218}">
+    <comment ref="CR59" authorId="18" shapeId="0" xr:uid="{42C52143-ABD2-4472-8E88-4E9D4130E218}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -419,7 +438,7 @@
     4m collaboration</t>
       </text>
     </comment>
-    <comment ref="AM60" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="AM60" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM62" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="AM62" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DP63" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="DP63" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -498,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DQ63" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="DQ63" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DU63" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="DU63" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -546,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EB87" authorId="17" shapeId="0" xr:uid="{1F159F62-A8AF-4547-8349-2CF314B5051A}">
+    <comment ref="EB87" authorId="19" shapeId="0" xr:uid="{1F159F62-A8AF-4547-8349-2CF314B5051A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -554,7 +573,15 @@
     Q224: Collaboration revenue will not increase in 2024</t>
       </text>
     </comment>
-    <comment ref="DO88" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="CU88" authorId="20" shapeId="0" xr:uid="{9A2F74CD-D2C4-4CAF-8C2E-C016ACF87B1E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not including 74m of Farxiga sales milestones</t>
+      </text>
+    </comment>
+    <comment ref="DO88" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -578,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EH88" authorId="18" shapeId="0" xr:uid="{047CC09F-8B58-4663-92EB-4563859FCE43}">
+    <comment ref="EH88" authorId="21" shapeId="0" xr:uid="{047CC09F-8B58-4663-92EB-4563859FCE43}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -586,7 +613,7 @@
     80B ambition by 2030</t>
       </text>
     </comment>
-    <comment ref="AS93" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="AS93" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -610,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN97" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="DN97" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK100" authorId="19" shapeId="0" xr:uid="{8323C141-3819-4911-BF8C-26B7E5B6D8CB}">
+    <comment ref="CK100" authorId="22" shapeId="0" xr:uid="{8323C141-3819-4911-BF8C-26B7E5B6D8CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -642,7 +669,7 @@
     Core 1.67</t>
       </text>
     </comment>
-    <comment ref="CR100" authorId="20" shapeId="0" xr:uid="{932DB68E-5116-47DB-9126-3DF300A7FFC0}">
+    <comment ref="CR100" authorId="23" shapeId="0" xr:uid="{932DB68E-5116-47DB-9126-3DF300A7FFC0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -650,7 +677,7 @@
     1.98 core</t>
       </text>
     </comment>
-    <comment ref="DN100" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="DN100" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR104" authorId="21" shapeId="0" xr:uid="{33B8DB53-52E5-4394-B981-829628410B78}">
+    <comment ref="CR104" authorId="24" shapeId="0" xr:uid="{33B8DB53-52E5-4394-B981-829628410B78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -682,7 +709,7 @@
     Product GM 83%</t>
       </text>
     </comment>
-    <comment ref="EB108" authorId="22" shapeId="0" xr:uid="{85A3583F-D75C-4861-A947-94586CB03356}">
+    <comment ref="EB108" authorId="25" shapeId="0" xr:uid="{85A3583F-D75C-4861-A947-94586CB03356}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -690,7 +717,7 @@
     Q224: 18-22%</t>
       </text>
     </comment>
-    <comment ref="AJ110" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="AJ110" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -703,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN110" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="DN110" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -727,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EB110" authorId="23" shapeId="0" xr:uid="{98490C7F-6D1E-4D48-BF90-62A6F0C0ADB0}">
+    <comment ref="EB110" authorId="26" shapeId="0" xr:uid="{98490C7F-6D1E-4D48-BF90-62A6F0C0ADB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -735,7 +762,7 @@
     Q224: raised guidance to mid teens (was low DD to low teens)</t>
       </text>
     </comment>
-    <comment ref="CR112" authorId="24" shapeId="0" xr:uid="{80E3A555-D5AE-4A57-876F-770B75A4A3CF}">
+    <comment ref="CR112" authorId="27" shapeId="0" xr:uid="{80E3A555-D5AE-4A57-876F-770B75A4A3CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -743,7 +770,7 @@
     12% CER</t>
       </text>
     </comment>
-    <comment ref="AM118" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="AM118" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -767,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR139" authorId="25" shapeId="0" xr:uid="{4512D24D-9ACD-4DEA-91C8-FC67B27621E0}">
+    <comment ref="CR139" authorId="28" shapeId="0" xr:uid="{4512D24D-9ACD-4DEA-91C8-FC67B27621E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -780,7 +807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="885">
   <si>
     <t>Name</t>
   </si>
@@ -3451,6 +3478,9 @@
   </si>
   <si>
     <t>Others (Rare)</t>
+  </si>
+  <si>
+    <t>Phase III "DESTINY-Breast09"</t>
   </si>
 </sst>
 </file>
@@ -3715,7 +3745,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4098,6 +4128,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
@@ -4126,13 +4192,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>99</xdr:col>
-      <xdr:colOff>14488</xdr:colOff>
+      <xdr:colOff>27626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>99</xdr:col>
-      <xdr:colOff>14488</xdr:colOff>
+      <xdr:colOff>27626</xdr:colOff>
       <xdr:row>190</xdr:row>
       <xdr:rowOff>51287</xdr:rowOff>
     </xdr:to>
@@ -4151,8 +4217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="45898712" y="0"/>
-          <a:ext cx="0" cy="31089649"/>
+          <a:off x="48125592" y="0"/>
+          <a:ext cx="0" cy="30084597"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4179,14 +4245,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>12962</xdr:colOff>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>56755</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>12962</xdr:colOff>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>56755</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4205,8 +4271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="60585393" y="0"/>
-          <a:ext cx="0" cy="21879910"/>
+          <a:off x="64047238" y="0"/>
+          <a:ext cx="0" cy="21242721"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5222,12 +5288,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="CU3" dT="2025-05-05T19:49:37.49" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{5B24BAA4-CD56-4C72-A064-A5ED6A0B4351}">
+    <text>Growth in Stage III unresectable NSCLC</text>
+  </threadedComment>
   <threadedComment ref="CQ4" dT="2024-10-06T19:25:00.18" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{D62DBF2F-287A-4010-A155-AA24966F2AA4}">
     <text>45m milestone in Japan
 Authorized generic!?!?!</text>
   </threadedComment>
   <threadedComment ref="CQ5" dT="2024-10-06T19:03:03.93" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{BD1794CD-A4A5-4162-9B72-64E6057D9510}">
     <text>Some biosimilar erosion in EU</text>
+  </threadedComment>
+  <threadedComment ref="CU6" dT="2025-05-05T19:55:33.83" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{03216D20-8E6B-4C8A-BF66-4FFAC541102E}">
+    <text>Early NSCLC (AEGEAN), limited-stage SCLC (ADRIATIC)</text>
   </threadedComment>
   <threadedComment ref="CT8" dT="2025-02-10T15:39:10.23" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{997BBBCE-CAE7-4E4D-B44B-1C86D7F5246C}">
     <text>$600m sales milestone</text>
@@ -5265,6 +5337,9 @@
   <threadedComment ref="EB87" dT="2024-11-07T01:17:44.63" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{1F159F62-A8AF-4547-8349-2CF314B5051A}">
     <text>Q224: Collaboration revenue will not increase in 2024</text>
   </threadedComment>
+  <threadedComment ref="CU88" dT="2025-05-05T19:39:02.08" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{9A2F74CD-D2C4-4CAF-8C2E-C016ACF87B1E}">
+    <text>Not including 74m of Farxiga sales milestones</text>
+  </threadedComment>
   <threadedComment ref="EH88" dT="2024-11-07T00:28:07.29" personId="{A895112F-5F85-4B64-BDC7-EC2B8A981C44}" id="{047CC09F-8B58-4663-92EB-4563859FCE43}">
     <text>80B ambition by 2030</text>
   </threadedComment>
@@ -5300,11 +5375,11 @@
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -6328,10 +6403,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6373,7 +6448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="B7" s="120"/>
       <c r="C7" s="121" t="s">
         <v>780</v>
@@ -6391,7 +6466,7 @@
     <row r="10" spans="1:3">
       <c r="B10" s="120"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="121" t="s">
         <v>777</v>
       </c>
@@ -6472,7 +6547,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -6559,10 +6634,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6616,7 +6691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="121" t="s">
         <v>879</v>
       </c>
@@ -6626,7 +6701,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="121" t="s">
         <v>761</v>
       </c>
@@ -6650,10 +6725,10 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6709,7 +6784,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -6772,7 +6847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="121" t="s">
         <v>760</v>
       </c>
@@ -6790,7 +6865,7 @@
     <row r="13" spans="1:3">
       <c r="C13" s="120"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="121" t="s">
         <v>712</v>
       </c>
@@ -6892,10 +6967,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7043,14 +7118,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5391B09-347D-49F4-AB2B-6F7A7463E736}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7124,7 +7201,7 @@
     <row r="12" spans="1:3">
       <c r="B12" s="120"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="121" t="s">
         <v>693</v>
       </c>
@@ -7134,80 +7211,85 @@
         <v>757</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="121" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="13">
+      <c r="C21" s="121" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="121" t="s">
+    <row r="23" spans="2:3" ht="13">
+      <c r="C23" s="121" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="121" t="s">
+    <row r="25" spans="2:3" ht="13">
+      <c r="C25" s="121" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="156" t="s">
+    <row r="27" spans="2:3">
+      <c r="C27" s="156" t="s">
         <v>704</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="120" t="s">
-        <v>665</v>
-      </c>
-      <c r="C23">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="120" t="s">
-        <v>717</v>
-      </c>
-      <c r="C24">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="120" t="s">
-        <v>667</v>
-      </c>
-      <c r="C25">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="120" t="s">
-        <v>668</v>
-      </c>
-      <c r="C26">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="120" t="s">
-        <v>669</v>
-      </c>
-      <c r="C27">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="120" t="s">
-        <v>718</v>
+        <v>665</v>
       </c>
       <c r="C28">
-        <f>+C23+C25+C26+C27</f>
-        <v>932</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="120" t="s">
+        <v>717</v>
+      </c>
+      <c r="C29">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="120" t="s">
+        <v>667</v>
+      </c>
+      <c r="C30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="120" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="120" t="s">
+        <v>669</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="120" t="s">
+        <v>718</v>
+      </c>
+      <c r="C33">
+        <f>+C28+C30+C31+C32</f>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="120" t="s">
         <v>715</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>1772</v>
       </c>
     </row>
@@ -7225,10 +7307,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7328,10 +7410,10 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7390,7 +7472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="121" t="s">
         <v>243</v>
       </c>
@@ -7400,7 +7482,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="121" t="s">
         <v>763</v>
       </c>
@@ -7499,10 +7581,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7613,17 +7695,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" ht="13">
       <c r="C17" s="121" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" ht="13">
       <c r="C19" s="121" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="121" t="s">
         <v>589</v>
       </c>
@@ -7633,7 +7715,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" ht="13">
       <c r="C24" s="121" t="s">
         <v>599</v>
       </c>
@@ -7648,17 +7730,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" ht="13">
       <c r="C29" s="121" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" ht="13">
       <c r="C31" s="121" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" ht="13">
       <c r="E33" s="121" t="s">
         <v>656</v>
       </c>
@@ -7766,26 +7848,26 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8205,7 +8287,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="122"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" ht="13">
       <c r="B19" s="12" t="s">
         <v>616</v>
       </c>
@@ -8264,7 +8346,7 @@
       <c r="J21" s="128"/>
       <c r="K21" s="122"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" ht="13">
       <c r="B22" s="12" t="s">
         <v>881</v>
       </c>
@@ -8317,7 +8399,7 @@
       <c r="H24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" ht="13">
       <c r="B25" s="116" t="s">
         <v>255</v>
       </c>
@@ -8680,32 +8762,32 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" ht="13">
       <c r="G48" s="28" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" ht="13">
       <c r="G49" s="28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" ht="13">
       <c r="G50" s="28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" ht="13">
       <c r="G51" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" ht="13">
       <c r="G52" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" ht="13">
       <c r="B53" s="10"/>
       <c r="G53" s="28" t="s">
         <v>293</v>
@@ -8722,11 +8804,11 @@
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" ht="13">
       <c r="F56" s="119"/>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" ht="13">
       <c r="G57" s="28"/>
     </row>
     <row r="62" spans="2:9">
@@ -8778,11 +8860,11 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8949,7 +9031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -9019,11 +9101,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9124,14 +9206,14 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9299,12 +9381,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="7"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1796875" style="7"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9378,7 +9460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="13">
       <c r="C11" s="18" t="s">
         <v>245</v>
       </c>
@@ -9408,7 +9490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" ht="13">
       <c r="C20" s="10" t="s">
         <v>72</v>
       </c>
@@ -9469,11 +9551,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9550,12 +9632,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="18" t="s">
         <v>299</v>
       </c>
@@ -9578,7 +9660,7 @@
     <row r="17" spans="3:4">
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" ht="13">
       <c r="C18" s="18" t="s">
         <v>88</v>
       </c>
@@ -9617,10 +9699,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9663,7 +9745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="121" t="s">
         <v>769</v>
       </c>
@@ -9692,10 +9774,10 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9742,12 +9824,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="121" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="121" t="s">
         <v>772</v>
       </c>
@@ -9777,11 +9859,11 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9839,17 +9921,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="18" t="s">
         <v>200</v>
       </c>
@@ -9859,7 +9941,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="18" t="s">
         <v>198</v>
       </c>
@@ -9869,20 +9951,20 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" ht="13">
       <c r="C19" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" ht="13">
       <c r="C22" s="18"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" ht="13">
       <c r="C23" s="18" t="s">
         <v>175</v>
       </c>
@@ -9892,7 +9974,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" ht="13">
       <c r="C26" s="18" t="s">
         <v>172</v>
       </c>
@@ -9907,7 +9989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" ht="13">
       <c r="C31" s="25" t="s">
         <v>190</v>
       </c>
@@ -9949,11 +10031,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10032,7 +10114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="18" t="s">
         <v>306</v>
       </c>
@@ -10052,7 +10134,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" ht="13">
       <c r="C17" s="25" t="s">
         <v>263</v>
       </c>
@@ -10067,12 +10149,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" ht="13">
       <c r="C23" s="18" t="s">
         <v>268</v>
       </c>
@@ -10082,17 +10164,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" ht="13">
       <c r="C26" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" ht="13">
       <c r="C28" s="18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" ht="13">
       <c r="C31" s="18" t="s">
         <v>270</v>
       </c>
@@ -10120,33 +10202,33 @@
   <dimension ref="A1:GR181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DU79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EE83" sqref="EE83"/>
+      <selection pane="bottomRight" activeCell="CZ20" sqref="CZ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="100" customWidth="1"/>
-    <col min="3" max="66" width="6.7109375" style="41" customWidth="1"/>
-    <col min="67" max="67" width="6.7109375" style="79" customWidth="1"/>
-    <col min="68" max="74" width="6.7109375" style="41" customWidth="1"/>
-    <col min="75" max="86" width="6.7109375" style="79" customWidth="1"/>
-    <col min="87" max="90" width="6.85546875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="100" customWidth="1"/>
+    <col min="3" max="66" width="6.7265625" style="41" customWidth="1"/>
+    <col min="67" max="67" width="6.7265625" style="79" customWidth="1"/>
+    <col min="68" max="74" width="6.7265625" style="41" customWidth="1"/>
+    <col min="75" max="86" width="6.7265625" style="79" customWidth="1"/>
+    <col min="87" max="90" width="6.81640625" style="79" customWidth="1"/>
     <col min="91" max="94" width="8" style="79" customWidth="1"/>
-    <col min="95" max="102" width="7.85546875" style="79" customWidth="1"/>
-    <col min="103" max="104" width="6.7109375" style="79" customWidth="1"/>
-    <col min="105" max="119" width="6.7109375" style="41" customWidth="1"/>
-    <col min="120" max="126" width="6.42578125" style="41" customWidth="1"/>
-    <col min="127" max="128" width="7.42578125" style="41" customWidth="1"/>
-    <col min="129" max="134" width="7.42578125" style="14" customWidth="1"/>
-    <col min="135" max="143" width="7.28515625" style="14" customWidth="1"/>
-    <col min="144" max="16384" width="9.140625" style="14"/>
+    <col min="95" max="102" width="7.81640625" style="79" customWidth="1"/>
+    <col min="103" max="109" width="6.7265625" style="168" customWidth="1"/>
+    <col min="110" max="119" width="6.7265625" style="41" customWidth="1"/>
+    <col min="120" max="126" width="6.453125" style="41" customWidth="1"/>
+    <col min="127" max="128" width="7.453125" style="41" customWidth="1"/>
+    <col min="129" max="134" width="7.453125" style="14" customWidth="1"/>
+    <col min="135" max="143" width="7.26953125" style="14" customWidth="1"/>
+    <col min="144" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" s="11" customFormat="1">
+    <row r="1" spans="1:143" s="11" customFormat="1" ht="13">
       <c r="A1" s="94" t="s">
         <v>65</v>
       </c>
@@ -10251,13 +10333,13 @@
       <c r="CV1" s="74"/>
       <c r="CW1" s="74"/>
       <c r="CX1" s="74"/>
-      <c r="CY1" s="74"/>
-      <c r="CZ1" s="74"/>
-      <c r="DA1" s="39"/>
-      <c r="DB1" s="39"/>
-      <c r="DC1" s="39"/>
-      <c r="DD1" s="39"/>
-      <c r="DE1" s="39"/>
+      <c r="CY1" s="164"/>
+      <c r="CZ1" s="164"/>
+      <c r="DA1" s="164"/>
+      <c r="DB1" s="164"/>
+      <c r="DC1" s="164"/>
+      <c r="DD1" s="164"/>
+      <c r="DE1" s="164"/>
       <c r="DF1" s="39"/>
       <c r="DG1" s="39"/>
       <c r="DH1" s="39"/>
@@ -10581,13 +10663,13 @@
       <c r="CX2" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="CY2" s="75"/>
-      <c r="CZ2" s="75"/>
-      <c r="DA2" s="69"/>
-      <c r="DB2" s="69"/>
-      <c r="DC2" s="69"/>
-      <c r="DD2" s="69"/>
-      <c r="DE2" s="69"/>
+      <c r="CY2" s="165"/>
+      <c r="CZ2" s="165"/>
+      <c r="DA2" s="165"/>
+      <c r="DB2" s="165"/>
+      <c r="DC2" s="165"/>
+      <c r="DD2" s="165"/>
+      <c r="DE2" s="165"/>
       <c r="DF2" s="93">
         <v>2002</v>
       </c>
@@ -10902,13 +10984,13 @@
         <f t="shared" si="2"/>
         <v>1788.15</v>
       </c>
-      <c r="CY3" s="75"/>
-      <c r="CZ3" s="75"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="69"/>
-      <c r="DE3" s="69"/>
+      <c r="CY3" s="165"/>
+      <c r="CZ3" s="165"/>
+      <c r="DA3" s="165"/>
+      <c r="DB3" s="165"/>
+      <c r="DC3" s="165"/>
+      <c r="DD3" s="165"/>
+      <c r="DE3" s="165"/>
       <c r="DF3" s="69"/>
       <c r="DG3" s="69"/>
       <c r="DH3" s="69"/>
@@ -11202,13 +11284,13 @@
         <f>+CT4*0.5</f>
         <v>969</v>
       </c>
-      <c r="CY4" s="75"/>
-      <c r="CZ4" s="75"/>
-      <c r="DA4" s="69"/>
-      <c r="DB4" s="69"/>
-      <c r="DC4" s="69"/>
-      <c r="DD4" s="69"/>
-      <c r="DE4" s="69"/>
+      <c r="CY4" s="165"/>
+      <c r="CZ4" s="165"/>
+      <c r="DA4" s="165"/>
+      <c r="DB4" s="165"/>
+      <c r="DC4" s="165"/>
+      <c r="DD4" s="165"/>
+      <c r="DE4" s="165"/>
       <c r="DF4" s="71"/>
       <c r="DG4" s="71"/>
       <c r="DH4" s="71"/>
@@ -11500,13 +11582,13 @@
         <f>+CT5*0.9</f>
         <v>488.7</v>
       </c>
-      <c r="CY5" s="75"/>
-      <c r="CZ5" s="75"/>
-      <c r="DA5" s="69"/>
-      <c r="DB5" s="69"/>
-      <c r="DC5" s="69"/>
-      <c r="DD5" s="69"/>
-      <c r="DE5" s="69"/>
+      <c r="CY5" s="165"/>
+      <c r="CZ5" s="165"/>
+      <c r="DA5" s="165"/>
+      <c r="DB5" s="165"/>
+      <c r="DC5" s="165"/>
+      <c r="DD5" s="165"/>
+      <c r="DE5" s="165"/>
       <c r="DF5" s="71"/>
       <c r="DG5" s="71"/>
       <c r="DH5" s="71"/>
@@ -11780,13 +11862,13 @@
         <f t="shared" si="15"/>
         <v>1379.4</v>
       </c>
-      <c r="CY6" s="75"/>
-      <c r="CZ6" s="75"/>
-      <c r="DA6" s="69"/>
-      <c r="DB6" s="69"/>
-      <c r="DC6" s="69"/>
-      <c r="DD6" s="69"/>
-      <c r="DE6" s="69"/>
+      <c r="CY6" s="165"/>
+      <c r="CZ6" s="165"/>
+      <c r="DA6" s="165"/>
+      <c r="DB6" s="165"/>
+      <c r="DC6" s="165"/>
+      <c r="DD6" s="165"/>
+      <c r="DE6" s="165"/>
       <c r="DF6" s="71"/>
       <c r="DG6" s="71"/>
       <c r="DH6" s="71"/>
@@ -12179,11 +12261,11 @@
       </c>
       <c r="CY7" s="72"/>
       <c r="CZ7" s="72"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="40"/>
-      <c r="DC7" s="40"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
+      <c r="DA7" s="72"/>
+      <c r="DB7" s="72"/>
+      <c r="DC7" s="72"/>
+      <c r="DD7" s="164"/>
+      <c r="DE7" s="164"/>
       <c r="DF7" s="40">
         <v>299</v>
       </c>
@@ -12508,13 +12590,13 @@
         <f>+CT8*1.05</f>
         <v>886.2</v>
       </c>
-      <c r="CY8" s="75"/>
-      <c r="CZ8" s="75"/>
-      <c r="DA8" s="69"/>
-      <c r="DB8" s="69"/>
-      <c r="DC8" s="69"/>
-      <c r="DD8" s="69"/>
-      <c r="DE8" s="69"/>
+      <c r="CY8" s="165"/>
+      <c r="CZ8" s="165"/>
+      <c r="DA8" s="165"/>
+      <c r="DB8" s="165"/>
+      <c r="DC8" s="165"/>
+      <c r="DD8" s="165"/>
+      <c r="DE8" s="165"/>
       <c r="DF8" s="71"/>
       <c r="DG8" s="71"/>
       <c r="DH8" s="71"/>
@@ -12780,13 +12862,13 @@
         <f t="shared" si="21"/>
         <v>746</v>
       </c>
-      <c r="CY9" s="75"/>
-      <c r="CZ9" s="75"/>
-      <c r="DA9" s="69"/>
-      <c r="DB9" s="69"/>
-      <c r="DC9" s="69"/>
-      <c r="DD9" s="69"/>
-      <c r="DE9" s="69"/>
+      <c r="CY9" s="165"/>
+      <c r="CZ9" s="165"/>
+      <c r="DA9" s="165"/>
+      <c r="DB9" s="165"/>
+      <c r="DC9" s="165"/>
+      <c r="DD9" s="165"/>
+      <c r="DE9" s="165"/>
       <c r="DF9" s="71"/>
       <c r="DG9" s="71"/>
       <c r="DH9" s="71"/>
@@ -13070,13 +13152,13 @@
         <f t="shared" si="23"/>
         <v>1306.8</v>
       </c>
-      <c r="CY10" s="75"/>
-      <c r="CZ10" s="75"/>
-      <c r="DA10" s="69"/>
-      <c r="DB10" s="69"/>
-      <c r="DC10" s="69"/>
-      <c r="DD10" s="69"/>
-      <c r="DE10" s="69"/>
+      <c r="CY10" s="165"/>
+      <c r="CZ10" s="165"/>
+      <c r="DA10" s="165"/>
+      <c r="DB10" s="165"/>
+      <c r="DC10" s="165"/>
+      <c r="DD10" s="165"/>
+      <c r="DE10" s="165"/>
       <c r="DF10" s="71"/>
       <c r="DG10" s="71"/>
       <c r="DH10" s="71"/>
@@ -13346,13 +13428,13 @@
         <f>+CT11*1.2</f>
         <v>969.59999999999991</v>
       </c>
-      <c r="CY11" s="75"/>
-      <c r="CZ11" s="75"/>
-      <c r="DA11" s="69"/>
-      <c r="DB11" s="69"/>
-      <c r="DC11" s="69"/>
-      <c r="DD11" s="69"/>
-      <c r="DE11" s="69"/>
+      <c r="CY11" s="165"/>
+      <c r="CZ11" s="165"/>
+      <c r="DA11" s="165"/>
+      <c r="DB11" s="165"/>
+      <c r="DC11" s="165"/>
+      <c r="DD11" s="165"/>
+      <c r="DE11" s="165"/>
       <c r="DF11" s="71"/>
       <c r="DG11" s="71"/>
       <c r="DH11" s="71"/>
@@ -13663,11 +13745,11 @@
       </c>
       <c r="CY12" s="72"/>
       <c r="CZ12" s="72"/>
-      <c r="DA12" s="40"/>
-      <c r="DB12" s="40"/>
-      <c r="DC12" s="40"/>
-      <c r="DD12" s="39"/>
-      <c r="DE12" s="39"/>
+      <c r="DA12" s="72"/>
+      <c r="DB12" s="72"/>
+      <c r="DC12" s="72"/>
+      <c r="DD12" s="164"/>
+      <c r="DE12" s="164"/>
       <c r="DF12" s="40"/>
       <c r="DG12" s="40"/>
       <c r="DH12" s="40"/>
@@ -13947,11 +14029,11 @@
       </c>
       <c r="CY13" s="72"/>
       <c r="CZ13" s="72"/>
-      <c r="DA13" s="40"/>
-      <c r="DB13" s="40"/>
-      <c r="DC13" s="40"/>
-      <c r="DD13" s="39"/>
-      <c r="DE13" s="39"/>
+      <c r="DA13" s="72"/>
+      <c r="DB13" s="72"/>
+      <c r="DC13" s="72"/>
+      <c r="DD13" s="164"/>
+      <c r="DE13" s="164"/>
       <c r="DF13" s="40"/>
       <c r="DG13" s="40"/>
       <c r="DH13" s="40"/>
@@ -14345,11 +14427,11 @@
       </c>
       <c r="CY14" s="72"/>
       <c r="CZ14" s="72"/>
-      <c r="DA14" s="40"/>
-      <c r="DB14" s="40"/>
-      <c r="DC14" s="40"/>
-      <c r="DD14" s="39"/>
-      <c r="DE14" s="39"/>
+      <c r="DA14" s="72"/>
+      <c r="DB14" s="72"/>
+      <c r="DC14" s="72"/>
+      <c r="DD14" s="164"/>
+      <c r="DE14" s="164"/>
       <c r="DF14" s="40">
         <v>0</v>
       </c>
@@ -14771,11 +14853,11 @@
       </c>
       <c r="CY15" s="72"/>
       <c r="CZ15" s="72"/>
-      <c r="DA15" s="40"/>
-      <c r="DB15" s="40"/>
-      <c r="DC15" s="40"/>
-      <c r="DD15" s="39"/>
-      <c r="DE15" s="39"/>
+      <c r="DA15" s="72"/>
+      <c r="DB15" s="72"/>
+      <c r="DC15" s="72"/>
+      <c r="DD15" s="164"/>
+      <c r="DE15" s="164"/>
       <c r="DF15" s="40">
         <v>794</v>
       </c>
@@ -15099,11 +15181,11 @@
       </c>
       <c r="CY16" s="72"/>
       <c r="CZ16" s="72"/>
-      <c r="DA16" s="40"/>
-      <c r="DB16" s="40"/>
-      <c r="DC16" s="40"/>
-      <c r="DD16" s="39"/>
-      <c r="DE16" s="39"/>
+      <c r="DA16" s="72"/>
+      <c r="DB16" s="72"/>
+      <c r="DC16" s="72"/>
+      <c r="DD16" s="164"/>
+      <c r="DE16" s="164"/>
       <c r="DF16" s="40"/>
       <c r="DG16" s="40"/>
       <c r="DH16" s="40"/>
@@ -15379,11 +15461,11 @@
       </c>
       <c r="CY17" s="72"/>
       <c r="CZ17" s="72"/>
-      <c r="DA17" s="40"/>
-      <c r="DB17" s="40"/>
-      <c r="DC17" s="40"/>
-      <c r="DD17" s="39"/>
-      <c r="DE17" s="39"/>
+      <c r="DA17" s="72"/>
+      <c r="DB17" s="72"/>
+      <c r="DC17" s="72"/>
+      <c r="DD17" s="164"/>
+      <c r="DE17" s="164"/>
       <c r="DF17" s="40"/>
       <c r="DG17" s="40"/>
       <c r="DH17" s="40"/>
@@ -15777,11 +15859,11 @@
       </c>
       <c r="CY18" s="72"/>
       <c r="CZ18" s="72"/>
-      <c r="DA18" s="40"/>
-      <c r="DB18" s="40"/>
-      <c r="DC18" s="40"/>
-      <c r="DD18" s="39"/>
-      <c r="DE18" s="39"/>
+      <c r="DA18" s="72"/>
+      <c r="DB18" s="72"/>
+      <c r="DC18" s="72"/>
+      <c r="DD18" s="164"/>
+      <c r="DE18" s="164"/>
       <c r="DF18" s="40">
         <v>1978</v>
       </c>
@@ -16207,11 +16289,11 @@
       </c>
       <c r="CY19" s="72"/>
       <c r="CZ19" s="72"/>
-      <c r="DA19" s="40"/>
-      <c r="DB19" s="40"/>
-      <c r="DC19" s="40"/>
-      <c r="DD19" s="39"/>
-      <c r="DE19" s="39"/>
+      <c r="DA19" s="72"/>
+      <c r="DB19" s="72"/>
+      <c r="DC19" s="72"/>
+      <c r="DD19" s="164"/>
+      <c r="DE19" s="164"/>
       <c r="DF19" s="40">
         <v>901</v>
       </c>
@@ -16517,11 +16599,11 @@
       </c>
       <c r="CY20" s="72"/>
       <c r="CZ20" s="72"/>
-      <c r="DA20" s="40"/>
-      <c r="DB20" s="40"/>
-      <c r="DC20" s="40"/>
-      <c r="DD20" s="39"/>
-      <c r="DE20" s="39"/>
+      <c r="DA20" s="72"/>
+      <c r="DB20" s="72"/>
+      <c r="DC20" s="72"/>
+      <c r="DD20" s="164"/>
+      <c r="DE20" s="164"/>
       <c r="DF20" s="40"/>
       <c r="DG20" s="40"/>
       <c r="DH20" s="40"/>
@@ -16785,11 +16867,11 @@
       </c>
       <c r="CY21" s="72"/>
       <c r="CZ21" s="72"/>
-      <c r="DA21" s="40"/>
-      <c r="DB21" s="40"/>
-      <c r="DC21" s="40"/>
-      <c r="DD21" s="39"/>
-      <c r="DE21" s="39"/>
+      <c r="DA21" s="72"/>
+      <c r="DB21" s="72"/>
+      <c r="DC21" s="72"/>
+      <c r="DD21" s="164"/>
+      <c r="DE21" s="164"/>
       <c r="DF21" s="40"/>
       <c r="DG21" s="40"/>
       <c r="DH21" s="40"/>
@@ -17053,11 +17135,11 @@
       </c>
       <c r="CY22" s="72"/>
       <c r="CZ22" s="72"/>
-      <c r="DA22" s="40"/>
-      <c r="DB22" s="40"/>
-      <c r="DC22" s="40"/>
-      <c r="DD22" s="39"/>
-      <c r="DE22" s="39"/>
+      <c r="DA22" s="72"/>
+      <c r="DB22" s="72"/>
+      <c r="DC22" s="72"/>
+      <c r="DD22" s="164"/>
+      <c r="DE22" s="164"/>
       <c r="DF22" s="40"/>
       <c r="DG22" s="40"/>
       <c r="DH22" s="40"/>
@@ -17440,11 +17522,11 @@
       </c>
       <c r="CY23" s="72"/>
       <c r="CZ23" s="72"/>
-      <c r="DA23" s="40"/>
-      <c r="DB23" s="40"/>
-      <c r="DC23" s="40"/>
-      <c r="DD23" s="39"/>
-      <c r="DE23" s="39"/>
+      <c r="DA23" s="72"/>
+      <c r="DB23" s="72"/>
+      <c r="DC23" s="72"/>
+      <c r="DD23" s="164"/>
+      <c r="DE23" s="164"/>
       <c r="DF23" s="40">
         <v>812</v>
       </c>
@@ -17875,11 +17957,11 @@
       </c>
       <c r="CY24" s="72"/>
       <c r="CZ24" s="72"/>
-      <c r="DA24" s="40"/>
-      <c r="DB24" s="40"/>
-      <c r="DC24" s="40"/>
-      <c r="DD24" s="39"/>
-      <c r="DE24" s="39"/>
+      <c r="DA24" s="72"/>
+      <c r="DB24" s="72"/>
+      <c r="DC24" s="72"/>
+      <c r="DD24" s="164"/>
+      <c r="DE24" s="164"/>
       <c r="DF24" s="40">
         <v>363</v>
       </c>
@@ -18185,11 +18267,11 @@
       </c>
       <c r="CY25" s="72"/>
       <c r="CZ25" s="72"/>
-      <c r="DA25" s="40"/>
-      <c r="DB25" s="40"/>
-      <c r="DC25" s="40"/>
-      <c r="DD25" s="39"/>
-      <c r="DE25" s="39"/>
+      <c r="DA25" s="72"/>
+      <c r="DB25" s="72"/>
+      <c r="DC25" s="72"/>
+      <c r="DD25" s="164"/>
+      <c r="DE25" s="164"/>
       <c r="DF25" s="40"/>
       <c r="DG25" s="40"/>
       <c r="DH25" s="40"/>
@@ -18463,11 +18545,11 @@
       </c>
       <c r="CY26" s="72"/>
       <c r="CZ26" s="72"/>
-      <c r="DA26" s="40"/>
-      <c r="DB26" s="40"/>
-      <c r="DC26" s="40"/>
-      <c r="DD26" s="39"/>
-      <c r="DE26" s="39"/>
+      <c r="DA26" s="72"/>
+      <c r="DB26" s="72"/>
+      <c r="DC26" s="72"/>
+      <c r="DD26" s="164"/>
+      <c r="DE26" s="164"/>
       <c r="DF26" s="40"/>
       <c r="DG26" s="40"/>
       <c r="DH26" s="40"/>
@@ -18741,11 +18823,11 @@
       </c>
       <c r="CY27" s="72"/>
       <c r="CZ27" s="72"/>
-      <c r="DA27" s="40"/>
-      <c r="DB27" s="40"/>
-      <c r="DC27" s="40"/>
-      <c r="DD27" s="39"/>
-      <c r="DE27" s="39"/>
+      <c r="DA27" s="72"/>
+      <c r="DB27" s="72"/>
+      <c r="DC27" s="72"/>
+      <c r="DD27" s="164"/>
+      <c r="DE27" s="164"/>
       <c r="DF27" s="40"/>
       <c r="DG27" s="40"/>
       <c r="DH27" s="40"/>
@@ -19007,13 +19089,13 @@
         <f t="shared" si="62"/>
         <v>249.9</v>
       </c>
-      <c r="CY28" s="75"/>
-      <c r="CZ28" s="75"/>
-      <c r="DA28" s="69"/>
-      <c r="DB28" s="69"/>
-      <c r="DC28" s="69"/>
-      <c r="DD28" s="69"/>
-      <c r="DE28" s="69"/>
+      <c r="CY28" s="165"/>
+      <c r="CZ28" s="165"/>
+      <c r="DA28" s="165"/>
+      <c r="DB28" s="165"/>
+      <c r="DC28" s="165"/>
+      <c r="DD28" s="165"/>
+      <c r="DE28" s="165"/>
       <c r="DF28" s="71"/>
       <c r="DG28" s="71"/>
       <c r="DH28" s="71"/>
@@ -19405,11 +19487,11 @@
       </c>
       <c r="CY29" s="72"/>
       <c r="CZ29" s="72"/>
-      <c r="DA29" s="40"/>
-      <c r="DB29" s="40"/>
-      <c r="DC29" s="40"/>
-      <c r="DD29" s="40"/>
-      <c r="DE29" s="40"/>
+      <c r="DA29" s="72"/>
+      <c r="DB29" s="72"/>
+      <c r="DC29" s="72"/>
+      <c r="DD29" s="72"/>
+      <c r="DE29" s="72"/>
       <c r="DF29" s="40">
         <v>18</v>
       </c>
@@ -19645,11 +19727,11 @@
       <c r="CX30" s="72"/>
       <c r="CY30" s="72"/>
       <c r="CZ30" s="72"/>
-      <c r="DA30" s="40"/>
-      <c r="DB30" s="40"/>
-      <c r="DC30" s="40"/>
-      <c r="DD30" s="40"/>
-      <c r="DE30" s="40"/>
+      <c r="DA30" s="72"/>
+      <c r="DB30" s="72"/>
+      <c r="DC30" s="72"/>
+      <c r="DD30" s="72"/>
+      <c r="DE30" s="72"/>
       <c r="DF30" s="40"/>
       <c r="DG30" s="40"/>
       <c r="DH30" s="40"/>
@@ -19872,11 +19954,11 @@
       <c r="CX31" s="72"/>
       <c r="CY31" s="72"/>
       <c r="CZ31" s="72"/>
-      <c r="DA31" s="40"/>
-      <c r="DB31" s="40"/>
-      <c r="DC31" s="40"/>
-      <c r="DD31" s="39"/>
-      <c r="DE31" s="39"/>
+      <c r="DA31" s="72"/>
+      <c r="DB31" s="72"/>
+      <c r="DC31" s="72"/>
+      <c r="DD31" s="164"/>
+      <c r="DE31" s="164"/>
       <c r="DF31" s="40"/>
       <c r="DG31" s="40"/>
       <c r="DH31" s="40"/>
@@ -20131,11 +20213,11 @@
       <c r="CX32" s="72"/>
       <c r="CY32" s="72"/>
       <c r="CZ32" s="72"/>
-      <c r="DA32" s="40"/>
-      <c r="DB32" s="40"/>
-      <c r="DC32" s="40"/>
-      <c r="DD32" s="39"/>
-      <c r="DE32" s="39"/>
+      <c r="DA32" s="72"/>
+      <c r="DB32" s="72"/>
+      <c r="DC32" s="72"/>
+      <c r="DD32" s="164"/>
+      <c r="DE32" s="164"/>
       <c r="DF32" s="40"/>
       <c r="DG32" s="40"/>
       <c r="DH32" s="40"/>
@@ -20411,11 +20493,11 @@
       </c>
       <c r="CY33" s="72"/>
       <c r="CZ33" s="72"/>
-      <c r="DA33" s="40"/>
-      <c r="DB33" s="40"/>
-      <c r="DC33" s="40"/>
-      <c r="DD33" s="39"/>
-      <c r="DE33" s="39"/>
+      <c r="DA33" s="72"/>
+      <c r="DB33" s="72"/>
+      <c r="DC33" s="72"/>
+      <c r="DD33" s="164"/>
+      <c r="DE33" s="164"/>
       <c r="DF33" s="40"/>
       <c r="DG33" s="40"/>
       <c r="DH33" s="40"/>
@@ -20662,17 +20744,19 @@
       <c r="CT34" s="72">
         <v>42</v>
       </c>
-      <c r="CU34" s="72"/>
+      <c r="CU34" s="72">
+        <v>39</v>
+      </c>
       <c r="CV34" s="72"/>
       <c r="CW34" s="72"/>
       <c r="CX34" s="72"/>
       <c r="CY34" s="72"/>
       <c r="CZ34" s="72"/>
-      <c r="DA34" s="40"/>
-      <c r="DB34" s="40"/>
-      <c r="DC34" s="40"/>
-      <c r="DD34" s="39"/>
-      <c r="DE34" s="39"/>
+      <c r="DA34" s="72"/>
+      <c r="DB34" s="72"/>
+      <c r="DC34" s="72"/>
+      <c r="DD34" s="164"/>
+      <c r="DE34" s="164"/>
       <c r="DF34" s="40"/>
       <c r="DG34" s="40"/>
       <c r="DH34" s="40"/>
@@ -20865,11 +20949,11 @@
       <c r="CX35" s="72"/>
       <c r="CY35" s="72"/>
       <c r="CZ35" s="72"/>
-      <c r="DA35" s="40"/>
-      <c r="DB35" s="40"/>
-      <c r="DC35" s="40"/>
-      <c r="DD35" s="39"/>
-      <c r="DE35" s="39"/>
+      <c r="DA35" s="72"/>
+      <c r="DB35" s="72"/>
+      <c r="DC35" s="72"/>
+      <c r="DD35" s="164"/>
+      <c r="DE35" s="164"/>
       <c r="DF35" s="40"/>
       <c r="DG35" s="40"/>
       <c r="DH35" s="40"/>
@@ -21043,11 +21127,11 @@
       <c r="CX36" s="72"/>
       <c r="CY36" s="72"/>
       <c r="CZ36" s="72"/>
-      <c r="DA36" s="40"/>
-      <c r="DB36" s="40"/>
-      <c r="DC36" s="40"/>
-      <c r="DD36" s="39"/>
-      <c r="DE36" s="39"/>
+      <c r="DA36" s="72"/>
+      <c r="DB36" s="72"/>
+      <c r="DC36" s="72"/>
+      <c r="DD36" s="164"/>
+      <c r="DE36" s="164"/>
       <c r="DF36" s="40"/>
       <c r="DG36" s="40"/>
       <c r="DH36" s="40"/>
@@ -21221,11 +21305,11 @@
       <c r="CX37" s="72"/>
       <c r="CY37" s="72"/>
       <c r="CZ37" s="72"/>
-      <c r="DA37" s="40"/>
-      <c r="DB37" s="40"/>
-      <c r="DC37" s="40"/>
-      <c r="DD37" s="39"/>
-      <c r="DE37" s="39"/>
+      <c r="DA37" s="72"/>
+      <c r="DB37" s="72"/>
+      <c r="DC37" s="72"/>
+      <c r="DD37" s="164"/>
+      <c r="DE37" s="164"/>
       <c r="DF37" s="40"/>
       <c r="DG37" s="40"/>
       <c r="DH37" s="40"/>
@@ -21399,11 +21483,11 @@
       <c r="CX38" s="72"/>
       <c r="CY38" s="72"/>
       <c r="CZ38" s="72"/>
-      <c r="DA38" s="40"/>
-      <c r="DB38" s="40"/>
-      <c r="DC38" s="40"/>
-      <c r="DD38" s="39"/>
-      <c r="DE38" s="39"/>
+      <c r="DA38" s="72"/>
+      <c r="DB38" s="72"/>
+      <c r="DC38" s="72"/>
+      <c r="DD38" s="164"/>
+      <c r="DE38" s="164"/>
       <c r="DF38" s="40"/>
       <c r="DG38" s="40"/>
       <c r="DH38" s="40"/>
@@ -21577,11 +21661,11 @@
       <c r="CX39" s="72"/>
       <c r="CY39" s="72"/>
       <c r="CZ39" s="72"/>
-      <c r="DA39" s="40"/>
-      <c r="DB39" s="40"/>
-      <c r="DC39" s="40"/>
-      <c r="DD39" s="39"/>
-      <c r="DE39" s="39"/>
+      <c r="DA39" s="72"/>
+      <c r="DB39" s="72"/>
+      <c r="DC39" s="72"/>
+      <c r="DD39" s="164"/>
+      <c r="DE39" s="164"/>
       <c r="DF39" s="40"/>
       <c r="DG39" s="40"/>
       <c r="DH39" s="40"/>
@@ -21755,11 +21839,11 @@
       <c r="CX40" s="72"/>
       <c r="CY40" s="72"/>
       <c r="CZ40" s="72"/>
-      <c r="DA40" s="40"/>
-      <c r="DB40" s="40"/>
-      <c r="DC40" s="40"/>
-      <c r="DD40" s="39"/>
-      <c r="DE40" s="39"/>
+      <c r="DA40" s="72"/>
+      <c r="DB40" s="72"/>
+      <c r="DC40" s="72"/>
+      <c r="DD40" s="164"/>
+      <c r="DE40" s="164"/>
       <c r="DF40" s="40"/>
       <c r="DG40" s="40"/>
       <c r="DH40" s="40"/>
@@ -21981,13 +22065,13 @@
       <c r="CV41" s="134"/>
       <c r="CW41" s="134"/>
       <c r="CX41" s="134"/>
-      <c r="CY41" s="75"/>
-      <c r="CZ41" s="75"/>
-      <c r="DA41" s="69"/>
-      <c r="DB41" s="69"/>
-      <c r="DC41" s="69"/>
-      <c r="DD41" s="69"/>
-      <c r="DE41" s="69"/>
+      <c r="CY41" s="165"/>
+      <c r="CZ41" s="165"/>
+      <c r="DA41" s="165"/>
+      <c r="DB41" s="165"/>
+      <c r="DC41" s="165"/>
+      <c r="DD41" s="165"/>
+      <c r="DE41" s="165"/>
       <c r="DF41" s="71"/>
       <c r="DG41" s="71"/>
       <c r="DH41" s="71"/>
@@ -22330,11 +22414,11 @@
       <c r="CX42" s="135"/>
       <c r="CY42" s="72"/>
       <c r="CZ42" s="72"/>
-      <c r="DA42" s="40"/>
-      <c r="DB42" s="40"/>
-      <c r="DC42" s="40"/>
-      <c r="DD42" s="39"/>
-      <c r="DE42" s="39"/>
+      <c r="DA42" s="72"/>
+      <c r="DB42" s="72"/>
+      <c r="DC42" s="72"/>
+      <c r="DD42" s="164"/>
+      <c r="DE42" s="164"/>
       <c r="DF42" s="40">
         <v>67</v>
       </c>
@@ -22694,11 +22778,11 @@
       <c r="CX43" s="135"/>
       <c r="CY43" s="72"/>
       <c r="CZ43" s="72"/>
-      <c r="DA43" s="40"/>
-      <c r="DB43" s="40"/>
-      <c r="DC43" s="40"/>
-      <c r="DD43" s="39"/>
-      <c r="DE43" s="39"/>
+      <c r="DA43" s="72"/>
+      <c r="DB43" s="72"/>
+      <c r="DC43" s="72"/>
+      <c r="DD43" s="164"/>
+      <c r="DE43" s="164"/>
       <c r="DF43" s="40">
         <v>331</v>
       </c>
@@ -23058,11 +23142,11 @@
       <c r="CX44" s="135"/>
       <c r="CY44" s="72"/>
       <c r="CZ44" s="72"/>
-      <c r="DA44" s="40"/>
-      <c r="DB44" s="40"/>
-      <c r="DC44" s="40"/>
-      <c r="DD44" s="39"/>
-      <c r="DE44" s="39"/>
+      <c r="DA44" s="72"/>
+      <c r="DB44" s="72"/>
+      <c r="DC44" s="72"/>
+      <c r="DD44" s="164"/>
+      <c r="DE44" s="164"/>
       <c r="DF44" s="40">
         <v>644</v>
       </c>
@@ -23305,11 +23389,11 @@
       <c r="CX45" s="135"/>
       <c r="CY45" s="72"/>
       <c r="CZ45" s="72"/>
-      <c r="DA45" s="40"/>
-      <c r="DB45" s="40"/>
-      <c r="DC45" s="40"/>
-      <c r="DD45" s="39"/>
-      <c r="DE45" s="39"/>
+      <c r="DA45" s="72"/>
+      <c r="DB45" s="72"/>
+      <c r="DC45" s="72"/>
+      <c r="DD45" s="164"/>
+      <c r="DE45" s="164"/>
       <c r="DF45" s="40"/>
       <c r="DG45" s="40"/>
       <c r="DH45" s="40"/>
@@ -23614,11 +23698,11 @@
       <c r="CX46" s="135"/>
       <c r="CY46" s="72"/>
       <c r="CZ46" s="72"/>
-      <c r="DA46" s="40"/>
-      <c r="DB46" s="40"/>
-      <c r="DC46" s="40"/>
-      <c r="DD46" s="39"/>
-      <c r="DE46" s="39"/>
+      <c r="DA46" s="72"/>
+      <c r="DB46" s="72"/>
+      <c r="DC46" s="72"/>
+      <c r="DD46" s="164"/>
+      <c r="DE46" s="164"/>
       <c r="DF46" s="40">
         <v>35</v>
       </c>
@@ -23837,13 +23921,13 @@
       <c r="CV47" s="134"/>
       <c r="CW47" s="134"/>
       <c r="CX47" s="134"/>
-      <c r="CY47" s="75"/>
-      <c r="CZ47" s="75"/>
-      <c r="DA47" s="69"/>
-      <c r="DB47" s="69"/>
-      <c r="DC47" s="69"/>
-      <c r="DD47" s="69"/>
-      <c r="DE47" s="69"/>
+      <c r="CY47" s="165"/>
+      <c r="CZ47" s="165"/>
+      <c r="DA47" s="165"/>
+      <c r="DB47" s="165"/>
+      <c r="DC47" s="165"/>
+      <c r="DD47" s="165"/>
+      <c r="DE47" s="165"/>
       <c r="DF47" s="71"/>
       <c r="DG47" s="71"/>
       <c r="DH47" s="71"/>
@@ -24090,11 +24174,11 @@
       <c r="CX48" s="135"/>
       <c r="CY48" s="72"/>
       <c r="CZ48" s="72"/>
-      <c r="DA48" s="40"/>
-      <c r="DB48" s="40"/>
-      <c r="DC48" s="40"/>
-      <c r="DD48" s="39"/>
-      <c r="DE48" s="39"/>
+      <c r="DA48" s="72"/>
+      <c r="DB48" s="72"/>
+      <c r="DC48" s="72"/>
+      <c r="DD48" s="164"/>
+      <c r="DE48" s="164"/>
       <c r="DF48" s="40"/>
       <c r="DG48" s="40"/>
       <c r="DH48" s="40"/>
@@ -24323,11 +24407,11 @@
       <c r="CX49" s="135"/>
       <c r="CY49" s="72"/>
       <c r="CZ49" s="72"/>
-      <c r="DA49" s="40"/>
-      <c r="DB49" s="40"/>
-      <c r="DC49" s="40"/>
-      <c r="DD49" s="39"/>
-      <c r="DE49" s="39"/>
+      <c r="DA49" s="72"/>
+      <c r="DB49" s="72"/>
+      <c r="DC49" s="72"/>
+      <c r="DD49" s="164"/>
+      <c r="DE49" s="164"/>
       <c r="DF49" s="40"/>
       <c r="DG49" s="40"/>
       <c r="DH49" s="40"/>
@@ -24587,11 +24671,11 @@
       <c r="CX50" s="135"/>
       <c r="CY50" s="72"/>
       <c r="CZ50" s="72"/>
-      <c r="DA50" s="40"/>
-      <c r="DB50" s="40"/>
-      <c r="DC50" s="40"/>
-      <c r="DD50" s="39"/>
-      <c r="DE50" s="39"/>
+      <c r="DA50" s="72"/>
+      <c r="DB50" s="72"/>
+      <c r="DC50" s="72"/>
+      <c r="DD50" s="164"/>
+      <c r="DE50" s="164"/>
       <c r="DF50" s="40"/>
       <c r="DG50" s="40"/>
       <c r="DH50" s="40"/>
@@ -24789,13 +24873,13 @@
         <f>+CW51+4</f>
         <v>40</v>
       </c>
-      <c r="CY51" s="75"/>
-      <c r="CZ51" s="75"/>
-      <c r="DA51" s="69"/>
-      <c r="DB51" s="69"/>
-      <c r="DC51" s="69"/>
-      <c r="DD51" s="69"/>
-      <c r="DE51" s="69"/>
+      <c r="CY51" s="165"/>
+      <c r="CZ51" s="165"/>
+      <c r="DA51" s="165"/>
+      <c r="DB51" s="165"/>
+      <c r="DC51" s="165"/>
+      <c r="DD51" s="165"/>
+      <c r="DE51" s="165"/>
       <c r="DF51" s="71"/>
       <c r="DG51" s="71"/>
       <c r="DH51" s="71"/>
@@ -25034,13 +25118,13 @@
       <c r="CV52" s="75"/>
       <c r="CW52" s="75"/>
       <c r="CX52" s="75"/>
-      <c r="CY52" s="75"/>
-      <c r="CZ52" s="75"/>
-      <c r="DA52" s="69"/>
-      <c r="DB52" s="69"/>
-      <c r="DC52" s="69"/>
-      <c r="DD52" s="69"/>
-      <c r="DE52" s="69"/>
+      <c r="CY52" s="165"/>
+      <c r="CZ52" s="165"/>
+      <c r="DA52" s="165"/>
+      <c r="DB52" s="165"/>
+      <c r="DC52" s="165"/>
+      <c r="DD52" s="165"/>
+      <c r="DE52" s="165"/>
       <c r="DF52" s="71"/>
       <c r="DG52" s="71"/>
       <c r="DH52" s="71"/>
@@ -25375,11 +25459,11 @@
       </c>
       <c r="CY53" s="72"/>
       <c r="CZ53" s="72"/>
-      <c r="DA53" s="40"/>
-      <c r="DB53" s="40"/>
-      <c r="DC53" s="40"/>
-      <c r="DD53" s="39"/>
-      <c r="DE53" s="39"/>
+      <c r="DA53" s="72"/>
+      <c r="DB53" s="72"/>
+      <c r="DC53" s="72"/>
+      <c r="DD53" s="164"/>
+      <c r="DE53" s="164"/>
       <c r="DF53" s="40"/>
       <c r="DG53" s="40"/>
       <c r="DH53" s="40"/>
@@ -25626,11 +25710,11 @@
       <c r="CX54" s="135"/>
       <c r="CY54" s="72"/>
       <c r="CZ54" s="72"/>
-      <c r="DA54" s="40"/>
-      <c r="DB54" s="40"/>
-      <c r="DC54" s="40"/>
-      <c r="DD54" s="39"/>
-      <c r="DE54" s="39"/>
+      <c r="DA54" s="72"/>
+      <c r="DB54" s="72"/>
+      <c r="DC54" s="72"/>
+      <c r="DD54" s="164"/>
+      <c r="DE54" s="164"/>
       <c r="DF54" s="40"/>
       <c r="DG54" s="40"/>
       <c r="DH54" s="40"/>
@@ -25805,11 +25889,11 @@
       <c r="CX55" s="135"/>
       <c r="CY55" s="72"/>
       <c r="CZ55" s="72"/>
-      <c r="DA55" s="40"/>
-      <c r="DB55" s="40"/>
-      <c r="DC55" s="40"/>
-      <c r="DD55" s="39"/>
-      <c r="DE55" s="39"/>
+      <c r="DA55" s="72"/>
+      <c r="DB55" s="72"/>
+      <c r="DC55" s="72"/>
+      <c r="DD55" s="164"/>
+      <c r="DE55" s="164"/>
       <c r="DF55" s="40"/>
       <c r="DG55" s="40"/>
       <c r="DH55" s="40"/>
@@ -26138,11 +26222,11 @@
       </c>
       <c r="CY56" s="72"/>
       <c r="CZ56" s="72"/>
-      <c r="DA56" s="40"/>
-      <c r="DB56" s="40"/>
-      <c r="DC56" s="40"/>
-      <c r="DD56" s="39"/>
-      <c r="DE56" s="39"/>
+      <c r="DA56" s="72"/>
+      <c r="DB56" s="72"/>
+      <c r="DC56" s="72"/>
+      <c r="DD56" s="164"/>
+      <c r="DE56" s="164"/>
       <c r="DF56" s="40">
         <v>63</v>
       </c>
@@ -26515,11 +26599,11 @@
       </c>
       <c r="CY57" s="72"/>
       <c r="CZ57" s="72"/>
-      <c r="DA57" s="40"/>
-      <c r="DB57" s="40"/>
-      <c r="DC57" s="40"/>
-      <c r="DD57" s="39"/>
-      <c r="DE57" s="39"/>
+      <c r="DA57" s="72"/>
+      <c r="DB57" s="72"/>
+      <c r="DC57" s="72"/>
+      <c r="DD57" s="164"/>
+      <c r="DE57" s="164"/>
       <c r="DF57" s="40"/>
       <c r="DG57" s="40"/>
       <c r="DH57" s="40"/>
@@ -26927,11 +27011,11 @@
       </c>
       <c r="CY58" s="72"/>
       <c r="CZ58" s="72"/>
-      <c r="DA58" s="40"/>
-      <c r="DB58" s="40"/>
-      <c r="DC58" s="40"/>
-      <c r="DD58" s="39"/>
-      <c r="DE58" s="39"/>
+      <c r="DA58" s="72"/>
+      <c r="DB58" s="72"/>
+      <c r="DC58" s="72"/>
+      <c r="DD58" s="164"/>
+      <c r="DE58" s="164"/>
       <c r="DF58" s="40">
         <v>144</v>
       </c>
@@ -27202,11 +27286,11 @@
       <c r="CX59" s="72"/>
       <c r="CY59" s="72"/>
       <c r="CZ59" s="72"/>
-      <c r="DA59" s="40"/>
-      <c r="DB59" s="40"/>
-      <c r="DC59" s="40"/>
-      <c r="DD59" s="39"/>
-      <c r="DE59" s="39"/>
+      <c r="DA59" s="72"/>
+      <c r="DB59" s="72"/>
+      <c r="DC59" s="72"/>
+      <c r="DD59" s="164"/>
+      <c r="DE59" s="164"/>
       <c r="DF59" s="40"/>
       <c r="DG59" s="40"/>
       <c r="DH59" s="40"/>
@@ -27525,11 +27609,11 @@
       <c r="CX60" s="72"/>
       <c r="CY60" s="72"/>
       <c r="CZ60" s="72"/>
-      <c r="DA60" s="40"/>
-      <c r="DB60" s="40"/>
-      <c r="DC60" s="40"/>
-      <c r="DD60" s="39"/>
-      <c r="DE60" s="39"/>
+      <c r="DA60" s="72"/>
+      <c r="DB60" s="72"/>
+      <c r="DC60" s="72"/>
+      <c r="DD60" s="164"/>
+      <c r="DE60" s="164"/>
       <c r="DF60" s="40">
         <v>4623</v>
       </c>
@@ -27786,11 +27870,11 @@
       <c r="CX61" s="72"/>
       <c r="CY61" s="72"/>
       <c r="CZ61" s="72"/>
-      <c r="DA61" s="40"/>
-      <c r="DB61" s="40"/>
-      <c r="DC61" s="40"/>
-      <c r="DD61" s="39"/>
-      <c r="DE61" s="39"/>
+      <c r="DA61" s="72"/>
+      <c r="DB61" s="72"/>
+      <c r="DC61" s="72"/>
+      <c r="DD61" s="164"/>
+      <c r="DE61" s="164"/>
       <c r="DF61" s="40"/>
       <c r="DG61" s="40"/>
       <c r="DH61" s="40"/>
@@ -28113,11 +28197,11 @@
       <c r="CX62" s="72"/>
       <c r="CY62" s="72"/>
       <c r="CZ62" s="72"/>
-      <c r="DA62" s="40"/>
-      <c r="DB62" s="40"/>
-      <c r="DC62" s="40"/>
-      <c r="DD62" s="39"/>
-      <c r="DE62" s="39"/>
+      <c r="DA62" s="72"/>
+      <c r="DB62" s="72"/>
+      <c r="DC62" s="72"/>
+      <c r="DD62" s="164"/>
+      <c r="DE62" s="164"/>
       <c r="DF62" s="40">
         <v>569</v>
       </c>
@@ -28475,11 +28559,11 @@
       <c r="CX63" s="72"/>
       <c r="CY63" s="72"/>
       <c r="CZ63" s="72"/>
-      <c r="DA63" s="40"/>
-      <c r="DB63" s="40"/>
-      <c r="DC63" s="40"/>
-      <c r="DD63" s="39"/>
-      <c r="DE63" s="39"/>
+      <c r="DA63" s="72"/>
+      <c r="DB63" s="72"/>
+      <c r="DC63" s="72"/>
+      <c r="DD63" s="164"/>
+      <c r="DE63" s="164"/>
       <c r="DF63" s="40">
         <v>1145</v>
       </c>
@@ -28695,11 +28779,11 @@
       <c r="CX64" s="72"/>
       <c r="CY64" s="72"/>
       <c r="CZ64" s="72"/>
-      <c r="DA64" s="40"/>
-      <c r="DB64" s="40"/>
-      <c r="DC64" s="40"/>
-      <c r="DD64" s="39"/>
-      <c r="DE64" s="39"/>
+      <c r="DA64" s="72"/>
+      <c r="DB64" s="72"/>
+      <c r="DC64" s="72"/>
+      <c r="DD64" s="164"/>
+      <c r="DE64" s="164"/>
       <c r="DF64" s="40"/>
       <c r="DG64" s="40"/>
       <c r="DH64" s="40"/>
@@ -28857,11 +28941,11 @@
       <c r="CX65" s="72"/>
       <c r="CY65" s="72"/>
       <c r="CZ65" s="72"/>
-      <c r="DA65" s="40"/>
-      <c r="DB65" s="40"/>
-      <c r="DC65" s="40"/>
-      <c r="DD65" s="39"/>
-      <c r="DE65" s="39"/>
+      <c r="DA65" s="72"/>
+      <c r="DB65" s="72"/>
+      <c r="DC65" s="72"/>
+      <c r="DD65" s="164"/>
+      <c r="DE65" s="164"/>
       <c r="DF65" s="40"/>
       <c r="DG65" s="40"/>
       <c r="DH65" s="40"/>
@@ -29007,11 +29091,11 @@
       <c r="CX66" s="72"/>
       <c r="CY66" s="72"/>
       <c r="CZ66" s="72"/>
-      <c r="DA66" s="40"/>
-      <c r="DB66" s="40"/>
-      <c r="DC66" s="40"/>
-      <c r="DD66" s="39"/>
-      <c r="DE66" s="39"/>
+      <c r="DA66" s="72"/>
+      <c r="DB66" s="72"/>
+      <c r="DC66" s="72"/>
+      <c r="DD66" s="164"/>
+      <c r="DE66" s="164"/>
       <c r="DF66" s="40"/>
       <c r="DG66" s="40"/>
       <c r="DH66" s="40"/>
@@ -29246,11 +29330,11 @@
       <c r="CX67" s="72"/>
       <c r="CY67" s="72"/>
       <c r="CZ67" s="72"/>
-      <c r="DA67" s="40"/>
-      <c r="DB67" s="40"/>
-      <c r="DC67" s="40"/>
-      <c r="DD67" s="39"/>
-      <c r="DE67" s="39"/>
+      <c r="DA67" s="72"/>
+      <c r="DB67" s="72"/>
+      <c r="DC67" s="72"/>
+      <c r="DD67" s="164"/>
+      <c r="DE67" s="164"/>
       <c r="DF67" s="40">
         <v>328</v>
       </c>
@@ -29511,11 +29595,11 @@
       <c r="CX68" s="72"/>
       <c r="CY68" s="72"/>
       <c r="CZ68" s="72"/>
-      <c r="DA68" s="40"/>
-      <c r="DB68" s="40"/>
-      <c r="DC68" s="40"/>
-      <c r="DD68" s="39"/>
-      <c r="DE68" s="39"/>
+      <c r="DA68" s="72"/>
+      <c r="DB68" s="72"/>
+      <c r="DC68" s="72"/>
+      <c r="DD68" s="164"/>
+      <c r="DE68" s="164"/>
       <c r="DF68" s="40">
         <v>285</v>
       </c>
@@ -29756,11 +29840,11 @@
       <c r="CX69" s="72"/>
       <c r="CY69" s="72"/>
       <c r="CZ69" s="72"/>
-      <c r="DA69" s="40"/>
-      <c r="DB69" s="40"/>
-      <c r="DC69" s="40"/>
-      <c r="DD69" s="39"/>
-      <c r="DE69" s="39"/>
+      <c r="DA69" s="72"/>
+      <c r="DB69" s="72"/>
+      <c r="DC69" s="72"/>
+      <c r="DD69" s="164"/>
+      <c r="DE69" s="164"/>
       <c r="DF69" s="40"/>
       <c r="DG69" s="40">
         <v>73</v>
@@ -30017,11 +30101,11 @@
       <c r="CX70" s="72"/>
       <c r="CY70" s="72"/>
       <c r="CZ70" s="72"/>
-      <c r="DA70" s="40"/>
-      <c r="DB70" s="40"/>
-      <c r="DC70" s="40"/>
-      <c r="DD70" s="39"/>
-      <c r="DE70" s="39"/>
+      <c r="DA70" s="72"/>
+      <c r="DB70" s="72"/>
+      <c r="DC70" s="72"/>
+      <c r="DD70" s="164"/>
+      <c r="DE70" s="164"/>
       <c r="DF70" s="40">
         <v>299</v>
       </c>
@@ -30278,11 +30362,11 @@
       <c r="CX71" s="72"/>
       <c r="CY71" s="72"/>
       <c r="CZ71" s="72"/>
-      <c r="DA71" s="40"/>
-      <c r="DB71" s="40"/>
-      <c r="DC71" s="40"/>
-      <c r="DD71" s="39"/>
-      <c r="DE71" s="39"/>
+      <c r="DA71" s="72"/>
+      <c r="DB71" s="72"/>
+      <c r="DC71" s="72"/>
+      <c r="DD71" s="164"/>
+      <c r="DE71" s="164"/>
       <c r="DF71" s="40">
         <v>877</v>
       </c>
@@ -30541,11 +30625,11 @@
       <c r="CX72" s="72"/>
       <c r="CY72" s="72"/>
       <c r="CZ72" s="72"/>
-      <c r="DA72" s="40"/>
-      <c r="DB72" s="40"/>
-      <c r="DC72" s="40"/>
-      <c r="DD72" s="39"/>
-      <c r="DE72" s="39"/>
+      <c r="DA72" s="72"/>
+      <c r="DB72" s="72"/>
+      <c r="DC72" s="72"/>
+      <c r="DD72" s="164"/>
+      <c r="DE72" s="164"/>
       <c r="DF72" s="40">
         <v>489</v>
       </c>
@@ -30802,11 +30886,11 @@
       <c r="CX73" s="72"/>
       <c r="CY73" s="72"/>
       <c r="CZ73" s="72"/>
-      <c r="DA73" s="40"/>
-      <c r="DB73" s="40"/>
-      <c r="DC73" s="40"/>
-      <c r="DD73" s="39"/>
-      <c r="DE73" s="39"/>
+      <c r="DA73" s="72"/>
+      <c r="DB73" s="72"/>
+      <c r="DC73" s="72"/>
+      <c r="DD73" s="164"/>
+      <c r="DE73" s="164"/>
       <c r="DF73" s="40">
         <v>370</v>
       </c>
@@ -31043,11 +31127,11 @@
       <c r="CX74" s="72"/>
       <c r="CY74" s="72"/>
       <c r="CZ74" s="72"/>
-      <c r="DA74" s="40"/>
-      <c r="DB74" s="40"/>
-      <c r="DC74" s="40"/>
-      <c r="DD74" s="39"/>
-      <c r="DE74" s="39"/>
+      <c r="DA74" s="72"/>
+      <c r="DB74" s="72"/>
+      <c r="DC74" s="72"/>
+      <c r="DD74" s="164"/>
+      <c r="DE74" s="164"/>
       <c r="DF74" s="40"/>
       <c r="DG74" s="40">
         <v>458</v>
@@ -31288,11 +31372,11 @@
       <c r="CX75" s="72"/>
       <c r="CY75" s="72"/>
       <c r="CZ75" s="72"/>
-      <c r="DA75" s="40"/>
-      <c r="DB75" s="40"/>
-      <c r="DC75" s="40"/>
-      <c r="DD75" s="39"/>
-      <c r="DE75" s="39"/>
+      <c r="DA75" s="72"/>
+      <c r="DB75" s="72"/>
+      <c r="DC75" s="72"/>
+      <c r="DD75" s="164"/>
+      <c r="DE75" s="164"/>
       <c r="DF75" s="40"/>
       <c r="DG75" s="40">
         <v>466</v>
@@ -31549,11 +31633,11 @@
       <c r="CX76" s="72"/>
       <c r="CY76" s="72"/>
       <c r="CZ76" s="72"/>
-      <c r="DA76" s="40"/>
-      <c r="DB76" s="40"/>
-      <c r="DC76" s="40"/>
-      <c r="DD76" s="39"/>
-      <c r="DE76" s="39"/>
+      <c r="DA76" s="72"/>
+      <c r="DB76" s="72"/>
+      <c r="DC76" s="72"/>
+      <c r="DD76" s="164"/>
+      <c r="DE76" s="164"/>
       <c r="DF76" s="40">
         <v>690</v>
       </c>
@@ -31743,11 +31827,11 @@
       <c r="CX77" s="72"/>
       <c r="CY77" s="72"/>
       <c r="CZ77" s="72"/>
-      <c r="DA77" s="40"/>
-      <c r="DB77" s="40"/>
-      <c r="DC77" s="40"/>
-      <c r="DD77" s="39"/>
-      <c r="DE77" s="39"/>
+      <c r="DA77" s="72"/>
+      <c r="DB77" s="72"/>
+      <c r="DC77" s="72"/>
+      <c r="DD77" s="164"/>
+      <c r="DE77" s="164"/>
       <c r="DF77" s="40"/>
       <c r="DG77" s="40"/>
       <c r="DH77" s="40"/>
@@ -31906,11 +31990,11 @@
       <c r="CX78" s="72"/>
       <c r="CY78" s="72"/>
       <c r="CZ78" s="72"/>
-      <c r="DA78" s="40"/>
-      <c r="DB78" s="40"/>
-      <c r="DC78" s="40"/>
-      <c r="DD78" s="39"/>
-      <c r="DE78" s="39"/>
+      <c r="DA78" s="72"/>
+      <c r="DB78" s="72"/>
+      <c r="DC78" s="72"/>
+      <c r="DD78" s="164"/>
+      <c r="DE78" s="164"/>
       <c r="DF78" s="40"/>
       <c r="DG78" s="40"/>
       <c r="DH78" s="40"/>
@@ -32126,11 +32210,11 @@
       <c r="CX79" s="72"/>
       <c r="CY79" s="72"/>
       <c r="CZ79" s="72"/>
-      <c r="DA79" s="40"/>
-      <c r="DB79" s="40"/>
-      <c r="DC79" s="40"/>
-      <c r="DD79" s="39"/>
-      <c r="DE79" s="39"/>
+      <c r="DA79" s="72"/>
+      <c r="DB79" s="72"/>
+      <c r="DC79" s="72"/>
+      <c r="DD79" s="164"/>
+      <c r="DE79" s="164"/>
       <c r="DF79" s="40">
         <v>144</v>
       </c>
@@ -32361,11 +32445,11 @@
       <c r="CX80" s="72"/>
       <c r="CY80" s="72"/>
       <c r="CZ80" s="72"/>
-      <c r="DA80" s="40"/>
-      <c r="DB80" s="40"/>
-      <c r="DC80" s="40"/>
-      <c r="DD80" s="39"/>
-      <c r="DE80" s="39"/>
+      <c r="DA80" s="72"/>
+      <c r="DB80" s="72"/>
+      <c r="DC80" s="72"/>
+      <c r="DD80" s="164"/>
+      <c r="DE80" s="164"/>
       <c r="DF80" s="40">
         <v>120</v>
       </c>
@@ -32546,11 +32630,11 @@
       <c r="CX81" s="72"/>
       <c r="CY81" s="72"/>
       <c r="CZ81" s="72"/>
-      <c r="DA81" s="40"/>
-      <c r="DB81" s="40"/>
-      <c r="DC81" s="40"/>
-      <c r="DD81" s="39"/>
-      <c r="DE81" s="39"/>
+      <c r="DA81" s="72"/>
+      <c r="DB81" s="72"/>
+      <c r="DC81" s="72"/>
+      <c r="DD81" s="164"/>
+      <c r="DE81" s="164"/>
       <c r="DF81" s="40"/>
       <c r="DG81" s="40"/>
       <c r="DH81" s="40"/>
@@ -32762,11 +32846,11 @@
       <c r="CX82" s="72"/>
       <c r="CY82" s="72"/>
       <c r="CZ82" s="72"/>
-      <c r="DA82" s="40"/>
-      <c r="DB82" s="40"/>
-      <c r="DC82" s="40"/>
-      <c r="DD82" s="39"/>
-      <c r="DE82" s="39"/>
+      <c r="DA82" s="72"/>
+      <c r="DB82" s="72"/>
+      <c r="DC82" s="72"/>
+      <c r="DD82" s="164"/>
+      <c r="DE82" s="164"/>
       <c r="DF82" s="40">
         <v>480</v>
       </c>
@@ -32926,11 +33010,11 @@
       <c r="CX83" s="72"/>
       <c r="CY83" s="72"/>
       <c r="CZ83" s="72"/>
-      <c r="DA83" s="40"/>
-      <c r="DB83" s="40"/>
-      <c r="DC83" s="40"/>
-      <c r="DD83" s="39"/>
-      <c r="DE83" s="39"/>
+      <c r="DA83" s="72"/>
+      <c r="DB83" s="72"/>
+      <c r="DC83" s="72"/>
+      <c r="DD83" s="164"/>
+      <c r="DE83" s="164"/>
       <c r="DF83" s="40"/>
       <c r="DG83" s="40"/>
       <c r="DH83" s="40"/>
@@ -33072,11 +33156,11 @@
       <c r="CX84" s="72"/>
       <c r="CY84" s="72"/>
       <c r="CZ84" s="72"/>
-      <c r="DA84" s="40"/>
-      <c r="DB84" s="40"/>
-      <c r="DC84" s="40"/>
-      <c r="DD84" s="39"/>
-      <c r="DE84" s="39"/>
+      <c r="DA84" s="72"/>
+      <c r="DB84" s="72"/>
+      <c r="DC84" s="72"/>
+      <c r="DD84" s="164"/>
+      <c r="DE84" s="164"/>
       <c r="DF84" s="40"/>
       <c r="DG84" s="40"/>
       <c r="DH84" s="40"/>
@@ -33215,11 +33299,11 @@
       <c r="CX85" s="72"/>
       <c r="CY85" s="72"/>
       <c r="CZ85" s="72"/>
-      <c r="DA85" s="40"/>
-      <c r="DB85" s="40"/>
-      <c r="DC85" s="40"/>
-      <c r="DD85" s="39"/>
-      <c r="DE85" s="39"/>
+      <c r="DA85" s="72"/>
+      <c r="DB85" s="72"/>
+      <c r="DC85" s="72"/>
+      <c r="DD85" s="164"/>
+      <c r="DE85" s="164"/>
       <c r="DF85" s="40"/>
       <c r="DG85" s="40"/>
       <c r="DH85" s="40"/>
@@ -33351,11 +33435,11 @@
       <c r="CX86" s="72"/>
       <c r="CY86" s="72"/>
       <c r="CZ86" s="72"/>
-      <c r="DA86" s="40"/>
-      <c r="DB86" s="40"/>
-      <c r="DC86" s="40"/>
-      <c r="DD86" s="39"/>
-      <c r="DE86" s="39"/>
+      <c r="DA86" s="72"/>
+      <c r="DB86" s="72"/>
+      <c r="DC86" s="72"/>
+      <c r="DD86" s="164"/>
+      <c r="DE86" s="164"/>
       <c r="DF86" s="40"/>
       <c r="DG86" s="40"/>
       <c r="DH86" s="40"/>
@@ -33613,11 +33697,11 @@
       <c r="CX87" s="72"/>
       <c r="CY87" s="72"/>
       <c r="CZ87" s="72"/>
-      <c r="DA87" s="40"/>
-      <c r="DB87" s="40"/>
-      <c r="DC87" s="40"/>
-      <c r="DD87" s="39"/>
-      <c r="DE87" s="39"/>
+      <c r="DA87" s="72"/>
+      <c r="DB87" s="72"/>
+      <c r="DC87" s="72"/>
+      <c r="DD87" s="164"/>
+      <c r="DE87" s="164"/>
       <c r="DF87" s="40">
         <v>498</v>
       </c>
@@ -33685,7 +33769,7 @@
       <c r="EB87" s="40"/>
       <c r="EC87" s="40"/>
     </row>
-    <row r="88" spans="1:143" s="10" customFormat="1">
+    <row r="88" spans="1:143" s="10" customFormat="1" ht="13">
       <c r="A88" s="95"/>
       <c r="B88" s="99" t="s">
         <v>536</v>
@@ -34057,7 +34141,7 @@
       </c>
       <c r="CU88" s="89">
         <f>SUM(CU3:CU87)</f>
-        <v>13475</v>
+        <v>13514</v>
       </c>
       <c r="CV88" s="89">
         <f t="shared" si="107"/>
@@ -34073,11 +34157,11 @@
       </c>
       <c r="CY88" s="89"/>
       <c r="CZ88" s="89"/>
-      <c r="DA88" s="68"/>
-      <c r="DB88" s="68"/>
-      <c r="DC88" s="68"/>
-      <c r="DD88" s="47"/>
-      <c r="DE88" s="47"/>
+      <c r="DA88" s="89"/>
+      <c r="DB88" s="89"/>
+      <c r="DC88" s="89"/>
+      <c r="DD88" s="166"/>
+      <c r="DE88" s="166"/>
       <c r="DF88" s="90">
         <v>17841.3</v>
       </c>
@@ -34490,7 +34574,7 @@
       </c>
       <c r="CU89" s="76">
         <f t="shared" ref="CU89:CX89" si="111">+CU88*0.17</f>
-        <v>2290.75</v>
+        <v>2297.38</v>
       </c>
       <c r="CV89" s="76">
         <f t="shared" si="111"/>
@@ -34504,11 +34588,11 @@
         <f t="shared" si="111"/>
         <v>2425.7334000000001</v>
       </c>
-      <c r="CY89" s="76"/>
-      <c r="CZ89" s="76"/>
-      <c r="DA89" s="34"/>
-      <c r="DB89" s="34"/>
-      <c r="DC89" s="34"/>
+      <c r="CY89" s="167"/>
+      <c r="CZ89" s="167"/>
+      <c r="DA89" s="167"/>
+      <c r="DB89" s="167"/>
+      <c r="DC89" s="167"/>
       <c r="DG89" s="34">
         <v>-4463</v>
       </c>
@@ -34916,7 +35000,7 @@
       </c>
       <c r="CU90" s="77">
         <f t="shared" si="117"/>
-        <v>11184.25</v>
+        <v>11216.619999999999</v>
       </c>
       <c r="CV90" s="77">
         <f t="shared" si="117"/>
@@ -34930,13 +35014,13 @@
         <f t="shared" si="117"/>
         <v>11843.286599999999</v>
       </c>
-      <c r="CY90" s="77"/>
-      <c r="CZ90" s="77"/>
-      <c r="DA90" s="42"/>
-      <c r="DB90" s="42"/>
-      <c r="DC90" s="42"/>
-      <c r="DD90" s="39"/>
-      <c r="DE90" s="39"/>
+      <c r="CY90" s="169"/>
+      <c r="CZ90" s="169"/>
+      <c r="DA90" s="169"/>
+      <c r="DB90" s="169"/>
+      <c r="DC90" s="169"/>
+      <c r="DD90" s="164"/>
+      <c r="DE90" s="164"/>
       <c r="DF90" s="39"/>
       <c r="DG90" s="42">
         <v>14386</v>
@@ -35305,13 +35389,13 @@
         <f t="shared" si="121"/>
         <v>3573</v>
       </c>
-      <c r="CY91" s="77"/>
-      <c r="CZ91" s="77"/>
-      <c r="DA91" s="42"/>
-      <c r="DB91" s="42"/>
-      <c r="DC91" s="42"/>
-      <c r="DD91" s="39"/>
-      <c r="DE91" s="39"/>
+      <c r="CY91" s="169"/>
+      <c r="CZ91" s="169"/>
+      <c r="DA91" s="169"/>
+      <c r="DB91" s="169"/>
+      <c r="DC91" s="169"/>
+      <c r="DD91" s="164"/>
+      <c r="DE91" s="164"/>
       <c r="DF91" s="39"/>
       <c r="DG91" s="42">
         <v>-3012</v>
@@ -35612,13 +35696,13 @@
         <f t="shared" si="122"/>
         <v>4275</v>
       </c>
-      <c r="CY92" s="77"/>
-      <c r="CZ92" s="77"/>
-      <c r="DA92" s="42"/>
-      <c r="DB92" s="42"/>
-      <c r="DC92" s="42"/>
-      <c r="DD92" s="39"/>
-      <c r="DE92" s="39"/>
+      <c r="CY92" s="169"/>
+      <c r="CZ92" s="169"/>
+      <c r="DA92" s="169"/>
+      <c r="DB92" s="169"/>
+      <c r="DC92" s="169"/>
+      <c r="DD92" s="164"/>
+      <c r="DE92" s="164"/>
       <c r="DF92" s="39"/>
       <c r="DG92" s="42">
         <v>-7555</v>
@@ -35976,13 +36060,13 @@
         <f t="shared" si="125"/>
         <v>101</v>
       </c>
-      <c r="CY93" s="77"/>
-      <c r="CZ93" s="77"/>
-      <c r="DA93" s="42"/>
-      <c r="DB93" s="42"/>
-      <c r="DC93" s="42"/>
-      <c r="DD93" s="39"/>
-      <c r="DE93" s="39"/>
+      <c r="CY93" s="169"/>
+      <c r="CZ93" s="169"/>
+      <c r="DA93" s="169"/>
+      <c r="DB93" s="169"/>
+      <c r="DC93" s="169"/>
+      <c r="DD93" s="164"/>
+      <c r="DE93" s="164"/>
       <c r="DF93" s="39"/>
       <c r="DG93" s="42">
         <v>188</v>
@@ -36314,7 +36398,7 @@
       </c>
       <c r="CU94" s="77">
         <f t="shared" si="134"/>
-        <v>3437.25</v>
+        <v>3469.619999999999</v>
       </c>
       <c r="CV94" s="77">
         <f t="shared" si="134"/>
@@ -36328,13 +36412,13 @@
         <f t="shared" si="134"/>
         <v>4096.2865999999995</v>
       </c>
-      <c r="CY94" s="77"/>
-      <c r="CZ94" s="77"/>
-      <c r="DA94" s="42"/>
-      <c r="DB94" s="42"/>
-      <c r="DC94" s="42"/>
-      <c r="DD94" s="39"/>
-      <c r="DE94" s="39"/>
+      <c r="CY94" s="169"/>
+      <c r="CZ94" s="169"/>
+      <c r="DA94" s="169"/>
+      <c r="DB94" s="169"/>
+      <c r="DC94" s="169"/>
+      <c r="DD94" s="164"/>
+      <c r="DE94" s="164"/>
       <c r="DF94" s="39"/>
       <c r="DG94" s="42">
         <v>4007</v>
@@ -36743,13 +36827,13 @@
         <f t="shared" si="137"/>
         <v>310</v>
       </c>
-      <c r="CY95" s="77"/>
-      <c r="CZ95" s="77"/>
-      <c r="DA95" s="42"/>
-      <c r="DB95" s="42"/>
-      <c r="DC95" s="42"/>
-      <c r="DD95" s="39"/>
-      <c r="DE95" s="39"/>
+      <c r="CY95" s="169"/>
+      <c r="CZ95" s="169"/>
+      <c r="DA95" s="169"/>
+      <c r="DB95" s="169"/>
+      <c r="DC95" s="169"/>
+      <c r="DD95" s="164"/>
+      <c r="DE95" s="164"/>
       <c r="DF95" s="39"/>
       <c r="DG95" s="42">
         <v>56</v>
@@ -37080,7 +37164,7 @@
       </c>
       <c r="CU96" s="77">
         <f t="shared" si="147"/>
-        <v>3127.25</v>
+        <v>3159.619999999999</v>
       </c>
       <c r="CV96" s="77">
         <f t="shared" si="147"/>
@@ -37094,13 +37178,13 @@
         <f t="shared" si="147"/>
         <v>3786.2865999999995</v>
       </c>
-      <c r="CY96" s="77"/>
-      <c r="CZ96" s="77"/>
-      <c r="DA96" s="42"/>
-      <c r="DB96" s="42"/>
-      <c r="DC96" s="42"/>
-      <c r="DD96" s="39"/>
-      <c r="DE96" s="39"/>
+      <c r="CY96" s="169"/>
+      <c r="CZ96" s="169"/>
+      <c r="DA96" s="169"/>
+      <c r="DB96" s="169"/>
+      <c r="DC96" s="169"/>
+      <c r="DD96" s="164"/>
+      <c r="DE96" s="164"/>
       <c r="DF96" s="39"/>
       <c r="DG96" s="42">
         <v>4065</v>
@@ -37464,7 +37548,7 @@
       </c>
       <c r="CU97" s="77">
         <f t="shared" ref="CU97:CX97" si="150">+CU96*0.2</f>
-        <v>625.45000000000005</v>
+        <v>631.92399999999986</v>
       </c>
       <c r="CV97" s="77">
         <f t="shared" si="150"/>
@@ -37478,13 +37562,13 @@
         <f t="shared" si="150"/>
         <v>757.25731999999994</v>
       </c>
-      <c r="CY97" s="77"/>
-      <c r="CZ97" s="77"/>
-      <c r="DA97" s="42"/>
-      <c r="DB97" s="42"/>
-      <c r="DC97" s="42"/>
-      <c r="DD97" s="39"/>
-      <c r="DE97" s="39"/>
+      <c r="CY97" s="169"/>
+      <c r="CZ97" s="169"/>
+      <c r="DA97" s="169"/>
+      <c r="DB97" s="169"/>
+      <c r="DC97" s="169"/>
+      <c r="DD97" s="164"/>
+      <c r="DE97" s="164"/>
       <c r="DF97" s="39"/>
       <c r="DG97" s="42">
         <v>-1029</v>
@@ -37818,13 +37902,13 @@
       <c r="CV98" s="77"/>
       <c r="CW98" s="77"/>
       <c r="CX98" s="77"/>
-      <c r="CY98" s="77"/>
-      <c r="CZ98" s="77"/>
-      <c r="DA98" s="42"/>
-      <c r="DB98" s="42"/>
-      <c r="DC98" s="42"/>
-      <c r="DD98" s="39"/>
-      <c r="DE98" s="39"/>
+      <c r="CY98" s="169"/>
+      <c r="CZ98" s="169"/>
+      <c r="DA98" s="169"/>
+      <c r="DB98" s="169"/>
+      <c r="DC98" s="169"/>
+      <c r="DD98" s="164"/>
+      <c r="DE98" s="164"/>
       <c r="DF98" s="39"/>
       <c r="DG98" s="42">
         <v>0</v>
@@ -38143,7 +38227,7 @@
       </c>
       <c r="CU99" s="77">
         <f t="shared" si="156"/>
-        <v>2501.8000000000002</v>
+        <v>2527.695999999999</v>
       </c>
       <c r="CV99" s="77">
         <f t="shared" si="156"/>
@@ -38157,13 +38241,13 @@
         <f t="shared" si="156"/>
         <v>3029.0292799999997</v>
       </c>
-      <c r="CY99" s="77"/>
-      <c r="CZ99" s="77"/>
-      <c r="DA99" s="42"/>
-      <c r="DB99" s="42"/>
-      <c r="DC99" s="42"/>
-      <c r="DD99" s="39"/>
-      <c r="DE99" s="39"/>
+      <c r="CY99" s="169"/>
+      <c r="CZ99" s="169"/>
+      <c r="DA99" s="169"/>
+      <c r="DB99" s="169"/>
+      <c r="DC99" s="169"/>
+      <c r="DD99" s="164"/>
+      <c r="DE99" s="164"/>
       <c r="DF99" s="39"/>
       <c r="DG99" s="43"/>
       <c r="DH99" s="43"/>
@@ -38517,7 +38601,7 @@
         <v>838.16073501649032</v>
       </c>
     </row>
-    <row r="100" spans="1:200">
+    <row r="100" spans="1:200" ht="13">
       <c r="B100" s="95" t="s">
         <v>421</v>
       </c>
@@ -38790,7 +38874,7 @@
       </c>
       <c r="CU100" s="78">
         <f t="shared" si="169"/>
-        <v>1.6037179487179489</v>
+        <v>1.620317948717948</v>
       </c>
       <c r="CV100" s="78">
         <f t="shared" si="169"/>
@@ -38804,11 +38888,11 @@
         <f t="shared" si="169"/>
         <v>1.9416854358974358</v>
       </c>
-      <c r="CY100" s="78"/>
-      <c r="CZ100" s="78"/>
-      <c r="DA100" s="45"/>
-      <c r="DB100" s="45"/>
-      <c r="DC100" s="45"/>
+      <c r="CY100" s="170"/>
+      <c r="CZ100" s="170"/>
+      <c r="DA100" s="170"/>
+      <c r="DB100" s="170"/>
+      <c r="DC100" s="170"/>
       <c r="DG100" s="44">
         <v>1.7636044470450556</v>
       </c>
@@ -39151,11 +39235,11 @@
         <f t="shared" si="172"/>
         <v>1560</v>
       </c>
-      <c r="CY101" s="76"/>
-      <c r="CZ101" s="76"/>
-      <c r="DA101" s="34"/>
-      <c r="DB101" s="34"/>
-      <c r="DC101" s="34"/>
+      <c r="CY101" s="167"/>
+      <c r="CZ101" s="167"/>
+      <c r="DA101" s="167"/>
+      <c r="DB101" s="167"/>
+      <c r="DC101" s="167"/>
       <c r="DG101" s="46"/>
       <c r="DH101" s="46"/>
       <c r="DL101" s="34">
@@ -39372,13 +39456,13 @@
       <c r="CV102" s="81"/>
       <c r="CW102" s="81"/>
       <c r="CX102" s="81"/>
-      <c r="CY102" s="81"/>
-      <c r="CZ102" s="81"/>
-      <c r="DA102" s="81"/>
-      <c r="DB102" s="81"/>
-      <c r="DC102" s="81"/>
-      <c r="DD102" s="82"/>
-      <c r="DE102" s="82"/>
+      <c r="CY102" s="167"/>
+      <c r="CZ102" s="167"/>
+      <c r="DA102" s="167"/>
+      <c r="DB102" s="167"/>
+      <c r="DC102" s="167"/>
+      <c r="DD102" s="168"/>
+      <c r="DE102" s="168"/>
       <c r="DF102" s="82"/>
       <c r="DG102" s="83"/>
       <c r="DH102" s="83"/>
@@ -39413,7 +39497,7 @@
       <c r="DW102" s="81"/>
       <c r="DX102" s="81"/>
     </row>
-    <row r="103" spans="1:200" s="85" customFormat="1">
+    <row r="103" spans="1:200" s="85" customFormat="1" ht="13">
       <c r="A103" s="100"/>
       <c r="B103" s="95"/>
       <c r="C103" s="86"/>
@@ -39516,13 +39600,13 @@
       <c r="CV103" s="86"/>
       <c r="CW103" s="86"/>
       <c r="CX103" s="86"/>
-      <c r="CY103" s="86"/>
-      <c r="CZ103" s="86"/>
-      <c r="DA103" s="86"/>
-      <c r="DB103" s="86"/>
-      <c r="DC103" s="86"/>
-      <c r="DD103" s="82"/>
-      <c r="DE103" s="82"/>
+      <c r="CY103" s="171"/>
+      <c r="CZ103" s="171"/>
+      <c r="DA103" s="171"/>
+      <c r="DB103" s="171"/>
+      <c r="DC103" s="171"/>
+      <c r="DD103" s="168"/>
+      <c r="DE103" s="168"/>
       <c r="DF103" s="82"/>
       <c r="DG103" s="86"/>
       <c r="DH103" s="86"/>
@@ -39543,7 +39627,7 @@
       <c r="DW103" s="82"/>
       <c r="DX103" s="82"/>
     </row>
-    <row r="104" spans="1:200">
+    <row r="104" spans="1:200" ht="13">
       <c r="B104" s="31" t="s">
         <v>532</v>
       </c>
@@ -39840,9 +39924,9 @@
       </c>
       <c r="CY104" s="73"/>
       <c r="CZ104" s="73"/>
-      <c r="DA104" s="48"/>
-      <c r="DB104" s="48"/>
-      <c r="DC104" s="48"/>
+      <c r="DA104" s="73"/>
+      <c r="DB104" s="73"/>
+      <c r="DC104" s="73"/>
       <c r="DG104" s="48">
         <v>0.76322351318372328</v>
       </c>
@@ -40229,7 +40313,7 @@
       </c>
       <c r="CU105" s="73">
         <f t="shared" si="205"/>
-        <v>0.26515769944341372</v>
+        <v>0.26439248187065267</v>
       </c>
       <c r="CV105" s="73">
         <f t="shared" si="205"/>
@@ -40245,9 +40329,9 @@
       </c>
       <c r="CY105" s="73"/>
       <c r="CZ105" s="73"/>
-      <c r="DA105" s="48"/>
-      <c r="DB105" s="48"/>
-      <c r="DC105" s="48"/>
+      <c r="DA105" s="73"/>
+      <c r="DB105" s="73"/>
+      <c r="DC105" s="73"/>
       <c r="DG105" s="48">
         <v>0.15979627566449148</v>
       </c>
@@ -40641,7 +40725,7 @@
       </c>
       <c r="CU106" s="73">
         <f t="shared" si="218"/>
-        <v>0.31725417439703152</v>
+        <v>0.31633861180997486</v>
       </c>
       <c r="CV106" s="73">
         <f t="shared" si="218"/>
@@ -40657,9 +40741,9 @@
       </c>
       <c r="CY106" s="73"/>
       <c r="CZ106" s="73"/>
-      <c r="DA106" s="48"/>
-      <c r="DB106" s="48"/>
-      <c r="DC106" s="48"/>
+      <c r="DA106" s="73"/>
+      <c r="DB106" s="73"/>
+      <c r="DC106" s="73"/>
       <c r="DG106" s="48">
         <v>0.40081701947052895</v>
       </c>
@@ -41052,7 +41136,7 @@
       </c>
       <c r="CU107" s="73">
         <f t="shared" si="229"/>
-        <v>0.25508348794063079</v>
+        <v>0.25674263726505836</v>
       </c>
       <c r="CV107" s="73">
         <f t="shared" si="229"/>
@@ -41068,9 +41152,9 @@
       </c>
       <c r="CY107" s="73"/>
       <c r="CZ107" s="73"/>
-      <c r="DA107" s="48"/>
-      <c r="DB107" s="48"/>
-      <c r="DC107" s="48"/>
+      <c r="DA107" s="73"/>
+      <c r="DB107" s="73"/>
+      <c r="DC107" s="73"/>
       <c r="DG107" s="48">
         <v>0.21258422197464055</v>
       </c>
@@ -41481,9 +41565,9 @@
       </c>
       <c r="CY108" s="73"/>
       <c r="CZ108" s="73"/>
-      <c r="DA108" s="48"/>
-      <c r="DB108" s="48"/>
-      <c r="DC108" s="48"/>
+      <c r="DA108" s="73"/>
+      <c r="DB108" s="73"/>
+      <c r="DC108" s="73"/>
       <c r="DG108" s="48">
         <v>0.25313653136531367</v>
       </c>
@@ -41616,7 +41700,7 @@
       <c r="EB109" s="41"/>
       <c r="EC109" s="41"/>
     </row>
-    <row r="110" spans="1:200" s="10" customFormat="1">
+    <row r="110" spans="1:200" s="10" customFormat="1" ht="13">
       <c r="A110" s="95"/>
       <c r="B110" s="95" t="s">
         <v>539</v>
@@ -41833,7 +41917,7 @@
       </c>
       <c r="CU110" s="80">
         <f t="shared" si="250"/>
-        <v>6.26971608832807E-2</v>
+        <v>6.5772870662460514E-2</v>
       </c>
       <c r="CV110" s="80">
         <f t="shared" si="250"/>
@@ -41847,13 +41931,13 @@
         <f t="shared" si="250"/>
         <v>-1.538030928556422E-3</v>
       </c>
-      <c r="CY110" s="80"/>
-      <c r="CZ110" s="80"/>
-      <c r="DA110" s="32"/>
-      <c r="DB110" s="32"/>
-      <c r="DC110" s="32"/>
-      <c r="DD110" s="47"/>
-      <c r="DE110" s="47"/>
+      <c r="CY110" s="172"/>
+      <c r="CZ110" s="172"/>
+      <c r="DA110" s="172"/>
+      <c r="DB110" s="172"/>
+      <c r="DC110" s="172"/>
+      <c r="DD110" s="166"/>
+      <c r="DE110" s="166"/>
       <c r="DF110" s="55"/>
       <c r="DG110" s="47"/>
       <c r="DH110" s="47"/>
@@ -41955,7 +42039,7 @@
         <v>-6.568052563220983E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:200" s="65" customFormat="1">
+    <row r="111" spans="1:200" s="65" customFormat="1" ht="13">
       <c r="A111" s="101"/>
       <c r="B111" s="101" t="s">
         <v>540</v>
@@ -42073,18 +42157,18 @@
       </c>
       <c r="CT111" s="80"/>
       <c r="CU111" s="80">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="CV111" s="80"/>
       <c r="CW111" s="80"/>
       <c r="CX111" s="80"/>
-      <c r="CY111" s="80"/>
-      <c r="CZ111" s="80"/>
-      <c r="DA111" s="32"/>
-      <c r="DB111" s="32"/>
-      <c r="DC111" s="32"/>
-      <c r="DD111" s="32"/>
-      <c r="DE111" s="32"/>
+      <c r="CY111" s="172"/>
+      <c r="CZ111" s="172"/>
+      <c r="DA111" s="172"/>
+      <c r="DB111" s="172"/>
+      <c r="DC111" s="172"/>
+      <c r="DD111" s="172"/>
+      <c r="DE111" s="172"/>
       <c r="DF111" s="66"/>
       <c r="DG111" s="32"/>
       <c r="DH111" s="32"/>
@@ -42192,100 +42276,100 @@
       <c r="CA112" s="113"/>
       <c r="CB112" s="113"/>
       <c r="CC112" s="113">
-        <f>+CC3/BY3-1</f>
+        <f t="shared" ref="CC112:CL113" si="253">+CC3/BY3-1</f>
         <v>0.29629629629629628</v>
       </c>
       <c r="CD112" s="113">
-        <f>+CD3/BZ3-1</f>
+        <f t="shared" si="253"/>
         <v>0.30882352941176472</v>
       </c>
       <c r="CE112" s="113">
-        <f>+CE3/CA3-1</f>
+        <f t="shared" si="253"/>
         <v>0.1700610997963341</v>
       </c>
       <c r="CF112" s="113">
-        <f>+CF3/CB3-1</f>
+        <f t="shared" si="253"/>
         <v>0.26305609284332698</v>
       </c>
       <c r="CG112" s="113">
-        <f>+CG3/CC3-1</f>
+        <f t="shared" si="253"/>
         <v>7.9653679653679754E-2</v>
       </c>
       <c r="CH112" s="113">
-        <f>+CH3/CD3-1</f>
+        <f t="shared" si="253"/>
         <v>0.13569576490924806</v>
       </c>
       <c r="CI112" s="113">
-        <f>+CI3/CE3-1</f>
+        <f t="shared" si="253"/>
         <v>0.13489991296779813</v>
       </c>
       <c r="CJ112" s="113">
-        <f>+CJ3/CF3-1</f>
+        <f t="shared" si="253"/>
         <v>7.1975497702909674E-2</v>
       </c>
       <c r="CK112" s="113">
-        <f>+CK3/CG3-1</f>
+        <f t="shared" si="253"/>
         <v>0.1210906174819566</v>
       </c>
       <c r="CL112" s="113">
-        <f>+CL3/CH3-1</f>
+        <f t="shared" si="253"/>
         <v>2.1308980213089912E-2</v>
       </c>
       <c r="CM112" s="113">
-        <f>+CM3/CI3-1</f>
+        <f t="shared" ref="CM112:CV113" si="254">+CM3/CI3-1</f>
         <v>9.2024539877300526E-2</v>
       </c>
       <c r="CN112" s="113">
-        <f>+CN3/CJ3-1</f>
+        <f t="shared" si="254"/>
         <v>6.4999999999999947E-2</v>
       </c>
       <c r="CO112" s="113">
-        <f>+CO3/CK3-1</f>
+        <f t="shared" si="254"/>
         <v>4.7925608011444965E-2</v>
       </c>
       <c r="CP112" s="113">
-        <f>+CP3/CL3-1</f>
+        <f t="shared" si="254"/>
         <v>5.7377049180327822E-2</v>
       </c>
       <c r="CQ112" s="113">
-        <f>+CQ3/CM3-1</f>
+        <f t="shared" si="254"/>
         <v>0.12008426966292141</v>
       </c>
       <c r="CR112" s="113">
-        <f>+CR3/CN3-1</f>
+        <f t="shared" si="254"/>
         <v>7.8470824949698148E-2</v>
       </c>
       <c r="CS112" s="113">
-        <f>+CS3/CO3-1</f>
+        <f t="shared" si="254"/>
         <v>0.14266211604095558</v>
       </c>
       <c r="CT112" s="113">
-        <f>+CT3/CP3-1</f>
+        <f t="shared" si="254"/>
         <v>0.20014094432699081</v>
       </c>
       <c r="CU112" s="113">
-        <f>+CU3/CQ3-1</f>
+        <f t="shared" si="254"/>
         <v>5.2664576802507801E-2</v>
       </c>
       <c r="CV112" s="113">
-        <f>+CV3/CR3-1</f>
+        <f t="shared" si="254"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CW112" s="113">
-        <f>+CW3/CS3-1</f>
+        <f t="shared" ref="CW112:DF113" si="255">+CW3/CS3-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CX112" s="113">
-        <f>+CX3/CT3-1</f>
+        <f t="shared" si="255"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CY112" s="113"/>
-      <c r="CZ112" s="113"/>
-      <c r="DA112" s="112"/>
-      <c r="DB112" s="112"/>
-      <c r="DC112" s="112"/>
-      <c r="DD112" s="112"/>
-      <c r="DE112" s="112"/>
+      <c r="CY112" s="173"/>
+      <c r="CZ112" s="173"/>
+      <c r="DA112" s="173"/>
+      <c r="DB112" s="173"/>
+      <c r="DC112" s="173"/>
+      <c r="DD112" s="173"/>
+      <c r="DE112" s="173"/>
       <c r="DF112" s="114"/>
       <c r="DG112" s="112"/>
       <c r="DH112" s="112"/>
@@ -42303,55 +42387,55 @@
       <c r="DT112" s="112"/>
       <c r="DU112" s="112"/>
       <c r="DX112" s="115">
-        <f t="shared" ref="DX112:EJ112" si="253">+DX3/DW3-1</f>
+        <f t="shared" ref="DX112:EJ112" si="256">+DX3/DW3-1</f>
         <v>0.35716525556600809</v>
       </c>
       <c r="DY112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0.15896487985212571</v>
       </c>
       <c r="DZ112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>8.5326953748006362E-2</v>
       </c>
       <c r="EA112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>6.520940484937543E-2</v>
       </c>
       <c r="EB112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0.1346783928263493</v>
       </c>
       <c r="EC112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="ED112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="EE112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="EF112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="EG112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="EH112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="EI112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="EJ112" s="115">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -42439,100 +42523,100 @@
       <c r="CA113" s="113"/>
       <c r="CB113" s="113"/>
       <c r="CC113" s="113">
-        <f>+CC4/BY4-1</f>
+        <f t="shared" si="253"/>
         <v>0.31909547738693478</v>
       </c>
       <c r="CD113" s="113">
-        <f>+CD4/BZ4-1</f>
+        <f t="shared" si="253"/>
         <v>0.39856801909307871</v>
       </c>
       <c r="CE113" s="113">
-        <f>+CE4/CA4-1</f>
+        <f t="shared" si="253"/>
         <v>0.54074074074074074</v>
       </c>
       <c r="CF113" s="113">
-        <f>+CF4/CB4-1</f>
+        <f t="shared" si="253"/>
         <v>0.65237020316027095</v>
       </c>
       <c r="CG113" s="113">
-        <f>+CG4/CC4-1</f>
+        <f t="shared" si="253"/>
         <v>0.51619047619047609</v>
       </c>
       <c r="CH113" s="113">
-        <f>+CH4/CD4-1</f>
+        <f t="shared" si="253"/>
         <v>0.44709897610921501</v>
       </c>
       <c r="CI113" s="113">
-        <f>+CI4/CE4-1</f>
+        <f t="shared" si="253"/>
         <v>0.60256410256410264</v>
       </c>
       <c r="CJ113" s="113">
-        <f>+CJ4/CF4-1</f>
+        <f t="shared" si="253"/>
         <v>0.50683060109289624</v>
       </c>
       <c r="CK113" s="113">
-        <f>+CK4/CG4-1</f>
+        <f t="shared" si="253"/>
         <v>0.38316582914572872</v>
       </c>
       <c r="CL113" s="113">
-        <f>+CL4/CH4-1</f>
+        <f t="shared" si="253"/>
         <v>0.38797169811320753</v>
       </c>
       <c r="CM113" s="113">
-        <f>+CM4/CI4-1</f>
+        <f t="shared" si="254"/>
         <v>0.29899999999999993</v>
       </c>
       <c r="CN113" s="113">
-        <f>+CN4/CJ4-1</f>
+        <f t="shared" si="254"/>
         <v>0.36446056210335454</v>
       </c>
       <c r="CO113" s="113">
-        <f>+CO4/CK4-1</f>
+        <f t="shared" si="254"/>
         <v>0.41144414168937327</v>
       </c>
       <c r="CP113" s="113">
-        <f>+CP4/CL4-1</f>
+        <f t="shared" si="254"/>
         <v>0.36448598130841114</v>
       </c>
       <c r="CQ113" s="113">
-        <f>+CQ4/CM4-1</f>
+        <f t="shared" si="254"/>
         <v>0.45650500384911474</v>
       </c>
       <c r="CR113" s="113">
-        <f>+CR4/CN4-1</f>
+        <f t="shared" si="254"/>
         <v>0.29235880398671088</v>
       </c>
       <c r="CS113" s="113">
-        <f>+CS4/CO4-1</f>
+        <f t="shared" si="254"/>
         <v>0.2503217503217503</v>
       </c>
       <c r="CT113" s="113">
-        <f>+CT4/CP4-1</f>
+        <f t="shared" si="254"/>
         <v>0.20672478206724776</v>
       </c>
       <c r="CU113" s="113">
-        <f>+CU4/CQ4-1</f>
+        <f t="shared" si="254"/>
         <v>8.7737843551797035E-2</v>
       </c>
       <c r="CV113" s="113">
-        <f>+CV4/CR4-1</f>
+        <f t="shared" si="254"/>
         <v>-0.5</v>
       </c>
       <c r="CW113" s="113">
-        <f>+CW4/CS4-1</f>
+        <f t="shared" si="255"/>
         <v>-0.5</v>
       </c>
       <c r="CX113" s="113">
-        <f>+CX4/CT4-1</f>
+        <f t="shared" si="255"/>
         <v>-0.5</v>
       </c>
-      <c r="CY113" s="113"/>
-      <c r="CZ113" s="113"/>
-      <c r="DA113" s="112"/>
-      <c r="DB113" s="112"/>
-      <c r="DC113" s="112"/>
-      <c r="DD113" s="112"/>
-      <c r="DE113" s="112"/>
+      <c r="CY113" s="173"/>
+      <c r="CZ113" s="173"/>
+      <c r="DA113" s="173"/>
+      <c r="DB113" s="173"/>
+      <c r="DC113" s="173"/>
+      <c r="DD113" s="173"/>
+      <c r="DE113" s="173"/>
       <c r="DF113" s="114"/>
       <c r="DG113" s="112"/>
       <c r="DH113" s="112"/>
@@ -42645,68 +42729,68 @@
       <c r="CI114" s="113"/>
       <c r="CJ114" s="113"/>
       <c r="CK114" s="113">
-        <f t="shared" ref="CK114:CX114" si="254">CK10/CG10-1</f>
+        <f t="shared" ref="CK114:CX114" si="257">CK10/CG10-1</f>
         <v>0.74410774410774416</v>
       </c>
       <c r="CL114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.51662404092071612</v>
       </c>
       <c r="CM114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.55369928400954649</v>
       </c>
       <c r="CN114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.64285714285714279</v>
       </c>
       <c r="CO114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.5</v>
       </c>
       <c r="CP114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.39123102866779091</v>
       </c>
       <c r="CQ114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.3195084485407067</v>
       </c>
       <c r="CR114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.32678821879382891</v>
       </c>
       <c r="CS114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.32689832689832699</v>
       </c>
       <c r="CT114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.32000000000000006</v>
       </c>
       <c r="CU114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.22235157159487784</v>
       </c>
       <c r="CV114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CW114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CX114" s="113">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="CY114" s="113"/>
-      <c r="CZ114" s="113"/>
-      <c r="DA114" s="112"/>
-      <c r="DB114" s="112"/>
-      <c r="DC114" s="112"/>
-      <c r="DD114" s="112"/>
-      <c r="DE114" s="112"/>
+      <c r="CY114" s="173"/>
+      <c r="CZ114" s="173"/>
+      <c r="DA114" s="173"/>
+      <c r="DB114" s="173"/>
+      <c r="DC114" s="173"/>
+      <c r="DD114" s="173"/>
+      <c r="DE114" s="173"/>
       <c r="DF114" s="114"/>
       <c r="DG114" s="112"/>
       <c r="DH114" s="112"/>
@@ -42811,100 +42895,100 @@
       <c r="CA115" s="113"/>
       <c r="CB115" s="113"/>
       <c r="CC115" s="113">
-        <f t="shared" ref="CC115:CX115" si="255">CC6/BY6-1</f>
+        <f t="shared" ref="CC115:CX115" si="258">CC6/BY6-1</f>
         <v>0.2936893203883495</v>
       </c>
       <c r="CD115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.3089622641509433</v>
       </c>
       <c r="CE115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.20346320346320357</v>
       </c>
       <c r="CF115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.22764227642276413</v>
       </c>
       <c r="CG115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.15947467166979368</v>
       </c>
       <c r="CH115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.14234234234234244</v>
       </c>
       <c r="CI115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>7.7338129496402841E-2</v>
       </c>
       <c r="CJ115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.15066225165562908</v>
       </c>
       <c r="CK115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.19255663430420711</v>
       </c>
       <c r="CL115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.18611987381703465</v>
       </c>
       <c r="CM115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.5025041736227045</v>
       </c>
       <c r="CN115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.54820143884892092</v>
       </c>
       <c r="CO115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.52781546811397551</v>
       </c>
       <c r="CP115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.50930851063829796</v>
       </c>
       <c r="CQ115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.23666666666666658</v>
       </c>
       <c r="CR115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>6.5985130111524182E-2</v>
       </c>
       <c r="CS115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>6.8383658969804584E-2</v>
       </c>
       <c r="CT115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.10484581497797363</v>
       </c>
       <c r="CU115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.13297394429469911</v>
       </c>
       <c r="CV115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CW115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CX115" s="113">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="CY115" s="113"/>
-      <c r="CZ115" s="113"/>
-      <c r="DA115" s="112"/>
-      <c r="DB115" s="112"/>
-      <c r="DC115" s="112"/>
-      <c r="DD115" s="112"/>
-      <c r="DE115" s="112"/>
+      <c r="CY115" s="173"/>
+      <c r="CZ115" s="173"/>
+      <c r="DA115" s="173"/>
+      <c r="DB115" s="173"/>
+      <c r="DC115" s="173"/>
+      <c r="DD115" s="173"/>
+      <c r="DE115" s="173"/>
       <c r="DF115" s="114"/>
       <c r="DG115" s="112"/>
       <c r="DH115" s="112"/>
@@ -42925,7 +43009,7 @@
       <c r="DW115" s="112"/>
       <c r="DX115" s="112"/>
     </row>
-    <row r="116" spans="1:128" s="104" customFormat="1">
+    <row r="116" spans="1:128" s="104" customFormat="1" ht="13">
       <c r="B116" s="104" t="s">
         <v>241</v>
       </c>
@@ -42944,123 +43028,123 @@
       <c r="O116" s="106"/>
       <c r="P116" s="106"/>
       <c r="Q116" s="106">
-        <f t="shared" ref="Q116:AT116" si="256">Q18/M18-1</f>
+        <f t="shared" ref="Q116:AT116" si="259">Q18/M18-1</f>
         <v>-4.9000000000000044E-2</v>
       </c>
       <c r="R116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.32296650717703357</v>
       </c>
       <c r="S116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.12834224598930488</v>
       </c>
       <c r="T116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.35129068462401802</v>
       </c>
       <c r="U116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.18506834910620396</v>
       </c>
       <c r="V116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.12748643761301981</v>
       </c>
       <c r="W116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.12701421800947865</v>
       </c>
       <c r="X116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>6.5614617940199293E-2</v>
       </c>
       <c r="Y116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.13575865128660158</v>
       </c>
       <c r="Z116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.14675220529270239</v>
       </c>
       <c r="AA116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0.1000841042893188</v>
       </c>
       <c r="AB116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>2.2603273577552541E-2</v>
       </c>
       <c r="AC116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>1.0156250000000089E-2</v>
       </c>
       <c r="AD116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-8.8811188811188768E-2</v>
       </c>
       <c r="AE116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-5.3516819571865493E-2</v>
       </c>
       <c r="AF116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>8.3841463414633388E-3</v>
       </c>
       <c r="AG116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>1.7014694508894035E-2</v>
       </c>
       <c r="AH116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>1.6116653875671627E-2</v>
       </c>
       <c r="AI116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-3.7156704361874016E-2</v>
       </c>
       <c r="AJ116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-5.8201058201058253E-2</v>
       </c>
       <c r="AK116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-5.4752851711026618E-2</v>
       </c>
       <c r="AL116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-3.4743202416918417E-2</v>
       </c>
       <c r="AM116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>3.9429530201342322E-2</v>
       </c>
       <c r="AN116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>8.82825040128421E-3</v>
       </c>
       <c r="AO116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-8.045052292839916E-4</v>
       </c>
       <c r="AP116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-3.6776212832550836E-2</v>
       </c>
       <c r="AQ116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-6.2953995157384979E-2</v>
       </c>
       <c r="AR116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-3.9777247414478967E-2</v>
       </c>
       <c r="AS116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-0.12318840579710144</v>
       </c>
       <c r="AT116" s="106">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>-0.1332250203086921</v>
       </c>
       <c r="AU116" s="106"/>
@@ -43119,13 +43203,13 @@
       <c r="CV116" s="106"/>
       <c r="CW116" s="106"/>
       <c r="CX116" s="106"/>
-      <c r="CY116" s="106"/>
-      <c r="CZ116" s="106"/>
-      <c r="DA116" s="106"/>
-      <c r="DB116" s="106"/>
-      <c r="DC116" s="106"/>
-      <c r="DD116" s="105"/>
-      <c r="DE116" s="105"/>
+      <c r="CY116" s="174"/>
+      <c r="CZ116" s="174"/>
+      <c r="DA116" s="174"/>
+      <c r="DB116" s="174"/>
+      <c r="DC116" s="174"/>
+      <c r="DD116" s="175"/>
+      <c r="DE116" s="175"/>
       <c r="DF116" s="107"/>
       <c r="DG116" s="105"/>
       <c r="DH116" s="105"/>
@@ -43146,7 +43230,7 @@
       <c r="DW116" s="109"/>
       <c r="DX116" s="109"/>
     </row>
-    <row r="117" spans="1:128" s="104" customFormat="1">
+    <row r="117" spans="1:128" s="104" customFormat="1" ht="13">
       <c r="B117" s="104" t="s">
         <v>240</v>
       </c>
@@ -43165,123 +43249,123 @@
       <c r="O117" s="106"/>
       <c r="P117" s="106"/>
       <c r="Q117" s="106">
-        <f t="shared" ref="Q117:AT117" si="257">Q63/M63-1</f>
+        <f t="shared" ref="Q117:AT117" si="260">Q63/M63-1</f>
         <v>0.53333333333333344</v>
       </c>
       <c r="R117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.31308411214953269</v>
       </c>
       <c r="S117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.4129464285714286</v>
       </c>
       <c r="T117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.36680327868852469</v>
       </c>
       <c r="U117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.33459357277882806</v>
       </c>
       <c r="V117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.34341637010676163</v>
       </c>
       <c r="W117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.27488151658767768</v>
       </c>
       <c r="X117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.27286356821589197</v>
       </c>
       <c r="Y117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.20113314447592079</v>
       </c>
       <c r="Z117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.20794701986754971</v>
       </c>
       <c r="AA117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.14374225526641893</v>
       </c>
       <c r="AB117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.13427561837455837</v>
       </c>
       <c r="AC117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.24410377358490565</v>
       </c>
       <c r="AD117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.19078947368421062</v>
       </c>
       <c r="AE117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.13759479956663045</v>
       </c>
       <c r="AF117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.1547248182762202</v>
       </c>
       <c r="AG117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>7.1090047393364886E-2</v>
       </c>
       <c r="AH117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>6.8139963167587414E-2</v>
       </c>
       <c r="AI117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="AJ117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.12320143884892087</v>
       </c>
       <c r="AK117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>8.9380530973451222E-2</v>
       </c>
       <c r="AL117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>8.7068965517241415E-2</v>
       </c>
       <c r="AM117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.1617777777777778</v>
       </c>
       <c r="AN117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>8.2465972778222651E-2</v>
       </c>
       <c r="AO117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>5.84890333062551E-2</v>
       </c>
       <c r="AP117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>6.2648691514670896E-2</v>
       </c>
       <c r="AQ117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>2.9074215761285327E-2</v>
       </c>
       <c r="AR117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>7.444359171143522E-2</v>
       </c>
       <c r="AT117" s="106">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0.15373134328358207</v>
       </c>
       <c r="AU117" s="106"/>
@@ -43340,13 +43424,13 @@
       <c r="CV117" s="106"/>
       <c r="CW117" s="106"/>
       <c r="CX117" s="106"/>
-      <c r="CY117" s="106"/>
-      <c r="CZ117" s="106"/>
-      <c r="DA117" s="106"/>
-      <c r="DB117" s="106"/>
-      <c r="DC117" s="106"/>
-      <c r="DD117" s="105"/>
-      <c r="DE117" s="105"/>
+      <c r="CY117" s="174"/>
+      <c r="CZ117" s="174"/>
+      <c r="DA117" s="174"/>
+      <c r="DB117" s="174"/>
+      <c r="DC117" s="174"/>
+      <c r="DD117" s="175"/>
+      <c r="DE117" s="175"/>
       <c r="DF117" s="107"/>
       <c r="DG117" s="105"/>
       <c r="DH117" s="105"/>
@@ -43386,107 +43470,107 @@
       <c r="O118" s="106"/>
       <c r="P118" s="106"/>
       <c r="Q118" s="106">
-        <f t="shared" ref="Q118:AP118" si="258">Q14/M14-1</f>
+        <f t="shared" ref="Q118:AP118" si="261">Q14/M14-1</f>
         <v>2.4210526315789473</v>
       </c>
       <c r="R118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>6.6097560975609753</v>
       </c>
       <c r="S118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>1.1162790697674421</v>
       </c>
       <c r="T118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.5314009661835748</v>
       </c>
       <c r="U118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.25</v>
       </c>
       <c r="V118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.13141025641025639</v>
       </c>
       <c r="W118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.41758241758241765</v>
       </c>
       <c r="X118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.51419558359621442</v>
       </c>
       <c r="Y118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.64923076923076928</v>
       </c>
       <c r="Z118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.77053824362606238</v>
       </c>
       <c r="AA118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.62273901808785537</v>
       </c>
       <c r="AB118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.41250000000000009</v>
       </c>
       <c r="AC118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.28917910447761197</v>
       </c>
       <c r="AD118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.27839999999999998</v>
       </c>
       <c r="AE118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.22929936305732479</v>
       </c>
       <c r="AF118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.35103244837758107</v>
       </c>
       <c r="AG118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.33429811866859627</v>
       </c>
       <c r="AH118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.23529411764705888</v>
       </c>
       <c r="AI118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.25518134715025909</v>
       </c>
       <c r="AJ118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.23253275109170302</v>
       </c>
       <c r="AK118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.24403470715835152</v>
       </c>
       <c r="AL118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.2735562310030395</v>
       </c>
       <c r="AM118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.34158926728586181</v>
       </c>
       <c r="AN118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.2666076173604961</v>
       </c>
       <c r="AO118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.19790758500435923</v>
       </c>
       <c r="AP118" s="106">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0.26252983293556076</v>
       </c>
       <c r="AQ118" s="106"/>
@@ -43549,13 +43633,13 @@
       <c r="CV118" s="106"/>
       <c r="CW118" s="106"/>
       <c r="CX118" s="106"/>
-      <c r="CY118" s="106"/>
-      <c r="CZ118" s="106"/>
-      <c r="DA118" s="106"/>
-      <c r="DB118" s="106"/>
-      <c r="DC118" s="106"/>
-      <c r="DD118" s="105"/>
-      <c r="DE118" s="105"/>
+      <c r="CY118" s="174"/>
+      <c r="CZ118" s="174"/>
+      <c r="DA118" s="174"/>
+      <c r="DB118" s="174"/>
+      <c r="DC118" s="174"/>
+      <c r="DD118" s="175"/>
+      <c r="DE118" s="175"/>
       <c r="DF118" s="107"/>
       <c r="DG118" s="105"/>
       <c r="DH118" s="105"/>
@@ -43595,107 +43679,107 @@
       <c r="O119" s="106"/>
       <c r="P119" s="106"/>
       <c r="Q119" s="106">
-        <f t="shared" ref="Q119:AP119" si="259">Q7/M7-1</f>
+        <f t="shared" ref="Q119:AP119" si="262">Q7/M7-1</f>
         <v>0.4453125</v>
       </c>
       <c r="R119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.27325581395348841</v>
       </c>
       <c r="S119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.31382978723404253</v>
       </c>
       <c r="T119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.24390243902439024</v>
       </c>
       <c r="U119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.29729729729729737</v>
       </c>
       <c r="V119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.20547945205479445</v>
       </c>
       <c r="W119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.12145748987854255</v>
       </c>
       <c r="X119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.20784313725490189</v>
       </c>
       <c r="Y119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Z119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.2234848484848484</v>
       </c>
       <c r="AA119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.27797833935018046</v>
       </c>
       <c r="AB119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.3441558441558441</v>
       </c>
       <c r="AC119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.34420289855072461</v>
       </c>
       <c r="AD119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.34984520123839014</v>
       </c>
       <c r="AE119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.33050847457627119</v>
       </c>
       <c r="AF119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.25120772946859904</v>
       </c>
       <c r="AG119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.3504043126684635</v>
       </c>
       <c r="AH119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.17889908256880727</v>
       </c>
       <c r="AI119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>9.3418259023354544E-2</v>
       </c>
       <c r="AJ119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>6.370656370656369E-2</v>
       </c>
       <c r="AK119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.12175648702594821</v>
       </c>
       <c r="AL119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.29571984435797671</v>
       </c>
       <c r="AM119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.36116504854368925</v>
       </c>
       <c r="AN119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.20508166969147013</v>
       </c>
       <c r="AO119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.13879003558718872</v>
       </c>
       <c r="AP119" s="106">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0.11261261261261257</v>
       </c>
       <c r="AQ119" s="106"/>
@@ -43758,13 +43842,13 @@
       <c r="CV119" s="106"/>
       <c r="CW119" s="106"/>
       <c r="CX119" s="106"/>
-      <c r="CY119" s="106"/>
-      <c r="CZ119" s="106"/>
-      <c r="DA119" s="106"/>
-      <c r="DB119" s="106"/>
-      <c r="DC119" s="106"/>
-      <c r="DD119" s="105"/>
-      <c r="DE119" s="105"/>
+      <c r="CY119" s="174"/>
+      <c r="CZ119" s="174"/>
+      <c r="DA119" s="174"/>
+      <c r="DB119" s="174"/>
+      <c r="DC119" s="174"/>
+      <c r="DD119" s="175"/>
+      <c r="DE119" s="175"/>
       <c r="DF119" s="107"/>
       <c r="DG119" s="105"/>
       <c r="DH119" s="105"/>
@@ -43946,13 +44030,13 @@
       <c r="CV122" s="76"/>
       <c r="CW122" s="76"/>
       <c r="CX122" s="76"/>
-      <c r="CY122" s="76"/>
-      <c r="CZ122" s="76"/>
-      <c r="DA122" s="34"/>
-      <c r="DB122" s="34"/>
-      <c r="DC122" s="34"/>
-      <c r="DD122" s="34"/>
-      <c r="DE122" s="34"/>
+      <c r="CY122" s="167"/>
+      <c r="CZ122" s="167"/>
+      <c r="DA122" s="167"/>
+      <c r="DB122" s="167"/>
+      <c r="DC122" s="167"/>
+      <c r="DD122" s="167"/>
+      <c r="DE122" s="167"/>
       <c r="DF122" s="34"/>
       <c r="DG122" s="34"/>
       <c r="DH122" s="34"/>
@@ -44096,13 +44180,13 @@
       <c r="CV123" s="76"/>
       <c r="CW123" s="76"/>
       <c r="CX123" s="76"/>
-      <c r="CY123" s="76"/>
-      <c r="CZ123" s="76"/>
-      <c r="DA123" s="34"/>
-      <c r="DB123" s="34"/>
-      <c r="DC123" s="34"/>
-      <c r="DD123" s="34"/>
-      <c r="DE123" s="34"/>
+      <c r="CY123" s="167"/>
+      <c r="CZ123" s="167"/>
+      <c r="DA123" s="167"/>
+      <c r="DB123" s="167"/>
+      <c r="DC123" s="167"/>
+      <c r="DD123" s="167"/>
+      <c r="DE123" s="167"/>
       <c r="DF123" s="34"/>
       <c r="DG123" s="34"/>
       <c r="DH123" s="34"/>
@@ -44233,13 +44317,13 @@
       <c r="CV124" s="76"/>
       <c r="CW124" s="76"/>
       <c r="CX124" s="76"/>
-      <c r="CY124" s="76"/>
-      <c r="CZ124" s="76"/>
-      <c r="DA124" s="34"/>
-      <c r="DB124" s="34"/>
-      <c r="DC124" s="34"/>
-      <c r="DD124" s="34"/>
-      <c r="DE124" s="34"/>
+      <c r="CY124" s="167"/>
+      <c r="CZ124" s="167"/>
+      <c r="DA124" s="167"/>
+      <c r="DB124" s="167"/>
+      <c r="DC124" s="167"/>
+      <c r="DD124" s="167"/>
+      <c r="DE124" s="167"/>
       <c r="DF124" s="34"/>
       <c r="DG124" s="34"/>
       <c r="DH124" s="34"/>
@@ -44381,13 +44465,13 @@
       <c r="CV125" s="76"/>
       <c r="CW125" s="76"/>
       <c r="CX125" s="76"/>
-      <c r="CY125" s="76"/>
-      <c r="CZ125" s="76"/>
-      <c r="DA125" s="34"/>
-      <c r="DB125" s="34"/>
-      <c r="DC125" s="34"/>
-      <c r="DD125" s="34"/>
-      <c r="DE125" s="34"/>
+      <c r="CY125" s="167"/>
+      <c r="CZ125" s="167"/>
+      <c r="DA125" s="167"/>
+      <c r="DB125" s="167"/>
+      <c r="DC125" s="167"/>
+      <c r="DD125" s="167"/>
+      <c r="DE125" s="167"/>
       <c r="DF125" s="34"/>
       <c r="DG125" s="34"/>
       <c r="DH125" s="34"/>
@@ -44525,13 +44609,13 @@
       <c r="CV126" s="76"/>
       <c r="CW126" s="76"/>
       <c r="CX126" s="76"/>
-      <c r="CY126" s="76"/>
-      <c r="CZ126" s="76"/>
-      <c r="DA126" s="34"/>
-      <c r="DB126" s="34"/>
-      <c r="DC126" s="34"/>
-      <c r="DD126" s="34"/>
-      <c r="DE126" s="34"/>
+      <c r="CY126" s="167"/>
+      <c r="CZ126" s="167"/>
+      <c r="DA126" s="167"/>
+      <c r="DB126" s="167"/>
+      <c r="DC126" s="167"/>
+      <c r="DD126" s="167"/>
+      <c r="DE126" s="167"/>
       <c r="DF126" s="34"/>
       <c r="DG126" s="34"/>
       <c r="DH126" s="34"/>
@@ -44661,13 +44745,13 @@
       <c r="CV127" s="76"/>
       <c r="CW127" s="76"/>
       <c r="CX127" s="76"/>
-      <c r="CY127" s="76"/>
-      <c r="CZ127" s="76"/>
-      <c r="DA127" s="34"/>
-      <c r="DB127" s="34"/>
-      <c r="DC127" s="34"/>
-      <c r="DD127" s="34"/>
-      <c r="DE127" s="34"/>
+      <c r="CY127" s="167"/>
+      <c r="CZ127" s="167"/>
+      <c r="DA127" s="167"/>
+      <c r="DB127" s="167"/>
+      <c r="DC127" s="167"/>
+      <c r="DD127" s="167"/>
+      <c r="DE127" s="167"/>
       <c r="DF127" s="34"/>
       <c r="DG127" s="34"/>
       <c r="DH127" s="34"/>
@@ -44811,13 +44895,13 @@
       <c r="CV128" s="76"/>
       <c r="CW128" s="76"/>
       <c r="CX128" s="76"/>
-      <c r="CY128" s="76"/>
-      <c r="CZ128" s="76"/>
-      <c r="DA128" s="34"/>
-      <c r="DB128" s="34"/>
-      <c r="DC128" s="34"/>
-      <c r="DD128" s="34"/>
-      <c r="DE128" s="34"/>
+      <c r="CY128" s="167"/>
+      <c r="CZ128" s="167"/>
+      <c r="DA128" s="167"/>
+      <c r="DB128" s="167"/>
+      <c r="DC128" s="167"/>
+      <c r="DD128" s="167"/>
+      <c r="DE128" s="167"/>
       <c r="DF128" s="34"/>
       <c r="DG128" s="34"/>
       <c r="DH128" s="34"/>
@@ -44951,13 +45035,13 @@
       <c r="CV129" s="76"/>
       <c r="CW129" s="76"/>
       <c r="CX129" s="76"/>
-      <c r="CY129" s="76"/>
-      <c r="CZ129" s="76"/>
-      <c r="DA129" s="34"/>
-      <c r="DB129" s="34"/>
-      <c r="DC129" s="34"/>
-      <c r="DD129" s="34"/>
-      <c r="DE129" s="34"/>
+      <c r="CY129" s="167"/>
+      <c r="CZ129" s="167"/>
+      <c r="DA129" s="167"/>
+      <c r="DB129" s="167"/>
+      <c r="DC129" s="167"/>
+      <c r="DD129" s="167"/>
+      <c r="DE129" s="167"/>
       <c r="DF129" s="34"/>
       <c r="DG129" s="34"/>
       <c r="DH129" s="34"/>
@@ -45095,13 +45179,13 @@
       <c r="CV130" s="76"/>
       <c r="CW130" s="76"/>
       <c r="CX130" s="76"/>
-      <c r="CY130" s="76"/>
-      <c r="CZ130" s="76"/>
-      <c r="DA130" s="34"/>
-      <c r="DB130" s="34"/>
-      <c r="DC130" s="34"/>
-      <c r="DD130" s="34"/>
-      <c r="DE130" s="34"/>
+      <c r="CY130" s="167"/>
+      <c r="CZ130" s="167"/>
+      <c r="DA130" s="167"/>
+      <c r="DB130" s="167"/>
+      <c r="DC130" s="167"/>
+      <c r="DD130" s="167"/>
+      <c r="DE130" s="167"/>
       <c r="DF130" s="34"/>
       <c r="DG130" s="34"/>
       <c r="DH130" s="34"/>
@@ -45245,13 +45329,13 @@
       <c r="CV131" s="76"/>
       <c r="CW131" s="76"/>
       <c r="CX131" s="76"/>
-      <c r="CY131" s="76"/>
-      <c r="CZ131" s="76"/>
-      <c r="DA131" s="34"/>
-      <c r="DB131" s="34"/>
-      <c r="DC131" s="34"/>
-      <c r="DD131" s="34"/>
-      <c r="DE131" s="34"/>
+      <c r="CY131" s="167"/>
+      <c r="CZ131" s="167"/>
+      <c r="DA131" s="167"/>
+      <c r="DB131" s="167"/>
+      <c r="DC131" s="167"/>
+      <c r="DD131" s="167"/>
+      <c r="DE131" s="167"/>
       <c r="DF131" s="34"/>
       <c r="DG131" s="34"/>
       <c r="DH131" s="34"/>
@@ -45408,13 +45492,13 @@
       <c r="CV133" s="76"/>
       <c r="CW133" s="76"/>
       <c r="CX133" s="76"/>
-      <c r="CY133" s="76"/>
-      <c r="CZ133" s="76"/>
-      <c r="DA133" s="34"/>
-      <c r="DB133" s="34"/>
-      <c r="DC133" s="34"/>
-      <c r="DD133" s="34"/>
-      <c r="DE133" s="34"/>
+      <c r="CY133" s="167"/>
+      <c r="CZ133" s="167"/>
+      <c r="DA133" s="167"/>
+      <c r="DB133" s="167"/>
+      <c r="DC133" s="167"/>
+      <c r="DD133" s="167"/>
+      <c r="DE133" s="167"/>
       <c r="DF133" s="34"/>
       <c r="DG133" s="34"/>
       <c r="DH133" s="34"/>
@@ -45551,13 +45635,13 @@
       <c r="CV134" s="76"/>
       <c r="CW134" s="76"/>
       <c r="CX134" s="76"/>
-      <c r="CY134" s="76"/>
-      <c r="CZ134" s="76"/>
-      <c r="DA134" s="34"/>
-      <c r="DB134" s="34"/>
-      <c r="DC134" s="34"/>
-      <c r="DD134" s="34"/>
-      <c r="DE134" s="34"/>
+      <c r="CY134" s="167"/>
+      <c r="CZ134" s="167"/>
+      <c r="DA134" s="167"/>
+      <c r="DB134" s="167"/>
+      <c r="DC134" s="167"/>
+      <c r="DD134" s="167"/>
+      <c r="DE134" s="167"/>
       <c r="DF134" s="34"/>
       <c r="DG134" s="34"/>
       <c r="DH134" s="34"/>
@@ -45687,13 +45771,13 @@
       <c r="CV135" s="76"/>
       <c r="CW135" s="76"/>
       <c r="CX135" s="76"/>
-      <c r="CY135" s="76"/>
-      <c r="CZ135" s="76"/>
-      <c r="DA135" s="34"/>
-      <c r="DB135" s="34"/>
-      <c r="DC135" s="34"/>
-      <c r="DD135" s="34"/>
-      <c r="DE135" s="34"/>
+      <c r="CY135" s="167"/>
+      <c r="CZ135" s="167"/>
+      <c r="DA135" s="167"/>
+      <c r="DB135" s="167"/>
+      <c r="DC135" s="167"/>
+      <c r="DD135" s="167"/>
+      <c r="DE135" s="167"/>
       <c r="DF135" s="34"/>
       <c r="DG135" s="34"/>
       <c r="DH135" s="34"/>
@@ -45836,13 +45920,13 @@
       <c r="CV136" s="76"/>
       <c r="CW136" s="76"/>
       <c r="CX136" s="76"/>
-      <c r="CY136" s="76"/>
-      <c r="CZ136" s="76"/>
-      <c r="DA136" s="34"/>
-      <c r="DB136" s="34"/>
-      <c r="DC136" s="34"/>
-      <c r="DD136" s="34"/>
-      <c r="DE136" s="34"/>
+      <c r="CY136" s="167"/>
+      <c r="CZ136" s="167"/>
+      <c r="DA136" s="167"/>
+      <c r="DB136" s="167"/>
+      <c r="DC136" s="167"/>
+      <c r="DD136" s="167"/>
+      <c r="DE136" s="167"/>
       <c r="DF136" s="34"/>
       <c r="DG136" s="34"/>
       <c r="DH136" s="34"/>
@@ -45986,13 +46070,13 @@
       <c r="CV137" s="76"/>
       <c r="CW137" s="76"/>
       <c r="CX137" s="76"/>
-      <c r="CY137" s="76"/>
-      <c r="CZ137" s="76"/>
-      <c r="DA137" s="34"/>
-      <c r="DB137" s="34"/>
-      <c r="DC137" s="34"/>
-      <c r="DD137" s="34"/>
-      <c r="DE137" s="34"/>
+      <c r="CY137" s="167"/>
+      <c r="CZ137" s="167"/>
+      <c r="DA137" s="167"/>
+      <c r="DB137" s="167"/>
+      <c r="DC137" s="167"/>
+      <c r="DD137" s="167"/>
+      <c r="DE137" s="167"/>
       <c r="DF137" s="34"/>
       <c r="DG137" s="34"/>
       <c r="DH137" s="34"/>
@@ -46130,13 +46214,13 @@
       <c r="CV138" s="76"/>
       <c r="CW138" s="76"/>
       <c r="CX138" s="76"/>
-      <c r="CY138" s="76"/>
-      <c r="CZ138" s="76"/>
-      <c r="DA138" s="34"/>
-      <c r="DB138" s="34"/>
-      <c r="DC138" s="34"/>
-      <c r="DD138" s="34"/>
-      <c r="DE138" s="34"/>
+      <c r="CY138" s="167"/>
+      <c r="CZ138" s="167"/>
+      <c r="DA138" s="167"/>
+      <c r="DB138" s="167"/>
+      <c r="DC138" s="167"/>
+      <c r="DD138" s="167"/>
+      <c r="DE138" s="167"/>
       <c r="DF138" s="34"/>
       <c r="DG138" s="34"/>
       <c r="DH138" s="34"/>
@@ -46278,13 +46362,13 @@
       <c r="CV139" s="76"/>
       <c r="CW139" s="76"/>
       <c r="CX139" s="76"/>
-      <c r="CY139" s="76"/>
-      <c r="CZ139" s="76"/>
-      <c r="DA139" s="34"/>
-      <c r="DB139" s="34"/>
-      <c r="DC139" s="34"/>
-      <c r="DD139" s="34"/>
-      <c r="DE139" s="34"/>
+      <c r="CY139" s="167"/>
+      <c r="CZ139" s="167"/>
+      <c r="DA139" s="167"/>
+      <c r="DB139" s="167"/>
+      <c r="DC139" s="167"/>
+      <c r="DD139" s="167"/>
+      <c r="DE139" s="167"/>
       <c r="DF139" s="34"/>
       <c r="DG139" s="34"/>
       <c r="DH139" s="34"/>
@@ -46416,13 +46500,13 @@
       <c r="CV140" s="76"/>
       <c r="CW140" s="76"/>
       <c r="CX140" s="76"/>
-      <c r="CY140" s="76"/>
-      <c r="CZ140" s="76"/>
-      <c r="DA140" s="34"/>
-      <c r="DB140" s="34"/>
-      <c r="DC140" s="34"/>
-      <c r="DD140" s="34"/>
-      <c r="DE140" s="34"/>
+      <c r="CY140" s="167"/>
+      <c r="CZ140" s="167"/>
+      <c r="DA140" s="167"/>
+      <c r="DB140" s="167"/>
+      <c r="DC140" s="167"/>
+      <c r="DD140" s="167"/>
+      <c r="DE140" s="167"/>
       <c r="DF140" s="34"/>
       <c r="DG140" s="34"/>
       <c r="DH140" s="34"/>
@@ -46560,13 +46644,13 @@
       <c r="CV141" s="76"/>
       <c r="CW141" s="76"/>
       <c r="CX141" s="76"/>
-      <c r="CY141" s="76"/>
-      <c r="CZ141" s="76"/>
-      <c r="DA141" s="34"/>
-      <c r="DB141" s="34"/>
-      <c r="DC141" s="34"/>
-      <c r="DD141" s="34"/>
-      <c r="DE141" s="34"/>
+      <c r="CY141" s="167"/>
+      <c r="CZ141" s="167"/>
+      <c r="DA141" s="167"/>
+      <c r="DB141" s="167"/>
+      <c r="DC141" s="167"/>
+      <c r="DD141" s="167"/>
+      <c r="DE141" s="167"/>
       <c r="DF141" s="34"/>
       <c r="DG141" s="34"/>
       <c r="DH141" s="34"/>
@@ -46710,13 +46794,13 @@
       <c r="CV142" s="76"/>
       <c r="CW142" s="76"/>
       <c r="CX142" s="76"/>
-      <c r="CY142" s="76"/>
-      <c r="CZ142" s="76"/>
-      <c r="DA142" s="34"/>
-      <c r="DB142" s="34"/>
-      <c r="DC142" s="34"/>
-      <c r="DD142" s="34"/>
-      <c r="DE142" s="34"/>
+      <c r="CY142" s="167"/>
+      <c r="CZ142" s="167"/>
+      <c r="DA142" s="167"/>
+      <c r="DB142" s="167"/>
+      <c r="DC142" s="167"/>
+      <c r="DD142" s="167"/>
+      <c r="DE142" s="167"/>
       <c r="DF142" s="34"/>
       <c r="DG142" s="34"/>
       <c r="DH142" s="34"/>
@@ -46848,13 +46932,13 @@
       <c r="CV144" s="76"/>
       <c r="CW144" s="76"/>
       <c r="CX144" s="76"/>
-      <c r="CY144" s="76"/>
-      <c r="CZ144" s="76"/>
-      <c r="DA144" s="34"/>
-      <c r="DB144" s="34"/>
-      <c r="DC144" s="34"/>
-      <c r="DD144" s="34"/>
-      <c r="DE144" s="34"/>
+      <c r="CY144" s="167"/>
+      <c r="CZ144" s="167"/>
+      <c r="DA144" s="167"/>
+      <c r="DB144" s="167"/>
+      <c r="DC144" s="167"/>
+      <c r="DD144" s="167"/>
+      <c r="DE144" s="167"/>
       <c r="DF144" s="34"/>
       <c r="DG144" s="34"/>
       <c r="DH144" s="34"/>
@@ -46986,13 +47070,13 @@
       <c r="CV145" s="76"/>
       <c r="CW145" s="76"/>
       <c r="CX145" s="76"/>
-      <c r="CY145" s="76"/>
-      <c r="CZ145" s="76"/>
-      <c r="DA145" s="34"/>
-      <c r="DB145" s="34"/>
-      <c r="DC145" s="34"/>
-      <c r="DD145" s="34"/>
-      <c r="DE145" s="34"/>
+      <c r="CY145" s="167"/>
+      <c r="CZ145" s="167"/>
+      <c r="DA145" s="167"/>
+      <c r="DB145" s="167"/>
+      <c r="DC145" s="167"/>
+      <c r="DD145" s="167"/>
+      <c r="DE145" s="167"/>
       <c r="DF145" s="34"/>
       <c r="DG145" s="34"/>
       <c r="DH145" s="34"/>
@@ -47124,13 +47208,13 @@
       <c r="CV146" s="76"/>
       <c r="CW146" s="76"/>
       <c r="CX146" s="76"/>
-      <c r="CY146" s="76"/>
-      <c r="CZ146" s="76"/>
-      <c r="DA146" s="34"/>
-      <c r="DB146" s="34"/>
-      <c r="DC146" s="34"/>
-      <c r="DD146" s="34"/>
-      <c r="DE146" s="34"/>
+      <c r="CY146" s="167"/>
+      <c r="CZ146" s="167"/>
+      <c r="DA146" s="167"/>
+      <c r="DB146" s="167"/>
+      <c r="DC146" s="167"/>
+      <c r="DD146" s="167"/>
+      <c r="DE146" s="167"/>
       <c r="DF146" s="34"/>
       <c r="DG146" s="34"/>
       <c r="DH146" s="34"/>
@@ -47262,13 +47346,13 @@
       <c r="CV147" s="76"/>
       <c r="CW147" s="76"/>
       <c r="CX147" s="76"/>
-      <c r="CY147" s="76"/>
-      <c r="CZ147" s="76"/>
-      <c r="DA147" s="34"/>
-      <c r="DB147" s="34"/>
-      <c r="DC147" s="34"/>
-      <c r="DD147" s="34"/>
-      <c r="DE147" s="34"/>
+      <c r="CY147" s="167"/>
+      <c r="CZ147" s="167"/>
+      <c r="DA147" s="167"/>
+      <c r="DB147" s="167"/>
+      <c r="DC147" s="167"/>
+      <c r="DD147" s="167"/>
+      <c r="DE147" s="167"/>
       <c r="DF147" s="34"/>
       <c r="DG147" s="34"/>
       <c r="DH147" s="34"/>
@@ -47400,13 +47484,13 @@
       <c r="CV148" s="76"/>
       <c r="CW148" s="76"/>
       <c r="CX148" s="76"/>
-      <c r="CY148" s="76"/>
-      <c r="CZ148" s="76"/>
-      <c r="DA148" s="34"/>
-      <c r="DB148" s="34"/>
-      <c r="DC148" s="34"/>
-      <c r="DD148" s="34"/>
-      <c r="DE148" s="34"/>
+      <c r="CY148" s="167"/>
+      <c r="CZ148" s="167"/>
+      <c r="DA148" s="167"/>
+      <c r="DB148" s="167"/>
+      <c r="DC148" s="167"/>
+      <c r="DD148" s="167"/>
+      <c r="DE148" s="167"/>
       <c r="DF148" s="34"/>
       <c r="DG148" s="34"/>
       <c r="DH148" s="34"/>
@@ -47538,13 +47622,13 @@
       <c r="CV149" s="76"/>
       <c r="CW149" s="76"/>
       <c r="CX149" s="76"/>
-      <c r="CY149" s="76"/>
-      <c r="CZ149" s="76"/>
-      <c r="DA149" s="34"/>
-      <c r="DB149" s="34"/>
-      <c r="DC149" s="34"/>
-      <c r="DD149" s="34"/>
-      <c r="DE149" s="34"/>
+      <c r="CY149" s="167"/>
+      <c r="CZ149" s="167"/>
+      <c r="DA149" s="167"/>
+      <c r="DB149" s="167"/>
+      <c r="DC149" s="167"/>
+      <c r="DD149" s="167"/>
+      <c r="DE149" s="167"/>
       <c r="DF149" s="34"/>
       <c r="DG149" s="34"/>
       <c r="DH149" s="34"/>
@@ -47676,13 +47760,13 @@
       <c r="CV150" s="76"/>
       <c r="CW150" s="76"/>
       <c r="CX150" s="76"/>
-      <c r="CY150" s="76"/>
-      <c r="CZ150" s="76"/>
-      <c r="DA150" s="34"/>
-      <c r="DB150" s="34"/>
-      <c r="DC150" s="34"/>
-      <c r="DD150" s="34"/>
-      <c r="DE150" s="34"/>
+      <c r="CY150" s="167"/>
+      <c r="CZ150" s="167"/>
+      <c r="DA150" s="167"/>
+      <c r="DB150" s="167"/>
+      <c r="DC150" s="167"/>
+      <c r="DD150" s="167"/>
+      <c r="DE150" s="167"/>
       <c r="DF150" s="34"/>
       <c r="DG150" s="34"/>
       <c r="DH150" s="34"/>
@@ -47814,13 +47898,13 @@
       <c r="CV151" s="76"/>
       <c r="CW151" s="76"/>
       <c r="CX151" s="76"/>
-      <c r="CY151" s="76"/>
-      <c r="CZ151" s="76"/>
-      <c r="DA151" s="34"/>
-      <c r="DB151" s="34"/>
-      <c r="DC151" s="34"/>
-      <c r="DD151" s="34"/>
-      <c r="DE151" s="34"/>
+      <c r="CY151" s="167"/>
+      <c r="CZ151" s="167"/>
+      <c r="DA151" s="167"/>
+      <c r="DB151" s="167"/>
+      <c r="DC151" s="167"/>
+      <c r="DD151" s="167"/>
+      <c r="DE151" s="167"/>
       <c r="DF151" s="34"/>
       <c r="DG151" s="34"/>
       <c r="DH151" s="34"/>
@@ -47952,13 +48036,13 @@
       <c r="CV152" s="76"/>
       <c r="CW152" s="76"/>
       <c r="CX152" s="76"/>
-      <c r="CY152" s="76"/>
-      <c r="CZ152" s="76"/>
-      <c r="DA152" s="34"/>
-      <c r="DB152" s="34"/>
-      <c r="DC152" s="34"/>
-      <c r="DD152" s="34"/>
-      <c r="DE152" s="34"/>
+      <c r="CY152" s="167"/>
+      <c r="CZ152" s="167"/>
+      <c r="DA152" s="167"/>
+      <c r="DB152" s="167"/>
+      <c r="DC152" s="167"/>
+      <c r="DD152" s="167"/>
+      <c r="DE152" s="167"/>
       <c r="DF152" s="34"/>
       <c r="DG152" s="34"/>
       <c r="DH152" s="34"/>
@@ -48090,13 +48174,13 @@
       <c r="CV153" s="76"/>
       <c r="CW153" s="76"/>
       <c r="CX153" s="76"/>
-      <c r="CY153" s="76"/>
-      <c r="CZ153" s="76"/>
-      <c r="DA153" s="34"/>
-      <c r="DB153" s="34"/>
-      <c r="DC153" s="34"/>
-      <c r="DD153" s="34"/>
-      <c r="DE153" s="34"/>
+      <c r="CY153" s="167"/>
+      <c r="CZ153" s="167"/>
+      <c r="DA153" s="167"/>
+      <c r="DB153" s="167"/>
+      <c r="DC153" s="167"/>
+      <c r="DD153" s="167"/>
+      <c r="DE153" s="167"/>
       <c r="DF153" s="34"/>
       <c r="DG153" s="34"/>
       <c r="DH153" s="34"/>
@@ -48228,13 +48312,13 @@
       <c r="CV154" s="76"/>
       <c r="CW154" s="76"/>
       <c r="CX154" s="76"/>
-      <c r="CY154" s="76"/>
-      <c r="CZ154" s="76"/>
-      <c r="DA154" s="34"/>
-      <c r="DB154" s="34"/>
-      <c r="DC154" s="34"/>
-      <c r="DD154" s="34"/>
-      <c r="DE154" s="34"/>
+      <c r="CY154" s="167"/>
+      <c r="CZ154" s="167"/>
+      <c r="DA154" s="167"/>
+      <c r="DB154" s="167"/>
+      <c r="DC154" s="167"/>
+      <c r="DD154" s="167"/>
+      <c r="DE154" s="167"/>
       <c r="DF154" s="34"/>
       <c r="DG154" s="34"/>
       <c r="DH154" s="34"/>
@@ -48368,13 +48452,13 @@
       <c r="CV155" s="76"/>
       <c r="CW155" s="76"/>
       <c r="CX155" s="76"/>
-      <c r="CY155" s="76"/>
-      <c r="CZ155" s="76"/>
-      <c r="DA155" s="34"/>
-      <c r="DB155" s="34"/>
-      <c r="DC155" s="34"/>
-      <c r="DD155" s="34"/>
-      <c r="DE155" s="34"/>
+      <c r="CY155" s="167"/>
+      <c r="CZ155" s="167"/>
+      <c r="DA155" s="167"/>
+      <c r="DB155" s="167"/>
+      <c r="DC155" s="167"/>
+      <c r="DD155" s="167"/>
+      <c r="DE155" s="167"/>
       <c r="DF155" s="34"/>
       <c r="DG155" s="34"/>
       <c r="DH155" s="34"/>
@@ -48511,13 +48595,13 @@
       <c r="CV157" s="76"/>
       <c r="CW157" s="76"/>
       <c r="CX157" s="76"/>
-      <c r="CY157" s="76"/>
-      <c r="CZ157" s="76"/>
-      <c r="DA157" s="34"/>
-      <c r="DB157" s="34"/>
-      <c r="DC157" s="34"/>
-      <c r="DD157" s="34"/>
-      <c r="DE157" s="34"/>
+      <c r="CY157" s="167"/>
+      <c r="CZ157" s="167"/>
+      <c r="DA157" s="167"/>
+      <c r="DB157" s="167"/>
+      <c r="DC157" s="167"/>
+      <c r="DD157" s="167"/>
+      <c r="DE157" s="167"/>
       <c r="DF157" s="34"/>
       <c r="DG157" s="34"/>
       <c r="DH157" s="34"/>
@@ -48649,13 +48733,13 @@
       <c r="CV158" s="76"/>
       <c r="CW158" s="76"/>
       <c r="CX158" s="76"/>
-      <c r="CY158" s="76"/>
-      <c r="CZ158" s="76"/>
-      <c r="DA158" s="34"/>
-      <c r="DB158" s="34"/>
-      <c r="DC158" s="34"/>
-      <c r="DD158" s="34"/>
-      <c r="DE158" s="34"/>
+      <c r="CY158" s="167"/>
+      <c r="CZ158" s="167"/>
+      <c r="DA158" s="167"/>
+      <c r="DB158" s="167"/>
+      <c r="DC158" s="167"/>
+      <c r="DD158" s="167"/>
+      <c r="DE158" s="167"/>
       <c r="DF158" s="34"/>
       <c r="DG158" s="34"/>
       <c r="DH158" s="34"/>
@@ -48787,13 +48871,13 @@
       <c r="CV159" s="76"/>
       <c r="CW159" s="76"/>
       <c r="CX159" s="76"/>
-      <c r="CY159" s="76"/>
-      <c r="CZ159" s="76"/>
-      <c r="DA159" s="34"/>
-      <c r="DB159" s="34"/>
-      <c r="DC159" s="34"/>
-      <c r="DD159" s="34"/>
-      <c r="DE159" s="34"/>
+      <c r="CY159" s="167"/>
+      <c r="CZ159" s="167"/>
+      <c r="DA159" s="167"/>
+      <c r="DB159" s="167"/>
+      <c r="DC159" s="167"/>
+      <c r="DD159" s="167"/>
+      <c r="DE159" s="167"/>
       <c r="DF159" s="34"/>
       <c r="DG159" s="34"/>
       <c r="DH159" s="34"/>
@@ -48922,13 +49006,13 @@
       <c r="CV160" s="76"/>
       <c r="CW160" s="76"/>
       <c r="CX160" s="76"/>
-      <c r="CY160" s="76"/>
-      <c r="CZ160" s="76"/>
-      <c r="DA160" s="34"/>
-      <c r="DB160" s="34"/>
-      <c r="DC160" s="34"/>
-      <c r="DD160" s="34"/>
-      <c r="DE160" s="34"/>
+      <c r="CY160" s="167"/>
+      <c r="CZ160" s="167"/>
+      <c r="DA160" s="167"/>
+      <c r="DB160" s="167"/>
+      <c r="DC160" s="167"/>
+      <c r="DD160" s="167"/>
+      <c r="DE160" s="167"/>
       <c r="DF160" s="34"/>
       <c r="DG160" s="34"/>
       <c r="DH160" s="34"/>
@@ -49060,13 +49144,13 @@
       <c r="CV161" s="76"/>
       <c r="CW161" s="76"/>
       <c r="CX161" s="76"/>
-      <c r="CY161" s="76"/>
-      <c r="CZ161" s="76"/>
-      <c r="DA161" s="34"/>
-      <c r="DB161" s="34"/>
-      <c r="DC161" s="34"/>
-      <c r="DD161" s="34"/>
-      <c r="DE161" s="34"/>
+      <c r="CY161" s="167"/>
+      <c r="CZ161" s="167"/>
+      <c r="DA161" s="167"/>
+      <c r="DB161" s="167"/>
+      <c r="DC161" s="167"/>
+      <c r="DD161" s="167"/>
+      <c r="DE161" s="167"/>
       <c r="DF161" s="34"/>
       <c r="DG161" s="34"/>
       <c r="DH161" s="34"/>
@@ -49200,13 +49284,13 @@
       <c r="CV162" s="76"/>
       <c r="CW162" s="76"/>
       <c r="CX162" s="76"/>
-      <c r="CY162" s="76"/>
-      <c r="CZ162" s="76"/>
-      <c r="DA162" s="34"/>
-      <c r="DB162" s="34"/>
-      <c r="DC162" s="34"/>
-      <c r="DD162" s="34"/>
-      <c r="DE162" s="34"/>
+      <c r="CY162" s="167"/>
+      <c r="CZ162" s="167"/>
+      <c r="DA162" s="167"/>
+      <c r="DB162" s="167"/>
+      <c r="DC162" s="167"/>
+      <c r="DD162" s="167"/>
+      <c r="DE162" s="167"/>
       <c r="DF162" s="34"/>
       <c r="DG162" s="34"/>
       <c r="DH162" s="34"/>
@@ -49338,13 +49422,13 @@
       <c r="CV163" s="76"/>
       <c r="CW163" s="76"/>
       <c r="CX163" s="76"/>
-      <c r="CY163" s="76"/>
-      <c r="CZ163" s="76"/>
-      <c r="DA163" s="34"/>
-      <c r="DB163" s="34"/>
-      <c r="DC163" s="34"/>
-      <c r="DD163" s="34"/>
-      <c r="DE163" s="34"/>
+      <c r="CY163" s="167"/>
+      <c r="CZ163" s="167"/>
+      <c r="DA163" s="167"/>
+      <c r="DB163" s="167"/>
+      <c r="DC163" s="167"/>
+      <c r="DD163" s="167"/>
+      <c r="DE163" s="167"/>
       <c r="DF163" s="34"/>
       <c r="DG163" s="34"/>
       <c r="DH163" s="34"/>
@@ -49468,13 +49552,13 @@
       <c r="CV164" s="76"/>
       <c r="CW164" s="76"/>
       <c r="CX164" s="76"/>
-      <c r="CY164" s="76"/>
-      <c r="CZ164" s="76"/>
-      <c r="DA164" s="34"/>
-      <c r="DB164" s="34"/>
-      <c r="DC164" s="34"/>
-      <c r="DD164" s="34"/>
-      <c r="DE164" s="34"/>
+      <c r="CY164" s="167"/>
+      <c r="CZ164" s="167"/>
+      <c r="DA164" s="167"/>
+      <c r="DB164" s="167"/>
+      <c r="DC164" s="167"/>
+      <c r="DD164" s="167"/>
+      <c r="DE164" s="167"/>
       <c r="DF164" s="34"/>
       <c r="DG164" s="34"/>
       <c r="DH164" s="34"/>
@@ -49605,13 +49689,13 @@
       <c r="CV165" s="76"/>
       <c r="CW165" s="76"/>
       <c r="CX165" s="76"/>
-      <c r="CY165" s="76"/>
-      <c r="CZ165" s="76"/>
-      <c r="DA165" s="34"/>
-      <c r="DB165" s="34"/>
-      <c r="DC165" s="34"/>
-      <c r="DD165" s="34"/>
-      <c r="DE165" s="34"/>
+      <c r="CY165" s="167"/>
+      <c r="CZ165" s="167"/>
+      <c r="DA165" s="167"/>
+      <c r="DB165" s="167"/>
+      <c r="DC165" s="167"/>
+      <c r="DD165" s="167"/>
+      <c r="DE165" s="167"/>
       <c r="DF165" s="34"/>
       <c r="DG165" s="34"/>
       <c r="DH165" s="34"/>
@@ -49743,13 +49827,13 @@
       <c r="CV166" s="76"/>
       <c r="CW166" s="76"/>
       <c r="CX166" s="76"/>
-      <c r="CY166" s="76"/>
-      <c r="CZ166" s="76"/>
-      <c r="DA166" s="34"/>
-      <c r="DB166" s="34"/>
-      <c r="DC166" s="34"/>
-      <c r="DD166" s="34"/>
-      <c r="DE166" s="34"/>
+      <c r="CY166" s="167"/>
+      <c r="CZ166" s="167"/>
+      <c r="DA166" s="167"/>
+      <c r="DB166" s="167"/>
+      <c r="DC166" s="167"/>
+      <c r="DD166" s="167"/>
+      <c r="DE166" s="167"/>
       <c r="DF166" s="34"/>
       <c r="DG166" s="34"/>
       <c r="DH166" s="34"/>
@@ -49881,13 +49965,13 @@
       <c r="CV167" s="76"/>
       <c r="CW167" s="76"/>
       <c r="CX167" s="76"/>
-      <c r="CY167" s="76"/>
-      <c r="CZ167" s="76"/>
-      <c r="DA167" s="34"/>
-      <c r="DB167" s="34"/>
-      <c r="DC167" s="34"/>
-      <c r="DD167" s="34"/>
-      <c r="DE167" s="34"/>
+      <c r="CY167" s="167"/>
+      <c r="CZ167" s="167"/>
+      <c r="DA167" s="167"/>
+      <c r="DB167" s="167"/>
+      <c r="DC167" s="167"/>
+      <c r="DD167" s="167"/>
+      <c r="DE167" s="167"/>
       <c r="DF167" s="34"/>
       <c r="DG167" s="34"/>
       <c r="DH167" s="34"/>
@@ -50019,13 +50103,13 @@
       <c r="CV168" s="76"/>
       <c r="CW168" s="76"/>
       <c r="CX168" s="76"/>
-      <c r="CY168" s="76"/>
-      <c r="CZ168" s="76"/>
-      <c r="DA168" s="34"/>
-      <c r="DB168" s="34"/>
-      <c r="DC168" s="34"/>
-      <c r="DD168" s="34"/>
-      <c r="DE168" s="34"/>
+      <c r="CY168" s="167"/>
+      <c r="CZ168" s="167"/>
+      <c r="DA168" s="167"/>
+      <c r="DB168" s="167"/>
+      <c r="DC168" s="167"/>
+      <c r="DD168" s="167"/>
+      <c r="DE168" s="167"/>
       <c r="DF168" s="34"/>
       <c r="DG168" s="34"/>
       <c r="DH168" s="34"/>
@@ -50159,13 +50243,13 @@
       <c r="CV169" s="76"/>
       <c r="CW169" s="76"/>
       <c r="CX169" s="76"/>
-      <c r="CY169" s="76"/>
-      <c r="CZ169" s="76"/>
-      <c r="DA169" s="34"/>
-      <c r="DB169" s="34"/>
-      <c r="DC169" s="34"/>
-      <c r="DD169" s="34"/>
-      <c r="DE169" s="34"/>
+      <c r="CY169" s="167"/>
+      <c r="CZ169" s="167"/>
+      <c r="DA169" s="167"/>
+      <c r="DB169" s="167"/>
+      <c r="DC169" s="167"/>
+      <c r="DD169" s="167"/>
+      <c r="DE169" s="167"/>
       <c r="DF169" s="34"/>
       <c r="DG169" s="34"/>
       <c r="DH169" s="34"/>
@@ -50297,13 +50381,13 @@
       <c r="CV170" s="76"/>
       <c r="CW170" s="76"/>
       <c r="CX170" s="76"/>
-      <c r="CY170" s="76"/>
-      <c r="CZ170" s="76"/>
-      <c r="DA170" s="34"/>
-      <c r="DB170" s="34"/>
-      <c r="DC170" s="34"/>
-      <c r="DD170" s="34"/>
-      <c r="DE170" s="34"/>
+      <c r="CY170" s="167"/>
+      <c r="CZ170" s="167"/>
+      <c r="DA170" s="167"/>
+      <c r="DB170" s="167"/>
+      <c r="DC170" s="167"/>
+      <c r="DD170" s="167"/>
+      <c r="DE170" s="167"/>
       <c r="DF170" s="34"/>
       <c r="DG170" s="34"/>
       <c r="DH170" s="34"/>
@@ -50435,13 +50519,13 @@
       <c r="CV171" s="76"/>
       <c r="CW171" s="76"/>
       <c r="CX171" s="76"/>
-      <c r="CY171" s="76"/>
-      <c r="CZ171" s="76"/>
-      <c r="DA171" s="34"/>
-      <c r="DB171" s="34"/>
-      <c r="DC171" s="34"/>
-      <c r="DD171" s="34"/>
-      <c r="DE171" s="34"/>
+      <c r="CY171" s="167"/>
+      <c r="CZ171" s="167"/>
+      <c r="DA171" s="167"/>
+      <c r="DB171" s="167"/>
+      <c r="DC171" s="167"/>
+      <c r="DD171" s="167"/>
+      <c r="DE171" s="167"/>
       <c r="DF171" s="34"/>
       <c r="DG171" s="34"/>
       <c r="DH171" s="34"/>
@@ -50573,13 +50657,13 @@
       <c r="CV172" s="76"/>
       <c r="CW172" s="76"/>
       <c r="CX172" s="76"/>
-      <c r="CY172" s="76"/>
-      <c r="CZ172" s="76"/>
-      <c r="DA172" s="34"/>
-      <c r="DB172" s="34"/>
-      <c r="DC172" s="34"/>
-      <c r="DD172" s="34"/>
-      <c r="DE172" s="34"/>
+      <c r="CY172" s="167"/>
+      <c r="CZ172" s="167"/>
+      <c r="DA172" s="167"/>
+      <c r="DB172" s="167"/>
+      <c r="DC172" s="167"/>
+      <c r="DD172" s="167"/>
+      <c r="DE172" s="167"/>
       <c r="DF172" s="34"/>
       <c r="DG172" s="34"/>
       <c r="DH172" s="34"/>
@@ -50685,11 +50769,11 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50748,7 +50832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="A8" s="13"/>
       <c r="C8" s="18" t="s">
         <v>149</v>
@@ -50775,7 +50859,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="18" t="s">
         <v>144</v>
       </c>
@@ -50800,7 +50884,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" ht="13">
       <c r="C19" s="18" t="s">
         <v>143</v>
       </c>
@@ -50815,7 +50899,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" ht="13">
       <c r="C22" s="1" t="s">
         <v>142</v>
       </c>
@@ -50835,17 +50919,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" ht="13">
       <c r="C27" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" ht="13">
       <c r="C30" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" ht="13">
       <c r="C33" s="18" t="s">
         <v>157</v>
       </c>
@@ -50892,7 +50976,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -50932,12 +51016,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="121" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="121" t="s">
         <v>873</v>
       </c>
@@ -50957,7 +51041,7 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -51093,7 +51177,7 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -51143,7 +51227,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -51204,12 +51288,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="13">
       <c r="C9" s="121" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="13">
       <c r="C13" s="121" t="s">
         <v>673</v>
       </c>
@@ -51219,7 +51303,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="13">
       <c r="C15" s="95" t="s">
         <v>749</v>
       </c>
@@ -51228,7 +51312,7 @@
       <c r="C16" s="141"/>
       <c r="D16" s="141"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" ht="13">
       <c r="C17" s="121" t="s">
         <v>706</v>
       </c>
@@ -51335,7 +51419,7 @@
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -51431,11 +51515,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -51480,7 +51564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="121" t="s">
         <v>642</v>
       </c>
@@ -51493,7 +51577,7 @@
     <row r="9" spans="1:3">
       <c r="C9" s="120"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="121" t="s">
         <v>656</v>
       </c>
@@ -51508,7 +51592,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13">
       <c r="C15" s="121" t="s">
         <v>695</v>
       </c>
@@ -51518,28 +51602,28 @@
         <v>694</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="13">
       <c r="A18" s="95"/>
       <c r="C18" s="121" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="13">
       <c r="C20" s="121" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="13">
       <c r="C22" s="121" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="13">
       <c r="C24" s="121" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="13">
       <c r="C26" s="121" t="s">
         <v>753</v>
       </c>
@@ -51645,7 +51729,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -51682,7 +51766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="121" t="s">
         <v>753</v>
       </c>
@@ -51706,12 +51790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -51825,6 +51903,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -51835,15 +51919,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8771156D-B6D2-4C3E-9AA3-02F85B74489D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51859,6 +51934,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553A2183-5DA3-4AC7-A24E-386811F0FD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA31EBE-4993-4E59-ACFD-7F137917727B}">
   <ds:schemaRefs>
